--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -70,6 +70,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>客体必须保持自身的正确性，只能由</t>
     </r>
     <r>
@@ -77,6 +82,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>被授权的主体进行修改</t>
@@ -85,6 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。维护完整性意味着客体本身</t>
@@ -94,6 +101,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>不会被改变或篡改</t>
@@ -102,6 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -112,6 +121,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>必须对数据、客体和资源的访问进行适当控制。此外，应当使用活动日志记录，从而保证只有经过</t>
     </r>
     <r>
@@ -119,6 +133,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>授权的用户才能够访问资源</t>
@@ -127,6 +142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。这些措施包括：严格的访问控制、严密的身份认证过程、入侵检测系统、对客体/数据进行加密、</t>
@@ -136,6 +152,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>散列总和认证</t>
@@ -144,6 +161,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>、输入/功能检验。</t>
@@ -186,7 +204,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +221,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,121 +258,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,10 +290,91 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -369,181 +392,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,17 +664,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,15 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -700,6 +708,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,11 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,148 +766,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>章节</t>
   </si>
@@ -25,10 +25,13 @@
     <t>知识点</t>
   </si>
   <si>
+    <t>补充</t>
+  </si>
+  <si>
     <t>理解</t>
   </si>
   <si>
-    <t>1.1 理解和运用保密性、完整性和可用性的概念</t>
+    <t>1.2 理解和运用保密性、完整性和可用性的概念</t>
   </si>
   <si>
     <t>安全目标</t>
@@ -39,10 +42,13 @@
 3. 可用性 Availability</t>
   </si>
   <si>
+    <t>CIA</t>
+  </si>
+  <si>
     <t>机密性</t>
   </si>
   <si>
-    <t>限制未授权主体(subjects)不能访问数据、客体(objects)或资源提供了高级别保证。不能确保机密性，就会发生未授权泄露。</t>
+    <t>保护的目标是阻止或最小化未经授权的数据访问。</t>
   </si>
   <si>
     <t>维护机密性</t>
@@ -69,13 +75,17 @@
     <t>完整性</t>
   </si>
   <si>
+    <r>
+      <t>防止未经授权的数据更改</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>客体必须保持自身的正确性，只能由</t>
+      <t>。客体必须保持自身的正确性，只能由</t>
     </r>
     <r>
       <rPr>
@@ -117,16 +127,25 @@
     </r>
   </si>
   <si>
+    <t>1. 防止未经授权的主体进行修改
+2. 防止授权主体进行未经授权的修改，如引入错误
+3. 保持客体内外一致以使客体的数据能够真实反映现实世界，而且与任何子客体、对等客体或父客体的关系都是有效的、一致的和可验证的。</t>
+  </si>
+  <si>
     <t>维护完整性</t>
   </si>
   <si>
+    <r>
+      <t>完整性依赖于保密性</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>必须对数据、客体和资源的访问进行适当控制。此外，应当使用活动日志记录，从而保证只有经过</t>
+      <t>。必须对数据、客体和资源的访问进行适当控制。此外，应当使用活动日志记录，从而保证只有经过</t>
     </r>
     <r>
       <rPr>
@@ -191,7 +210,802 @@
     <t>维护可用性</t>
   </si>
   <si>
+    <t>确保被授权的访问和可接受的心梗等级、快速处理中断、提供冗余度、维持可靠的备份以及避免数据丢失或破坏。</t>
+  </si>
+  <si>
     <t>破坏可用性</t>
+  </si>
+  <si>
+    <t>包括设备故障、软件错误以及环境问题。针对可用性的其他攻击形式还包括DoS攻击、客体损坏和通信中断。</t>
+  </si>
+  <si>
+    <t>DAD三元素</t>
+  </si>
+  <si>
+    <t>Disclosure 泄露</t>
+  </si>
+  <si>
+    <t>代表 CIA 中安全保护的失败</t>
+  </si>
+  <si>
+    <t>Alteration 更改</t>
+  </si>
+  <si>
+    <t>Destruction 销毁</t>
+  </si>
+  <si>
+    <t>当敏感或机密材料被未经授权的实体访问时、就会发生泄露、这是对机密性的侵犯。</t>
+  </si>
+  <si>
+    <t>当数据被恶意或意外地改变时，就会发生更改、这是对完整性的侵犯。</t>
+  </si>
+  <si>
+    <t>当资源被损坏或授权用户无法访问时候、就会发生破坏（DoS）、这是对可用性的侵犯。</t>
+  </si>
+  <si>
+    <t>真实性 Authenticity</t>
+  </si>
+  <si>
+    <r>
+      <t>真实性是一个安全概念、即数据是真实的或真正的来自其声称的来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。与完整性有关、但它与验证它是来自生成的来源更密切相关。当数据具有真实性时、接受者可以有很高的信心、相信数据是来自它声称的来源、并且在运输（或存储）过程中没有变化。</t>
+    </r>
+  </si>
+  <si>
+    <t>不可否认 Non-repudiation</t>
+  </si>
+  <si>
+    <r>
+      <t>不可否认性确保活动或事件的主体无法否认所发生的事件。不可否认性能够防止主体宣传自己没有发送消息、没有执行过某项活动或者不是某个事件的起因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>身份标识、身份认证、授权、可问责性和审计使不可否认性成为可能。</t>
+  </si>
+  <si>
+    <r>
+      <t>通过使用数字签名、事务日志以及其他很多传输或访问控制机制、建立不可否认性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不可否认性是可问责性不可缺少的部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。如果嫌疑人能够否认指控，那么他的行为就无法被问责。</t>
+    </r>
+  </si>
+  <si>
+    <t>IAAAA 服务</t>
+  </si>
+  <si>
+    <r>
+      <t>身份标识（Identification）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：当试图访问受保护区域或系统时候声明身份</t>
+    </r>
+  </si>
+  <si>
+    <t>如果一个安全机制缺少这5个元素中的任何一个，这个机制就是不完整的。</t>
+  </si>
+  <si>
+    <r>
+      <t>身份认证（Authentication）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：证明身份</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>授权（Authorization）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：允许和拒绝对特定身份进行资源和客体的访问</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>审计（Audtioing）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 记录与系统和主体相关的事件和活动日志。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可问责性以及不可否认性（Accounting）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 记录与系统和主体相关的事件和活动日志审核日志文件，检查符合与违反行为以便主体可为自己的行为负责。</t>
+    </r>
+  </si>
+  <si>
+    <t>身份标识（Identification）</t>
+  </si>
+  <si>
+    <r>
+      <t>身份标识过程中，主体会表明身份，向系统提供身份，从而启动身份认证，授权和可问责性的过程。在获得授权访问受控资源之前，身份必须被证明或验证。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个过程称为身份认证。</t>
+    </r>
+  </si>
+  <si>
+    <t>键入用户名、智能卡、扫描设备。</t>
+  </si>
+  <si>
+    <t>身份认证（Authentication）</t>
+  </si>
+  <si>
+    <t>认证或测试所声明身份合法性的过程就是身份认证。身份认证要求来自主体的附加信息必须完全对应于被表明的身份。身份认证最常见形式是使用密码（包括密码的变化形式PIN和密码短语）。用于认证身份的身份认证因素通常被标记为或被视为私有信息。</t>
+  </si>
+  <si>
+    <t>身份标识和身份认证总是同时使用。缺一不可。</t>
+  </si>
+  <si>
+    <t>授权（Authorization）</t>
+  </si>
+  <si>
+    <t>一旦主体通过了身份认证，其访问还必须经过授权。授权的过程确保被请求的活动或客体访问，可以获得通过身份认证和指派的权利和特权。</t>
+  </si>
+  <si>
+    <t>虽然主体通过了身份标识和身份认证，但是并不意味着在受控环境内被授权执行任何操作或访问所有资源。</t>
+  </si>
+  <si>
+    <t>审计（Audtioing）</t>
+  </si>
+  <si>
+    <t>审计或监控是程序化方式，通过这种方式，主体在系统中经过身份认证的行为是可问责的。审计也是对系统中未授权的或异常的活动进行检测的过程。</t>
+  </si>
+  <si>
+    <t>日志文件为重建事件、入侵和系统故障的历史提供了审计跟踪。</t>
+  </si>
+  <si>
+    <t>可问责性以及不可否认性（Accounting</t>
+  </si>
+  <si>
+    <t>只有在主体的活动可问责时，才能够保持安全性。</t>
+  </si>
+  <si>
+    <t>有效的可问责性依赖于检验主体身份以及跟踪其活动的能力。通过审计、授权、身份认证与身份标识这些安全服务和机制，将联机身份的活动与某个人联系在一起，就可以建立可问责制。</t>
+  </si>
+  <si>
+    <t>人员的可问责性最终依赖于身份认证过程的强度。</t>
+  </si>
+  <si>
+    <t>1.3 评估和应用安全治理的原理</t>
+  </si>
+  <si>
+    <t>将安全功能与业务战略、目标、使命和宗旨相关联</t>
+  </si>
+  <si>
+    <r>
+      <t>安全管理计划确保正确地创建、执行和实施安全策略。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全管理计划使安全功能与业务战略、目标、使命和宗旨相一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>有效处理安全管理计划的方法（自上而下）</t>
+  </si>
+  <si>
+    <t>上层、高级或管理部门负责启动和定义组织的策略。安全策略为组织架构内的各个级别提供指导。</t>
+  </si>
+  <si>
+    <t>中层管理人员负责将安全策略落实到标准、基线、指导方针和程序。</t>
+  </si>
+  <si>
+    <t>操作管理人员或安全专业人员必须实现安全管理文档中规定的配置。</t>
+  </si>
+  <si>
+    <t>最终用于必须遵守组织的所有安全策略。</t>
+  </si>
+  <si>
+    <t>安全管理计划</t>
+  </si>
+  <si>
+    <t>内容包括：定义安全角色，规定如何管理安全，由谁负责安全以及如何检验安全的有效性，指定安全策略，执行风险分析，要求对员工进行安全教育。</t>
+  </si>
+  <si>
+    <t>战略计划（strategic plan）</t>
+  </si>
+  <si>
+    <t>一个相对稳定的长期计划（5年）。定义了组织的安全目的，并使其与组织的目标，使命和宗旨相一致。</t>
+  </si>
+  <si>
+    <t>战术计划（tactical plan）</t>
+  </si>
+  <si>
+    <t>是为实现战略计划中设定的目标提供更多细节而制定的中期计划（1年）。</t>
+  </si>
+  <si>
+    <t>项目计划、收购计划、招聘计划。。。</t>
+  </si>
+  <si>
+    <t>操作计划（operational plan）</t>
+  </si>
+  <si>
+    <t>是在战略计划和战术计划的基础上，制定的短期、高度详细的计划。操作计划必须经常更新（每月或每季）。操作计划阐明了如何实现组织的各种目标，包括资源分配、预算需求、人员分配、进度安排于细化或执行程序。</t>
+  </si>
+  <si>
+    <t>操作计划包括如何符合组织安全策略的部署细节。如：培训计划、系统部署计划和产品审计计划。</t>
+  </si>
+  <si>
+    <t>组织过程</t>
+  </si>
+  <si>
+    <t>安全治理需要关注组织的各个方面，包括收购、剥离和治理委员会的流程。收购和合并使组织面临更高的风险水平。这些风险包括不恰当的信息泄露、数据丢失、停机或未能获得足够的投资回报率（ROI）。</t>
+  </si>
+  <si>
+    <t>资产剥离或任何形式的资产减少或员工裁剪都会增加风险，进而增加对集中安全治理的需求。需要对资产进行净化（sanitized）以防止数据泄露，应该移除（removed）或销毁（destroyed）存储介质，因为介质计划处理技术不能保证残留数据不被恢复。</t>
+  </si>
+  <si>
+    <t>被解雇的员工需要进行离职面谈，此过程通常涉及审查任何保密协议以及在雇佣终止后将仍然生效的任何其他具有约束力的合同或协议。</t>
+  </si>
+  <si>
+    <t>第三方安全集成评估</t>
+  </si>
+  <si>
+    <t>现场评估</t>
+  </si>
+  <si>
+    <t>到组织现场进行访谈，宾馆工作人员的操作习惯。</t>
+  </si>
+  <si>
+    <t>文件交换和审查</t>
+  </si>
+  <si>
+    <t>调查数据和文件记录交换的方式，以及执行评估和审查的正式过程。</t>
+  </si>
+  <si>
+    <t>流程/政策审查</t>
+  </si>
+  <si>
+    <t>要求提供安全策略、过程/程序，以及时间和响应文件的副本以供审查。</t>
+  </si>
+  <si>
+    <t>第三方审计</t>
+  </si>
+  <si>
+    <t>SOC1 审计侧重于根据安全机制的描述来评估其适用性。SOC2审计侧重于实现和可用性、安全性、完整性、隐私性和保密性相关的安全控制。</t>
+  </si>
+  <si>
+    <t>组织角色和职责</t>
+  </si>
+  <si>
+    <t>高级管理者</t>
+  </si>
+  <si>
+    <r>
+      <t>组织所有者（高级管理者）角色被分配给最终对组织安全的维护负责及最关心资产保护的人员。高级管理者必须在所有策略问题上签字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。高级管理者将对安全解决方案的总体成功或失败负责</t>
+    </r>
+  </si>
+  <si>
+    <t>安全专业人员</t>
+  </si>
+  <si>
+    <r>
+      <t>安全专业人员、信息安全官或计算机应急响应团队（Computer Incident Response Team, CIRT）的角色被分配给受过培训和经验丰富的网络工程师、系统工程师和安全工程师，他们对落实高层管理部门下达的指示负责。安全专家的职责是保证安全性，包括制定和实现安全策略。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全专业人员不是决策者，而是实施者。所有决策都必须由搞经济管理者决定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>数据所有者</t>
+  </si>
+  <si>
+    <r>
+      <t>数据所有者（data owner）角色将被分配给在安全解决方案中负责布置和保护信息分类的人员。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据所有者通常是高级管理人员，他们最终对数据保护负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>数据托管员</t>
+  </si>
+  <si>
+    <t>数据托管员（data custodian）角色被分配给负责执行安全策略与高级管理者规定的保护任务的人员。数据托管员执行所有必要的活动，为实现数据的CIA三元组（保密性、完整性和可用性）提供充分的数据支持，并履行上级管理部门委派的要求和职责。这些活动包括执行和测试备份、验证数据完整性、部署安全解决方案以及基于分类管理数据存储。</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>用户（最终用户或操作者）角色被分配给任何能访问安全系统的人员。用户的访问权限与他们的工作任务相关并受限，因此他们只有足够的访问权限来执行工作岗位所需的任务（最小特权原则）。用户有责任通过遵守规定的操作程序和在规定的安全参数内进行操作来理解和维护组织的安全策略。</t>
+  </si>
+  <si>
+    <t>审计人员</t>
+  </si>
+  <si>
+    <r>
+      <t>审计人员（auditor）负责审查和验证安全策略是否正确执行，以及相关的安全解决方案是否完备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。审计人员出具由高级管理者审核的审计报告。高级管理者将在这些报告中发现的问题作为新的工作内容分配给安全专业人员或数据托管人员。</t>
+    </r>
+  </si>
+  <si>
+    <t>安全控制框架</t>
+  </si>
+  <si>
+    <t>COBIT</t>
+  </si>
+  <si>
+    <t>鼓励将 IT 安全思路映射到业务目标</t>
+  </si>
+  <si>
+    <t>COBIT  六个关键原则</t>
+  </si>
+  <si>
+    <t>提供利益相关者价值</t>
+  </si>
+  <si>
+    <t>整体方法</t>
+  </si>
+  <si>
+    <t>动态治理系统</t>
+  </si>
+  <si>
+    <t>治理不同于管理</t>
+  </si>
+  <si>
+    <t>为企业需求量身定制</t>
+  </si>
+  <si>
+    <t>端到端的治理系统</t>
+  </si>
+  <si>
+    <t>ISO/IEC 27000</t>
+  </si>
+  <si>
+    <t>SP800-53r5</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>ITIL</t>
+  </si>
+  <si>
+    <t>侧重于了解 IT 和安全性需要如何与组织的目标集成并与其保持一致。ITIL 和操作流程，通常用于在已建立的基础架构内制定定制 IT 安全解决方案的起点。</t>
+  </si>
+  <si>
+    <t>应尽关注 应尽职责</t>
+  </si>
+  <si>
+    <t>应尽关注（due care）</t>
+  </si>
+  <si>
+    <t>通过合理的关注保护组织利益。应尽关注是指制定一种正式的安全框架，包含安全策略、标准、极限、指南和程序。</t>
+  </si>
+  <si>
+    <t>如扫描和修补安全漏洞、启用安全日志、防火墙规则以及最小权限。</t>
+  </si>
+  <si>
+    <t>应尽职责（due diligence）</t>
+  </si>
+  <si>
+    <t>不断实践能够维持应尽关注成果的活动。应尽职责是将这个安全框架持续应用到组织的 IT 基础设施上。</t>
+  </si>
+  <si>
+    <t>如审查安全日志输出的可疑活动，渗透测试以确定防火墙规则是否有足够的限制。</t>
+  </si>
+  <si>
+    <t>1.4 确定合规性和其他要求</t>
+  </si>
+  <si>
+    <t>合同和采购</t>
+  </si>
+  <si>
+    <t>关注可在合同和采购过程中实施的安全审计和控制</t>
+  </si>
+  <si>
+    <t>供应商审查</t>
+  </si>
+  <si>
+    <t>存储、处理货传输哪些类型敏感信息</t>
+  </si>
+  <si>
+    <t>采取哪些控制措施来保护组织的信息</t>
+  </si>
+  <si>
+    <t>如何区分组织的信息与其他客户的信息</t>
+  </si>
+  <si>
+    <t>使用什么加密算法、密钥长度、如何进行密钥管理</t>
+  </si>
+  <si>
+    <t>供应商执行了什么类型的安全审计、客户对这些审计有什么访问权限</t>
+  </si>
+  <si>
+    <t>供应商是否依赖第三方来存储、处理货传输数据？合同中有关安全的条款如何适用于第三方？</t>
+  </si>
+  <si>
+    <t>数据存储、处理和传输发生在哪些地方？如何客户和/或供应商在国外，会产生什么影响？</t>
+  </si>
+  <si>
+    <t>供应商的事件响应流程是什么？何时通知客户可能的安全破坏？</t>
+  </si>
+  <si>
+    <t>有哪些规定来持续确保客户数据的完整性和可用性？</t>
+  </si>
+  <si>
+    <t>法律的分类</t>
+  </si>
+  <si>
+    <t>刑法、民法、行政法</t>
+  </si>
+  <si>
+    <t>刑法</t>
+  </si>
+  <si>
+    <t>民法</t>
+  </si>
+  <si>
+    <t>管理不属于犯罪行为但需要一位公正的仲裁者来解决的个人之间和组织之间的问题。</t>
+  </si>
+  <si>
+    <t>行政法</t>
+  </si>
+  <si>
+    <t>以政策、规章和制度的方式管理机构的日常运作</t>
+  </si>
+  <si>
+    <t>CISSP 考点在于对法律、法规、调查和合规性的概括，因为他们影响组织的安全工作。</t>
+  </si>
+  <si>
+    <t>计算机欺诈和滥用法案 CFAA</t>
+  </si>
+  <si>
+    <t>联邦信息安全管理法案 FISMA</t>
+  </si>
+  <si>
+    <t>定期评估风险、包括未经授权访问、使用、泄露、中断、修改或破坏信息和信息系统（用于支持组织运营），以及组织资产可能收到的损害程度。</t>
+  </si>
+  <si>
+    <t>基于风险评估的策略和程序，以合理费用将信息安全风险降至可接受的水平，并确保将信息安全贯穿到组织信息系统的生命周期中。</t>
+  </si>
+  <si>
+    <t>为网络、设施、信息系统或信息系统群组提供适当的信息安全细分计划。</t>
+  </si>
+  <si>
+    <t>开展安全意识培训，告知员工（包括合同上和其他支持组织运营的信息系统用户）与他们的工作相关的信息安全风险，并告知他们有责任恪守组织为降低这些风险而设计的策略和程序。</t>
+  </si>
+  <si>
+    <t>定期测试和评估信息安全策略、程序、实践和安全控制的有效性，执行频率取决于风险，但不少于每年一次。</t>
+  </si>
+  <si>
+    <t>规划、实施、评估和记录补救措施的过程，以解决组织信息安全策略、程序和实践中的任何缺陷。</t>
+  </si>
+  <si>
+    <t>检测、报告和响应安全事件的程序。</t>
+  </si>
+  <si>
+    <t>指定计划和程序，确保支持组织业务和资产的信息系统的业务连续性。</t>
+  </si>
+  <si>
+    <t>网络安全增强方案</t>
+  </si>
+  <si>
+    <t>NIST SP 800-53，NIST SP 800-171</t>
+  </si>
+  <si>
+    <t>合规 Payment Card Industry Data Security Standard (PCI DSS)</t>
+  </si>
+  <si>
+    <t>安装和维护防火墙配置来保护持卡人数据</t>
+  </si>
+  <si>
+    <t>不要使用供应商提供的系统默认密码和其他安全参数</t>
+  </si>
+  <si>
+    <t>保护存储的持卡人数据</t>
+  </si>
+  <si>
+    <t>在开放的公共网络下要加密持卡人的传输数据</t>
+  </si>
+  <si>
+    <t>防止所有系统受恶意软件入侵，并定期更新杀毒软件或程序</t>
+  </si>
+  <si>
+    <t>开发和维护安全系统和应用程序</t>
+  </si>
+  <si>
+    <t>根据业务须知，限制对持卡人数据的访问</t>
+  </si>
+  <si>
+    <t>访问系统组件要经过标识和认证</t>
+  </si>
+  <si>
+    <t>限制对持卡人数据的物理访问</t>
+  </si>
+  <si>
+    <t>跟踪和监视所有对网络资源和持卡人数据的访问</t>
+  </si>
+  <si>
+    <t>定期测试安全系统和程序</t>
+  </si>
+  <si>
+    <t>坚持对所有人宣传信息安全的策略</t>
+  </si>
+  <si>
+    <t>合规 Compliance</t>
+  </si>
+  <si>
+    <t>合规性审计，由内部和外部审计师或监管机构进行。</t>
+  </si>
+  <si>
+    <t>系统和组织控制</t>
+  </si>
+  <si>
+    <t>SOC (System and Organization Controls) 系统和组织控制，是一个审计框架，使组织可以根据自己的需要灵活地进行审计。</t>
+  </si>
+  <si>
+    <t>SOC 1</t>
+  </si>
+  <si>
+    <r>
+      <t>审计和合规报告，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严格关注可能影响客户财务报表的公司财务报表和控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>SOC 2</t>
+  </si>
+  <si>
+    <r>
+      <t>审核和合规报告，根据 AICPA 的五项“信任服务原则”对组织进行评估：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐私、安全、可用性、完整性和机密性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>SOC 3</t>
+  </si>
+  <si>
+    <t>SOC 2 的精简版，抽象或删除所有敏感细节。表明一个组织是否已经展示了五项信任服务原则中的每一项，而无需纰漏具体内容（如做了什么不做什么）。</t>
+  </si>
+  <si>
+    <t>美国隐私法</t>
+  </si>
+  <si>
+    <t>数据泄露通知法案</t>
+  </si>
+  <si>
+    <t>欧盟-美国隐私保护</t>
+  </si>
+  <si>
+    <t>欧盟《通用数据保护条例》GDRP</t>
+  </si>
+  <si>
+    <t>合法性、公平性和透明性</t>
+  </si>
+  <si>
+    <t>表示处理个人信息必须有法律依据，不得以误导或损害数据主体的方式处理数据，并且必须对数据处理活动公开和诚实。</t>
+  </si>
+  <si>
+    <t>目的限制</t>
+  </si>
+  <si>
+    <t>表示您必须清楚地记录和披露您手机数据的目的，并将您的活动限制在披露的目的。</t>
+  </si>
+  <si>
+    <t>数据最小化</t>
+  </si>
+  <si>
+    <t>表示您必须确保您处理的数据足以满足您的既定目标，并且仅限于您实际需要的数据。</t>
+  </si>
+  <si>
+    <t>准确性</t>
+  </si>
+  <si>
+    <t>表示您手机、创建或维护的数据是正确的且没有误导性，您维护和更新的记录，并且您更正或删除不准确的数据。</t>
+  </si>
+  <si>
+    <t>存储限制</t>
+  </si>
+  <si>
+    <t>表示您旨在满足合法、公开目的所需的时间内保留数据，并且您遵守“被遗忘权”允许人们要求公司删除不再需要的信息需要。</t>
+  </si>
+  <si>
+    <t>安全性</t>
+  </si>
+  <si>
+    <t>您必须用适当的完整性和机密性控制措施来保护数据。</t>
+  </si>
+  <si>
+    <t>问责制</t>
+  </si>
+  <si>
+    <t>您必须对您受保护数据采取的行动负责，并且您必须能够证明您的合规性。</t>
+  </si>
+  <si>
+    <t>加拿大隐私法</t>
+  </si>
+  <si>
+    <t>1.5 理解在全球背景下与信息安全相关的法律和监管问题</t>
+  </si>
+  <si>
+    <t>计算机犯罪</t>
+  </si>
+  <si>
+    <t>计算机辅助的犯罪</t>
+  </si>
+  <si>
+    <t>使用计算机进行欺诈活动或传播色情图片</t>
+  </si>
+  <si>
+    <t>计算机特有或以计算机为目标的犯罪</t>
+  </si>
+  <si>
+    <t>拒绝服务、网络嗅探、口令破解</t>
+  </si>
+  <si>
+    <t>计算机只是附带因素</t>
+  </si>
+  <si>
+    <t>计算机犯罪的特点</t>
+  </si>
+  <si>
+    <t>取证难，证据容易遭到破坏</t>
+  </si>
+  <si>
+    <t>相关法律不完善</t>
+  </si>
+  <si>
+    <t>跨地域特征</t>
+  </si>
+  <si>
+    <t>内部人员实施的计算机犯罪的比率最高</t>
+  </si>
+  <si>
+    <t>不报案，担心影响机构的正常运作和损害用户对机构的信心</t>
+  </si>
+  <si>
+    <t>计算机犯罪的类型</t>
   </si>
 </sst>
 </file>
@@ -199,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,9 +1034,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,6 +1057,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,24 +1085,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,18 +1124,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,7 +1147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,36 +1156,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,20 +1170,42 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -398,13 +1233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +1269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +1293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +1305,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,55 +1371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,43 +1401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +1412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -589,6 +1424,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -621,6 +1469,24 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -664,11 +1530,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,7 +1560,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,6 +1576,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,30 +1621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -747,17 +1630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,158 +1643,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,28 +1808,88 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1270,280 +2210,1855 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133:D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.9765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.7734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.8359375" style="1" customWidth="1"/>
-    <col min="5" max="16383" width="41.2734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.3359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.0625" style="1" customWidth="1"/>
+    <col min="6" max="16383" width="41.2734375" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="41.2734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="52" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="52" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="51" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="51" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="5"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="68" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="65" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="68" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="109" customHeight="1" spans="1:5">
-      <c r="A12" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" ht="109" customHeight="1" spans="1:6">
+      <c r="A12" s="5"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="64" customHeight="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" ht="64" customHeight="1" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="5"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="5"/>
+      <c r="B36" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="5"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="5"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="17"/>
+      <c r="B45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" ht="60" customHeight="1" spans="1:6">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" ht="54" customHeight="1" spans="1:6">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" ht="62" customHeight="1" spans="1:6">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="17"/>
+      <c r="B52" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" ht="52" customHeight="1" spans="1:6">
+      <c r="A56" s="17"/>
+      <c r="B56" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" ht="86" customHeight="1" spans="1:6">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" ht="68" spans="1:6">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" ht="66" customHeight="1" spans="1:6">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" ht="63" customHeight="1" spans="1:6">
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="17"/>
+      <c r="B62" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75" s="5"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76" s="5"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77" s="5"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78" s="5"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79" s="5"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80" s="5"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81" s="5"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82" s="5"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83" s="5"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89" s="5"/>
+      <c r="B89" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90" s="5"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91" s="5"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
+      <c r="A92" s="5"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93" s="5"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
+      <c r="A94" s="5"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
+      <c r="A95" s="5"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96" s="5"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98" s="5"/>
+      <c r="B98" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
+      <c r="A99" s="5"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:6">
+      <c r="A100" s="5"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:6">
+      <c r="A101" s="5"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:6">
+      <c r="A102" s="5"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:6">
+      <c r="A103" s="5"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D103" s="20"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:6">
+      <c r="A104" s="5"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:6">
+      <c r="A105" s="5"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
+      <c r="A106" s="5"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
+      <c r="A107" s="5"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
+      <c r="A108" s="5"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="20"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
+      <c r="A109" s="5"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111" s="5"/>
+      <c r="B111" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112" s="5"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113" s="5"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="5"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118" s="5"/>
+      <c r="B118" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
+      <c r="A119" s="5"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:6">
+      <c r="A120" s="5"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:6">
+      <c r="A121" s="5"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:6">
+      <c r="A122" s="5"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:6">
+      <c r="A123" s="5"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:6">
+      <c r="A124" s="5"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:6">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" customHeight="1" spans="2:6">
+      <c r="B127" s="17"/>
+      <c r="C127" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" customHeight="1" spans="2:6">
+      <c r="B128" s="18"/>
+      <c r="C128" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" customHeight="1" spans="2:6">
+      <c r="B129" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D129" s="20"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" customHeight="1" spans="2:6">
+      <c r="B130" s="17"/>
+      <c r="C130" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" customHeight="1" spans="2:6">
+      <c r="B131" s="17"/>
+      <c r="C131" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" customHeight="1" spans="2:6">
+      <c r="B132" s="17"/>
+      <c r="C132" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" customHeight="1" spans="2:6">
+      <c r="B133" s="18"/>
+      <c r="C133" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" s="20"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" customHeight="1" spans="2:6">
+      <c r="B134" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" customHeight="1" spans="2:6">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" customHeight="1" spans="2:6">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" customHeight="1" spans="2:6">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" customHeight="1" spans="2:6">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" customHeight="1" spans="2:6">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" customHeight="1" spans="2:6">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" customHeight="1" spans="2:6">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" customHeight="1" spans="2:6">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" customHeight="1" spans="2:6">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" customHeight="1" spans="2:6">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" customHeight="1" spans="2:6">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" customHeight="1" spans="2:6">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" customHeight="1" spans="2:6">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" customHeight="1" spans="2:6">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" customHeight="1" spans="2:6">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" customHeight="1" spans="2:6">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" customHeight="1" spans="2:6">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" customHeight="1" spans="2:6">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" customHeight="1" spans="2:6">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" customHeight="1" spans="2:6">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" customHeight="1" spans="2:6">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" customHeight="1" spans="2:6">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" customHeight="1" spans="2:6">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" customHeight="1" spans="2:6">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" customHeight="1" spans="2:6">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" customHeight="1" spans="2:6">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" customHeight="1" spans="2:6">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" customHeight="1" spans="2:6">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" customHeight="1" spans="2:6">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" customHeight="1" spans="2:6">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="98">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A40:A73"/>
+    <mergeCell ref="A74:A125"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E27:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
   <si>
     <t>章节</t>
   </si>
@@ -1006,6 +1006,442 @@
   </si>
   <si>
     <t>计算机犯罪的类型</t>
+  </si>
+  <si>
+    <t>萨拉米香肠（Salami）</t>
+  </si>
+  <si>
+    <t>从每一笔交易中窃取可能不会引起交易者关注的微量资金，通过积少成多的方式窃取资金的行为。</t>
+  </si>
+  <si>
+    <t>数据篡改（Data diddling）</t>
+  </si>
+  <si>
+    <t>通过篡改数据的方式进行欺诈，是很常见的欺诈方式。</t>
+  </si>
+  <si>
+    <t>过度特权（Excessive privileges）</t>
+  </si>
+  <si>
+    <t>由于管理不到位等原因，造成一些员工具有超出其工作所需的权限，这样就有可能造成权限的滥用。</t>
+  </si>
+  <si>
+    <t>搜寻垃圾（Dumpster diving）</t>
+  </si>
+  <si>
+    <t>通过在被丢弃的废物中搜寻的方式获得有价值信息的行为，虽然是不道德的，但通常并不违反法律。</t>
+  </si>
+  <si>
+    <t>电磁泄露捕获（Emanations capturing）</t>
+  </si>
+  <si>
+    <t>通过捕捉计算机系统泄露的电磁信号达到获取有价值信息的目的，需要专用设备。</t>
+  </si>
+  <si>
+    <t>窃听（Wiretapping/Eavesdropping）</t>
+  </si>
+  <si>
+    <t>通过窃听通讯信号的方式非法获得信息和数据</t>
+  </si>
+  <si>
+    <t>社会工程（Social engingeering）</t>
+  </si>
+  <si>
+    <t>通过欺骗等诡计诱使他人泄露或更改信息已达到入侵系统的目的。</t>
+  </si>
+  <si>
+    <t>冒充（Masquerading）</t>
+  </si>
+  <si>
+    <t>冒充他人身份的欺诈行为。如修改发件人信息以冒充他人发送恶意电子邮件的行为。</t>
+  </si>
+  <si>
+    <t>知识产权</t>
+  </si>
+  <si>
+    <t>版权、商标、专利和商业秘密。</t>
+  </si>
+  <si>
+    <t>版权法</t>
+  </si>
+  <si>
+    <t>防止创作者的作品遭到未经授权的复制。</t>
+  </si>
+  <si>
+    <t>数字千年版权法</t>
+  </si>
+  <si>
+    <t>DMCA</t>
+  </si>
+  <si>
+    <t>商标</t>
+  </si>
+  <si>
+    <t>专利</t>
+  </si>
+  <si>
+    <t>“专利”保护发明者的知识产权。专利提供20年的保护期限</t>
+  </si>
+  <si>
+    <t>商业秘密</t>
+  </si>
+  <si>
+    <t>许可证</t>
+  </si>
+  <si>
+    <t>合同许可证协议、收缩性薄膜包装的许可证协议、单击包装许可证协议、云服务许可协议</t>
+  </si>
+  <si>
+    <t>进口/出口</t>
+  </si>
+  <si>
+    <t>规定了包括新技术、知识产权和个人身份信息的跨境数据流管理</t>
+  </si>
+  <si>
+    <t>跨境信息共享</t>
+  </si>
+  <si>
+    <t>1.6 理解调查类型的要求（即行政、刑事、民事、监管、行业标准）</t>
+  </si>
+  <si>
+    <t>调查</t>
+  </si>
+  <si>
+    <t>行政调查</t>
+  </si>
+  <si>
+    <t>是检查运营问题或违反组织政策的内部调查。它们可以作为技术故障排除工作的一部分货支持其他行政流程。</t>
+  </si>
+  <si>
+    <t>运营调查与组织计算基础设施相关的问题，其主要目标是解决运营问题。</t>
+  </si>
+  <si>
+    <t>运营调查有罪宽松的信息收集标准。它们并非旨在提供证据，因为它们仅用于内部操作目的。解决问题是主要目标。</t>
+  </si>
+  <si>
+    <t>除了解决运营问题之外，运营调查还经常进行根本原因分析，以找出运营问题发生的原因。</t>
+  </si>
+  <si>
+    <t>刑事调查</t>
+  </si>
+  <si>
+    <t>民事调查</t>
+  </si>
+  <si>
+    <t>监管调查</t>
+  </si>
+  <si>
+    <t>当政府机构认为个人或公司违反了行政执法时，他们可以进行监管调查。监管机构通常会根据与他们希望审理案件的地点相称的证据标准来进行这些调查。监管调查的范围和程序差异很大，通常由政府机构进行。</t>
+  </si>
+  <si>
+    <t>行业标准</t>
+  </si>
+  <si>
+    <t>行业标准不是法律，而是参与组织签订的合同义务。</t>
+  </si>
+  <si>
+    <t>1.7 制定、记录和实施安全政策、标准、程序和指南</t>
+  </si>
+  <si>
+    <t>安全策略</t>
+  </si>
+  <si>
+    <t>规范化的最高层级文件是安全策略。</t>
+  </si>
+  <si>
+    <t>安全策略定义了组织所需的安全范围，讨论需要保护的资产以及安全解决方案需要提供的必要保护程度。</t>
+  </si>
+  <si>
+    <t>安全策略是对组织安全需求的概述或归纳，它定义了主要的安全目标，并概述了组织的安全框架。</t>
+  </si>
+  <si>
+    <t>安全策略还确定了数据处理的主要功能领域，并澄清和定义所有相关术语。</t>
+  </si>
+  <si>
+    <t>安全策略应该清楚定义为什么安全性是重要的，以及哪些资产是有价值的。</t>
+  </si>
+  <si>
+    <t>安全策略是安全实施的战略计划。安全策略应概述为保护组织利益而应采取的安全目标和做法。</t>
+  </si>
+  <si>
+    <t>安全策略讨论了安全对日常业务运营的各个方面的重要性，以及高级管理者支持安全实施的重要性。</t>
+  </si>
+  <si>
+    <t>安全策略用于分配职责、定义角色、指定审计需求、概述实施过程、确定合规性需求和定义可接受的风险级别。</t>
+  </si>
+  <si>
+    <t>安全策略常用来证明高级管理者在保护组织免受入侵、攻击和灾难时已经给予了应尽关心。</t>
+  </si>
+  <si>
+    <t>安全策略是强制性的。</t>
+  </si>
+  <si>
+    <t>可接受的使用策略</t>
+  </si>
+  <si>
+    <t>可接受的使用策略是一个常规生产的文档，它是整个安全文档基础结构的一个组成部分。</t>
+  </si>
+  <si>
+    <r>
+      <t>可接受的使用策略专门用来分配组织内的安全角色，并确保职责与这些角色关联。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该策略定义了可接受的性能级别及期望的行为和活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不遵守该策略可能导致工作行为警告、处罚或解聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>标准对硬件、软件、技术和安全控制方法的一致性定义了强制性要求。</t>
+  </si>
+  <si>
+    <t>标准提供了在整个组织中统一实施技术和程序的操作过程。</t>
+  </si>
+  <si>
+    <t>标准是战术计划文档，规定了达到黔南策略定义的目标和总体方向的步骤或方法。</t>
+  </si>
+  <si>
+    <t>基线</t>
+  </si>
+  <si>
+    <t>基线定义了整个组织中每个系统必须满足的最低安全级别。</t>
+  </si>
+  <si>
+    <t>所有不符合基线要求的系统在满足基线要求之前都不能上线生产。</t>
+  </si>
+  <si>
+    <t>基线建立通用的基础安全状态，在此之上可实施所有额外的、更严格的安全措施。</t>
+  </si>
+  <si>
+    <t>基线通常是系统特定的，一般参考行业或政府标准。</t>
+  </si>
+  <si>
+    <t>指南</t>
+  </si>
+  <si>
+    <t>指南提供了关于如何实现标准和基线的建议，并作为安全专业人员和用户的操作指南。</t>
+  </si>
+  <si>
+    <t>指南具有灵活性，所以可针对每个特定的系统或条件分别制定指南，并可在新程序的创建中使用指南。</t>
+  </si>
+  <si>
+    <t>指南说明应该部署哪些安全机制，而不是规定特定的产品或控制措施，并详细说明配置。</t>
+  </si>
+  <si>
+    <t>指南概述了方法（包括建议的行动），但并非强制性的。</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>标准操作程序（SOP）是详细的分步实施文档，描述了事先特定安全机制、控制或解决方案所需的具体操作。</t>
+  </si>
+  <si>
+    <t>程序包括系统部署操作或单个产品方面。必须随着系统发展而不断更新。</t>
+  </si>
+  <si>
+    <t>程序有助于在所有系统之间确保安全的标准化。</t>
+  </si>
+  <si>
+    <t>1.8 对业务连续性（BCP）要求进行识别、分析及优先级排序</t>
+  </si>
+  <si>
+    <t>业务连续性计划</t>
+  </si>
+  <si>
+    <t>业务连续性计划（BCP）设计评估组织流程的风险、并创建策略、计划和程序，以最大限度地降低这些风险发生时对组织产生的不良影响。BCP用于在近期情况下维持业务的连续运营。BCP计划者的目标是通过综合实施策略、程序和流程，将潜在的破坏性事件对业务的影响降至最低。</t>
+  </si>
+  <si>
+    <t>BCP 专注于在降低或受限的基础设施能力或资源商维持业务运营。只能要能连续维持组织执行关键工作任务的能力，就可以利用BCP管理和恢复生产环境。如果这种连续性收到破坏，那么业务过程就会停止，并且组织进入灾难模式：此时系统将采用灾难恢复计划（Disaster Recovery Planning，DRP）。</t>
+  </si>
+  <si>
+    <t>NIST SP 800-34 Rev.1 《联邦信息系统应急计划指南》</t>
+  </si>
+  <si>
+    <t>1. 制定连续性计划策略声明。编写一份业务连续性计划所需的指引，并未执行这些任务的角色赋予必要的权限。</t>
+  </si>
+  <si>
+    <t>2. 执行业务影响分析（Business Impact Analysis，BIA）。分析关键业务职能并识别关键业务系统，组织需要根据上述信息确定其优先级，辨识漏洞和威胁，并计算风险</t>
+  </si>
+  <si>
+    <t>3. 识别现有的控制措施，一旦识别出威胁，就要确定并实施控制措施和安全对策，以最经济的方式降低组织的风险水平。</t>
+  </si>
+  <si>
+    <t>4. 制定应急策略。编写快速恢复关键业务和系统的方法。</t>
+  </si>
+  <si>
+    <t>5. 制定信息系统应急计划。编写关于组织如何在危机状态下保持运作的程序和指南。</t>
+  </si>
+  <si>
+    <t>6. 确保开展计划的测试、培训和演练实践。检测计划并识别业务连续性计划中的缺陷，进行人员培训，并使其熟悉个人任务。</t>
+  </si>
+  <si>
+    <t>7. 确保持续维护计划。妥当安排每个步骤，以确保定期更新BCP的相关文档。</t>
+  </si>
+  <si>
+    <t>DRI 国际协会的业务连续性计划人员实践</t>
+  </si>
+  <si>
+    <t>1. 项目启动与管理</t>
+  </si>
+  <si>
+    <t>2. 风险评估和控制（RA）</t>
+  </si>
+  <si>
+    <t>3. 业务影响分析（BIA）</t>
+  </si>
+  <si>
+    <t>4. 制定业务持续策略</t>
+  </si>
+  <si>
+    <t>5. 应急响应和措施</t>
+  </si>
+  <si>
+    <t>6. 编制和贯彻执行业务连续计划</t>
+  </si>
+  <si>
+    <t>7. 认证和培训计划</t>
+  </si>
+  <si>
+    <t>8. 维护及演练业务持续计划</t>
+  </si>
+  <si>
+    <t>9. 危机沟通</t>
+  </si>
+  <si>
+    <t>10. 与外部机构的协调</t>
+  </si>
+  <si>
+    <t>四个主要阶段</t>
+  </si>
+  <si>
+    <t>项目范围和计划</t>
+  </si>
+  <si>
+    <t>业务影响评估</t>
+  </si>
+  <si>
+    <t>连续性计划</t>
+  </si>
+  <si>
+    <t>计划批准和实施</t>
+  </si>
+  <si>
+    <t>人员安全最优先考虑</t>
+  </si>
+  <si>
+    <t>从危机规划的及角度对业务组织进行结构化分析</t>
+  </si>
+  <si>
+    <t>在高级管理层的批准下创建 BCP 团队</t>
+  </si>
+  <si>
+    <t>评估可用于业务连续性活动的资源</t>
+  </si>
+  <si>
+    <t>分析在处理灾难性事件方面，组织需要遵守的法律以及所处的监管环境</t>
+  </si>
+  <si>
+    <t>业务组织分析</t>
+  </si>
+  <si>
+    <t>负责向客户提供核心服务业务的运营部门</t>
+  </si>
+  <si>
+    <t>关键支持服务部门（如IT部门）、设施和维护人员以及负责维护支持运营系统的其他团队</t>
+  </si>
+  <si>
+    <t>负责物理安全的公司安全团队</t>
+  </si>
+  <si>
+    <t>高级管理人员</t>
+  </si>
+  <si>
+    <t>选择BCP团队</t>
+  </si>
+  <si>
+    <t>负责执行业务核心服务的每个组织部门的代表</t>
+  </si>
+  <si>
+    <t>根据组织分析确定的来自不同职能区域的业务单元团队成员</t>
+  </si>
+  <si>
+    <t>BCP 所涉及领域内拥有技术专长的IT专家</t>
+  </si>
+  <si>
+    <t>掌握BCP流程知识的网络安全团队成员</t>
+  </si>
+  <si>
+    <t>负责工厂实体物理安全和设施管理的团队</t>
+  </si>
+  <si>
+    <t>熟悉公司法规、监管和合同责任的律师</t>
+  </si>
+  <si>
+    <t>可解决人员配置以及对员工个人产生影响的人力资源团队成员</t>
+  </si>
+  <si>
+    <t>需要制定在发生中断时如何与利益相关方和公众进行沟通的公共关系团队成员</t>
+  </si>
+  <si>
+    <t>高级管理层代表，这些代表能设定愿景、确定优先级别和分配资源。</t>
+  </si>
+  <si>
+    <t>高级管理人员和 BCP</t>
+  </si>
+  <si>
+    <r>
+      <t>高级管理人员的角色包括：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置优先级和裁定、提供人员和经济资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、解决服务关键性相关的争端。</t>
+    </r>
+  </si>
+  <si>
+    <t>资源需求</t>
+  </si>
+  <si>
+    <t>开发，测试、培训和维护，实施</t>
   </si>
 </sst>
 </file>
@@ -2210,18 +2646,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:XFD523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133:D133"/>
+      <selection pane="bottomLeft" activeCell="C225" sqref="C225:D225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.9765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.15625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.7734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.3359375" style="1" customWidth="1"/>
     <col min="5" max="5" width="64.0625" style="1" customWidth="1"/>
@@ -3658,7 +4094,7 @@
       <c r="F125" s="5"/>
     </row>
     <row r="126" customHeight="1" spans="1:6">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -3673,7 +4109,8 @@
       </c>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" customHeight="1" spans="2:6">
+    <row r="127" customHeight="1" spans="1:6">
+      <c r="A127" s="5"/>
       <c r="B127" s="17"/>
       <c r="C127" s="19" t="s">
         <v>215</v>
@@ -3684,7 +4121,8 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" customHeight="1" spans="2:6">
+    <row r="128" customHeight="1" spans="1:6">
+      <c r="A128" s="5"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19" t="s">
         <v>217</v>
@@ -3693,7 +4131,8 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" customHeight="1" spans="2:6">
+    <row r="129" customHeight="1" spans="1:6">
+      <c r="A129" s="5"/>
       <c r="B129" s="16" t="s">
         <v>218</v>
       </c>
@@ -3704,7 +4143,8 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" customHeight="1" spans="2:6">
+    <row r="130" customHeight="1" spans="1:6">
+      <c r="A130" s="5"/>
       <c r="B130" s="17"/>
       <c r="C130" s="19" t="s">
         <v>220</v>
@@ -3713,7 +4153,8 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" customHeight="1" spans="2:6">
+    <row r="131" customHeight="1" spans="1:6">
+      <c r="A131" s="5"/>
       <c r="B131" s="17"/>
       <c r="C131" s="19" t="s">
         <v>221</v>
@@ -3722,7 +4163,8 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" customHeight="1" spans="2:6">
+    <row r="132" customHeight="1" spans="1:6">
+      <c r="A132" s="5"/>
       <c r="B132" s="17"/>
       <c r="C132" s="19" t="s">
         <v>222</v>
@@ -3731,7 +4173,8 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" customHeight="1" spans="2:6">
+    <row r="133" customHeight="1" spans="1:6">
+      <c r="A133" s="5"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19" t="s">
         <v>223</v>
@@ -3740,227 +4183,3183 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" customHeight="1" spans="2:6">
-      <c r="B134" s="5" t="s">
+    <row r="134" customHeight="1" spans="1:6">
+      <c r="A134" s="5"/>
+      <c r="B134" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="C134" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" customHeight="1" spans="2:6">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+    <row r="135" customHeight="1" spans="1:6">
+      <c r="A135" s="5"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" customHeight="1" spans="2:6">
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+    <row r="136" customHeight="1" spans="1:6">
+      <c r="A136" s="5"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" customHeight="1" spans="2:6">
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+    <row r="137" customHeight="1" spans="1:6">
+      <c r="A137" s="5"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" customHeight="1" spans="2:6">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+    <row r="138" customHeight="1" spans="1:6">
+      <c r="A138" s="5"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" customHeight="1" spans="2:6">
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
+    <row r="139" customHeight="1" spans="1:6">
+      <c r="A139" s="5"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" customHeight="1" spans="2:6">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+    <row r="140" customHeight="1" spans="1:6">
+      <c r="A140" s="5"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" customHeight="1" spans="2:6">
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
+    <row r="141" customHeight="1" spans="1:6">
+      <c r="A141" s="5"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" customHeight="1" spans="2:6">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+    <row r="142" customHeight="1" spans="1:6">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D142" s="20"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" customHeight="1" spans="2:6">
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+    <row r="143" customHeight="1" spans="1:6">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D143" s="20"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" customHeight="1" spans="2:6">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+    <row r="144" customHeight="1" spans="1:6">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D144" s="20"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" customHeight="1" spans="2:6">
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+    <row r="145" customHeight="1" spans="1:6">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" customHeight="1" spans="2:6">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+    <row r="146" customHeight="1" spans="1:6">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D146" s="20"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" customHeight="1" spans="2:6">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+    <row r="147" customHeight="1" spans="1:6">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" customHeight="1" spans="2:6">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+    <row r="148" customHeight="1" spans="1:6">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148" s="20"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" customHeight="1" spans="2:6">
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+    <row r="149" customHeight="1" spans="1:6">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D149" s="20"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" customHeight="1" spans="2:6">
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+    <row r="150" customHeight="1" spans="1:6">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" customHeight="1" spans="2:6">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+    <row r="151" customHeight="1" spans="1:6">
+      <c r="A151" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" customHeight="1" spans="2:6">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+    <row r="152" customHeight="1" spans="1:6">
+      <c r="A152" s="5"/>
+      <c r="B152" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D152" s="20"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" customHeight="1" spans="2:6">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+    <row r="153" customHeight="1" spans="1:6">
+      <c r="A153" s="5"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D153" s="20"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" customHeight="1" spans="2:6">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+    <row r="154" customHeight="1" spans="1:6">
+      <c r="A154" s="5"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D154" s="20"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" customHeight="1" spans="2:6">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+    <row r="155" customHeight="1" spans="1:6">
+      <c r="A155" s="5"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155" s="20"/>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" customHeight="1" spans="2:6">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+    <row r="156" customHeight="1" spans="1:6">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" customHeight="1" spans="2:6">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+    <row r="157" customHeight="1" spans="1:6">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" customHeight="1" spans="2:6">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+    <row r="158" customHeight="1" spans="1:6">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158" s="20"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" customHeight="1" spans="2:6">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+    <row r="159" customHeight="1" spans="1:6">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D159" s="20"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" customHeight="1" spans="2:6">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+    <row r="160" customHeight="1" spans="1:6">
+      <c r="A160" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160" s="20"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" customHeight="1" spans="2:6">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+    <row r="161" customHeight="1" spans="1:6">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D161" s="20"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" customHeight="1" spans="2:6">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+    <row r="162" customHeight="1" spans="1:6">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D162" s="20"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" customHeight="1" spans="2:6">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+    <row r="163" customHeight="1" spans="1:6">
+      <c r="A163" s="17"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D163" s="20"/>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" customHeight="1" spans="2:6">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+    <row r="164" customHeight="1" spans="1:6">
+      <c r="A164" s="17"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D164" s="20"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
+    <row r="165" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="XFD165" s="2"/>
+    </row>
+    <row r="166" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D166" s="20"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="XFD166" s="2"/>
+    </row>
+    <row r="167" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A167" s="17"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D167" s="20"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="XFD167" s="2"/>
+    </row>
+    <row r="168" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D168" s="20"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="XFD168" s="2"/>
+    </row>
+    <row r="169" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D169" s="20"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="XFD169" s="2"/>
+    </row>
+    <row r="170" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A170" s="17"/>
+      <c r="B170" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D170" s="20"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="XFD170" s="2"/>
+    </row>
+    <row r="171" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D171" s="20"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="XFD171" s="2"/>
+    </row>
+    <row r="172" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D172" s="20"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="XFD172" s="2"/>
+    </row>
+    <row r="173" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A173" s="17"/>
+      <c r="B173" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D173" s="20"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="XFD173" s="2"/>
+    </row>
+    <row r="174" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" s="20"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="XFD174" s="2"/>
+    </row>
+    <row r="175" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A175" s="17"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D175" s="20"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="XFD175" s="2"/>
+    </row>
+    <row r="176" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A176" s="17"/>
+      <c r="B176" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D176" s="20"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="XFD176" s="2"/>
+    </row>
+    <row r="177" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D177" s="20"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="XFD177" s="2"/>
+    </row>
+    <row r="178" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="XFD178" s="2"/>
+    </row>
+    <row r="179" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A179" s="17"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D179" s="20"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="XFD179" s="2"/>
+    </row>
+    <row r="180" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A180" s="17"/>
+      <c r="B180" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="XFD180" s="2"/>
+    </row>
+    <row r="181" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A181" s="17"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="XFD181" s="2"/>
+    </row>
+    <row r="182" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D182" s="20"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="XFD182" s="2"/>
+    </row>
+    <row r="183" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A183" s="17"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D183" s="20"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="XFD183" s="2"/>
+    </row>
+    <row r="184" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A184" s="17"/>
+      <c r="B184" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D184" s="20"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="XFD184" s="2"/>
+    </row>
+    <row r="185" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A185" s="17"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D185" s="20"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="XFD185" s="2"/>
+    </row>
+    <row r="186" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A186" s="18"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D186" s="20"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="XFD186" s="2"/>
+    </row>
+    <row r="187" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A187" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D187" s="20"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="XFD187" s="2"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="55" customHeight="1" spans="1:16384">
+      <c r="A188" s="5"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D188" s="20"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="XFD188" s="2"/>
+    </row>
+    <row r="189" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A189" s="5"/>
+      <c r="B189" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D189" s="20"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="XFD189" s="2"/>
+    </row>
+    <row r="190" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A190" s="5"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D190" s="20"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="XFD190" s="2"/>
+    </row>
+    <row r="191" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A191" s="5"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D191" s="20"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="XFD191" s="2"/>
+    </row>
+    <row r="192" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A192" s="5"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D192" s="20"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="XFD192" s="2"/>
+    </row>
+    <row r="193" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A193" s="5"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D193" s="20"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="XFD193" s="2"/>
+    </row>
+    <row r="194" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A194" s="5"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D194" s="20"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="XFD194" s="2"/>
+    </row>
+    <row r="195" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A195" s="5"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D195" s="20"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="XFD195" s="2"/>
+    </row>
+    <row r="196" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A196" s="5"/>
+      <c r="B196" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D196" s="20"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="XFD196" s="2"/>
+    </row>
+    <row r="197" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A197" s="5"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D197" s="20"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="XFD197" s="2"/>
+    </row>
+    <row r="198" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A198" s="5"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="XFD198" s="2"/>
+    </row>
+    <row r="199" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A199" s="5"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D199" s="20"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="XFD199" s="2"/>
+    </row>
+    <row r="200" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A200" s="5"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D200" s="20"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="XFD200" s="2"/>
+    </row>
+    <row r="201" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A201" s="5"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D201" s="20"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="XFD201" s="2"/>
+    </row>
+    <row r="202" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A202" s="5"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D202" s="20"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="XFD202" s="2"/>
+    </row>
+    <row r="203" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A203" s="5"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D203" s="20"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="XFD203" s="2"/>
+    </row>
+    <row r="204" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A204" s="5"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D204" s="20"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="XFD204" s="2"/>
+    </row>
+    <row r="205" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A205" s="5"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D205" s="20"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="XFD205" s="2"/>
+    </row>
+    <row r="206" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A206" s="5"/>
+      <c r="B206" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="XFD206" s="2"/>
+    </row>
+    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A207" s="5"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="XFD207" s="2"/>
+    </row>
+    <row r="208" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A208" s="5"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="XFD208" s="2"/>
+    </row>
+    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A209" s="5"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="XFD209" s="2"/>
+    </row>
+    <row r="210" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A210" s="5"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D210" s="20"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="XFD210" s="2"/>
+    </row>
+    <row r="211" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A211" s="5"/>
+      <c r="B211" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D211" s="20"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="XFD211" s="2"/>
+    </row>
+    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A212" s="5"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D212" s="20"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="XFD212" s="2"/>
+    </row>
+    <row r="213" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A213" s="5"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D213" s="20"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="XFD213" s="2"/>
+    </row>
+    <row r="214" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A214" s="5"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D214" s="20"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="XFD214" s="2"/>
+    </row>
+    <row r="215" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A215" s="5"/>
+      <c r="B215" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D215" s="20"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="XFD215" s="2"/>
+    </row>
+    <row r="216" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A216" s="5"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D216" s="20"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="XFD216" s="2"/>
+    </row>
+    <row r="217" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A217" s="5"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D217" s="20"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="XFD217" s="2"/>
+    </row>
+    <row r="218" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A218" s="5"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D218" s="20"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="XFD218" s="2"/>
+    </row>
+    <row r="219" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A219" s="5"/>
+      <c r="B219" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D219" s="20"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="XFD219" s="2"/>
+    </row>
+    <row r="220" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A220" s="5"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D220" s="20"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="XFD220" s="2"/>
+    </row>
+    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A221" s="5"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="D221" s="20"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="XFD221" s="2"/>
+    </row>
+    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A222" s="5"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D222" s="20"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="XFD222" s="2"/>
+    </row>
+    <row r="223" s="1" customFormat="1" customHeight="1" spans="1:16384">
+      <c r="A223" s="5"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D223" s="20"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="XFD223" s="2"/>
+    </row>
+    <row r="224" ht="38" customHeight="1" spans="2:6">
+      <c r="B224" s="17"/>
+      <c r="C224" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D224" s="20"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+    </row>
+    <row r="225" ht="38" customHeight="1" spans="1:6">
+      <c r="A225"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D225" s="20"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+    </row>
+    <row r="226" ht="38" customHeight="1" spans="2:6">
+      <c r="B226" s="17"/>
+      <c r="C226" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D226" s="20"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" ht="38" customHeight="1" spans="2:6">
+      <c r="B227" s="18"/>
+      <c r="C227" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D227" s="20"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" ht="38" customHeight="1" spans="2:6">
+      <c r="B228" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" s="20"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+    </row>
+    <row r="229" ht="38" customHeight="1" spans="2:6">
+      <c r="B229" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D229" s="20"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+    </row>
+    <row r="230" ht="38" customHeight="1" spans="2:6">
+      <c r="B230" s="5"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+    </row>
+    <row r="231" ht="38" customHeight="1" spans="2:6">
+      <c r="B231" s="5"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+    </row>
+    <row r="232" ht="38" customHeight="1" spans="2:6">
+      <c r="B232" s="5"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233" ht="38" customHeight="1" spans="2:6">
+      <c r="B233" s="5"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" ht="38" customHeight="1" spans="2:6">
+      <c r="B234" s="5"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235" ht="38" customHeight="1" spans="1:6">
+      <c r="A235"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+    </row>
+    <row r="236" ht="38" customHeight="1" spans="2:6">
+      <c r="B236" s="5"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237" ht="38" customHeight="1" spans="2:6">
+      <c r="B237" s="5"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+    </row>
+    <row r="238" ht="38" customHeight="1" spans="2:6">
+      <c r="B238" s="5"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+    </row>
+    <row r="239" ht="38" customHeight="1" spans="2:6">
+      <c r="B239" s="5"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+    </row>
+    <row r="240" ht="38" customHeight="1" spans="2:6">
+      <c r="B240" s="5"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+    </row>
+    <row r="241" ht="38" customHeight="1" spans="2:6">
+      <c r="B241" s="5"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+    </row>
+    <row r="242" ht="38" customHeight="1" spans="2:6">
+      <c r="B242" s="5"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+    </row>
+    <row r="243" ht="38" customHeight="1" spans="2:6">
+      <c r="B243" s="5"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+    </row>
+    <row r="244" ht="38" customHeight="1" spans="2:6">
+      <c r="B244" s="5"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+    </row>
+    <row r="245" ht="38" customHeight="1" spans="1:6">
+      <c r="A245"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+    </row>
+    <row r="246" ht="38" customHeight="1" spans="2:6">
+      <c r="B246" s="5"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+    </row>
+    <row r="247" ht="38" customHeight="1" spans="2:6">
+      <c r="B247" s="5"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+    </row>
+    <row r="248" ht="38" customHeight="1" spans="2:6">
+      <c r="B248" s="5"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+    </row>
+    <row r="249" ht="38" customHeight="1" spans="2:6">
+      <c r="B249" s="5"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+    </row>
+    <row r="250" ht="38" customHeight="1" spans="2:6">
+      <c r="B250" s="5"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+    </row>
+    <row r="251" ht="38" customHeight="1" spans="2:6">
+      <c r="B251" s="5"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+    </row>
+    <row r="252" ht="38" customHeight="1" spans="2:6">
+      <c r="B252" s="5"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+    </row>
+    <row r="253" ht="38" customHeight="1" spans="2:6">
+      <c r="B253" s="5"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+    </row>
+    <row r="254" ht="38" customHeight="1" spans="2:6">
+      <c r="B254" s="5"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+    </row>
+    <row r="255" ht="38" customHeight="1" spans="1:6">
+      <c r="A255"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+    </row>
+    <row r="256" ht="38" customHeight="1" spans="2:6">
+      <c r="B256" s="5"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+    </row>
+    <row r="257" ht="38" customHeight="1" spans="2:6">
+      <c r="B257" s="5"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+    </row>
+    <row r="258" ht="38" customHeight="1" spans="2:6">
+      <c r="B258" s="5"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+    </row>
+    <row r="259" ht="38" customHeight="1" spans="2:6">
+      <c r="B259" s="5"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" ht="38" customHeight="1" spans="2:6">
+      <c r="B260" s="5"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" ht="38" customHeight="1" spans="2:6">
+      <c r="B261" s="5"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" ht="38" customHeight="1" spans="2:6">
+      <c r="B262" s="5"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" ht="38" customHeight="1" spans="2:6">
+      <c r="B263" s="5"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+    </row>
+    <row r="264" ht="38" customHeight="1" spans="2:6">
+      <c r="B264" s="5"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+    </row>
+    <row r="265" ht="38" customHeight="1" spans="1:6">
+      <c r="A265"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+    </row>
+    <row r="266" ht="38" customHeight="1" spans="2:6">
+      <c r="B266" s="5"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+    </row>
+    <row r="267" ht="38" customHeight="1" spans="2:6">
+      <c r="B267" s="5"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+    </row>
+    <row r="268" ht="38" customHeight="1" spans="2:6">
+      <c r="B268" s="5"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+    </row>
+    <row r="269" ht="38" customHeight="1" spans="2:6">
+      <c r="B269" s="5"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+    </row>
+    <row r="270" ht="38" customHeight="1" spans="2:6">
+      <c r="B270" s="5"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+    </row>
+    <row r="271" ht="38" customHeight="1" spans="2:6">
+      <c r="B271" s="5"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+    </row>
+    <row r="272" ht="38" customHeight="1" spans="2:6">
+      <c r="B272" s="5"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+    </row>
+    <row r="273" ht="38" customHeight="1" spans="2:6">
+      <c r="B273" s="5"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+    </row>
+    <row r="274" ht="38" customHeight="1" spans="2:6">
+      <c r="B274" s="5"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+    </row>
+    <row r="275" ht="38" customHeight="1" spans="1:6">
+      <c r="A275"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+    </row>
+    <row r="276" ht="38" customHeight="1" spans="2:6">
+      <c r="B276" s="5"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+    </row>
+    <row r="277" ht="38" customHeight="1" spans="2:6">
+      <c r="B277" s="5"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+    </row>
+    <row r="278" ht="38" customHeight="1" spans="2:6">
+      <c r="B278" s="5"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+    </row>
+    <row r="279" ht="38" customHeight="1" spans="2:6">
+      <c r="B279" s="5"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+    </row>
+    <row r="280" ht="38" customHeight="1" spans="2:6">
+      <c r="B280" s="5"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+    </row>
+    <row r="281" ht="38" customHeight="1" spans="2:6">
+      <c r="B281" s="5"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+    </row>
+    <row r="282" ht="38" customHeight="1" spans="2:6">
+      <c r="B282" s="5"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+    </row>
+    <row r="283" ht="38" customHeight="1" spans="2:6">
+      <c r="B283" s="5"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+    </row>
+    <row r="284" ht="38" customHeight="1" spans="2:6">
+      <c r="B284" s="5"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+    </row>
+    <row r="285" ht="38" customHeight="1" spans="1:6">
+      <c r="A285"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+    </row>
+    <row r="286" ht="38" customHeight="1" spans="2:6">
+      <c r="B286" s="5"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+    </row>
+    <row r="287" ht="38" customHeight="1" spans="2:6">
+      <c r="B287" s="5"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+    </row>
+    <row r="288" ht="38" customHeight="1" spans="2:6">
+      <c r="B288" s="5"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+    </row>
+    <row r="289" ht="38" customHeight="1" spans="2:6">
+      <c r="B289" s="5"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+    </row>
+    <row r="290" ht="38" customHeight="1" spans="2:6">
+      <c r="B290" s="5"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+    </row>
+    <row r="291" ht="38" customHeight="1" spans="2:6">
+      <c r="B291" s="5"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+    </row>
+    <row r="292" ht="38" customHeight="1" spans="2:6">
+      <c r="B292" s="5"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+    </row>
+    <row r="293" ht="38" customHeight="1" spans="2:6">
+      <c r="B293" s="5"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+    </row>
+    <row r="294" ht="38" customHeight="1" spans="2:6">
+      <c r="B294" s="5"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+    </row>
+    <row r="295" ht="38" customHeight="1" spans="1:6">
+      <c r="A295"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+    </row>
+    <row r="296" ht="38" customHeight="1" spans="2:6">
+      <c r="B296" s="5"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+    </row>
+    <row r="297" ht="38" customHeight="1" spans="2:6">
+      <c r="B297" s="5"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+    </row>
+    <row r="298" ht="38" customHeight="1" spans="2:6">
+      <c r="B298" s="5"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+    </row>
+    <row r="299" ht="38" customHeight="1" spans="2:6">
+      <c r="B299" s="5"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+    </row>
+    <row r="300" ht="38" customHeight="1" spans="2:6">
+      <c r="B300" s="5"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+    </row>
+    <row r="301" ht="38" customHeight="1" spans="2:6">
+      <c r="B301" s="5"/>
+      <c r="C301" s="19"/>
+      <c r="D301" s="20"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+    </row>
+    <row r="302" ht="38" customHeight="1" spans="2:6">
+      <c r="B302" s="5"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="20"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+    </row>
+    <row r="303" ht="38" customHeight="1" spans="2:6">
+      <c r="B303" s="5"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+    </row>
+    <row r="304" ht="38" customHeight="1" spans="2:6">
+      <c r="B304" s="5"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+    </row>
+    <row r="305" ht="38" customHeight="1" spans="1:6">
+      <c r="A305"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+    </row>
+    <row r="306" ht="38" customHeight="1" spans="2:6">
+      <c r="B306" s="5"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+    </row>
+    <row r="307" ht="38" customHeight="1" spans="2:6">
+      <c r="B307" s="5"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="20"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+    </row>
+    <row r="308" ht="38" customHeight="1" spans="2:6">
+      <c r="B308" s="5"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="20"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+    </row>
+    <row r="309" ht="38" customHeight="1" spans="2:6">
+      <c r="B309" s="5"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+    </row>
+    <row r="310" ht="38" customHeight="1" spans="2:6">
+      <c r="B310" s="5"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="20"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+    </row>
+    <row r="311" ht="38" customHeight="1" spans="2:6">
+      <c r="B311" s="5"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+    </row>
+    <row r="312" ht="38" customHeight="1" spans="2:6">
+      <c r="B312" s="5"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="20"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+    </row>
+    <row r="313" ht="38" customHeight="1" spans="2:6">
+      <c r="B313" s="5"/>
+      <c r="C313" s="19"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+    </row>
+    <row r="314" ht="38" customHeight="1" spans="2:6">
+      <c r="B314" s="5"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+    </row>
+    <row r="315" ht="38" customHeight="1" spans="1:6">
+      <c r="A315"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="20"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+    </row>
+    <row r="316" ht="38" customHeight="1" spans="2:6">
+      <c r="B316" s="5"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="20"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+    </row>
+    <row r="317" ht="38" customHeight="1" spans="2:6">
+      <c r="B317" s="5"/>
+      <c r="C317" s="19"/>
+      <c r="D317" s="20"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+    </row>
+    <row r="318" ht="38" customHeight="1" spans="2:6">
+      <c r="B318" s="5"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="20"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+    </row>
+    <row r="319" ht="38" customHeight="1" spans="2:6">
+      <c r="B319" s="5"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+    </row>
+    <row r="320" ht="38" customHeight="1" spans="2:6">
+      <c r="B320" s="5"/>
+      <c r="C320" s="19"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+    </row>
+    <row r="321" ht="38" customHeight="1" spans="2:6">
+      <c r="B321" s="5"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="20"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+    </row>
+    <row r="322" ht="38" customHeight="1" spans="2:6">
+      <c r="B322" s="5"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="20"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+    </row>
+    <row r="323" ht="38" customHeight="1" spans="2:6">
+      <c r="B323" s="5"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+    </row>
+    <row r="324" ht="38" customHeight="1" spans="2:6">
+      <c r="B324" s="5"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="20"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+    </row>
+    <row r="325" ht="38" customHeight="1" spans="1:6">
+      <c r="A325"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="20"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+    </row>
+    <row r="326" ht="38" customHeight="1" spans="2:6">
+      <c r="B326" s="5"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+    </row>
+    <row r="327" ht="38" customHeight="1" spans="2:6">
+      <c r="B327" s="5"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+    </row>
+    <row r="328" ht="38" customHeight="1" spans="2:6">
+      <c r="B328" s="5"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+    </row>
+    <row r="329" ht="38" customHeight="1" spans="2:6">
+      <c r="B329" s="5"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+    </row>
+    <row r="330" ht="38" customHeight="1" spans="2:6">
+      <c r="B330" s="5"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+    </row>
+    <row r="331" ht="38" customHeight="1" spans="2:6">
+      <c r="B331" s="5"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+    </row>
+    <row r="332" ht="38" customHeight="1" spans="2:6">
+      <c r="B332" s="5"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+    </row>
+    <row r="333" ht="38" customHeight="1" spans="2:6">
+      <c r="B333" s="5"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+    </row>
+    <row r="334" ht="38" customHeight="1" spans="2:6">
+      <c r="B334" s="5"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+    </row>
+    <row r="335" ht="38" customHeight="1" spans="1:6">
+      <c r="A335"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+    </row>
+    <row r="336" ht="38" customHeight="1" spans="2:6">
+      <c r="B336" s="5"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="20"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+    </row>
+    <row r="337" ht="38" customHeight="1" spans="2:6">
+      <c r="B337" s="5"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+    </row>
+    <row r="338" ht="38" customHeight="1" spans="2:6">
+      <c r="B338" s="5"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="20"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+    </row>
+    <row r="339" ht="38" customHeight="1" spans="2:6">
+      <c r="B339" s="5"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="20"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+    </row>
+    <row r="340" ht="38" customHeight="1" spans="2:6">
+      <c r="B340" s="5"/>
+      <c r="C340" s="19"/>
+      <c r="D340" s="20"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+    </row>
+    <row r="341" ht="38" customHeight="1" spans="2:6">
+      <c r="B341" s="5"/>
+      <c r="C341" s="19"/>
+      <c r="D341" s="20"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+    </row>
+    <row r="342" ht="38" customHeight="1" spans="2:6">
+      <c r="B342" s="5"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="20"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+    </row>
+    <row r="343" ht="38" customHeight="1" spans="2:6">
+      <c r="B343" s="5"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+    </row>
+    <row r="344" ht="38" customHeight="1" spans="2:6">
+      <c r="B344" s="5"/>
+      <c r="C344" s="19"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+    </row>
+    <row r="345" ht="38" customHeight="1" spans="1:6">
+      <c r="A345"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="19"/>
+      <c r="D345" s="20"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+    </row>
+    <row r="346" ht="38" customHeight="1" spans="2:6">
+      <c r="B346" s="5"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="20"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+    </row>
+    <row r="347" ht="38" customHeight="1" spans="2:6">
+      <c r="B347" s="5"/>
+      <c r="C347" s="19"/>
+      <c r="D347" s="20"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+    </row>
+    <row r="348" ht="38" customHeight="1" spans="2:6">
+      <c r="B348" s="5"/>
+      <c r="C348" s="19"/>
+      <c r="D348" s="20"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+    </row>
+    <row r="349" ht="38" customHeight="1" spans="2:6">
+      <c r="B349" s="5"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="20"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+    </row>
+    <row r="350" ht="38" customHeight="1" spans="2:6">
+      <c r="B350" s="5"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="20"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+    </row>
+    <row r="351" ht="38" customHeight="1" spans="2:6">
+      <c r="B351" s="5"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="20"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+    </row>
+    <row r="352" ht="38" customHeight="1" spans="2:6">
+      <c r="B352" s="5"/>
+      <c r="C352" s="19"/>
+      <c r="D352" s="20"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+    </row>
+    <row r="353" ht="38" customHeight="1" spans="2:6">
+      <c r="B353" s="5"/>
+      <c r="C353" s="19"/>
+      <c r="D353" s="20"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+    </row>
+    <row r="354" ht="38" customHeight="1" spans="2:6">
+      <c r="B354" s="5"/>
+      <c r="C354" s="19"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+    </row>
+    <row r="355" ht="38" customHeight="1" spans="1:6">
+      <c r="A355"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="19"/>
+      <c r="D355" s="20"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+    </row>
+    <row r="356" ht="38" customHeight="1" spans="2:6">
+      <c r="B356" s="5"/>
+      <c r="C356" s="19"/>
+      <c r="D356" s="20"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+    </row>
+    <row r="357" ht="38" customHeight="1" spans="2:6">
+      <c r="B357" s="5"/>
+      <c r="C357" s="19"/>
+      <c r="D357" s="20"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+    </row>
+    <row r="358" ht="38" customHeight="1" spans="2:6">
+      <c r="B358" s="5"/>
+      <c r="C358" s="19"/>
+      <c r="D358" s="20"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+    </row>
+    <row r="359" ht="38" customHeight="1" spans="2:6">
+      <c r="B359" s="5"/>
+      <c r="C359" s="19"/>
+      <c r="D359" s="20"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+    </row>
+    <row r="360" ht="38" customHeight="1" spans="2:6">
+      <c r="B360" s="5"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="20"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+    </row>
+    <row r="361" ht="38" customHeight="1" spans="2:6">
+      <c r="B361" s="5"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="20"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+    </row>
+    <row r="362" ht="38" customHeight="1" spans="2:6">
+      <c r="B362" s="5"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="20"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+    </row>
+    <row r="363" ht="38" customHeight="1" spans="2:6">
+      <c r="B363" s="5"/>
+      <c r="C363" s="19"/>
+      <c r="D363" s="20"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+    </row>
+    <row r="364" ht="38" customHeight="1" spans="2:6">
+      <c r="B364" s="5"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="20"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+    </row>
+    <row r="365" ht="38" customHeight="1" spans="1:6">
+      <c r="A365"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="19"/>
+      <c r="D365" s="20"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+    </row>
+    <row r="366" ht="38" customHeight="1" spans="2:6">
+      <c r="B366" s="5"/>
+      <c r="C366" s="19"/>
+      <c r="D366" s="20"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+    </row>
+    <row r="367" ht="38" customHeight="1" spans="2:6">
+      <c r="B367" s="5"/>
+      <c r="C367" s="19"/>
+      <c r="D367" s="20"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+    </row>
+    <row r="368" ht="38" customHeight="1" spans="2:6">
+      <c r="B368" s="5"/>
+      <c r="C368" s="19"/>
+      <c r="D368" s="20"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+    </row>
+    <row r="369" ht="38" customHeight="1" spans="2:6">
+      <c r="B369" s="5"/>
+      <c r="C369" s="19"/>
+      <c r="D369" s="20"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+    </row>
+    <row r="370" ht="38" customHeight="1" spans="2:6">
+      <c r="B370" s="5"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="20"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+    </row>
+    <row r="371" ht="38" customHeight="1" spans="2:6">
+      <c r="B371" s="5"/>
+      <c r="C371" s="19"/>
+      <c r="D371" s="20"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+    </row>
+    <row r="372" ht="38" customHeight="1" spans="2:6">
+      <c r="B372" s="5"/>
+      <c r="C372" s="19"/>
+      <c r="D372" s="20"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+    </row>
+    <row r="373" ht="38" customHeight="1" spans="2:6">
+      <c r="B373" s="5"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="20"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+    </row>
+    <row r="374" ht="38" customHeight="1" spans="2:6">
+      <c r="B374" s="5"/>
+      <c r="C374" s="19"/>
+      <c r="D374" s="20"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+    </row>
+    <row r="375" ht="38" customHeight="1" spans="1:6">
+      <c r="A375"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="19"/>
+      <c r="D375" s="20"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+    </row>
+    <row r="376" ht="38" customHeight="1" spans="2:6">
+      <c r="B376" s="5"/>
+      <c r="C376" s="19"/>
+      <c r="D376" s="20"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+    </row>
+    <row r="377" ht="38" customHeight="1" spans="2:6">
+      <c r="B377" s="5"/>
+      <c r="C377" s="19"/>
+      <c r="D377" s="20"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+    </row>
+    <row r="378" ht="38" customHeight="1" spans="2:6">
+      <c r="B378" s="5"/>
+      <c r="C378" s="19"/>
+      <c r="D378" s="20"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+    </row>
+    <row r="379" ht="38" customHeight="1" spans="2:6">
+      <c r="B379" s="5"/>
+      <c r="C379" s="19"/>
+      <c r="D379" s="20"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+    </row>
+    <row r="380" ht="38" customHeight="1" spans="2:6">
+      <c r="B380" s="5"/>
+      <c r="C380" s="19"/>
+      <c r="D380" s="20"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+    </row>
+    <row r="381" ht="38" customHeight="1" spans="2:6">
+      <c r="B381" s="5"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="20"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+    </row>
+    <row r="382" ht="38" customHeight="1" spans="2:6">
+      <c r="B382" s="5"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="20"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+    </row>
+    <row r="383" ht="38" customHeight="1" spans="2:6">
+      <c r="B383" s="5"/>
+      <c r="C383" s="19"/>
+      <c r="D383" s="20"/>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+    </row>
+    <row r="384" ht="38" customHeight="1" spans="2:6">
+      <c r="B384" s="5"/>
+      <c r="C384" s="19"/>
+      <c r="D384" s="20"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+    </row>
+    <row r="385" ht="38" customHeight="1" spans="1:6">
+      <c r="A385"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="20"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+    </row>
+    <row r="386" ht="38" customHeight="1" spans="2:6">
+      <c r="B386" s="5"/>
+      <c r="C386" s="19"/>
+      <c r="D386" s="20"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+    </row>
+    <row r="387" ht="38" customHeight="1" spans="2:6">
+      <c r="B387" s="5"/>
+      <c r="C387" s="19"/>
+      <c r="D387" s="20"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+    </row>
+    <row r="388" ht="38" customHeight="1" spans="2:6">
+      <c r="B388" s="5"/>
+      <c r="C388" s="19"/>
+      <c r="D388" s="20"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+    </row>
+    <row r="389" ht="38" customHeight="1" spans="2:6">
+      <c r="B389" s="5"/>
+      <c r="C389" s="19"/>
+      <c r="D389" s="20"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+    </row>
+    <row r="390" ht="38" customHeight="1" spans="2:6">
+      <c r="B390" s="5"/>
+      <c r="C390" s="19"/>
+      <c r="D390" s="20"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+    </row>
+    <row r="391" ht="38" customHeight="1" spans="2:6">
+      <c r="B391" s="5"/>
+      <c r="C391" s="19"/>
+      <c r="D391" s="20"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+    </row>
+    <row r="392" ht="38" customHeight="1" spans="2:6">
+      <c r="B392" s="5"/>
+      <c r="C392" s="19"/>
+      <c r="D392" s="20"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+    </row>
+    <row r="393" ht="38" customHeight="1" spans="2:6">
+      <c r="B393" s="5"/>
+      <c r="C393" s="19"/>
+      <c r="D393" s="20"/>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+    </row>
+    <row r="394" ht="38" customHeight="1" spans="2:6">
+      <c r="B394" s="5"/>
+      <c r="C394" s="19"/>
+      <c r="D394" s="20"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+    </row>
+    <row r="395" ht="38" customHeight="1" spans="1:6">
+      <c r="A395"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="19"/>
+      <c r="D395" s="20"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+    </row>
+    <row r="396" ht="38" customHeight="1" spans="2:6">
+      <c r="B396" s="5"/>
+      <c r="C396" s="19"/>
+      <c r="D396" s="20"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+    </row>
+    <row r="397" ht="38" customHeight="1" spans="2:6">
+      <c r="B397" s="5"/>
+      <c r="C397" s="19"/>
+      <c r="D397" s="20"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+    </row>
+    <row r="398" ht="38" customHeight="1" spans="2:6">
+      <c r="B398" s="5"/>
+      <c r="C398" s="19"/>
+      <c r="D398" s="20"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+    </row>
+    <row r="399" ht="38" customHeight="1" spans="2:6">
+      <c r="B399" s="5"/>
+      <c r="C399" s="19"/>
+      <c r="D399" s="20"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+    </row>
+    <row r="400" ht="38" customHeight="1" spans="2:6">
+      <c r="B400" s="5"/>
+      <c r="C400" s="19"/>
+      <c r="D400" s="20"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+    </row>
+    <row r="401" ht="38" customHeight="1" spans="2:6">
+      <c r="B401" s="5"/>
+      <c r="C401" s="19"/>
+      <c r="D401" s="20"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+    </row>
+    <row r="402" ht="38" customHeight="1" spans="2:6">
+      <c r="B402" s="5"/>
+      <c r="C402" s="19"/>
+      <c r="D402" s="20"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+    </row>
+    <row r="403" ht="38" customHeight="1" spans="2:6">
+      <c r="B403" s="5"/>
+      <c r="C403" s="19"/>
+      <c r="D403" s="20"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+    </row>
+    <row r="404" ht="38" customHeight="1" spans="2:6">
+      <c r="B404" s="5"/>
+      <c r="C404" s="19"/>
+      <c r="D404" s="20"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+    </row>
+    <row r="405" ht="38" customHeight="1" spans="1:6">
+      <c r="A405"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="19"/>
+      <c r="D405" s="20"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+    </row>
+    <row r="406" ht="38" customHeight="1" spans="2:6">
+      <c r="B406" s="5"/>
+      <c r="C406" s="19"/>
+      <c r="D406" s="20"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+    </row>
+    <row r="407" ht="38" customHeight="1" spans="2:6">
+      <c r="B407" s="5"/>
+      <c r="C407" s="19"/>
+      <c r="D407" s="20"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+    </row>
+    <row r="408" ht="38" customHeight="1" spans="2:6">
+      <c r="B408" s="5"/>
+      <c r="C408" s="19"/>
+      <c r="D408" s="20"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+    </row>
+    <row r="409" ht="38" customHeight="1" spans="2:6">
+      <c r="B409" s="5"/>
+      <c r="C409" s="19"/>
+      <c r="D409" s="20"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+    </row>
+    <row r="410" ht="38" customHeight="1" spans="2:6">
+      <c r="B410" s="5"/>
+      <c r="C410" s="19"/>
+      <c r="D410" s="20"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+    </row>
+    <row r="411" ht="38" customHeight="1" spans="2:6">
+      <c r="B411" s="5"/>
+      <c r="C411" s="19"/>
+      <c r="D411" s="20"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+    </row>
+    <row r="412" ht="38" customHeight="1" spans="2:6">
+      <c r="B412" s="5"/>
+      <c r="C412" s="19"/>
+      <c r="D412" s="20"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+    </row>
+    <row r="413" ht="38" customHeight="1" spans="2:6">
+      <c r="B413" s="5"/>
+      <c r="C413" s="19"/>
+      <c r="D413" s="20"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+    </row>
+    <row r="414" ht="38" customHeight="1" spans="2:6">
+      <c r="B414" s="5"/>
+      <c r="C414" s="19"/>
+      <c r="D414" s="20"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+    </row>
+    <row r="415" ht="38" customHeight="1" spans="1:6">
+      <c r="A415"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="19"/>
+      <c r="D415" s="20"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+    </row>
+    <row r="416" ht="38" customHeight="1" spans="2:6">
+      <c r="B416" s="5"/>
+      <c r="C416" s="19"/>
+      <c r="D416" s="20"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+    </row>
+    <row r="417" ht="38" customHeight="1" spans="2:6">
+      <c r="B417" s="5"/>
+      <c r="C417" s="19"/>
+      <c r="D417" s="20"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+    </row>
+    <row r="418" ht="38" customHeight="1" spans="2:6">
+      <c r="B418" s="5"/>
+      <c r="C418" s="19"/>
+      <c r="D418" s="20"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+    </row>
+    <row r="419" ht="38" customHeight="1" spans="2:6">
+      <c r="B419" s="5"/>
+      <c r="C419" s="19"/>
+      <c r="D419" s="20"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+    </row>
+    <row r="420" ht="38" customHeight="1" spans="2:6">
+      <c r="B420" s="5"/>
+      <c r="C420" s="19"/>
+      <c r="D420" s="20"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+    </row>
+    <row r="421" ht="38" customHeight="1" spans="2:6">
+      <c r="B421" s="5"/>
+      <c r="C421" s="19"/>
+      <c r="D421" s="20"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+    </row>
+    <row r="422" ht="38" customHeight="1" spans="2:6">
+      <c r="B422" s="5"/>
+      <c r="C422" s="19"/>
+      <c r="D422" s="20"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+    </row>
+    <row r="423" ht="38" customHeight="1" spans="2:6">
+      <c r="B423" s="5"/>
+      <c r="C423" s="19"/>
+      <c r="D423" s="20"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+    </row>
+    <row r="424" ht="38" customHeight="1" spans="2:6">
+      <c r="B424" s="5"/>
+      <c r="C424" s="19"/>
+      <c r="D424" s="20"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+    </row>
+    <row r="425" ht="38" customHeight="1" spans="1:6">
+      <c r="A425"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="19"/>
+      <c r="D425" s="20"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+    </row>
+    <row r="426" ht="38" customHeight="1" spans="2:6">
+      <c r="B426" s="5"/>
+      <c r="C426" s="19"/>
+      <c r="D426" s="20"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+    </row>
+    <row r="427" ht="38" customHeight="1" spans="2:6">
+      <c r="B427" s="5"/>
+      <c r="C427" s="19"/>
+      <c r="D427" s="20"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+    </row>
+    <row r="428" ht="38" customHeight="1" spans="2:6">
+      <c r="B428" s="5"/>
+      <c r="C428" s="19"/>
+      <c r="D428" s="20"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+    </row>
+    <row r="429" ht="38" customHeight="1" spans="2:6">
+      <c r="B429" s="5"/>
+      <c r="C429" s="19"/>
+      <c r="D429" s="20"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+    </row>
+    <row r="430" ht="38" customHeight="1" spans="2:6">
+      <c r="B430" s="5"/>
+      <c r="C430" s="19"/>
+      <c r="D430" s="20"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+    </row>
+    <row r="431" ht="38" customHeight="1" spans="2:6">
+      <c r="B431" s="5"/>
+      <c r="C431" s="19"/>
+      <c r="D431" s="20"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+    </row>
+    <row r="432" ht="38" customHeight="1" spans="2:6">
+      <c r="B432" s="5"/>
+      <c r="C432" s="19"/>
+      <c r="D432" s="20"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+    </row>
+    <row r="433" ht="38" customHeight="1" spans="2:6">
+      <c r="B433" s="5"/>
+      <c r="C433" s="19"/>
+      <c r="D433" s="20"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+    </row>
+    <row r="434" ht="38" customHeight="1" spans="2:6">
+      <c r="B434" s="5"/>
+      <c r="C434" s="19"/>
+      <c r="D434" s="20"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+    </row>
+    <row r="435" ht="38" customHeight="1" spans="1:6">
+      <c r="A435"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="19"/>
+      <c r="D435" s="20"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+    </row>
+    <row r="436" ht="38" customHeight="1" spans="2:6">
+      <c r="B436" s="5"/>
+      <c r="C436" s="19"/>
+      <c r="D436" s="20"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+    </row>
+    <row r="437" ht="38" customHeight="1" spans="2:6">
+      <c r="B437" s="5"/>
+      <c r="C437" s="19"/>
+      <c r="D437" s="20"/>
+      <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+    </row>
+    <row r="438" ht="38" customHeight="1" spans="2:6">
+      <c r="B438" s="5"/>
+      <c r="C438" s="19"/>
+      <c r="D438" s="20"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+    </row>
+    <row r="439" ht="38" customHeight="1" spans="2:6">
+      <c r="B439" s="5"/>
+      <c r="C439" s="19"/>
+      <c r="D439" s="20"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+    </row>
+    <row r="440" ht="38" customHeight="1" spans="2:6">
+      <c r="B440" s="5"/>
+      <c r="C440" s="19"/>
+      <c r="D440" s="20"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+    </row>
+    <row r="441" ht="38" customHeight="1" spans="2:6">
+      <c r="B441" s="5"/>
+      <c r="C441" s="19"/>
+      <c r="D441" s="20"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+    </row>
+    <row r="442" ht="38" customHeight="1" spans="2:6">
+      <c r="B442" s="5"/>
+      <c r="C442" s="19"/>
+      <c r="D442" s="20"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+    </row>
+    <row r="443" ht="38" customHeight="1" spans="2:6">
+      <c r="B443" s="5"/>
+      <c r="C443" s="19"/>
+      <c r="D443" s="20"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+    </row>
+    <row r="444" ht="38" customHeight="1" spans="2:6">
+      <c r="B444" s="5"/>
+      <c r="C444" s="19"/>
+      <c r="D444" s="20"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+    </row>
+    <row r="445" ht="38" customHeight="1" spans="1:6">
+      <c r="A445"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="19"/>
+      <c r="D445" s="20"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+    </row>
+    <row r="446" ht="38" customHeight="1" spans="2:6">
+      <c r="B446" s="5"/>
+      <c r="C446" s="19"/>
+      <c r="D446" s="20"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+    </row>
+    <row r="447" ht="38" customHeight="1" spans="2:6">
+      <c r="B447" s="5"/>
+      <c r="C447" s="19"/>
+      <c r="D447" s="20"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+    </row>
+    <row r="448" ht="38" customHeight="1" spans="2:6">
+      <c r="B448" s="5"/>
+      <c r="C448" s="19"/>
+      <c r="D448" s="20"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+    </row>
+    <row r="449" ht="38" customHeight="1" spans="2:6">
+      <c r="B449" s="5"/>
+      <c r="C449" s="19"/>
+      <c r="D449" s="20"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+    </row>
+    <row r="450" ht="38" customHeight="1" spans="2:6">
+      <c r="B450" s="5"/>
+      <c r="C450" s="19"/>
+      <c r="D450" s="20"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+    </row>
+    <row r="451" ht="38" customHeight="1" spans="2:6">
+      <c r="B451" s="5"/>
+      <c r="C451" s="19"/>
+      <c r="D451" s="20"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+    </row>
+    <row r="452" ht="38" customHeight="1" spans="2:6">
+      <c r="B452" s="5"/>
+      <c r="C452" s="19"/>
+      <c r="D452" s="20"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+    </row>
+    <row r="453" ht="38" customHeight="1" spans="2:6">
+      <c r="B453" s="5"/>
+      <c r="C453" s="19"/>
+      <c r="D453" s="20"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+    </row>
+    <row r="454" ht="38" customHeight="1" spans="2:6">
+      <c r="B454" s="5"/>
+      <c r="C454" s="19"/>
+      <c r="D454" s="20"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+    </row>
+    <row r="455" ht="38" customHeight="1" spans="1:6">
+      <c r="A455"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="19"/>
+      <c r="D455" s="20"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+    </row>
+    <row r="456" ht="38" customHeight="1" spans="2:6">
+      <c r="B456" s="5"/>
+      <c r="C456" s="19"/>
+      <c r="D456" s="20"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+    </row>
+    <row r="457" ht="38" customHeight="1" spans="2:6">
+      <c r="B457" s="5"/>
+      <c r="C457" s="19"/>
+      <c r="D457" s="20"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+    </row>
+    <row r="458" ht="38" customHeight="1" spans="2:6">
+      <c r="B458" s="5"/>
+      <c r="C458" s="19"/>
+      <c r="D458" s="20"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+    </row>
+    <row r="459" ht="38" customHeight="1" spans="2:6">
+      <c r="B459" s="5"/>
+      <c r="C459" s="19"/>
+      <c r="D459" s="20"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+    </row>
+    <row r="460" ht="38" customHeight="1" spans="2:6">
+      <c r="B460" s="5"/>
+      <c r="C460" s="19"/>
+      <c r="D460" s="20"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+    </row>
+    <row r="461" ht="38" customHeight="1" spans="2:6">
+      <c r="B461" s="5"/>
+      <c r="C461" s="19"/>
+      <c r="D461" s="20"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+    </row>
+    <row r="462" ht="38" customHeight="1" spans="2:6">
+      <c r="B462" s="5"/>
+      <c r="C462" s="19"/>
+      <c r="D462" s="20"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+    </row>
+    <row r="463" ht="38" customHeight="1" spans="2:6">
+      <c r="B463" s="5"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="20"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+    </row>
+    <row r="464" ht="38" customHeight="1" spans="2:6">
+      <c r="B464" s="5"/>
+      <c r="C464" s="19"/>
+      <c r="D464" s="20"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+    </row>
+    <row r="465" ht="38" customHeight="1" spans="1:6">
+      <c r="A465"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="20"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+    </row>
+    <row r="466" ht="38" customHeight="1" spans="2:6">
+      <c r="B466" s="5"/>
+      <c r="C466" s="19"/>
+      <c r="D466" s="20"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+    </row>
+    <row r="467" ht="38" customHeight="1" spans="2:6">
+      <c r="B467" s="5"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="20"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+    </row>
+    <row r="468" ht="38" customHeight="1" spans="2:6">
+      <c r="B468" s="5"/>
+      <c r="C468" s="19"/>
+      <c r="D468" s="20"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+    </row>
+    <row r="469" ht="38" customHeight="1" spans="2:6">
+      <c r="B469" s="5"/>
+      <c r="C469" s="19"/>
+      <c r="D469" s="20"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+    </row>
+    <row r="470" ht="38" customHeight="1" spans="2:6">
+      <c r="B470" s="5"/>
+      <c r="C470" s="19"/>
+      <c r="D470" s="20"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+    </row>
+    <row r="471" ht="38" customHeight="1" spans="2:6">
+      <c r="B471" s="5"/>
+      <c r="C471" s="19"/>
+      <c r="D471" s="20"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+    </row>
+    <row r="472" ht="38" customHeight="1" spans="2:6">
+      <c r="B472" s="5"/>
+      <c r="C472" s="19"/>
+      <c r="D472" s="20"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+    </row>
+    <row r="473" ht="38" customHeight="1" spans="2:6">
+      <c r="B473" s="5"/>
+      <c r="C473" s="19"/>
+      <c r="D473" s="20"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+    </row>
+    <row r="474" ht="38" customHeight="1" spans="2:6">
+      <c r="B474" s="5"/>
+      <c r="C474" s="19"/>
+      <c r="D474" s="20"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+    </row>
+    <row r="475" ht="38" customHeight="1" spans="1:6">
+      <c r="A475"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="20"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+    </row>
+    <row r="476" ht="38" customHeight="1" spans="2:6">
+      <c r="B476" s="5"/>
+      <c r="C476" s="19"/>
+      <c r="D476" s="20"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+    </row>
+    <row r="477" ht="38" customHeight="1" spans="2:6">
+      <c r="B477" s="5"/>
+      <c r="C477" s="19"/>
+      <c r="D477" s="20"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+    </row>
+    <row r="478" ht="38" customHeight="1" spans="2:6">
+      <c r="B478" s="5"/>
+      <c r="C478" s="19"/>
+      <c r="D478" s="20"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+    </row>
+    <row r="479" ht="38" customHeight="1" spans="2:6">
+      <c r="B479" s="5"/>
+      <c r="C479" s="19"/>
+      <c r="D479" s="20"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+    </row>
+    <row r="480" ht="38" customHeight="1" spans="2:6">
+      <c r="B480" s="5"/>
+      <c r="C480" s="19"/>
+      <c r="D480" s="20"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+    </row>
+    <row r="481" ht="38" customHeight="1" spans="2:6">
+      <c r="B481" s="5"/>
+      <c r="C481" s="19"/>
+      <c r="D481" s="20"/>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+    </row>
+    <row r="482" ht="38" customHeight="1" spans="2:6">
+      <c r="B482" s="5"/>
+      <c r="C482" s="19"/>
+      <c r="D482" s="20"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+    </row>
+    <row r="483" ht="38" customHeight="1" spans="2:6">
+      <c r="B483" s="5"/>
+      <c r="C483" s="19"/>
+      <c r="D483" s="20"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+    </row>
+    <row r="484" ht="38" customHeight="1" spans="2:6">
+      <c r="B484" s="5"/>
+      <c r="C484" s="19"/>
+      <c r="D484" s="20"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+    </row>
+    <row r="485" ht="38" customHeight="1" spans="1:6">
+      <c r="A485"/>
+      <c r="B485" s="5"/>
+      <c r="C485" s="19"/>
+      <c r="D485" s="20"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+    </row>
+    <row r="486" ht="38" customHeight="1" spans="2:6">
+      <c r="B486" s="5"/>
+      <c r="C486" s="19"/>
+      <c r="D486" s="20"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+    </row>
+    <row r="487" ht="38" customHeight="1" spans="2:6">
+      <c r="B487" s="5"/>
+      <c r="C487" s="19"/>
+      <c r="D487" s="20"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+    </row>
+    <row r="488" ht="38" customHeight="1" spans="2:6">
+      <c r="B488" s="5"/>
+      <c r="C488" s="19"/>
+      <c r="D488" s="20"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+    </row>
+    <row r="489" ht="38" customHeight="1" spans="2:6">
+      <c r="B489" s="5"/>
+      <c r="C489" s="19"/>
+      <c r="D489" s="20"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+    </row>
+    <row r="490" ht="38" customHeight="1" spans="2:6">
+      <c r="B490" s="5"/>
+      <c r="C490" s="19"/>
+      <c r="D490" s="20"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+    </row>
+    <row r="491" ht="38" customHeight="1" spans="2:6">
+      <c r="B491" s="5"/>
+      <c r="C491" s="19"/>
+      <c r="D491" s="20"/>
+      <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+    </row>
+    <row r="492" ht="38" customHeight="1" spans="2:6">
+      <c r="B492" s="5"/>
+      <c r="C492" s="19"/>
+      <c r="D492" s="20"/>
+      <c r="E492" s="5"/>
+      <c r="F492" s="5"/>
+    </row>
+    <row r="493" ht="38" customHeight="1" spans="2:6">
+      <c r="B493" s="5"/>
+      <c r="C493" s="19"/>
+      <c r="D493" s="20"/>
+      <c r="E493" s="5"/>
+      <c r="F493" s="5"/>
+    </row>
+    <row r="494" ht="38" customHeight="1" spans="2:6">
+      <c r="B494" s="5"/>
+      <c r="C494" s="19"/>
+      <c r="D494" s="20"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+    </row>
+    <row r="495" ht="38" customHeight="1" spans="1:6">
+      <c r="A495"/>
+      <c r="B495" s="5"/>
+      <c r="C495" s="19"/>
+      <c r="D495" s="20"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+    </row>
+    <row r="496" ht="38" customHeight="1" spans="2:6">
+      <c r="B496" s="5"/>
+      <c r="C496" s="19"/>
+      <c r="D496" s="20"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+    </row>
+    <row r="497" ht="38" customHeight="1" spans="2:6">
+      <c r="B497" s="5"/>
+      <c r="C497" s="19"/>
+      <c r="D497" s="20"/>
+      <c r="E497" s="5"/>
+      <c r="F497" s="5"/>
+    </row>
+    <row r="498" ht="38" customHeight="1" spans="2:6">
+      <c r="B498" s="5"/>
+      <c r="C498" s="19"/>
+      <c r="D498" s="20"/>
+      <c r="E498" s="5"/>
+      <c r="F498" s="5"/>
+    </row>
+    <row r="499" ht="38" customHeight="1" spans="2:6">
+      <c r="B499" s="5"/>
+      <c r="C499" s="19"/>
+      <c r="D499" s="20"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+    </row>
+    <row r="500" ht="38" customHeight="1" spans="2:6">
+      <c r="B500" s="5"/>
+      <c r="C500" s="19"/>
+      <c r="D500" s="20"/>
+      <c r="E500" s="5"/>
+      <c r="F500" s="5"/>
+    </row>
+    <row r="501" ht="38" customHeight="1" spans="2:6">
+      <c r="B501" s="5"/>
+      <c r="C501" s="19"/>
+      <c r="D501" s="20"/>
+      <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+    </row>
+    <row r="502" ht="38" customHeight="1" spans="2:6">
+      <c r="B502" s="5"/>
+      <c r="C502" s="19"/>
+      <c r="D502" s="20"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+    </row>
+    <row r="503" ht="38" customHeight="1" spans="2:6">
+      <c r="B503" s="5"/>
+      <c r="C503" s="19"/>
+      <c r="D503" s="20"/>
+      <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+    </row>
+    <row r="504" ht="38" customHeight="1" spans="2:6">
+      <c r="B504" s="5"/>
+      <c r="C504" s="19"/>
+      <c r="D504" s="20"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+    </row>
+    <row r="505" ht="38" customHeight="1" spans="1:6">
+      <c r="A505"/>
+      <c r="B505" s="5"/>
+      <c r="C505" s="19"/>
+      <c r="D505" s="20"/>
+      <c r="E505" s="5"/>
+      <c r="F505" s="5"/>
+    </row>
+    <row r="506" ht="38" customHeight="1" spans="2:6">
+      <c r="B506" s="5"/>
+      <c r="C506" s="19"/>
+      <c r="D506" s="20"/>
+      <c r="E506" s="5"/>
+      <c r="F506" s="5"/>
+    </row>
+    <row r="507" ht="38" customHeight="1" spans="2:6">
+      <c r="B507" s="5"/>
+      <c r="C507" s="19"/>
+      <c r="D507" s="20"/>
+      <c r="E507" s="5"/>
+      <c r="F507" s="5"/>
+    </row>
+    <row r="508" ht="38" customHeight="1" spans="2:6">
+      <c r="B508" s="5"/>
+      <c r="C508" s="19"/>
+      <c r="D508" s="20"/>
+      <c r="E508" s="5"/>
+      <c r="F508" s="5"/>
+    </row>
+    <row r="509" ht="38" customHeight="1" spans="2:6">
+      <c r="B509" s="5"/>
+      <c r="C509" s="19"/>
+      <c r="D509" s="20"/>
+      <c r="E509" s="5"/>
+      <c r="F509" s="5"/>
+    </row>
+    <row r="510" ht="38" customHeight="1" spans="2:6">
+      <c r="B510" s="5"/>
+      <c r="C510" s="19"/>
+      <c r="D510" s="20"/>
+      <c r="E510" s="5"/>
+      <c r="F510" s="5"/>
+    </row>
+    <row r="511" ht="38" customHeight="1" spans="2:6">
+      <c r="B511" s="5"/>
+      <c r="C511" s="19"/>
+      <c r="D511" s="20"/>
+      <c r="E511" s="5"/>
+      <c r="F511" s="5"/>
+    </row>
+    <row r="512" ht="38" customHeight="1" spans="2:6">
+      <c r="B512" s="5"/>
+      <c r="C512" s="19"/>
+      <c r="D512" s="20"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+    </row>
+    <row r="513" ht="38" customHeight="1" spans="2:6">
+      <c r="B513" s="5"/>
+      <c r="C513" s="19"/>
+      <c r="D513" s="20"/>
+      <c r="E513" s="5"/>
+      <c r="F513" s="5"/>
+    </row>
+    <row r="514" ht="38" customHeight="1" spans="2:6">
+      <c r="B514" s="5"/>
+      <c r="C514" s="19"/>
+      <c r="D514" s="20"/>
+      <c r="E514" s="5"/>
+      <c r="F514" s="5"/>
+    </row>
+    <row r="515" ht="38" customHeight="1" spans="1:6">
+      <c r="A515"/>
+      <c r="B515" s="5"/>
+      <c r="C515" s="19"/>
+      <c r="D515" s="20"/>
+      <c r="E515" s="5"/>
+      <c r="F515" s="5"/>
+    </row>
+    <row r="516" ht="38" customHeight="1" spans="2:6">
+      <c r="B516" s="5"/>
+      <c r="C516" s="19"/>
+      <c r="D516" s="20"/>
+      <c r="E516" s="5"/>
+      <c r="F516" s="5"/>
+    </row>
+    <row r="517" ht="38" customHeight="1" spans="2:6">
+      <c r="B517" s="5"/>
+      <c r="C517" s="19"/>
+      <c r="D517" s="20"/>
+      <c r="E517" s="5"/>
+      <c r="F517" s="5"/>
+    </row>
+    <row r="518" ht="38" customHeight="1" spans="2:6">
+      <c r="B518" s="5"/>
+      <c r="C518" s="19"/>
+      <c r="D518" s="20"/>
+      <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+    </row>
+    <row r="519" ht="38" customHeight="1" spans="2:6">
+      <c r="B519" s="5"/>
+      <c r="C519" s="19"/>
+      <c r="D519" s="20"/>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+    </row>
+    <row r="520" ht="38" customHeight="1" spans="2:6">
+      <c r="B520" s="5"/>
+      <c r="C520" s="19"/>
+      <c r="D520" s="20"/>
+      <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+    </row>
+    <row r="521" ht="38" customHeight="1" spans="2:6">
+      <c r="B521" s="5"/>
+      <c r="C521" s="19"/>
+      <c r="D521" s="20"/>
+      <c r="E521" s="5"/>
+      <c r="F521" s="5"/>
+    </row>
+    <row r="522" ht="38" customHeight="1" spans="2:6">
+      <c r="B522" s="5"/>
+      <c r="C522" s="19"/>
+      <c r="D522" s="20"/>
+      <c r="E522" s="5"/>
+      <c r="F522" s="5"/>
+    </row>
+    <row r="523" ht="38" customHeight="1" spans="2:6">
+      <c r="B523" s="5"/>
+      <c r="C523" s="19"/>
+      <c r="D523" s="20"/>
+      <c r="E523" s="5"/>
+      <c r="F523" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="495">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
@@ -4029,9 +7428,390 @@
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="C264:D264"/>
+    <mergeCell ref="C265:D265"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="C270:D270"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="C274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C276:D276"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="C281:D281"/>
+    <mergeCell ref="C282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C284:D284"/>
+    <mergeCell ref="C285:D285"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C289:D289"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C291:D291"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="C294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="C296:D296"/>
+    <mergeCell ref="C297:D297"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="C303:D303"/>
+    <mergeCell ref="C304:D304"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="C306:D306"/>
+    <mergeCell ref="C307:D307"/>
+    <mergeCell ref="C308:D308"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="C310:D310"/>
+    <mergeCell ref="C311:D311"/>
+    <mergeCell ref="C312:D312"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="C315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="C317:D317"/>
+    <mergeCell ref="C318:D318"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="C326:D326"/>
+    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C328:D328"/>
+    <mergeCell ref="C329:D329"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C331:D331"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="C333:D333"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C353:D353"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="C358:D358"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="C388:D388"/>
+    <mergeCell ref="C389:D389"/>
+    <mergeCell ref="C390:D390"/>
+    <mergeCell ref="C391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C393:D393"/>
+    <mergeCell ref="C394:D394"/>
+    <mergeCell ref="C395:D395"/>
+    <mergeCell ref="C396:D396"/>
+    <mergeCell ref="C397:D397"/>
+    <mergeCell ref="C398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="C401:D401"/>
+    <mergeCell ref="C402:D402"/>
+    <mergeCell ref="C403:D403"/>
+    <mergeCell ref="C404:D404"/>
+    <mergeCell ref="C405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="C410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="C414:D414"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="C416:D416"/>
+    <mergeCell ref="C417:D417"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="C421:D421"/>
+    <mergeCell ref="C422:D422"/>
+    <mergeCell ref="C423:D423"/>
+    <mergeCell ref="C424:D424"/>
+    <mergeCell ref="C425:D425"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="C428:D428"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="C430:D430"/>
+    <mergeCell ref="C431:D431"/>
+    <mergeCell ref="C432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C435:D435"/>
+    <mergeCell ref="C436:D436"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="C438:D438"/>
+    <mergeCell ref="C439:D439"/>
+    <mergeCell ref="C440:D440"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="C443:D443"/>
+    <mergeCell ref="C444:D444"/>
+    <mergeCell ref="C445:D445"/>
+    <mergeCell ref="C446:D446"/>
+    <mergeCell ref="C447:D447"/>
+    <mergeCell ref="C448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="C452:D452"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="C454:D454"/>
+    <mergeCell ref="C455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="C457:D457"/>
+    <mergeCell ref="C458:D458"/>
+    <mergeCell ref="C459:D459"/>
+    <mergeCell ref="C460:D460"/>
+    <mergeCell ref="C461:D461"/>
+    <mergeCell ref="C462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="C464:D464"/>
+    <mergeCell ref="C465:D465"/>
+    <mergeCell ref="C466:D466"/>
+    <mergeCell ref="C467:D467"/>
+    <mergeCell ref="C468:D468"/>
+    <mergeCell ref="C469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="C471:D471"/>
+    <mergeCell ref="C472:D472"/>
+    <mergeCell ref="C473:D473"/>
+    <mergeCell ref="C474:D474"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="C476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="C478:D478"/>
+    <mergeCell ref="C479:D479"/>
+    <mergeCell ref="C480:D480"/>
+    <mergeCell ref="C481:D481"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="C483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="C485:D485"/>
+    <mergeCell ref="C486:D486"/>
+    <mergeCell ref="C487:D487"/>
+    <mergeCell ref="C488:D488"/>
+    <mergeCell ref="C489:D489"/>
+    <mergeCell ref="C490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="C492:D492"/>
+    <mergeCell ref="C493:D493"/>
+    <mergeCell ref="C494:D494"/>
+    <mergeCell ref="C495:D495"/>
+    <mergeCell ref="C496:D496"/>
+    <mergeCell ref="C497:D497"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="C499:D499"/>
+    <mergeCell ref="C500:D500"/>
+    <mergeCell ref="C501:D501"/>
+    <mergeCell ref="C502:D502"/>
+    <mergeCell ref="C503:D503"/>
+    <mergeCell ref="C504:D504"/>
+    <mergeCell ref="C505:D505"/>
+    <mergeCell ref="C506:D506"/>
+    <mergeCell ref="C507:D507"/>
+    <mergeCell ref="C508:D508"/>
+    <mergeCell ref="C509:D509"/>
+    <mergeCell ref="C510:D510"/>
+    <mergeCell ref="C511:D511"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="C513:D513"/>
+    <mergeCell ref="C514:D514"/>
+    <mergeCell ref="C515:D515"/>
+    <mergeCell ref="C516:D516"/>
+    <mergeCell ref="C517:D517"/>
+    <mergeCell ref="C518:D518"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="C520:D520"/>
+    <mergeCell ref="C521:D521"/>
+    <mergeCell ref="C522:D522"/>
+    <mergeCell ref="C523:D523"/>
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="A40:A73"/>
     <mergeCell ref="A74:A125"/>
+    <mergeCell ref="A126:A150"/>
+    <mergeCell ref="A151:A159"/>
+    <mergeCell ref="A160:A186"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
@@ -4054,9 +7834,25 @@
     <mergeCell ref="B118:B124"/>
     <mergeCell ref="B126:B128"/>
     <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B134:B141"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B160:B169"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="B196:B205"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="B219:B227"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C206:C209"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E27:E31"/>
   </mergeCells>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590">
   <si>
     <t>章节</t>
   </si>
@@ -1442,6 +1442,1073 @@
   </si>
   <si>
     <t>开发，测试、培训和维护，实施</t>
+  </si>
+  <si>
+    <t>法律和法规要求</t>
+  </si>
+  <si>
+    <t>要求实施 BCP</t>
+  </si>
+  <si>
+    <t>业务影响分析</t>
+  </si>
+  <si>
+    <t>业务影响分析是分析中断对组织的长期影响的过程。业务影响分析帮助一个组织确定其基本的业务功能，并了解灾难对每项功能的影响；业务影响分析为业务连续性计划及其要求提供主要理由。BIA帮助一个组织确定其哪些业务功能更有弹性，哪些更脆弱。</t>
+  </si>
+  <si>
+    <t>业务影响分析（BIA）可以帮助确定关键业务功能。</t>
+  </si>
+  <si>
+    <t>定量决策</t>
+  </si>
+  <si>
+    <t>涉及使用数字和公示得出结论。这类数据结果通常用货币价值表示与业务相关的选项。</t>
+  </si>
+  <si>
+    <t>定性决策</t>
+  </si>
+  <si>
+    <t>考虑非数字因素，如声誉、投资者/客户信心、员工稳定性和其他相关事项。</t>
+  </si>
+  <si>
+    <t>通常用优先级别（高、中、低）表示。</t>
+  </si>
+  <si>
+    <t>确定优先级</t>
+  </si>
+  <si>
+    <r>
+      <t>BCP 团队要完成的第一个 BIA 任务是确定业务优先级。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据业务范围，当灾难发生时，有些活动对维持日常运营极为关键。确认优先级或关键性涉及创建业务流程的综合列表，并按重要性进行排序。</t>
+    </r>
+  </si>
+  <si>
+    <t>当整个 BCP 团队开会讨论时，团队成员可基于这些优先级列表为整个组织创建优先级主列表。</t>
+  </si>
+  <si>
+    <t>开始定量评估，BCP 团队需要一起制定组织资产清单，并为每项资产分配货币形式的资产价值（AV）。这些数字将在后续BIA步骤中使用，从而实施基于财务的 BIA。</t>
+  </si>
+  <si>
+    <t>MTD RTO RPO</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>MTD（Maximum Tolerable Downtime，最大允许中断时间），有时也称为最大容忍中断时间（Maximum Tolerable Outage, MTO）。MTD 是业务功能出现故障但不会对业务产生无法弥补的损害所允许的最长时间。</t>
+  </si>
+  <si>
+    <t>执行 BCP 和 DRP 计划时，MTD 提供了重要信息。</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>RTO（Recovery Time Objective，恢复时间目标），是指当中断发生后实际恢复业务功能所需的时间。一旦定义了恢复目标，就可以设计和规划所需的步骤去完成恢复任务。</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>RPO（Recovery Point Objective，恢复点目标）表示对可容忍的数据损失的测量，以时间段表示。</t>
+  </si>
+  <si>
+    <t>风险识别</t>
+  </si>
+  <si>
+    <t>风险的两种形式：自然风险与人为风险。</t>
+  </si>
+  <si>
+    <t>BIA 过程的风险识别部分本质上是纯粹的定性分析。在这个过程中，BCP 团队不应关注每种风险实际发生的可能性，或风险发生或会对业务持续运营造成的损害程度。</t>
+  </si>
+  <si>
+    <t>可能性评估</t>
+  </si>
+  <si>
+    <t>业务影响评估的下一个阶段是确定每种风险发生的可能性。</t>
+  </si>
+  <si>
+    <t>可能性评估采用年发生比率（Annualized Rate Of Occurrence, ARO）表示，ARO反映了业务每年预期遭受特定灾难的次数。</t>
+  </si>
+  <si>
+    <t>BCP 团队必须一起为先前识别的每种风险确定 ARO，这些数字应当基于公司的历史、团队成员的专业经验以及专家的建议。</t>
+  </si>
+  <si>
+    <t>影响评估</t>
+  </si>
+  <si>
+    <t>该阶段，需要分析识别的风险与可能性评估期间收集的数据，并且尝试确定如果每种风险发生会对业务产生什么影响。</t>
+  </si>
+  <si>
+    <t>业务影响涉及三个特定的度量：暴露因子、单一损失期望和年度损失期望。</t>
+  </si>
+  <si>
+    <t>暴露因子</t>
+  </si>
+  <si>
+    <r>
+      <t>暴露因子（Exposure Factor, EF）是指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险对资产造成损失的程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以资产价值的百分比来表示。</t>
+    </r>
+  </si>
+  <si>
+    <t>如建筑物发生火灾后造成70%的建筑物被毁坏，那么建筑物火灾的暴露因子就是70%</t>
+  </si>
+  <si>
+    <t>单一损失期望</t>
+  </si>
+  <si>
+    <r>
+      <t>单一损失期望（Single Loss Expectancy, SLE）是指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每次风险发生后预计造成的货币损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。SLE = AV * EF</t>
+    </r>
+  </si>
+  <si>
+    <t>如建筑物价值 500000 美元，单一损失期望就是 500000 的 70%（上文的暴露因子）, 即 350000美元。</t>
+  </si>
+  <si>
+    <t>每项资产分配货币形式的资产价值（AV）</t>
+  </si>
+  <si>
+    <t>年度损失期望</t>
+  </si>
+  <si>
+    <t>年度损失期望（Annualized Loss Expectancy, ALE）是指一年内由于风险引起资产损失而预计对公司造成的货币损失。ALE = SLE * ARO</t>
+  </si>
+  <si>
+    <t>如果建筑物每30年才发生一次火灾，那么ARO就是 1/30，ALE是350000美元SLE的3.333%, 即11667美元。可以理解为：由于建筑物火灾，公司每年预计损失11667美元。</t>
+  </si>
+  <si>
+    <t>定性影响评估</t>
+  </si>
+  <si>
+    <t>业务中断所造成的、非货币价值可以衡量的影响。</t>
+  </si>
+  <si>
+    <t>客户中间丧失的信誉、长时间停工后员工的流失、对公众的社会/道德责任。</t>
+  </si>
+  <si>
+    <t>资源优先级</t>
+  </si>
+  <si>
+    <r>
+      <t>BIA 的最后一个步骤是划分针对各种不同风险所分配的业务连续性资源的优先级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>从定量角度来看，这个过程相对简单。只需要生成一个BIA过程期间分析过的所有风险的列表，然后按照影响评估阶段计算出来的年度损失期望的降序进行分类，这样就生成了应当解决的风险优先级列表。</t>
+  </si>
+  <si>
+    <r>
+      <t>BCP过程的前两个阶段（项目范围和计划编制、业务影响评估）主要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定BCP过程如何工作并确定必须防止其出现中断的业务资产的优先顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BCP开发的下一个阶段是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连续性计划编制，这个阶段专注于连续性策略的开发和实现，从而最小化已发生风险可能对保护资产的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>策略开发、预备和处理、计划批准、计划实现、培训和教育</t>
+  </si>
+  <si>
+    <t>策略开发</t>
+  </si>
+  <si>
+    <t>业务连续性计划的策略开发阶段为业务影响评估和BCP开发的连续性计划阶段之间架起了桥梁。</t>
+  </si>
+  <si>
+    <t>BCP团队应当回顾一下BIA前期建立的MTD评估时间，并且确定哪些风险被认为是可接受的，哪些必须采取BCP连续性措施加以缓解。</t>
+  </si>
+  <si>
+    <t>一旦 BCP 团队确定哪些风险需要环节以及将为每个环节任务提供的资源水平，就准备进入里连续性计划的“预备和处理”阶段</t>
+  </si>
+  <si>
+    <t>预备和处理</t>
+  </si>
+  <si>
+    <t>BCP 团队设计了具体的过程和机制，将在策略开发阶段缓解被任务不可接受的风险。下列三种资产类型必须通过BCP预备和处理进行保护</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>人是最优价值的资产，人的安全必须始终优先于公司的商业目标。</t>
+  </si>
+  <si>
+    <t>建筑物设备</t>
+  </si>
+  <si>
+    <t>在预备场所内恢复受影响的关键性业务。</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>包括计算机防火抑制系统和不间断电源。预备系统：冗余性保护（冗余构件、冗余系统、冗余链路等）。</t>
+  </si>
+  <si>
+    <t>计划批准和计划实现</t>
+  </si>
+  <si>
+    <t>一旦 BCP 团队完成了 BCP 文档的设计阶段，就该申请获得高级管理层的批准了。</t>
+  </si>
+  <si>
+    <t>一旦得到高级管理层的批准，就应当推动并开始实现你的计划。BCP团队应该共同开发一个实现计划，这个计划利用特定的资源，从而尽可能迅速地在给出修改范围和组织环境的情况下取得所声明的过程和预备措施的目标。</t>
+  </si>
+  <si>
+    <t>在完全部署所有这些资源之后，BCP团队应当监督恰当的BCP维护程序，以便确保计划能够响应业务需求的发展。</t>
+  </si>
+  <si>
+    <t>培训和教育</t>
+  </si>
+  <si>
+    <t>培训和教育是BCP实现中的一个重要内容。计划中（直接或间接）涉及的所有人都应当接受某些与整个计划和个人职责相关的培训。</t>
+  </si>
+  <si>
+    <t>组织中的每个人都应当接受至少一份计划综述简报，从而使他们具有信心，相信业务领导已经考虑到连续性业务的可能风险，并且制定了计划来缓解对组织的影响。</t>
+  </si>
+  <si>
+    <t>具有直接的BCP职责的人们应当收到培训，对其具体的BCP任务进行评估，确保在灾难发生时他们能够有效地完成其任务。此外，至少应当为每个BCP任务培训一名后补人员，以便确保在人员受伤或危机时刻人员不能到位时的冗余性。</t>
+  </si>
+  <si>
+    <t>BCP文档化</t>
+  </si>
+  <si>
+    <t>确保所有BCP人员都有一个连续性的书面文档，在紧急事件发生时，甚至在资深BCP团队成员不在现场指导时可以作为参考。</t>
+  </si>
+  <si>
+    <r>
+      <t>提供了BCP过程的历史记录，这对于将来人员试图理解不同过程的内因并对计划进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必要的修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是有用的。</t>
+    </r>
+  </si>
+  <si>
+    <t>促使团队成员将他们的想法记录到纸上，这个过程常常有助于确定计划中的缺陷。可以像不属于BCP团队的人分发简报，从而进行“理智的分析”。</t>
+  </si>
+  <si>
+    <t>BCP维护、测试和演习</t>
+  </si>
+  <si>
+    <t>BCP文档和计划本身必须是实际使用中的文档。每个组织都会遇到几乎持续的变化，这种动态特性也确保了业务连续性要求随之发生变化。</t>
+  </si>
+  <si>
+    <t>在更新BCP的任何时候，必须进行良好的版本控制。所有旧的BCP版本都应该进行物理销毁，并且被最新版本代替。</t>
+  </si>
+  <si>
+    <t>BCP文档还应当概述一个正式的测试计划，以确保计划是最新的，并且所有人员都接收了充分培训，从而在实际的灾难事件发生时能够履行他们的职责。</t>
+  </si>
+  <si>
+    <t>1.9 协助制定和实施人员安全政策和程序</t>
+  </si>
+  <si>
+    <t>必须高度重视人员安全问题</t>
+  </si>
+  <si>
+    <t>人是信息安全的关键因素</t>
+  </si>
+  <si>
+    <t>大多数重大信息安全事件通常都来自组织内部</t>
+  </si>
+  <si>
+    <t>加强内部人员安全管理的主要措施</t>
+  </si>
+  <si>
+    <t>对工作申请者实施背景检查</t>
+  </si>
+  <si>
+    <t>签署雇佣合同和保密协议</t>
+  </si>
+  <si>
+    <t>加强在职人员的安全管理</t>
+  </si>
+  <si>
+    <t>严格控制人员离职程序</t>
+  </si>
+  <si>
+    <t>人员安全策略和程序</t>
+  </si>
+  <si>
+    <t>职责分离</t>
+  </si>
+  <si>
+    <t>工作职责</t>
+  </si>
+  <si>
+    <t>工作轮换</t>
+  </si>
+  <si>
+    <t>强制休假</t>
+  </si>
+  <si>
+    <r>
+      <t>职责分离属于安全概念，是指把关键的、重要的和敏感的工作任务分配给若干不同的管理员或高级执行者。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样能阻止任何一个人具备破坏或削弱重要安全机制的能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。可以将职责分离视为对管理员的最小特权原则的应用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职责分离也能够防止共谋，共谋是指负面活动由两人或多人共同王城，其意图往往是伪造、偷窃或间谍行为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>工作职责要求员工在常规的基础上执行的特定工作任务。根据他们的职责，员工需要访问各种不同的对象、资源和服务。</t>
+  </si>
+  <si>
+    <t>为了保持最大的安全性，应该按照最小特权原则分配访问权限。</t>
+  </si>
+  <si>
+    <t>最小特权原则规定：在安全环境中，应该授予用户完成工作任务或工作职责所必须的最小访问权限。这条原则的实际应用要求对所有资源和功能进行低级别的粒度访问控制。</t>
+  </si>
+  <si>
+    <t>岗位轮换</t>
+  </si>
+  <si>
+    <t>组织通过让员工在不同的工作岗位间轮换职位来提高整体安全性。</t>
+  </si>
+  <si>
+    <r>
+      <t>知识冗余类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当许多员工中的每一位都有能力胜任所要求的若干工作岗位时，如果因为疾病或其他事件导致一位或多位员工在较长的时间无法工作，那么组织遭受严重停工或生产效率降低的可能性就比较小。</t>
+    </r>
+  </si>
+  <si>
+    <t>人员流动可以减少伪造、数据更改、偷窃、阴谋破坏和信息滥用的风险。岗位轮换也提供了一种同级审计形式，并且能够防止共谋。</t>
+  </si>
+  <si>
+    <t>交叉培训</t>
+  </si>
+  <si>
+    <r>
+      <t>交叉培训被当做岗位轮换的替代方案。在交叉培训时，员工只是做好了完成其他工作的准备；而不是定期轮岗。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交叉培训作为一类应急响应程序使现有的其他人员在恰当的员工不能工作时能填补职位空缺。</t>
+    </r>
+  </si>
+  <si>
+    <t>强制性休假</t>
+  </si>
+  <si>
+    <r>
+      <t>用于审计和认证员工的工作任务和特权，此时另一位员工接替其工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过这种做法，往往很容易发现滥用、伪造或疏忽行为。</t>
+    </r>
+  </si>
+  <si>
+    <t>雇佣新员工步骤</t>
+  </si>
+  <si>
+    <t>如果没有职责描述，就不能对招聘哪类人员达成共识。因此，制定职责描述是定义域人员相关的安全需求并招聘到新员工的第一步。角色通常与等级特权一致，而职责描述与特定分配的职责和任务相对应</t>
+  </si>
+  <si>
+    <t>候选人筛选及招聘</t>
+  </si>
+  <si>
+    <t>背景检查，可以防止</t>
+  </si>
+  <si>
+    <t>因为人员解雇而导致法律诉讼</t>
+  </si>
+  <si>
+    <t>因为雇佣疏忽而导致第三方的法律诉讼</t>
+  </si>
+  <si>
+    <t>雇佣不合格的人员</t>
+  </si>
+  <si>
+    <t>丧失商业秘密</t>
+  </si>
+  <si>
+    <t>雇佣协议和策略</t>
+  </si>
+  <si>
+    <t>协议文档概略说明了组织的规则和限制、安全策略、可接受的使用和行为准则、详细的工作描述、破坏活动及其后果、要求员工胜任工作所需的时间。</t>
+  </si>
+  <si>
+    <r>
+      <t>保密协议（Non-Disclosure Agreement, NDA）。NDA用来保护组织的机密信息不会被以前的员工泄露。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当员工签署NDA时，他们同意不对组织外的任何人泄露被定义为机密的信息。违反了NDA的行为尝尝会遭到严厉的触发。</t>
+    </r>
+  </si>
+  <si>
+    <t>入职和离职程序</t>
+  </si>
+  <si>
+    <t>入职是在组织的 IAM（Identify and Access Management, 身份和访问管理）系统中添加新员工的过程。当员工的角色或职位发生变化，或该员工获得其他特权或访问权限时，都可以使用入职流程。</t>
+  </si>
+  <si>
+    <t>离职正好相反，当员工离开公司后，将其身份从 IAM 系统删除</t>
+  </si>
+  <si>
+    <t>离职</t>
+  </si>
+  <si>
+    <t>确保员工已归还交通工具和家中的所有公司设备或用品。</t>
+  </si>
+  <si>
+    <t>删除或禁用员工的网络用户账户。</t>
+  </si>
+  <si>
+    <t>通知人力资源部发放最后的薪资，支付所有未使用假期的折算费用，并终止所有福利待遇。</t>
+  </si>
+  <si>
+    <t>安排一名安全部门人员陪同被解雇员工在工作区域收拾个人物品。</t>
+  </si>
+  <si>
+    <t>通知所有安保人员、巡查人员或监控出入口的人员，以确保前雇员在没有护送的清下无法再次进入办公大楼。</t>
+  </si>
+  <si>
+    <t>供应商、顾问和承包商的协议和控制</t>
+  </si>
+  <si>
+    <r>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SLA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确保组织向其内部和（或）外部客户提供的各种服务，能够维持在服务提供商和供应商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方达成一致的适当服务水平上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>SLA 以及供应商、顾问和承包商控制是降低风险和回避风险的一个重要部分。</t>
+  </si>
+  <si>
+    <t>SLA中处理的常见问题</t>
+  </si>
+  <si>
+    <t>系统运行时间（作为总体运行时间的百分比）</t>
+  </si>
+  <si>
+    <t>最长连续停机时间（以秒或分钟等计算）</t>
+  </si>
+  <si>
+    <t>最大负载</t>
+  </si>
+  <si>
+    <t>平均负载</t>
+  </si>
+  <si>
+    <t>诊断任务</t>
+  </si>
+  <si>
+    <t>故障转移时间</t>
+  </si>
+  <si>
+    <t>合规策略要求</t>
+  </si>
+  <si>
+    <t>合规是符合或遵守规则、策略、法规、标准或要求的行为。</t>
+  </si>
+  <si>
+    <t>合规性对安全治理来说是一个重要的问题。在人员层面，合规性涉及的是员工个体是否遵守公司策略以及是否按照定义的程序来执行他们的工作任务。</t>
+  </si>
+  <si>
+    <t>人员层面，合规性涉及的是员工个人是否遵守公司策略以及是否按照定义的程序来执行他们的工作任务。</t>
+  </si>
+  <si>
+    <t>许多组织依靠员工的合规性来保证高质量、一致性、效率和节约成本。如果员工不坚持合规性，组织的利润、市场份额、公认度和声誉可能就会受损。</t>
+  </si>
+  <si>
+    <t>员工需要接受培训，以便知道它们需要做什么；只有这样，如果出现违规或缺乏合规，才可能追究它们的责任。</t>
+  </si>
+  <si>
+    <t>隐私策略要求</t>
+  </si>
+  <si>
+    <t>隐私性定义</t>
+  </si>
+  <si>
+    <t>主动防止对个人可确认的信心（也就是与某人或某个组织直接联系的数据点）的未授权访问。</t>
+  </si>
+  <si>
+    <t>防止对被视为个人的或秘密的信息进行为授权的访问。</t>
+  </si>
+  <si>
+    <t>防止未被同意或知晓的观察、监控或检查行为。</t>
+  </si>
+  <si>
+    <t>无论个人或组织对网上个人隐私性问题的态度如何，都必须在组织的安全策略中被确定。</t>
+  </si>
+  <si>
+    <t>隐私性不仅是外部访问者对提供的联机信息进行访问的问题，而且也是客户、员工、供应商和承包商的问题。如果要收集与个人或公司相关的任何类型信息，那么必须解决隐私性问题。</t>
+  </si>
+  <si>
+    <t>1.10 理解并应用风选管理概念</t>
+  </si>
+  <si>
+    <t>风险和风险管理</t>
+  </si>
+  <si>
+    <t>风险（Risk）</t>
+  </si>
+  <si>
+    <t>指信息资产遭受损坏并给企业带来负面响应的潜在可能性。</t>
+  </si>
+  <si>
+    <t>风险管理（Risk Management）</t>
+  </si>
+  <si>
+    <t>就是识别风险、评估风险、采取措施将风险减少到可接受水平，并维持这个风险水平的过程。风险管理是信息安全管理的核心内容。</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <r>
+      <t>资产是指环境中应该加以保护的任何事务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果组织认为自己控制之下的某种资源有价值并需要保护，那么这种资源就被标记为可以进行风险管理和风险分析。</t>
+    </r>
+  </si>
+  <si>
+    <t>资产出现损失或泄露会危及整体的安全性，造成生产效率的降低，利润的减少、额外支持的增加、组织停工以及造成许多无形的不良后果。</t>
+  </si>
+  <si>
+    <t>威胁</t>
+  </si>
+  <si>
+    <t>任何可能发生的、为组织或某种特定资产带来所不希望的或不想要结果的事情被称为威胁。</t>
+  </si>
+  <si>
+    <t>威胁是指会造成资产损失、破坏、变更、丢失或泄露的任何行为或非行为，或者是阻碍访问或阻止资产维护的行为。</t>
+  </si>
+  <si>
+    <t>脆弱性</t>
+  </si>
+  <si>
+    <r>
+      <t>资产中的弱点或防护措施/对策的缺乏被称为脆弱性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>脆弱性就是IT基础设施或组织其他方面的缺陷、漏洞、疏忽、错误、局限性、过失或敏感之处。如果脆弱性被他人加以利用，那么就有可能造成资产的破坏或损失。</t>
+  </si>
+  <si>
+    <t>暴露</t>
+  </si>
+  <si>
+    <r>
+      <t>暴露是指由于威胁而容易造成资产损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，脆弱性会被或将被威胁主体或威胁事件加以利用的可能性是存在的。</t>
+    </r>
+  </si>
+  <si>
+    <t>暴露并不意味着实施的威胁（造成损失的事件）实际发生，而仅仅是指如果存在脆弱性并且威胁可以利用脆弱性，那么就有可能发生威胁事件或出现潜在的暴露。</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>风险是某种威胁利用脆弱性并导致资产损害的可能性、是对可能性、概率或偶然性的评估。</t>
+  </si>
+  <si>
+    <t>风险 = 威胁 * 脆弱性</t>
+  </si>
+  <si>
+    <t>减少威胁主体或脆弱性将直接降低风险发生的几率</t>
+  </si>
+  <si>
+    <t>防护措施</t>
+  </si>
+  <si>
+    <t>防护措施或对策是指能消除脆弱性或对付一种或多种特定威胁的任何方法。</t>
+  </si>
+  <si>
+    <t>防护措施可以使：安装软件补丁程序、修改配置、雇请安排人员、改变IT基础设施、更改流程、改善安全策略、更有效地培训员工等。</t>
+  </si>
+  <si>
+    <t>防护措施可以是通过消除或减少组织内任何位置的威胁或翠荣兴来降低风险的任何行为或产品。防火措施是削弱和消除风险的唯一方法。</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>攻击指的是威胁主体对脆弱性的利用。攻击是任何有意利用组织安全基础设施的脆弱性并导致资产的损害、损失或泄露的企图。攻击还可以被视为违反或未遵守素质安全策略的任何行为。</t>
+  </si>
+  <si>
+    <t>破坏（Breach）</t>
+  </si>
+  <si>
+    <r>
+      <t>破坏指安全机制被威胁主体绕过或阻止。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当破坏与攻击相结合时，就可能导致渗透或入侵。渗透指威胁主体通过规避安全控制获得对组织基础设施的访问，并能直接危及资产。</t>
+    </r>
+  </si>
+  <si>
+    <t>风险元素相互关系</t>
+  </si>
+  <si>
+    <t>资产、威胁、脆弱性、暴露、风险和防护措施是相互关联的。威胁利用脆弱性，脆弱性导致暴露。暴露就是风险，风险又被防护措施减轻。防护措施保护被威胁危及安全的资产。</t>
+  </si>
+  <si>
+    <t>识别威胁和脆弱性</t>
+  </si>
+  <si>
+    <r>
+      <t>风险管理的一个基本部分就是对威胁进行标识并检查，这涉及创建详尽的组织中认定资产可能存在的所有威胁列表。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表中应包括威胁主体和威胁事件。威胁可能来自任何地方，对IT的威胁不只限制在IT源。</t>
+    </r>
+  </si>
+  <si>
+    <t>应该是团队进行风险评估和分析。团队成员应该来自组织内部的不同部门。</t>
+  </si>
+  <si>
+    <t>风险评估/分析</t>
+  </si>
+  <si>
+    <r>
+      <t>上层管理者必须决定哪些风险是可以接受的，哪些风险是不可以接受的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>决定哪些风险可以接受时，要求详细的、复杂的资产与风险评估。</t>
+    </r>
+  </si>
+  <si>
+    <t>定量的风险分析</t>
+  </si>
+  <si>
+    <t>把真实的货币价值分配给损失的资产。</t>
+  </si>
+  <si>
+    <t>定性的风险分析</t>
+  </si>
+  <si>
+    <t>把主观的和无形的价值分配给损失的资产。</t>
+  </si>
+  <si>
+    <t>对构成风险的各个要素和潜在损失水平赋予数值或货币金额。当度量风险的所有要素（资产价值、威胁频频率、弱点利用程度、安全措施的效率和成本等）都被赋值，风险评估的整个过程和结果就都可以被量化。</t>
+  </si>
+  <si>
+    <t>定量分析有两个关键指标：事件发生的频率（用ARO来表示）和威胁事件可能引起的损失（用EF来表示）</t>
+  </si>
+  <si>
+    <t>分配资产价值（AV）-&gt; 计算暴露因子（EF）-&gt; 计算单一损失期望（SLE）-&gt; 评估年度发生率（ARO）-&gt; 计算年度损失期望（ALE）-&gt;进行防护措施的成本/效益分析</t>
+  </si>
+  <si>
+    <t>定量分析基础概念</t>
+  </si>
+  <si>
+    <r>
+      <t>暴露因子代表组织的某种特定资产被已实施的风险损坏所造成损失的百分比。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EF表示在发生单个风险时全部资产价值损失的预计值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EF被表示为百分数。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单一损失期望（SLE）是与针对特定资产的单个已实施风险相关联的成本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果某个资产被特定威胁损害，SLE计算对组织造成的确切损失。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SLE=资产价值（AV）* 暴露因子（EF）</t>
+    </r>
+  </si>
+  <si>
+    <t>年度发生比率（ARO）指的是特定威胁或风险在一年内将会发生的预计频率。</t>
+  </si>
+  <si>
+    <t>年度损失期望（ALE）指的是针对某种特定的资产，所有已实施的威胁每年可能造成的损失成本。ALE = 单一损失期望（SLE）*年发生比率（ARO）</t>
+  </si>
+  <si>
+    <t>定性风险评估</t>
+  </si>
+  <si>
+    <t>很强的主观性，分级如“高、中、低”</t>
+  </si>
+  <si>
+    <t>操作方法如：小组讨论（Delphi）、检查列表、温泉、人员访谈、调查等。</t>
+  </si>
+  <si>
+    <t>操作容易，但因为操作者经验和直觉的偏差而使分析结果失准。</t>
+  </si>
+  <si>
+    <r>
+      <t>准确性稍好，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精确性不够</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。要求分析者具备一定的经验和能力。</t>
+    </r>
+  </si>
+  <si>
+    <t>风险处理</t>
+  </si>
+  <si>
+    <t>风险分析的结果</t>
+  </si>
+  <si>
+    <t>所有资产的完整且详细的评估</t>
+  </si>
+  <si>
+    <t>所有威胁和风险、发生概率以及一旦发生的损失范围的详细列表</t>
+  </si>
+  <si>
+    <t>针对特定威胁的并且标识出有效性与ALE的反骨措施和对策列表</t>
+  </si>
+  <si>
+    <t>每种防护措施的成本/效益分析</t>
+  </si>
+  <si>
+    <t>Risk Mitigation、Risk Assignment、Risk Acceptance、Risk Deterrnece、Risk Avoidence、Risk Rejection</t>
+  </si>
+  <si>
+    <t>风险消减（Risk Mitigation）</t>
+  </si>
+  <si>
+    <r>
+      <t>降低风险或风险消减是一种消除翠荣兴或阻止威胁的防护措施的实施。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选取性价比好的防御措施是风险管理的一部分，但不是风险评估的元素。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险通过消除风险的原因是可以避免的。</t>
+    </r>
+  </si>
+  <si>
+    <t>风险转让（Risk Assignment）</t>
+  </si>
+  <si>
+    <t>风险转让或转移风险是把风险带来的损失转嫁给另外一个实体或组织。购买保险和外包就是转让或转移风险的常见形式。</t>
+  </si>
+  <si>
+    <t>风险接受（Risk Acceptance）</t>
+  </si>
+  <si>
+    <t>风险接受或接受风险是管理层对可能采用的防护措施进行成本/效益分析评估，并且确定对策的成本远远超过风险可能造成的损失的成本。接受风险还意味着管理层已经同意接受风险发生所造成的结果和损失。</t>
+  </si>
+  <si>
+    <t>组织是否接受风险的决定依据与对风险的容忍程度。风险容忍度是组织忍受发生风险所造成的损失的能力，这也是所说的风险容忍和风险偏好。</t>
+  </si>
+  <si>
+    <t>风险威慑（RIsk Deterrence）</t>
+  </si>
+  <si>
+    <t>风险威慑是对可能违反安全和政策的人员实施威慑的过程。</t>
+  </si>
+  <si>
+    <t>安全摄像机、安全警卫等</t>
+  </si>
+  <si>
+    <t>规避风险（RIsk Avoidance）</t>
+  </si>
+  <si>
+    <t>风险规避是选择替代的选项或活动的过程，替代选项或活动的风险低于默认的、通用的、权益的或廉价的选项。</t>
+  </si>
+  <si>
+    <t>风险拒绝（Risk Rejection）</t>
+  </si>
+  <si>
+    <t>最后不可接受的应对措施是拒绝风险或忽略风险。否认存在风险，希望永远不会实现，这都不是对风险的有效或审慎的对策。</t>
+  </si>
+  <si>
+    <t>固有风险（Inherent Risk）</t>
+  </si>
+  <si>
+    <t>固有风险是在执行任何风险管理工作之前，环境、系统或产品中存在的自然、原生或违约风险的水平。</t>
+  </si>
+  <si>
+    <t>由于供应链、开发人员运营、系统的设计和架构或组织的只是和技能基础，可能存在固有风险。</t>
+  </si>
+  <si>
+    <t>固有风险也称为初始风险或起始风险。</t>
+  </si>
+  <si>
+    <t>剩余风险（Residual risk）</t>
+  </si>
+  <si>
+    <t>一旦实施了对策，继续存在的风险就被称为剩余风险。剩余风险是由针对特定资产的任何威胁组成的，高层管理部门选择不对这些资产实施防护措施。剩余风险就是管理侧选择接受而非去缓解的风险。</t>
+  </si>
+  <si>
+    <t>多数情况下，剩余风险的存在表明 成本/效益 分析说明可采用的防护措施不划算。</t>
+  </si>
+  <si>
+    <t>计算总风险的公示是：威胁*脆弱性*资产价值 = 总风险</t>
+  </si>
+  <si>
+    <t>总风险和剩余风险的差额称为控制间隙。控制间隙指通过实施保障措施而减少的风险。计算剩余风险的公示是：总风险 - 控制间隙 = 剩余风险</t>
+  </si>
+  <si>
+    <t>风险实施</t>
+  </si>
+  <si>
+    <r>
+      <t>安全控制、对策和防护措施可以通过行政管理型、逻辑/技术性或物理性控制来实现。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这三类安全机制以纵深防御的方式来实现，以提供最大化利益。</t>
+    </r>
+  </si>
+  <si>
+    <t>技术性控制</t>
   </si>
 </sst>
 </file>
@@ -2322,10 +3389,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2386,6 +3453,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1227455</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>259715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25297130" y="124082810"/>
+          <a:ext cx="7767955" cy="2110105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2646,12 +3760,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD523"/>
+  <dimension ref="A1:XFD524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C225" sqref="C225:D225"/>
+      <selection pane="bottomLeft" activeCell="C377" sqref="C377:D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1"/>
@@ -2660,8 +3774,9 @@
     <col min="2" max="2" width="40.15625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.7734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.3359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.0625" style="1" customWidth="1"/>
-    <col min="6" max="16383" width="41.2734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6015625" style="1" customWidth="1"/>
+    <col min="7" max="16383" width="41.2734375" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="41.2734375" style="2"/>
   </cols>
   <sheetData>
@@ -2713,7 +3828,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" ht="51" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="5"/>
       <c r="B4" s="10"/>
       <c r="C4" s="9" t="s">
@@ -2783,7 +3898,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="68" spans="1:6">
+    <row r="10" ht="51" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
@@ -3961,7 +5076,7 @@
       <c r="C114" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="20" t="s">
         <v>191</v>
       </c>
       <c r="E114" s="5"/>
@@ -4791,7 +5906,7 @@
       <c r="A187" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="13" t="s">
         <v>304</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -4804,7 +5919,7 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="55" customHeight="1" spans="1:16384">
       <c r="A188" s="5"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="15"/>
       <c r="C188" s="19" t="s">
         <v>306</v>
       </c>
@@ -4815,7 +5930,7 @@
     </row>
     <row r="189" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A189" s="5"/>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="13" t="s">
         <v>307</v>
       </c>
       <c r="C189" s="19" t="s">
@@ -4828,7 +5943,7 @@
     </row>
     <row r="190" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A190" s="5"/>
-      <c r="B190" s="17"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="19" t="s">
         <v>309</v>
       </c>
@@ -4839,7 +5954,7 @@
     </row>
     <row r="191" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A191" s="5"/>
-      <c r="B191" s="17"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="19" t="s">
         <v>310</v>
       </c>
@@ -4850,7 +5965,7 @@
     </row>
     <row r="192" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A192" s="5"/>
-      <c r="B192" s="17"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="19" t="s">
         <v>311</v>
       </c>
@@ -4861,7 +5976,7 @@
     </row>
     <row r="193" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A193" s="5"/>
-      <c r="B193" s="17"/>
+      <c r="B193" s="14"/>
       <c r="C193" s="19" t="s">
         <v>312</v>
       </c>
@@ -4872,7 +5987,7 @@
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A194" s="5"/>
-      <c r="B194" s="17"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="19" t="s">
         <v>313</v>
       </c>
@@ -4883,7 +5998,7 @@
     </row>
     <row r="195" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A195" s="5"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="15"/>
       <c r="C195" s="19" t="s">
         <v>314</v>
       </c>
@@ -4894,7 +6009,7 @@
     </row>
     <row r="196" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A196" s="5"/>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C196" s="19" t="s">
@@ -4907,7 +6022,7 @@
     </row>
     <row r="197" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A197" s="5"/>
-      <c r="B197" s="17"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="19" t="s">
         <v>317</v>
       </c>
@@ -4918,7 +6033,7 @@
     </row>
     <row r="198" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A198" s="5"/>
-      <c r="B198" s="17"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="19" t="s">
         <v>318</v>
       </c>
@@ -4929,7 +6044,7 @@
     </row>
     <row r="199" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A199" s="5"/>
-      <c r="B199" s="17"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="19" t="s">
         <v>319</v>
       </c>
@@ -4940,7 +6055,7 @@
     </row>
     <row r="200" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A200" s="5"/>
-      <c r="B200" s="17"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="19" t="s">
         <v>320</v>
       </c>
@@ -4951,7 +6066,7 @@
     </row>
     <row r="201" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A201" s="5"/>
-      <c r="B201" s="17"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="19" t="s">
         <v>321</v>
       </c>
@@ -4962,7 +6077,7 @@
     </row>
     <row r="202" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A202" s="5"/>
-      <c r="B202" s="17"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="19" t="s">
         <v>322</v>
       </c>
@@ -4973,7 +6088,7 @@
     </row>
     <row r="203" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A203" s="5"/>
-      <c r="B203" s="17"/>
+      <c r="B203" s="14"/>
       <c r="C203" s="19" t="s">
         <v>323</v>
       </c>
@@ -4984,7 +6099,7 @@
     </row>
     <row r="204" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A204" s="5"/>
-      <c r="B204" s="17"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="19" t="s">
         <v>324</v>
       </c>
@@ -4995,7 +6110,7 @@
     </row>
     <row r="205" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A205" s="5"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="19" t="s">
         <v>325</v>
       </c>
@@ -5006,7 +6121,7 @@
     </row>
     <row r="206" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A206" s="5"/>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="13" t="s">
         <v>304</v>
       </c>
       <c r="C206" s="16" t="s">
@@ -5021,7 +6136,7 @@
     </row>
     <row r="207" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A207" s="5"/>
-      <c r="B207" s="17"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="17"/>
       <c r="D207" s="5" t="s">
         <v>328</v>
@@ -5032,7 +6147,7 @@
     </row>
     <row r="208" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A208" s="5"/>
-      <c r="B208" s="17"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="17"/>
       <c r="D208" s="5" t="s">
         <v>329</v>
@@ -5043,7 +6158,7 @@
     </row>
     <row r="209" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A209" s="5"/>
-      <c r="B209" s="17"/>
+      <c r="B209" s="14"/>
       <c r="C209" s="18"/>
       <c r="D209" s="5" t="s">
         <v>330</v>
@@ -5054,7 +6169,7 @@
     </row>
     <row r="210" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A210" s="5"/>
-      <c r="B210" s="18"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="19" t="s">
         <v>331</v>
       </c>
@@ -5065,7 +6180,7 @@
     </row>
     <row r="211" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A211" s="5"/>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="13" t="s">
         <v>327</v>
       </c>
       <c r="C211" s="19" t="s">
@@ -5078,7 +6193,7 @@
     </row>
     <row r="212" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A212" s="5"/>
-      <c r="B212" s="17"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="19" t="s">
         <v>333</v>
       </c>
@@ -5089,7 +6204,7 @@
     </row>
     <row r="213" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A213" s="5"/>
-      <c r="B213" s="17"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="19" t="s">
         <v>334</v>
       </c>
@@ -5100,7 +6215,7 @@
     </row>
     <row r="214" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A214" s="5"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="19" t="s">
         <v>335</v>
       </c>
@@ -5111,7 +6226,7 @@
     </row>
     <row r="215" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A215" s="5"/>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="13" t="s">
         <v>336</v>
       </c>
       <c r="C215" s="19" t="s">
@@ -5124,7 +6239,7 @@
     </row>
     <row r="216" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A216" s="5"/>
-      <c r="B216" s="17"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="19" t="s">
         <v>338</v>
       </c>
@@ -5135,7 +6250,7 @@
     </row>
     <row r="217" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A217" s="5"/>
-      <c r="B217" s="17"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="19" t="s">
         <v>339</v>
       </c>
@@ -5146,7 +6261,7 @@
     </row>
     <row r="218" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A218" s="5"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="15"/>
       <c r="C218" s="19" t="s">
         <v>340</v>
       </c>
@@ -5157,7 +6272,7 @@
     </row>
     <row r="219" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A219" s="5"/>
-      <c r="B219" s="16" t="s">
+      <c r="B219" s="13" t="s">
         <v>341</v>
       </c>
       <c r="C219" s="19" t="s">
@@ -5170,7 +6285,7 @@
     </row>
     <row r="220" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A220" s="5"/>
-      <c r="B220" s="17"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="19" t="s">
         <v>343</v>
       </c>
@@ -5181,7 +6296,7 @@
     </row>
     <row r="221" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A221" s="5"/>
-      <c r="B221" s="17"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="19" t="s">
         <v>344</v>
       </c>
@@ -5192,7 +6307,7 @@
     </row>
     <row r="222" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A222" s="5"/>
-      <c r="B222" s="17"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="19" t="s">
         <v>345</v>
       </c>
@@ -5203,7 +6318,7 @@
     </row>
     <row r="223" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A223" s="5"/>
-      <c r="B223" s="17"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="19" t="s">
         <v>346</v>
       </c>
@@ -5212,8 +6327,9 @@
       <c r="F223" s="5"/>
       <c r="XFD223" s="2"/>
     </row>
-    <row r="224" ht="38" customHeight="1" spans="2:6">
-      <c r="B224" s="17"/>
+    <row r="224" ht="38" customHeight="1" spans="1:6">
+      <c r="A224" s="5"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="19" t="s">
         <v>347</v>
       </c>
@@ -5222,8 +6338,8 @@
       <c r="F224" s="5"/>
     </row>
     <row r="225" ht="38" customHeight="1" spans="1:6">
-      <c r="A225"/>
-      <c r="B225" s="17"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="19" t="s">
         <v>348</v>
       </c>
@@ -5231,8 +6347,9 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" ht="38" customHeight="1" spans="2:6">
-      <c r="B226" s="17"/>
+    <row r="226" ht="38" customHeight="1" spans="1:6">
+      <c r="A226" s="5"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="19" t="s">
         <v>349</v>
       </c>
@@ -5240,8 +6357,9 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" ht="38" customHeight="1" spans="2:6">
-      <c r="B227" s="18"/>
+    <row r="227" ht="38" customHeight="1" spans="1:6">
+      <c r="A227" s="5"/>
+      <c r="B227" s="15"/>
       <c r="C227" s="19" t="s">
         <v>350</v>
       </c>
@@ -5249,8 +6367,9 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" ht="38" customHeight="1" spans="2:6">
-      <c r="B228" s="5" t="s">
+    <row r="228" ht="38" customHeight="1" spans="1:6">
+      <c r="A228" s="5"/>
+      <c r="B228" s="26" t="s">
         <v>351</v>
       </c>
       <c r="C228" s="27" t="s">
@@ -5260,8 +6379,9 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" ht="38" customHeight="1" spans="2:6">
-      <c r="B229" s="5" t="s">
+    <row r="229" ht="38" customHeight="1" spans="1:6">
+      <c r="A229" s="5"/>
+      <c r="B229" s="26" t="s">
         <v>353</v>
       </c>
       <c r="C229" s="19" t="s">
@@ -5271,1080 +6391,1646 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" ht="38" customHeight="1" spans="2:6">
-      <c r="B230" s="5"/>
-      <c r="C230" s="19"/>
+    <row r="230" ht="38" customHeight="1" spans="1:6">
+      <c r="A230" s="5"/>
+      <c r="B230" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="D230" s="20"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" ht="38" customHeight="1" spans="2:6">
-      <c r="B231" s="5"/>
-      <c r="C231" s="19"/>
+    <row r="231" ht="38" customHeight="1" spans="1:6">
+      <c r="A231" s="5"/>
+      <c r="B231" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="D231" s="20"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" ht="38" customHeight="1" spans="2:6">
-      <c r="B232" s="5"/>
-      <c r="C232" s="19"/>
+    <row r="232" ht="38" customHeight="1" spans="1:6">
+      <c r="A232" s="5"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="D232" s="20"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" ht="38" customHeight="1" spans="2:6">
-      <c r="B233" s="5"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="20"/>
+    <row r="233" ht="38" customHeight="1" spans="1:6">
+      <c r="A233" s="5"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" ht="38" customHeight="1" spans="2:6">
-      <c r="B234" s="5"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="5"/>
+    <row r="234" ht="38" customHeight="1" spans="1:6">
+      <c r="A234" s="5"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" ht="38" customHeight="1" spans="1:6">
-      <c r="A235"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="19"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>366</v>
+      </c>
       <c r="D235" s="20"/>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" ht="38" customHeight="1" spans="2:6">
-      <c r="B236" s="5"/>
-      <c r="C236" s="19"/>
+    <row r="236" ht="38" customHeight="1" spans="1:6">
+      <c r="A236" s="5"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="D236" s="20"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" ht="38" customHeight="1" spans="2:6">
-      <c r="B237" s="5"/>
-      <c r="C237" s="19"/>
+    <row r="237" ht="38" customHeight="1" spans="1:6">
+      <c r="A237" s="5"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="19" t="s">
+        <v>368</v>
+      </c>
       <c r="D237" s="20"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" ht="38" customHeight="1" spans="2:6">
-      <c r="B238" s="5"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="20"/>
-      <c r="E238" s="5"/>
+    <row r="238" ht="38" customHeight="1" spans="1:6">
+      <c r="A238" s="5"/>
+      <c r="B238" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" ht="38" customHeight="1" spans="2:6">
-      <c r="B239" s="5"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="20"/>
+    <row r="239" ht="38" customHeight="1" spans="1:6">
+      <c r="A239" s="5"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" ht="38" customHeight="1" spans="2:6">
-      <c r="B240" s="5"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="20"/>
+    <row r="240" ht="38" customHeight="1" spans="1:6">
+      <c r="A240" s="5"/>
+      <c r="B240" s="15"/>
+      <c r="C240" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" ht="38" customHeight="1" spans="2:6">
-      <c r="B241" s="5"/>
-      <c r="C241" s="19"/>
+    <row r="241" ht="38" customHeight="1" spans="1:6">
+      <c r="A241" s="5"/>
+      <c r="B241" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>378</v>
+      </c>
       <c r="D241" s="20"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" ht="38" customHeight="1" spans="2:6">
-      <c r="B242" s="5"/>
-      <c r="C242" s="19"/>
+    <row r="242" ht="38" customHeight="1" spans="1:6">
+      <c r="A242" s="5"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="19" t="s">
+        <v>379</v>
+      </c>
       <c r="D242" s="20"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" ht="38" customHeight="1" spans="2:6">
-      <c r="B243" s="5"/>
-      <c r="C243" s="19"/>
+    <row r="243" ht="38" customHeight="1" spans="1:6">
+      <c r="A243" s="5"/>
+      <c r="B243" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>381</v>
+      </c>
       <c r="D243" s="20"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" ht="38" customHeight="1" spans="2:6">
-      <c r="B244" s="5"/>
-      <c r="C244" s="19"/>
+    <row r="244" ht="38" customHeight="1" spans="1:6">
+      <c r="A244" s="5"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="19" t="s">
+        <v>382</v>
+      </c>
       <c r="D244" s="20"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
     <row r="245" ht="38" customHeight="1" spans="1:6">
-      <c r="A245"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="19"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="D245" s="20"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" ht="38" customHeight="1" spans="2:6">
-      <c r="B246" s="5"/>
-      <c r="C246" s="19"/>
+    <row r="246" ht="38" customHeight="1" spans="1:6">
+      <c r="A246" s="5"/>
+      <c r="B246" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>385</v>
+      </c>
       <c r="D246" s="20"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" ht="38" customHeight="1" spans="2:6">
-      <c r="B247" s="5"/>
-      <c r="C247" s="19"/>
+    <row r="247" ht="38" customHeight="1" spans="1:6">
+      <c r="A247" s="5"/>
+      <c r="B247" s="15"/>
+      <c r="C247" s="21" t="s">
+        <v>386</v>
+      </c>
       <c r="D247" s="20"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" ht="38" customHeight="1" spans="2:6">
-      <c r="B248" s="5"/>
-      <c r="C248" s="19"/>
+    <row r="248" ht="38" customHeight="1" spans="1:6">
+      <c r="A248" s="5"/>
+      <c r="B248" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="D248" s="20"/>
-      <c r="E248" s="5"/>
+      <c r="E248" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" ht="38" customHeight="1" spans="2:6">
-      <c r="B249" s="5"/>
-      <c r="C249" s="19"/>
+    <row r="249" ht="38" customHeight="1" spans="1:6">
+      <c r="A249" s="5"/>
+      <c r="B249" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>391</v>
+      </c>
       <c r="D249" s="20"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-    </row>
-    <row r="250" ht="38" customHeight="1" spans="2:6">
-      <c r="B250" s="5"/>
-      <c r="C250" s="19"/>
+      <c r="E249" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" ht="38" customHeight="1" spans="1:6">
+      <c r="A250" s="5"/>
+      <c r="B250" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="D250" s="20"/>
-      <c r="E250" s="5"/>
+      <c r="E250" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" ht="38" customHeight="1" spans="2:6">
-      <c r="B251" s="5"/>
-      <c r="C251" s="19"/>
+    <row r="251" ht="38" customHeight="1" spans="1:6">
+      <c r="A251" s="5"/>
+      <c r="B251" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C251" s="19" t="s">
+        <v>398</v>
+      </c>
       <c r="D251" s="20"/>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" ht="38" customHeight="1" spans="2:6">
-      <c r="B252" s="5"/>
-      <c r="C252" s="19"/>
+    <row r="252" ht="38" customHeight="1" spans="1:6">
+      <c r="A252" s="5"/>
+      <c r="B252" s="15"/>
+      <c r="C252" s="19" t="s">
+        <v>399</v>
+      </c>
       <c r="D252" s="20"/>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" ht="38" customHeight="1" spans="2:6">
-      <c r="B253" s="5"/>
-      <c r="C253" s="19"/>
+    <row r="253" ht="38" customHeight="1" spans="1:6">
+      <c r="A253" s="5"/>
+      <c r="B253" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>401</v>
+      </c>
       <c r="D253" s="20"/>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" ht="38" customHeight="1" spans="2:6">
-      <c r="B254" s="5"/>
-      <c r="C254" s="19"/>
+    <row r="254" ht="38" customHeight="1" spans="1:6">
+      <c r="A254" s="5"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="21" t="s">
+        <v>402</v>
+      </c>
       <c r="D254" s="20"/>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
     <row r="255" ht="38" customHeight="1" spans="1:6">
-      <c r="A255"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="19"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>403</v>
+      </c>
       <c r="D255" s="20"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" ht="38" customHeight="1" spans="2:6">
-      <c r="B256" s="5"/>
-      <c r="C256" s="19"/>
+    <row r="256" ht="38" customHeight="1" spans="1:6">
+      <c r="A256" s="5"/>
+      <c r="B256" s="15"/>
+      <c r="C256" s="27" t="s">
+        <v>404</v>
+      </c>
       <c r="D256" s="20"/>
-      <c r="E256" s="5"/>
+      <c r="E256" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" ht="38" customHeight="1" spans="2:6">
-      <c r="B257" s="5"/>
-      <c r="C257" s="19"/>
+    <row r="257" ht="38" customHeight="1" spans="1:6">
+      <c r="A257" s="5"/>
+      <c r="B257" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="D257" s="20"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" ht="38" customHeight="1" spans="2:6">
-      <c r="B258" s="5"/>
-      <c r="C258" s="19"/>
+    <row r="258" ht="38" customHeight="1" spans="1:6">
+      <c r="A258" s="5"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="21" t="s">
+        <v>408</v>
+      </c>
       <c r="D258" s="20"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" ht="38" customHeight="1" spans="2:6">
-      <c r="B259" s="5"/>
-      <c r="C259" s="19"/>
+    <row r="259" ht="38" customHeight="1" spans="1:6">
+      <c r="A259" s="5"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="D259" s="20"/>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" ht="38" customHeight="1" spans="2:6">
-      <c r="B260" s="5"/>
-      <c r="C260" s="19"/>
+    <row r="260" ht="38" customHeight="1" spans="1:6">
+      <c r="A260" s="5"/>
+      <c r="B260" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>411</v>
+      </c>
       <c r="D260" s="20"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" ht="38" customHeight="1" spans="2:6">
-      <c r="B261" s="5"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="20"/>
+    <row r="261" ht="38" customHeight="1" spans="1:6">
+      <c r="A261" s="5"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" ht="38" customHeight="1" spans="2:6">
-      <c r="B262" s="5"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="20"/>
+    <row r="262" ht="38" customHeight="1" spans="1:6">
+      <c r="A262" s="5"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" ht="38" customHeight="1" spans="2:6">
-      <c r="B263" s="5"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="20"/>
+    <row r="263" ht="38" customHeight="1" spans="1:6">
+      <c r="A263" s="5"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" ht="38" customHeight="1" spans="2:6">
-      <c r="B264" s="5"/>
-      <c r="C264" s="19"/>
+    <row r="264" ht="38" customHeight="1" spans="1:6">
+      <c r="A264" s="5"/>
+      <c r="B264" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>419</v>
+      </c>
       <c r="D264" s="20"/>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
     <row r="265" ht="38" customHeight="1" spans="1:6">
-      <c r="A265"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="19"/>
+      <c r="A265" s="5"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="D265" s="20"/>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" ht="38" customHeight="1" spans="2:6">
-      <c r="B266" s="5"/>
-      <c r="C266" s="19"/>
+    <row r="266" ht="38" customHeight="1" spans="1:6">
+      <c r="A266" s="5"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="19" t="s">
+        <v>421</v>
+      </c>
       <c r="D266" s="20"/>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" ht="38" customHeight="1" spans="2:6">
-      <c r="B267" s="5"/>
-      <c r="C267" s="19"/>
+    <row r="267" ht="38" customHeight="1" spans="1:6">
+      <c r="A267" s="5"/>
+      <c r="B267" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>423</v>
+      </c>
       <c r="D267" s="20"/>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" ht="38" customHeight="1" spans="2:6">
-      <c r="B268" s="5"/>
-      <c r="C268" s="19"/>
+    <row r="268" ht="38" customHeight="1" spans="1:6">
+      <c r="A268" s="5"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="19" t="s">
+        <v>424</v>
+      </c>
       <c r="D268" s="20"/>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" ht="38" customHeight="1" spans="2:6">
-      <c r="B269" s="5"/>
-      <c r="C269" s="19"/>
+    <row r="269" ht="38" customHeight="1" spans="1:6">
+      <c r="A269" s="5"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="D269" s="20"/>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" ht="38" customHeight="1" spans="2:6">
-      <c r="B270" s="5"/>
-      <c r="C270" s="19"/>
+    <row r="270" ht="38" customHeight="1" spans="1:6">
+      <c r="A270" s="5"/>
+      <c r="B270" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="D270" s="20"/>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" ht="38" customHeight="1" spans="2:6">
-      <c r="B271" s="5"/>
-      <c r="C271" s="19"/>
+    <row r="271" ht="38" customHeight="1" spans="1:6">
+      <c r="A271" s="5"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="27" t="s">
+        <v>428</v>
+      </c>
       <c r="D271" s="20"/>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" ht="38" customHeight="1" spans="2:6">
-      <c r="B272" s="5"/>
-      <c r="C272" s="19"/>
+    <row r="272" ht="38" customHeight="1" spans="1:6">
+      <c r="A272" s="5"/>
+      <c r="B272" s="15"/>
+      <c r="C272" s="19" t="s">
+        <v>429</v>
+      </c>
       <c r="D272" s="20"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" ht="38" customHeight="1" spans="2:6">
-      <c r="B273" s="5"/>
-      <c r="C273" s="19"/>
+    <row r="273" ht="38" customHeight="1" spans="1:6">
+      <c r="A273" s="5"/>
+      <c r="B273" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="D273" s="20"/>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" ht="38" customHeight="1" spans="2:6">
-      <c r="B274" s="5"/>
-      <c r="C274" s="19"/>
+    <row r="274" ht="38" customHeight="1" spans="1:6">
+      <c r="A274" s="5"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="19" t="s">
+        <v>432</v>
+      </c>
       <c r="D274" s="20"/>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
     <row r="275" ht="38" customHeight="1" spans="1:6">
-      <c r="A275"/>
-      <c r="B275" s="5"/>
-      <c r="C275" s="19"/>
+      <c r="A275" s="5"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="19" t="s">
+        <v>433</v>
+      </c>
       <c r="D275" s="20"/>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" ht="38" customHeight="1" spans="2:6">
-      <c r="B276" s="5"/>
-      <c r="C276" s="19"/>
+    <row r="276" ht="38" customHeight="1" spans="1:6">
+      <c r="A276" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C276" s="19" t="s">
+        <v>436</v>
+      </c>
       <c r="D276" s="20"/>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" ht="38" customHeight="1" spans="2:6">
-      <c r="B277" s="5"/>
-      <c r="C277" s="19"/>
+    <row r="277" ht="38" customHeight="1" spans="1:6">
+      <c r="A277" s="5"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="19" t="s">
+        <v>437</v>
+      </c>
       <c r="D277" s="20"/>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" ht="38" customHeight="1" spans="2:6">
-      <c r="B278" s="5"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="20"/>
+    <row r="278" ht="38" customHeight="1" spans="1:6">
+      <c r="A278" s="5"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D278" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" ht="38" customHeight="1" spans="2:6">
-      <c r="B279" s="5"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="20"/>
+    <row r="279" ht="38" customHeight="1" spans="1:6">
+      <c r="A279" s="5"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" ht="38" customHeight="1" spans="2:6">
-      <c r="B280" s="5"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="20"/>
+    <row r="280" ht="38" customHeight="1" spans="1:6">
+      <c r="A280" s="5"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="20" t="s">
+        <v>441</v>
+      </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" ht="38" customHeight="1" spans="2:6">
-      <c r="B281" s="5"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="20"/>
+    <row r="281" ht="38" customHeight="1" spans="1:6">
+      <c r="A281" s="5"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" ht="38" customHeight="1" spans="2:6">
-      <c r="B282" s="5"/>
-      <c r="C282" s="19"/>
+    <row r="282" ht="38" customHeight="1" spans="1:6">
+      <c r="A282" s="5"/>
+      <c r="B282" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>444</v>
+      </c>
       <c r="D282" s="20"/>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" ht="38" customHeight="1" spans="2:6">
-      <c r="B283" s="5"/>
-      <c r="C283" s="19"/>
+    <row r="283" ht="38" customHeight="1" spans="1:6">
+      <c r="A283" s="5"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="19" t="s">
+        <v>445</v>
+      </c>
       <c r="D283" s="20"/>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" ht="38" customHeight="1" spans="2:6">
-      <c r="B284" s="5"/>
-      <c r="C284" s="19"/>
+    <row r="284" ht="38" customHeight="1" spans="1:6">
+      <c r="A284" s="5"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="19" t="s">
+        <v>446</v>
+      </c>
       <c r="D284" s="20"/>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
     <row r="285" ht="38" customHeight="1" spans="1:6">
-      <c r="A285"/>
-      <c r="B285" s="5"/>
-      <c r="C285" s="19"/>
+      <c r="A285" s="5"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="19" t="s">
+        <v>447</v>
+      </c>
       <c r="D285" s="20"/>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" ht="38" customHeight="1" spans="2:6">
-      <c r="B286" s="5"/>
-      <c r="C286" s="19"/>
+    <row r="286" ht="56" customHeight="1" spans="1:6">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C286" s="27" t="s">
+        <v>448</v>
+      </c>
       <c r="D286" s="20"/>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" ht="38" customHeight="1" spans="2:6">
-      <c r="B287" s="5"/>
-      <c r="C287" s="19"/>
+    <row r="287" ht="38" customHeight="1" spans="1:6">
+      <c r="A287" s="5"/>
+      <c r="B287" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="D287" s="20"/>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" ht="38" customHeight="1" spans="2:6">
-      <c r="B288" s="5"/>
-      <c r="C288" s="19"/>
+    <row r="288" ht="38" customHeight="1" spans="1:6">
+      <c r="A288" s="5"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="D288" s="20"/>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" ht="38" customHeight="1" spans="2:6">
-      <c r="B289" s="5"/>
-      <c r="C289" s="19"/>
+    <row r="289" ht="38" customHeight="1" spans="1:6">
+      <c r="A289" s="5"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="21" t="s">
+        <v>451</v>
+      </c>
       <c r="D289" s="20"/>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" ht="38" customHeight="1" spans="2:6">
-      <c r="B290" s="5"/>
-      <c r="C290" s="19"/>
+    <row r="290" ht="38" customHeight="1" spans="1:6">
+      <c r="A290" s="5"/>
+      <c r="B290" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>453</v>
+      </c>
       <c r="D290" s="20"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" ht="38" customHeight="1" spans="2:6">
-      <c r="B291" s="5"/>
-      <c r="C291" s="19"/>
+    <row r="291" ht="38" customHeight="1" spans="1:6">
+      <c r="A291" s="5"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="21" t="s">
+        <v>454</v>
+      </c>
       <c r="D291" s="20"/>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" ht="38" customHeight="1" spans="2:6">
-      <c r="B292" s="5"/>
-      <c r="C292" s="19"/>
+    <row r="292" ht="38" customHeight="1" spans="1:6">
+      <c r="A292" s="5"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="21" t="s">
+        <v>455</v>
+      </c>
       <c r="D292" s="20"/>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" ht="38" customHeight="1" spans="2:6">
-      <c r="B293" s="5"/>
-      <c r="C293" s="19"/>
+    <row r="293" ht="38" customHeight="1" spans="1:6">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C293" s="27" t="s">
+        <v>457</v>
+      </c>
       <c r="D293" s="20"/>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" ht="38" customHeight="1" spans="2:6">
-      <c r="B294" s="5"/>
-      <c r="C294" s="19"/>
+    <row r="294" ht="38" customHeight="1" spans="1:6">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C294" s="27" t="s">
+        <v>459</v>
+      </c>
       <c r="D294" s="20"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
     <row r="295" ht="38" customHeight="1" spans="1:6">
-      <c r="A295"/>
-      <c r="B295" s="5"/>
-      <c r="C295" s="19"/>
+      <c r="A295" s="5"/>
+      <c r="B295" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>461</v>
+      </c>
       <c r="D295" s="20"/>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" ht="38" customHeight="1" spans="2:6">
-      <c r="B296" s="5"/>
-      <c r="C296" s="19"/>
-      <c r="D296" s="20"/>
+    <row r="296" ht="38" customHeight="1" spans="1:6">
+      <c r="A296" s="5"/>
+      <c r="B296" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" ht="38" customHeight="1" spans="2:6">
-      <c r="B297" s="5"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="20"/>
+    <row r="297" ht="38" customHeight="1" spans="1:6">
+      <c r="A297" s="5"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="17"/>
+      <c r="D297" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" ht="38" customHeight="1" spans="2:6">
-      <c r="B298" s="5"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="20"/>
+    <row r="298" ht="38" customHeight="1" spans="1:6">
+      <c r="A298" s="5"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="17"/>
+      <c r="D298" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" ht="38" customHeight="1" spans="2:6">
-      <c r="B299" s="5"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="20"/>
+    <row r="299" ht="38" customHeight="1" spans="1:6">
+      <c r="A299" s="5"/>
+      <c r="B299" s="18"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" ht="38" customHeight="1" spans="2:6">
-      <c r="B300" s="5"/>
-      <c r="C300" s="19"/>
+    <row r="300" ht="38" customHeight="1" spans="1:6">
+      <c r="A300" s="5"/>
+      <c r="B300" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C300" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D300" s="20"/>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" ht="38" customHeight="1" spans="2:6">
-      <c r="B301" s="5"/>
-      <c r="C301" s="19"/>
+    <row r="301" ht="38" customHeight="1" spans="1:6">
+      <c r="A301" s="5"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="21" t="s">
+        <v>470</v>
+      </c>
       <c r="D301" s="20"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" ht="38" customHeight="1" spans="2:6">
-      <c r="B302" s="5"/>
-      <c r="C302" s="19"/>
+    <row r="302" ht="38" customHeight="1" spans="1:6">
+      <c r="A302" s="5"/>
+      <c r="B302" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C302" s="19" t="s">
+        <v>472</v>
+      </c>
       <c r="D302" s="20"/>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" ht="38" customHeight="1" spans="2:6">
-      <c r="B303" s="5"/>
-      <c r="C303" s="19"/>
+    <row r="303" ht="38" customHeight="1" spans="1:6">
+      <c r="A303" s="5"/>
+      <c r="B303" s="17"/>
+      <c r="C303" s="19" t="s">
+        <v>473</v>
+      </c>
       <c r="D303" s="20"/>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" ht="38" customHeight="1" spans="2:6">
-      <c r="B304" s="5"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="20"/>
+    <row r="304" ht="38" customHeight="1" spans="1:6">
+      <c r="A304" s="5"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
     <row r="305" ht="38" customHeight="1" spans="1:6">
-      <c r="A305"/>
-      <c r="B305" s="5"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="20"/>
+      <c r="A305" s="5"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" ht="38" customHeight="1" spans="2:6">
-      <c r="B306" s="5"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="20"/>
+    <row r="306" ht="38" customHeight="1" spans="1:6">
+      <c r="A306" s="5"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
+      <c r="D306" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" ht="38" customHeight="1" spans="2:6">
-      <c r="B307" s="5"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="20"/>
+    <row r="307" ht="38" customHeight="1" spans="1:6">
+      <c r="A307" s="5"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="17"/>
+      <c r="D307" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" ht="38" customHeight="1" spans="2:6">
-      <c r="B308" s="5"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="20"/>
+    <row r="308" ht="38" customHeight="1" spans="1:6">
+      <c r="A308" s="5"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="18"/>
+      <c r="D308" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" ht="38" customHeight="1" spans="2:6">
-      <c r="B309" s="5"/>
-      <c r="C309" s="19"/>
+    <row r="309" ht="38" customHeight="1" spans="1:6">
+      <c r="A309" s="5"/>
+      <c r="B309" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C309" s="27" t="s">
+        <v>481</v>
+      </c>
       <c r="D309" s="20"/>
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" ht="38" customHeight="1" spans="2:6">
-      <c r="B310" s="5"/>
-      <c r="C310" s="19"/>
+    <row r="310" ht="38" customHeight="1" spans="1:6">
+      <c r="A310" s="5"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="19" t="s">
+        <v>482</v>
+      </c>
       <c r="D310" s="20"/>
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" ht="38" customHeight="1" spans="2:6">
-      <c r="B311" s="5"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="20"/>
+    <row r="311" ht="38" customHeight="1" spans="1:6">
+      <c r="A311" s="5"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" ht="38" customHeight="1" spans="2:6">
-      <c r="B312" s="5"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="20"/>
+    <row r="312" ht="38" customHeight="1" spans="1:6">
+      <c r="A312" s="5"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
+      <c r="D312" s="5" t="s">
+        <v>485</v>
+      </c>
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" ht="38" customHeight="1" spans="2:6">
-      <c r="B313" s="5"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="20"/>
+    <row r="313" ht="38" customHeight="1" spans="1:6">
+      <c r="A313" s="5"/>
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
+      <c r="D313" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" ht="38" customHeight="1" spans="2:6">
-      <c r="B314" s="5"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="20"/>
+    <row r="314" ht="38" customHeight="1" spans="1:6">
+      <c r="A314" s="5"/>
+      <c r="B314" s="17"/>
+      <c r="C314" s="17"/>
+      <c r="D314" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
     <row r="315" ht="38" customHeight="1" spans="1:6">
-      <c r="A315"/>
-      <c r="B315" s="5"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="20"/>
+      <c r="A315" s="5"/>
+      <c r="B315" s="17"/>
+      <c r="C315" s="17"/>
+      <c r="D315" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" ht="38" customHeight="1" spans="2:6">
-      <c r="B316" s="5"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="20"/>
+    <row r="316" ht="38" customHeight="1" spans="1:6">
+      <c r="A316" s="5"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="5" t="s">
+        <v>489</v>
+      </c>
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" ht="38" customHeight="1" spans="2:6">
-      <c r="B317" s="5"/>
-      <c r="C317" s="19"/>
+    <row r="317" ht="38" customHeight="1" spans="1:6">
+      <c r="A317" s="5"/>
+      <c r="B317" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C317" s="21" t="s">
+        <v>491</v>
+      </c>
       <c r="D317" s="20"/>
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" ht="38" customHeight="1" spans="2:6">
-      <c r="B318" s="5"/>
-      <c r="C318" s="19"/>
+    <row r="318" ht="38" customHeight="1" spans="1:6">
+      <c r="A318" s="5"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="D318" s="20"/>
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" ht="38" customHeight="1" spans="2:6">
-      <c r="B319" s="5"/>
-      <c r="C319" s="19"/>
+    <row r="319" ht="38" customHeight="1" spans="1:6">
+      <c r="A319" s="5"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="D319" s="20"/>
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" ht="38" customHeight="1" spans="2:6">
-      <c r="B320" s="5"/>
-      <c r="C320" s="19"/>
+    <row r="320" ht="38" customHeight="1" spans="1:6">
+      <c r="A320" s="5"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="D320" s="20"/>
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" ht="38" customHeight="1" spans="2:6">
-      <c r="B321" s="5"/>
-      <c r="C321" s="19"/>
+    <row r="321" ht="38" customHeight="1" spans="1:6">
+      <c r="A321" s="5"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="D321" s="20"/>
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" ht="38" customHeight="1" spans="2:6">
-      <c r="B322" s="5"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="20"/>
+    <row r="322" ht="38" customHeight="1" spans="1:6">
+      <c r="A322" s="5"/>
+      <c r="B322" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>498</v>
+      </c>
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" ht="38" customHeight="1" spans="2:6">
-      <c r="B323" s="5"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="20"/>
+    <row r="323" ht="38" customHeight="1" spans="1:6">
+      <c r="A323" s="5"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="17"/>
+      <c r="D323" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" ht="38" customHeight="1" spans="2:6">
-      <c r="B324" s="5"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="20"/>
+    <row r="324" ht="38" customHeight="1" spans="1:6">
+      <c r="A324" s="5"/>
+      <c r="B324" s="17"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="5" t="s">
+        <v>500</v>
+      </c>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
     <row r="325" ht="38" customHeight="1" spans="1:6">
-      <c r="A325"/>
-      <c r="B325" s="5"/>
-      <c r="C325" s="19"/>
+      <c r="A325" s="5"/>
+      <c r="B325" s="17"/>
+      <c r="C325" s="21" t="s">
+        <v>501</v>
+      </c>
       <c r="D325" s="20"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" ht="38" customHeight="1" spans="2:6">
-      <c r="B326" s="5"/>
-      <c r="C326" s="19"/>
+    <row r="326" ht="38" customHeight="1" spans="1:6">
+      <c r="A326" s="5"/>
+      <c r="B326" s="18"/>
+      <c r="C326" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="D326" s="20"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" ht="38" customHeight="1" spans="2:6">
-      <c r="B327" s="5"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="20"/>
+    <row r="327" ht="38" customHeight="1" spans="1:6">
+      <c r="A327" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
     <row r="328" ht="38" customHeight="1" spans="2:6">
-      <c r="B328" s="5"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="20"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>508</v>
+      </c>
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
     <row r="329" ht="38" customHeight="1" spans="2:6">
-      <c r="B329" s="5"/>
-      <c r="C329" s="19"/>
+      <c r="B329" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C329" s="21" t="s">
+        <v>510</v>
+      </c>
       <c r="D329" s="20"/>
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
     <row r="330" ht="38" customHeight="1" spans="2:6">
-      <c r="B330" s="5"/>
-      <c r="C330" s="19"/>
+      <c r="B330" s="18"/>
+      <c r="C330" s="19" t="s">
+        <v>511</v>
+      </c>
       <c r="D330" s="20"/>
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
     <row r="331" ht="38" customHeight="1" spans="2:6">
-      <c r="B331" s="5"/>
-      <c r="C331" s="19"/>
+      <c r="B331" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>513</v>
+      </c>
       <c r="D331" s="20"/>
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
     <row r="332" ht="38" customHeight="1" spans="2:6">
-      <c r="B332" s="5"/>
-      <c r="C332" s="19"/>
+      <c r="B332" s="18"/>
+      <c r="C332" s="19" t="s">
+        <v>514</v>
+      </c>
       <c r="D332" s="20"/>
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
     <row r="333" ht="38" customHeight="1" spans="2:6">
-      <c r="B333" s="5"/>
-      <c r="C333" s="19"/>
+      <c r="B333" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C333" s="21" t="s">
+        <v>516</v>
+      </c>
       <c r="D333" s="20"/>
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
     <row r="334" ht="38" customHeight="1" spans="2:6">
-      <c r="B334" s="5"/>
-      <c r="C334" s="19"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="19" t="s">
+        <v>517</v>
+      </c>
       <c r="D334" s="20"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" ht="38" customHeight="1" spans="1:6">
-      <c r="A335"/>
-      <c r="B335" s="5"/>
-      <c r="C335" s="19"/>
+    <row r="335" ht="38" customHeight="1" spans="2:6">
+      <c r="B335" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C335" s="21" t="s">
+        <v>519</v>
+      </c>
       <c r="D335" s="20"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" ht="38" customHeight="1" spans="2:6">
-      <c r="B336" s="5"/>
-      <c r="C336" s="19"/>
+    <row r="336" ht="38" customHeight="1" spans="1:6">
+      <c r="A336" s="2"/>
+      <c r="B336" s="18"/>
+      <c r="C336" s="19" t="s">
+        <v>520</v>
+      </c>
       <c r="D336" s="20"/>
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
     <row r="337" ht="38" customHeight="1" spans="2:6">
-      <c r="B337" s="5"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="20"/>
+      <c r="B337" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C337" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="D337" s="31"/>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
     <row r="338" ht="38" customHeight="1" spans="2:6">
-      <c r="B338" s="5"/>
-      <c r="C338" s="19"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="30" t="s">
+        <v>523</v>
+      </c>
       <c r="D338" s="20"/>
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
     <row r="339" ht="38" customHeight="1" spans="2:6">
-      <c r="B339" s="5"/>
-      <c r="C339" s="19"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="19" t="s">
+        <v>524</v>
+      </c>
       <c r="D339" s="20"/>
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
     <row r="340" ht="38" customHeight="1" spans="2:6">
-      <c r="B340" s="5"/>
-      <c r="C340" s="19"/>
+      <c r="B340" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C340" s="30" t="s">
+        <v>526</v>
+      </c>
       <c r="D340" s="20"/>
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
     <row r="341" ht="38" customHeight="1" spans="2:6">
-      <c r="B341" s="5"/>
-      <c r="C341" s="19"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="19" t="s">
+        <v>527</v>
+      </c>
       <c r="D341" s="20"/>
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
     <row r="342" ht="38" customHeight="1" spans="2:6">
-      <c r="B342" s="5"/>
-      <c r="C342" s="19"/>
+      <c r="B342" s="18"/>
+      <c r="C342" s="30" t="s">
+        <v>528</v>
+      </c>
       <c r="D342" s="20"/>
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
     <row r="343" ht="38" customHeight="1" spans="2:6">
-      <c r="B343" s="5"/>
-      <c r="C343" s="19"/>
+      <c r="B343" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C343" s="19" t="s">
+        <v>530</v>
+      </c>
       <c r="D343" s="20"/>
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
     <row r="344" ht="38" customHeight="1" spans="2:6">
-      <c r="B344" s="5"/>
-      <c r="C344" s="19"/>
+      <c r="B344" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C344" s="30" t="s">
+        <v>532</v>
+      </c>
       <c r="D344" s="20"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" ht="38" customHeight="1" spans="1:6">
-      <c r="A345"/>
-      <c r="B345" s="5"/>
-      <c r="C345" s="19"/>
+    <row r="345" ht="38" customHeight="1" spans="2:6">
+      <c r="B345" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C345" s="30" t="s">
+        <v>534</v>
+      </c>
       <c r="D345" s="20"/>
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" ht="38" customHeight="1" spans="2:6">
-      <c r="B346" s="5"/>
-      <c r="C346" s="19"/>
+    <row r="346" ht="38" customHeight="1" spans="1:6">
+      <c r="A346" s="2"/>
+      <c r="B346" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C346" s="30" t="s">
+        <v>536</v>
+      </c>
       <c r="D346" s="20"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
     <row r="347" ht="38" customHeight="1" spans="2:6">
-      <c r="B347" s="5"/>
-      <c r="C347" s="19"/>
+      <c r="B347" s="18"/>
+      <c r="C347" s="19" t="s">
+        <v>537</v>
+      </c>
       <c r="D347" s="20"/>
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
     <row r="348" ht="38" customHeight="1" spans="2:6">
-      <c r="B348" s="5"/>
-      <c r="C348" s="19"/>
+      <c r="B348" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C348" s="30" t="s">
+        <v>539</v>
+      </c>
       <c r="D348" s="20"/>
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
     <row r="349" ht="38" customHeight="1" spans="2:6">
-      <c r="B349" s="5"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="20"/>
+      <c r="B349" s="17"/>
+      <c r="C349" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
     <row r="350" ht="38" customHeight="1" spans="2:6">
-      <c r="B350" s="5"/>
-      <c r="C350" s="19"/>
-      <c r="D350" s="20"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
     <row r="351" ht="38" customHeight="1" spans="2:6">
-      <c r="B351" s="5"/>
-      <c r="C351" s="19"/>
+      <c r="B351" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>544</v>
+      </c>
       <c r="D351" s="20"/>
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
     <row r="352" ht="38" customHeight="1" spans="2:6">
-      <c r="B352" s="5"/>
-      <c r="C352" s="19"/>
-      <c r="D352" s="20"/>
+      <c r="B352" s="17"/>
+      <c r="C352" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D352" s="33"/>
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
     <row r="353" ht="38" customHeight="1" spans="2:6">
-      <c r="B353" s="5"/>
-      <c r="C353" s="19"/>
+      <c r="B353" s="18"/>
+      <c r="C353" s="19" t="s">
+        <v>546</v>
+      </c>
       <c r="D353" s="20"/>
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
     <row r="354" ht="38" customHeight="1" spans="2:6">
-      <c r="B354" s="5"/>
-      <c r="C354" s="19"/>
+      <c r="B354" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C354" s="21" t="s">
+        <v>548</v>
+      </c>
       <c r="D354" s="20"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" ht="38" customHeight="1" spans="1:6">
-      <c r="A355"/>
-      <c r="B355" s="5"/>
-      <c r="C355" s="19"/>
+    <row r="355" ht="38" customHeight="1" spans="2:6">
+      <c r="B355" s="17"/>
+      <c r="C355" s="21" t="s">
+        <v>549</v>
+      </c>
       <c r="D355" s="20"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" ht="38" customHeight="1" spans="2:6">
-      <c r="B356" s="5"/>
-      <c r="C356" s="19"/>
+    <row r="356" ht="38" customHeight="1" spans="1:6">
+      <c r="A356" s="2"/>
+      <c r="B356" s="17"/>
+      <c r="C356" s="21" t="s">
+        <v>550</v>
+      </c>
       <c r="D356" s="20"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
     <row r="357" ht="38" customHeight="1" spans="2:6">
-      <c r="B357" s="5"/>
-      <c r="C357" s="19"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="21" t="s">
+        <v>551</v>
+      </c>
       <c r="D357" s="20"/>
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
     <row r="358" ht="38" customHeight="1" spans="2:6">
-      <c r="B358" s="5"/>
-      <c r="C358" s="19"/>
+      <c r="B358" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>553</v>
+      </c>
       <c r="D358" s="20"/>
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
     <row r="359" ht="38" customHeight="1" spans="2:6">
-      <c r="B359" s="5"/>
-      <c r="C359" s="19"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="19" t="s">
+        <v>554</v>
+      </c>
       <c r="D359" s="20"/>
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
     <row r="360" ht="38" customHeight="1" spans="2:6">
-      <c r="B360" s="5"/>
-      <c r="C360" s="19"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="19" t="s">
+        <v>555</v>
+      </c>
       <c r="D360" s="20"/>
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
     <row r="361" ht="38" customHeight="1" spans="2:6">
-      <c r="B361" s="5"/>
-      <c r="C361" s="19"/>
+      <c r="B361" s="18"/>
+      <c r="C361" s="27" t="s">
+        <v>556</v>
+      </c>
       <c r="D361" s="20"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
     <row r="362" ht="38" customHeight="1" spans="2:6">
-      <c r="B362" s="5"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="20"/>
+      <c r="B362" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
     <row r="363" ht="38" customHeight="1" spans="2:6">
-      <c r="B363" s="5"/>
-      <c r="C363" s="19"/>
-      <c r="D363" s="20"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="17"/>
+      <c r="D363" s="5" t="s">
+        <v>560</v>
+      </c>
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
     <row r="364" ht="38" customHeight="1" spans="2:6">
-      <c r="B364" s="5"/>
-      <c r="C364" s="19"/>
-      <c r="D364" s="20"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="17"/>
+      <c r="D364" s="5" t="s">
+        <v>561</v>
+      </c>
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" ht="38" customHeight="1" spans="1:6">
-      <c r="A365"/>
-      <c r="B365" s="5"/>
-      <c r="C365" s="19"/>
-      <c r="D365" s="20"/>
+    <row r="365" ht="38" customHeight="1" spans="2:6">
+      <c r="B365" s="17"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" ht="38" customHeight="1" spans="2:6">
-      <c r="B366" s="5"/>
-      <c r="C366" s="19"/>
+    <row r="366" ht="38" customHeight="1" spans="1:6">
+      <c r="A366" s="2"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="21" t="s">
+        <v>563</v>
+      </c>
       <c r="D366" s="20"/>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
     <row r="367" ht="38" customHeight="1" spans="2:6">
-      <c r="B367" s="5"/>
-      <c r="C367" s="19"/>
+      <c r="B367" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C367" s="21" t="s">
+        <v>565</v>
+      </c>
       <c r="D367" s="20"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
     <row r="368" ht="38" customHeight="1" spans="2:6">
-      <c r="B368" s="5"/>
-      <c r="C368" s="19"/>
+      <c r="B368" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C368" s="19" t="s">
+        <v>567</v>
+      </c>
       <c r="D368" s="20"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
     <row r="369" ht="38" customHeight="1" spans="2:6">
-      <c r="B369" s="5"/>
-      <c r="C369" s="19"/>
+      <c r="B369" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C369" s="19" t="s">
+        <v>569</v>
+      </c>
       <c r="D369" s="20"/>
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
     <row r="370" ht="38" customHeight="1" spans="2:6">
-      <c r="B370" s="5"/>
-      <c r="C370" s="19"/>
+      <c r="B370" s="18"/>
+      <c r="C370" s="19" t="s">
+        <v>570</v>
+      </c>
       <c r="D370" s="20"/>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
     <row r="371" ht="38" customHeight="1" spans="2:6">
-      <c r="B371" s="5"/>
-      <c r="C371" s="19"/>
+      <c r="B371" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>572</v>
+      </c>
       <c r="D371" s="20"/>
-      <c r="E371" s="5"/>
+      <c r="E371" s="5" t="s">
+        <v>573</v>
+      </c>
       <c r="F371" s="5"/>
     </row>
     <row r="372" ht="38" customHeight="1" spans="2:6">
-      <c r="B372" s="5"/>
-      <c r="C372" s="19"/>
+      <c r="B372" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C372" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="D372" s="20"/>
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
     <row r="373" ht="38" customHeight="1" spans="2:6">
-      <c r="B373" s="5"/>
-      <c r="C373" s="19"/>
+      <c r="B373" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C373" s="19" t="s">
+        <v>577</v>
+      </c>
       <c r="D373" s="20"/>
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
     <row r="374" ht="38" customHeight="1" spans="2:6">
-      <c r="B374" s="5"/>
-      <c r="C374" s="19"/>
+      <c r="B374" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C374" s="19" t="s">
+        <v>579</v>
+      </c>
       <c r="D374" s="20"/>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" ht="38" customHeight="1" spans="1:6">
-      <c r="A375"/>
-      <c r="B375" s="5"/>
-      <c r="C375" s="19"/>
+    <row r="375" ht="38" customHeight="1" spans="2:6">
+      <c r="B375" s="17"/>
+      <c r="C375" s="19" t="s">
+        <v>580</v>
+      </c>
       <c r="D375" s="20"/>
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" ht="38" customHeight="1" spans="2:6">
-      <c r="B376" s="5"/>
-      <c r="C376" s="19"/>
+    <row r="376" ht="38" customHeight="1" spans="1:6">
+      <c r="A376" s="2"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="19" t="s">
+        <v>581</v>
+      </c>
       <c r="D376" s="20"/>
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
     <row r="377" ht="38" customHeight="1" spans="2:6">
-      <c r="B377" s="5"/>
-      <c r="C377" s="19"/>
+      <c r="B377" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C377" s="19" t="s">
+        <v>583</v>
+      </c>
       <c r="D377" s="20"/>
-      <c r="E377" s="5"/>
+      <c r="E377" s="5" t="s">
+        <v>584</v>
+      </c>
       <c r="F377" s="5"/>
     </row>
     <row r="378" ht="38" customHeight="1" spans="2:6">
-      <c r="B378" s="5"/>
-      <c r="C378" s="19"/>
+      <c r="B378" s="17"/>
+      <c r="C378" s="19" t="s">
+        <v>585</v>
+      </c>
       <c r="D378" s="20"/>
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
     <row r="379" ht="38" customHeight="1" spans="2:6">
-      <c r="B379" s="5"/>
-      <c r="C379" s="19"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="19" t="s">
+        <v>586</v>
+      </c>
       <c r="D379" s="20"/>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
     <row r="380" ht="38" customHeight="1" spans="2:6">
-      <c r="B380" s="5"/>
-      <c r="C380" s="19"/>
+      <c r="B380" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C380" s="21" t="s">
+        <v>588</v>
+      </c>
       <c r="D380" s="20"/>
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
     <row r="381" ht="38" customHeight="1" spans="2:6">
-      <c r="B381" s="5"/>
+      <c r="B381" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="C381" s="19"/>
       <c r="D381" s="20"/>
       <c r="E381" s="5"/>
@@ -6371,15 +8057,15 @@
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" ht="38" customHeight="1" spans="1:6">
-      <c r="A385"/>
+    <row r="385" ht="38" customHeight="1" spans="2:6">
       <c r="B385" s="5"/>
       <c r="C385" s="19"/>
       <c r="D385" s="20"/>
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" ht="38" customHeight="1" spans="2:6">
+    <row r="386" ht="38" customHeight="1" spans="1:6">
+      <c r="A386" s="2"/>
       <c r="B386" s="5"/>
       <c r="C386" s="19"/>
       <c r="D386" s="20"/>
@@ -6442,15 +8128,15 @@
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" ht="38" customHeight="1" spans="1:6">
-      <c r="A395"/>
+    <row r="395" ht="38" customHeight="1" spans="2:6">
       <c r="B395" s="5"/>
       <c r="C395" s="19"/>
       <c r="D395" s="20"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" ht="38" customHeight="1" spans="2:6">
+    <row r="396" ht="38" customHeight="1" spans="1:6">
+      <c r="A396" s="2"/>
       <c r="B396" s="5"/>
       <c r="C396" s="19"/>
       <c r="D396" s="20"/>
@@ -6513,15 +8199,15 @@
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" ht="38" customHeight="1" spans="1:6">
-      <c r="A405"/>
+    <row r="405" ht="38" customHeight="1" spans="2:6">
       <c r="B405" s="5"/>
       <c r="C405" s="19"/>
       <c r="D405" s="20"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" ht="38" customHeight="1" spans="2:6">
+    <row r="406" ht="38" customHeight="1" spans="1:6">
+      <c r="A406" s="2"/>
       <c r="B406" s="5"/>
       <c r="C406" s="19"/>
       <c r="D406" s="20"/>
@@ -6584,15 +8270,15 @@
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" ht="38" customHeight="1" spans="1:6">
-      <c r="A415"/>
+    <row r="415" ht="38" customHeight="1" spans="2:6">
       <c r="B415" s="5"/>
       <c r="C415" s="19"/>
       <c r="D415" s="20"/>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" ht="38" customHeight="1" spans="2:6">
+    <row r="416" ht="38" customHeight="1" spans="1:6">
+      <c r="A416" s="2"/>
       <c r="B416" s="5"/>
       <c r="C416" s="19"/>
       <c r="D416" s="20"/>
@@ -6655,15 +8341,15 @@
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" ht="38" customHeight="1" spans="1:6">
-      <c r="A425"/>
+    <row r="425" ht="38" customHeight="1" spans="2:6">
       <c r="B425" s="5"/>
       <c r="C425" s="19"/>
       <c r="D425" s="20"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" ht="38" customHeight="1" spans="2:6">
+    <row r="426" ht="38" customHeight="1" spans="1:6">
+      <c r="A426" s="2"/>
       <c r="B426" s="5"/>
       <c r="C426" s="19"/>
       <c r="D426" s="20"/>
@@ -6726,15 +8412,15 @@
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" ht="38" customHeight="1" spans="1:6">
-      <c r="A435"/>
+    <row r="435" ht="38" customHeight="1" spans="2:6">
       <c r="B435" s="5"/>
       <c r="C435" s="19"/>
       <c r="D435" s="20"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" ht="38" customHeight="1" spans="2:6">
+    <row r="436" ht="38" customHeight="1" spans="1:6">
+      <c r="A436" s="2"/>
       <c r="B436" s="5"/>
       <c r="C436" s="19"/>
       <c r="D436" s="20"/>
@@ -6797,15 +8483,15 @@
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" ht="38" customHeight="1" spans="1:6">
-      <c r="A445"/>
+    <row r="445" ht="38" customHeight="1" spans="2:6">
       <c r="B445" s="5"/>
       <c r="C445" s="19"/>
       <c r="D445" s="20"/>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" ht="38" customHeight="1" spans="2:6">
+    <row r="446" ht="38" customHeight="1" spans="1:6">
+      <c r="A446" s="2"/>
       <c r="B446" s="5"/>
       <c r="C446" s="19"/>
       <c r="D446" s="20"/>
@@ -6868,15 +8554,15 @@
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" ht="38" customHeight="1" spans="1:6">
-      <c r="A455"/>
+    <row r="455" ht="38" customHeight="1" spans="2:6">
       <c r="B455" s="5"/>
       <c r="C455" s="19"/>
       <c r="D455" s="20"/>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" ht="38" customHeight="1" spans="2:6">
+    <row r="456" ht="38" customHeight="1" spans="1:6">
+      <c r="A456" s="2"/>
       <c r="B456" s="5"/>
       <c r="C456" s="19"/>
       <c r="D456" s="20"/>
@@ -6939,15 +8625,15 @@
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" ht="38" customHeight="1" spans="1:6">
-      <c r="A465"/>
+    <row r="465" ht="38" customHeight="1" spans="2:6">
       <c r="B465" s="5"/>
       <c r="C465" s="19"/>
       <c r="D465" s="20"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" ht="38" customHeight="1" spans="2:6">
+    <row r="466" ht="38" customHeight="1" spans="1:6">
+      <c r="A466" s="2"/>
       <c r="B466" s="5"/>
       <c r="C466" s="19"/>
       <c r="D466" s="20"/>
@@ -7010,15 +8696,15 @@
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" ht="38" customHeight="1" spans="1:6">
-      <c r="A475"/>
+    <row r="475" ht="38" customHeight="1" spans="2:6">
       <c r="B475" s="5"/>
       <c r="C475" s="19"/>
       <c r="D475" s="20"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" ht="38" customHeight="1" spans="2:6">
+    <row r="476" ht="38" customHeight="1" spans="1:6">
+      <c r="A476" s="2"/>
       <c r="B476" s="5"/>
       <c r="C476" s="19"/>
       <c r="D476" s="20"/>
@@ -7081,15 +8767,15 @@
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" ht="38" customHeight="1" spans="1:6">
-      <c r="A485"/>
+    <row r="485" ht="38" customHeight="1" spans="2:6">
       <c r="B485" s="5"/>
       <c r="C485" s="19"/>
       <c r="D485" s="20"/>
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" ht="38" customHeight="1" spans="2:6">
+    <row r="486" ht="38" customHeight="1" spans="1:6">
+      <c r="A486" s="2"/>
       <c r="B486" s="5"/>
       <c r="C486" s="19"/>
       <c r="D486" s="20"/>
@@ -7152,15 +8838,15 @@
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" ht="38" customHeight="1" spans="1:6">
-      <c r="A495"/>
+    <row r="495" ht="38" customHeight="1" spans="2:6">
       <c r="B495" s="5"/>
       <c r="C495" s="19"/>
       <c r="D495" s="20"/>
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" ht="38" customHeight="1" spans="2:6">
+    <row r="496" ht="38" customHeight="1" spans="1:6">
+      <c r="A496" s="2"/>
       <c r="B496" s="5"/>
       <c r="C496" s="19"/>
       <c r="D496" s="20"/>
@@ -7223,15 +8909,15 @@
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
     </row>
-    <row r="505" ht="38" customHeight="1" spans="1:6">
-      <c r="A505"/>
+    <row r="505" ht="38" customHeight="1" spans="2:6">
       <c r="B505" s="5"/>
       <c r="C505" s="19"/>
       <c r="D505" s="20"/>
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506" ht="38" customHeight="1" spans="2:6">
+    <row r="506" ht="38" customHeight="1" spans="1:6">
+      <c r="A506" s="2"/>
       <c r="B506" s="5"/>
       <c r="C506" s="19"/>
       <c r="D506" s="20"/>
@@ -7294,15 +8980,15 @@
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515" ht="38" customHeight="1" spans="1:6">
-      <c r="A515"/>
+    <row r="515" ht="38" customHeight="1" spans="2:6">
       <c r="B515" s="5"/>
       <c r="C515" s="19"/>
       <c r="D515" s="20"/>
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516" ht="38" customHeight="1" spans="2:6">
+    <row r="516" ht="38" customHeight="1" spans="1:6">
+      <c r="A516" s="2"/>
       <c r="B516" s="5"/>
       <c r="C516" s="19"/>
       <c r="D516" s="20"/>
@@ -7358,8 +9044,15 @@
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
+    <row r="524" ht="38" customHeight="1" spans="2:6">
+      <c r="B524" s="5"/>
+      <c r="C524" s="19"/>
+      <c r="D524" s="20"/>
+      <c r="E524" s="5"/>
+      <c r="F524" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="495">
+  <mergeCells count="507">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
@@ -7515,14 +9208,9 @@
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="C231:D231"/>
     <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C234:D234"/>
     <mergeCell ref="C235:D235"/>
     <mergeCell ref="C236:D236"/>
     <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
     <mergeCell ref="C241:D241"/>
     <mergeCell ref="C242:D242"/>
     <mergeCell ref="C243:D243"/>
@@ -7543,9 +9231,6 @@
     <mergeCell ref="C258:D258"/>
     <mergeCell ref="C259:D259"/>
     <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
     <mergeCell ref="C264:D264"/>
     <mergeCell ref="C265:D265"/>
     <mergeCell ref="C266:D266"/>
@@ -7560,10 +9245,6 @@
     <mergeCell ref="C275:D275"/>
     <mergeCell ref="C276:D276"/>
     <mergeCell ref="C277:D277"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="C281:D281"/>
     <mergeCell ref="C282:D282"/>
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="C284:D284"/>
@@ -7578,39 +9259,19 @@
     <mergeCell ref="C293:D293"/>
     <mergeCell ref="C294:D294"/>
     <mergeCell ref="C295:D295"/>
-    <mergeCell ref="C296:D296"/>
-    <mergeCell ref="C297:D297"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="C299:D299"/>
     <mergeCell ref="C300:D300"/>
     <mergeCell ref="C301:D301"/>
     <mergeCell ref="C302:D302"/>
     <mergeCell ref="C303:D303"/>
-    <mergeCell ref="C304:D304"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="C306:D306"/>
-    <mergeCell ref="C307:D307"/>
-    <mergeCell ref="C308:D308"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="C310:D310"/>
-    <mergeCell ref="C311:D311"/>
-    <mergeCell ref="C312:D312"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="C315:D315"/>
-    <mergeCell ref="C316:D316"/>
     <mergeCell ref="C317:D317"/>
     <mergeCell ref="C318:D318"/>
     <mergeCell ref="C319:D319"/>
     <mergeCell ref="C320:D320"/>
     <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="C324:D324"/>
     <mergeCell ref="C325:D325"/>
     <mergeCell ref="C326:D326"/>
-    <mergeCell ref="C327:D327"/>
-    <mergeCell ref="C328:D328"/>
     <mergeCell ref="C329:D329"/>
     <mergeCell ref="C330:D330"/>
     <mergeCell ref="C331:D331"/>
@@ -7631,8 +9292,6 @@
     <mergeCell ref="C346:D346"/>
     <mergeCell ref="C347:D347"/>
     <mergeCell ref="C348:D348"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
     <mergeCell ref="C351:D351"/>
     <mergeCell ref="C352:D352"/>
     <mergeCell ref="C353:D353"/>
@@ -7644,10 +9303,6 @@
     <mergeCell ref="C359:D359"/>
     <mergeCell ref="C360:D360"/>
     <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C365:D365"/>
     <mergeCell ref="C366:D366"/>
     <mergeCell ref="C367:D367"/>
     <mergeCell ref="C368:D368"/>
@@ -7806,12 +9461,15 @@
     <mergeCell ref="C521:D521"/>
     <mergeCell ref="C522:D522"/>
     <mergeCell ref="C523:D523"/>
+    <mergeCell ref="C524:D524"/>
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="A40:A73"/>
     <mergeCell ref="A74:A125"/>
     <mergeCell ref="A126:A150"/>
     <mergeCell ref="A151:A159"/>
     <mergeCell ref="A160:A186"/>
+    <mergeCell ref="A187:A275"/>
+    <mergeCell ref="A276:A326"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
@@ -7849,14 +9507,62 @@
     <mergeCell ref="B211:B214"/>
     <mergeCell ref="B215:B218"/>
     <mergeCell ref="B219:B227"/>
+    <mergeCell ref="B231:B234"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="B260:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B276:B281"/>
+    <mergeCell ref="B282:B285"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="B302:B308"/>
+    <mergeCell ref="B309:B316"/>
+    <mergeCell ref="B317:B321"/>
+    <mergeCell ref="B322:B326"/>
+    <mergeCell ref="B327:B328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="B333:B334"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="B337:B339"/>
+    <mergeCell ref="B340:B342"/>
+    <mergeCell ref="B346:B347"/>
+    <mergeCell ref="B348:B350"/>
+    <mergeCell ref="B351:B353"/>
+    <mergeCell ref="B354:B357"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="B362:B366"/>
+    <mergeCell ref="B369:B370"/>
+    <mergeCell ref="B374:B376"/>
+    <mergeCell ref="B377:B379"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C75:C83"/>
     <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C278:C281"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="C304:C308"/>
+    <mergeCell ref="C311:C316"/>
+    <mergeCell ref="C322:C324"/>
+    <mergeCell ref="C362:C365"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E27:E31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756">
   <si>
     <t>章节</t>
   </si>
@@ -523,7 +523,7 @@
     <t>现场评估</t>
   </si>
   <si>
-    <t>到组织现场进行访谈，宾馆工作人员的操作习惯。</t>
+    <t>到组织现场进行访谈，并观察工作人员的操作习惯。</t>
   </si>
   <si>
     <t>文件交换和审查</t>
@@ -2509,6 +2509,602 @@
   </si>
   <si>
     <t>技术性控制</t>
+  </si>
+  <si>
+    <r>
+      <t>技术性访问和逻辑访问作为硬件和软件机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，既可以用于管理对资源和系统的访问，也可以提供对这些资源和系统的保护。</t>
+    </r>
+  </si>
+  <si>
+    <t>逻辑性或技术性访问控制的示例如用户名、密码、加密、受限接口、访问控制列表、协议、防火墙、路由器、入侵检测系统以及阙值级别。</t>
+  </si>
+  <si>
+    <t>行政管理型控制</t>
+  </si>
+  <si>
+    <r>
+      <t>行政管理型访问控制是依照组织的安全策略和其他规范或需求而定义的策略与过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。有时被称为管理控制。关注 人员与业务经营方式。</t>
+    </r>
+  </si>
+  <si>
+    <t>示例包括策略、过程、雇佣准则、背景调查、数据分类和标签、安全意识和培训结果、休假记录、报告和回顾、工作监督、人员控制以及测试。</t>
+  </si>
+  <si>
+    <t>物理性控制</t>
+  </si>
+  <si>
+    <r>
+      <t>作为部署物理屏障，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理性访问控制可以防止对系统或设施某部分的直接访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>示例包括保安、围墙、陷阱、报警器、看门狗等。</t>
+  </si>
+  <si>
+    <t>控制类型 - 预防（preventive）</t>
+  </si>
+  <si>
+    <t>部署预防性访问控制是为了阻止不受欢迎的或未授权活动的发生。</t>
+  </si>
+  <si>
+    <t>示例包括围墙、锁、生物识别、审计、加密、访问控制方法、防病毒软件、防火墙和入侵防御系统（IPS）。</t>
+  </si>
+  <si>
+    <t>控制类型 - 威慑（deterrent）</t>
+  </si>
+  <si>
+    <r>
+      <t>部署威慑性访问控制是为了吓阻出现违反安全策略的情况。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>威慑性和预防性控制比较类似，但是威慑性控制取决于某人的决定并不阻止某个动作。相反，预防性控制实际上阻止一个活动。</t>
+    </r>
+  </si>
+  <si>
+    <t>示例包括策略、安全意识培训、锁、围墙、陷阱、安全摄像机。</t>
+  </si>
+  <si>
+    <t>控制类型 - 检测（detective）</t>
+  </si>
+  <si>
+    <r>
+      <t>部署检测性访问控制是为了发现不受欢迎的或未授权的活动。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常，检测性访问控制并不实时进行，而是在活动出现后进行。</t>
+    </r>
+  </si>
+  <si>
+    <t>保安，移动探测器，记录和检查安全摄像机或闭路电视捕获的事件、工作轮换，强制休假审计跟踪、蜜罐或蜜网，IDS、违规报告、对用户的监管和检查、事故调查。</t>
+  </si>
+  <si>
+    <t>控制类型 - 补偿（compensating）</t>
+  </si>
+  <si>
+    <r>
+      <t>部署补偿性访问控制是为了向其他现有的访问控制提供各种选项，从而帮助增强和支持安全策略。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补偿性访问控制还可以包括一些其他控制，这些控制用于替代必要的或被破坏的控制。</t>
+    </r>
+  </si>
+  <si>
+    <t>如，一个组织的策略可以指示所有的PII必须加密。审查发现，预防性访问控制在数据库中加密所有PII数据，但是PII通过网络传输以明文形式发送。可以添加补偿性访问控制来保护传输中的数据。</t>
+  </si>
+  <si>
+    <t>控制类型 - 纠正（corrective）</t>
+  </si>
+  <si>
+    <t>部署纠正性访问控制是为了在发生不受欢迎的或未授权的操作后，将系统还原至正常的状态。试图纠正发生安全事件造成的任何问题。纠正性访问控制通常较为简单，，如终止恶意行为或重启系统。其中还包括病毒解决方案，可以删除或隔离病毒病具有备份和恢复计划，以确保丢失的数据可以被恢复，活跃的ID可以修复系统环境并停止攻击程序。安全策略被入侵后，访问控制可以用来修复资源、功能和能力。</t>
+  </si>
+  <si>
+    <t>控制类型 - 恢复（recovery）</t>
+  </si>
+  <si>
+    <t>恢复性访问控制与纠正性访问控制相比，恢复性访问控制响应访问违规的性能更高级、更复杂。</t>
+  </si>
+  <si>
+    <t>如，备份和还原、容错驱动系统、系统镜像、服务器群集、反病毒软件以及虚拟机影像。业务连续性和灾难恢复、恢复控制可以包括热站、温站、冷战点、备用处理设施、互惠协议、云提供商、移动运用中心和多站点解决方案。</t>
+  </si>
+  <si>
+    <t>控制类型 - 指令（directive）</t>
+  </si>
+  <si>
+    <t>指示控制用于指导、限制或控制主体的行为，以强制或鼓励遵守安全策略。</t>
+  </si>
+  <si>
+    <t>如，安全策略要求或标准、发布的通知、逃生路线出口标志、监控、监督和程序。</t>
+  </si>
+  <si>
+    <t>安全控制评估</t>
+  </si>
+  <si>
+    <t>安全控制评估（Secruity Control Assessment, SCA）是根据基线或可靠性对安全基础设施的各个机制进行的正式评估，可作为渗透测试或漏洞评估的补充内容，或作为完整的安全评估被执行。</t>
+  </si>
+  <si>
+    <t>SCA的目标是确保安全机制的有效性，评估组织风险管理过程的质量和彻底性，并生成已部署的安全基础设施相对优缺点的报告。</t>
+  </si>
+  <si>
+    <t>监控和测量</t>
+  </si>
+  <si>
+    <r>
+      <t>安全控制提供的收益应该是可被监视和测量的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果安全控制提供的收益无法被量化、评估或比较，那么这种控制实际上没有提供任何安全。</t>
+    </r>
+  </si>
+  <si>
+    <t>本地监视或外部监视</t>
+  </si>
+  <si>
+    <t>许多控制措施提供了一定程度的改善而不是具体的关于防止破坏或阻止攻击的数量。通常为了测量控制措施的成败，在安全措施执行前后进行监视和记录是失分必要的。只有知道了起点，才能准确地衡量收益。</t>
+  </si>
+  <si>
+    <t>风险报告</t>
+  </si>
+  <si>
+    <t>风险报告是在风险分析结束时执行的一项关键任务。风险报告涉及制作风险报告并向相关方介绍该报告。对于许多组织而言，风险报告仅是内部问题，而其他组织可能有规定要求第三方或公开报告期风险发现。风险报告应准确、及时、全面、涵盖整个组织，清晰准确以支持决策，并定期更新。</t>
+  </si>
+  <si>
+    <t>风险登记册或风险日志是一份文件、列出了组织或系统或单个项目中所有已识别风险的清单。风险登记册用于记录和跟踪风险管理活动</t>
+  </si>
+  <si>
+    <t>风险登记册</t>
+  </si>
+  <si>
+    <t>识别风险</t>
+  </si>
+  <si>
+    <t>评估这些风险的严重性并确定其优先级</t>
+  </si>
+  <si>
+    <t>制定应对措施以减少或消除风险</t>
+  </si>
+  <si>
+    <t>跟踪风险缓解的进度</t>
+  </si>
+  <si>
+    <t>风险登记册可以作为项目管理文件来跟踪风险应对活动的完成情况以及风险管理的历史记录。风险等基层的内容可以与他人共享，以通过合并其他组织的风险管理活动来促进对显示世界的威胁和风险进行更现实的评估。</t>
+  </si>
+  <si>
+    <t>资产评估</t>
+  </si>
+  <si>
+    <r>
+      <t>风险分析的一个重要步骤评估企业的资产价值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果资产没有价值可言，那么也就没有必要为其提供保护。</t>
+    </r>
+  </si>
+  <si>
+    <t>风险分析的一个主要目标就是确保部署的安全防护措施是符合成本效益原则的。</t>
+  </si>
+  <si>
+    <t>资产价值直接影响并引导了保障和安全保护的水平。作为一项规则，安全防护措施的年度成本不应超过预期的资产损失年度成本。</t>
+  </si>
+  <si>
+    <t>持续改进</t>
+  </si>
+  <si>
+    <t>风险评估可以为高层管理人员提供细致的分析，以帮助其决定哪些风险应该规避，哪些应该被转移，以及哪些应该被接受。其结果就是根据成本效益原则，在预期资产损失成本和应对威胁以及漏洞的安全措施部署成本之间进行比较。</t>
+  </si>
+  <si>
+    <r>
+      <t>风险分析可以识别风险、量化威胁的影响、并有助于安全运算、还有助于将企业的目标和宗旨与安全策略的需求和目标整合在一起。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险分析/风险评估是对“时间点”的度量。威胁和漏洞在不断变化，因此，风险评估需要定期进行，以确保系统安全性得以持续改进。</t>
+    </r>
+  </si>
+  <si>
+    <t>风险成熟度模型（Risk Maturity Model）</t>
+  </si>
+  <si>
+    <t>1. Ad hoc</t>
+  </si>
+  <si>
+    <t>一个混乱的起点，所有组织都从这个起点开始风险管理</t>
+  </si>
+  <si>
+    <t>2. Preliminary</t>
+  </si>
+  <si>
+    <t>尝试遵循风险管理流程，但买个部门可能会单独执行风险评估</t>
+  </si>
+  <si>
+    <t>3. Defined</t>
+  </si>
+  <si>
+    <t>在组织范围内采用通用或标准化的风险框架</t>
+  </si>
+  <si>
+    <t>4. Integrated</t>
+  </si>
+  <si>
+    <t>风险管理操作被集成到业务流程中，指标用于收集有效性数据，风险被视为业务战略决策一个因素</t>
+  </si>
+  <si>
+    <t>5. Optimized</t>
+  </si>
+  <si>
+    <t>风险管理侧重于实现目标，而不仅仅是对外部威胁做出反应；增加战略规划是为了商业成功，而不仅仅是避免事故；并将吸取的经验教育重新纳入风险管理流程。</t>
+  </si>
+  <si>
+    <t>风险框架</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>通过为管理安全和隐私风险建立上下文和优先级，准备从组织和系统级别的角度执行风险管理框架</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>对信息系统和基于影响分析做过处理、存储和传输的系统信息进行分类</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>基于安全分类选择该系统安全控制的初始化基线集：根据风险和当地情况的组织评估调整和补充安全控制基线</t>
+  </si>
+  <si>
+    <t>实施</t>
+  </si>
+  <si>
+    <t>实施安全控制并描述如何在信息系统和操作环境中部署控制</t>
+  </si>
+  <si>
+    <t>评估</t>
+  </si>
+  <si>
+    <t>使用恰当的评估步骤评估安全系统，确定一个范围，在此范围内可以保证控制的正确实施、按计划运行且达到系统安全要求的预期效果</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>基于对组织操作以及信息系统操作涉及的资金、个人、其他组织和国家风险的确定而授权信息系统操作，并确定风险是可接受的</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>不断地监控信息系统中的安全控制，包括评估控制的有效性、记录系统变化或操作环境的变化、进行相关变化的安全影响分析及向特定组织报告系统的安全状态</t>
+  </si>
+  <si>
+    <t>1.11 理解并应用威胁建模的概念和方法</t>
+  </si>
+  <si>
+    <t>威胁建模</t>
+  </si>
+  <si>
+    <t>威胁建模是识别、分类和分析潜在威胁的安全过程。威胁建模可以作为设计和开发期间的主动措施来执行，也可以作为产品部署后的被动措施。无论哪种情况，该过程都要确定潜在的危害、发生的概率、关注的优先级、以及消除或减少威胁的手段。</t>
+  </si>
+  <si>
+    <t>威胁建模并不意味着是一个单一的事件。相反，它应该在系统设计过程的早期启动，并在整个生命周期内持续进行。</t>
+  </si>
+  <si>
+    <t>微软使用安全开发生命周期（SDL）：设计安全、默认安全、部署和通信安全</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>减少与安全有关的设计编码缺陷的数量</t>
+  </si>
+  <si>
+    <t>减少任何剩余缺陷的严重性</t>
+  </si>
+  <si>
+    <t>主动式威胁建模</t>
+  </si>
+  <si>
+    <t>主动式威胁建模发生在系统开发的早期阶段，特别是初始设计和规范建立阶段。这种类型的威胁建模也被称为防御方法。这种方法基于百在编码和制作过程中预测威胁和设计特定防御、而不是依赖于部署后更新和打补丁。</t>
+  </si>
+  <si>
+    <t>大多数情况下，集成的安全解决方案成本效益更高，比后期追加的解决方案更有效。遗憾的是，并非所有威胁都能在设计阶段被预测到，所以仍然需要被动式威胁建模来解决不可以预见的问题。</t>
+  </si>
+  <si>
+    <t>被动式威胁建模</t>
+  </si>
+  <si>
+    <t>被动式威胁建模发生在产品创建与部署后。这种部署可在测试或实验室中进行，或在通用市场中进行。此类威胁建模也被称为对抗性方法。这种威胁建模技术是道德黑客、渗透测试、源代码审查和模糊测试背后的核心概念。尽管这些过程在发现需要决绝的缺陷和威胁方面通常很有用，但遗憾的是，他们导致需要在编码中添加新对策的工作。从长远来看，回到设计节阶段可能生产处更高的产品，但从头开始会耗费大量时间，并导致产品发布时间的延迟。因此，最简单的方法是在部署后向产品中增加更新或补丁。但这样做的结果是在可能降低功能和用户友好性的前提下，并没有带来更有效的安全改进（过度主动的威胁建模）。</t>
+  </si>
+  <si>
+    <t>识别威胁</t>
+  </si>
+  <si>
+    <t>关注资产</t>
+  </si>
+  <si>
+    <t>已资产为中心，利用资产评估结果，视图识别对有价值资产的威胁</t>
+  </si>
+  <si>
+    <t>关注攻击者</t>
+  </si>
+  <si>
+    <t>识别潜在攻击者，并能根据攻击者的目标识别代表的威胁。</t>
+  </si>
+  <si>
+    <t>关注软件</t>
+  </si>
+  <si>
+    <t>如果组织开发了软件，需要考虑针对软件的潜在威胁</t>
+  </si>
+  <si>
+    <t>STRIDE的威胁分类</t>
+  </si>
+  <si>
+    <t>电子欺骗（Spoofing）</t>
+  </si>
+  <si>
+    <t>通过使用伪造身份获得对目标系统访问的攻击行为</t>
+  </si>
+  <si>
+    <t>篡改（Tampering）</t>
+  </si>
+  <si>
+    <t>任何对数据进行未授权的更改或操作的行为，不管是传输中的数据还是被存储的数据。这种攻击是对完整性和可用性的侵害</t>
+  </si>
+  <si>
+    <t>否认（Repudiation）</t>
+  </si>
+  <si>
+    <t>用户或攻击者否认执行了一个动作或行为的能力。通过攻击者会否认攻击，以便保持合理的推读，从而不为自己的行为负责</t>
+  </si>
+  <si>
+    <t>信息披露（Information Disclousre）</t>
+  </si>
+  <si>
+    <t>将私人、机密或受控信息揭露、传播给歪脖或未授权的实体的行为。这可能包括客户身份信息、财务信息或自营业务操作细节</t>
+  </si>
+  <si>
+    <t>拒绝服务（DoS）</t>
+  </si>
+  <si>
+    <t>指攻击试图阻止对资源的授权使用。这可以通过缺陷开发、连接重载或流量翻来实现。DoS攻击并不一定会导致对资源的安全中断；而是会减少吞吐量或造成延迟，以阻碍对资源的有效利用</t>
+  </si>
+  <si>
+    <t>权限提升（Elevation of previlege）</t>
+  </si>
+  <si>
+    <t>此攻击是指有限的用户账号被转换成拥有更大特权、权利和访问权的账户。这可能会通过盗窃或开发高级账户（管理或root账户）凭证来实现</t>
+  </si>
+  <si>
+    <t>攻击模拟和威胁分析（Process for Attack Simulation and Threat Analysis, PASTA）</t>
+  </si>
+  <si>
+    <t>PASTA 方法是以风险为核心、旨在选取或开发要保护的资产价值相关的防护措施</t>
+  </si>
+  <si>
+    <t>1. 为风险定义目标（DO）</t>
+  </si>
+  <si>
+    <t>2. 定义技术范围（Definition of the Technical Scope, DTS）</t>
+  </si>
+  <si>
+    <t>3. 分解和分析应用程序（Application Decomposition and Analusis, ADA）</t>
+  </si>
+  <si>
+    <t>4. 威胁分析（Threat Analusis, TA）</t>
+  </si>
+  <si>
+    <t>5. 弱点和脆弱性分析（Weakness and Vulnerability Analysis, WVA）</t>
+  </si>
+  <si>
+    <t>6. 攻击建模与仿真 （Attack Modeling &amp; Simulation, AMS）</t>
+  </si>
+  <si>
+    <t>7. 风险分析和管理（Risk Analysis &amp; Management, RAM）</t>
+  </si>
+  <si>
+    <t>确定和绘制潜在的攻击图</t>
+  </si>
+  <si>
+    <t>威胁建模的下一步是确定可以实现的潜在攻击概念。这通常是通过创建事务中涉及的元素图以及数据流和特权边界的指示老实现的。</t>
+  </si>
+  <si>
+    <t>简化分析</t>
+  </si>
+  <si>
+    <t>简化分析也称为分解应用程序、系统或环境，这项任务的目的是更好地理解产品的逻辑及其外部元素的交互。需要划分为更小的容器或单元。</t>
+  </si>
+  <si>
+    <t>五个关键概念</t>
+  </si>
+  <si>
+    <t>信任边界信任级别或安全级别发生变化的位置</t>
+  </si>
+  <si>
+    <t>数据流路径在两个位置之间的流动</t>
+  </si>
+  <si>
+    <t>输入点接收外部输入的位置</t>
+  </si>
+  <si>
+    <t>特权操作需要比标准用户账户或流程拥有更大特权的任何活动，通常需要修改系统或更改安全性</t>
+  </si>
+  <si>
+    <t>安全声明和方法的细节关于安全策略、安全基础和安全假设的声明</t>
+  </si>
+  <si>
+    <t>将系统分解成各个组成部分能够更容易地识别每个元素的关键组件、并注意到脆弱性和攻击点。对程序、系统或环境的操作的了解越清楚，就约容器识别出针对它们的威胁。</t>
+  </si>
+  <si>
+    <t>优先级排序和响应</t>
+  </si>
+  <si>
+    <t>通过威胁建模识别出威胁后，下一步是全面记录这些威胁。应说明威胁的手段、目标和后果。一旦确定了威胁优先级，就需要确定对这些威胁的响应。要考虑解决威胁的技术和过程，并对成本与收益进行权衡。</t>
+  </si>
+  <si>
+    <t>进行排序或定级。可使用如“概率*潜在损失”排序、高/中/低评价，或 DREAD</t>
+  </si>
+  <si>
+    <t>DREAD</t>
+  </si>
+  <si>
+    <t>潜在破坏：如果威胁成真，可能造成的伤害有多严重</t>
+  </si>
+  <si>
+    <t>可再现性：攻击者复现攻击有多复杂</t>
+  </si>
+  <si>
+    <t>可利用性：实施攻击的难度有多大</t>
+  </si>
+  <si>
+    <t>受影响用户：有多少用户可能收到攻击的影响（按百分比）</t>
+  </si>
+  <si>
+    <t>可发现性：攻击者发现弱点有多难</t>
+  </si>
+  <si>
+    <t>1.12 应用供应链风险管理（SCRM）概念</t>
+  </si>
+  <si>
+    <t>供应链风险管理</t>
+  </si>
+  <si>
+    <t>供应链风险管理（SCRM）是确保供应链中所有供应商或环节都是可靠的、值得信赖的、有信誉的组织，向其业务合作伙伴纰漏其做法和安全要求的手段。链条中的每个环节都应对链条中的一个环节负责。每次交接都经过适当的组织、记录、管理和审核。安全供应链的目标是确保成品具有足够的质量，满足性能和运营目标，并提供既定的安全机制，并且在流程中的任何时候都没有任何元素被伪造或遭到未经授权或恶意操作或破坏。</t>
+  </si>
+  <si>
+    <t>与硬件、软件和服务相关的风险</t>
+  </si>
+  <si>
+    <t>评估与硬件、软件和服务相关的风险很重要。具有弹性集成安全性的产品和解决方案通常比那些没有安全基础的产品和解决方案更昂贵。这种额外的初始费用更具有成本效益。因此在考虑兼并/收购时，重要的是考虑产部部署的整个生命周期内的总成本，而不只是考虑初始购买和实施费用。</t>
+  </si>
+  <si>
+    <t>第三方评估和监控</t>
+  </si>
+  <si>
+    <t>最低安全要求</t>
+  </si>
+  <si>
+    <t>类似于基线和标准，组织应该建立最低安全要求（MSRs），定义供应商和供应链中其他各方必须满足的最低可接受的安全标准。</t>
+  </si>
+  <si>
+    <t>最低安全要求描述了你的组织愿意接受的第三方的最低安全水平。为了避免问题，最低安全要求应该考虑到需要满足的任何法律、合同监管要求；组织不应该建立一个低于任何外部安全合规要求的最低安全要求。</t>
+  </si>
+  <si>
+    <t>必须准备好审计和评估第三方对组织所建立和传达的任何最低安全要求的遵守情况。</t>
+  </si>
+  <si>
+    <t>最低安全要求和服务水平要求</t>
+  </si>
+  <si>
+    <t>在可能的情况下，为供应链中的每个实体建立最低安全要求。新硬件、软件或服务的安全要求应始终满足或超过最终产品中预期的安全性。这通常需要详细审查 SLA、合同和实际绩效。</t>
+  </si>
+  <si>
+    <t>这是为了确保安全性是合同服务的规定组成部分。当供应链组件提供商正在制作软件或提供服务时，可能需要定义服务级别要求（SLR）。SLR是对供应商产品或服务的服务和性能期望的声明。通常，客户/客户在建立 SLA 之前提供 SLR。</t>
+  </si>
+  <si>
+    <t>1.1.3 制定并维护安全意识、教育和培训计划</t>
+  </si>
+  <si>
+    <t>社会工程</t>
+  </si>
+  <si>
+    <t>社会工程是一种利用人性和人类新闻给的攻击形式。人员是安全的薄弱环节，因为他们可能会犯错误、被愚弄造成伤害或故意违反公司的安全。</t>
+  </si>
+  <si>
+    <t>社工工程攻击有两种主要形式：说服默认执行未经授权的操作或说服默认泄露机密信息</t>
+  </si>
+  <si>
+    <t>防止社会工程的方法</t>
+  </si>
+  <si>
+    <t>针对深灰工程攻击的最重要防御措施是用户教育和意识培训。</t>
+  </si>
+  <si>
+    <t>社会工程学原理</t>
+  </si>
+  <si>
+    <t>社会工程攻击的原则旨在关注人性的各个方面并利用它们。虽然不是每个目标都会屈服于每种攻击，但我们大多数人都容易以下一种或多种受到社会工程原则的影响。</t>
+  </si>
+  <si>
+    <t>权威 Authority</t>
+  </si>
+  <si>
+    <t>权威是一种有效的技巧，因为大多数人可能会以服从的方式回应权威。让目标相信攻击者是具有有效内部或外部权限的人。</t>
+  </si>
+  <si>
+    <t>恐吓 Intimidation</t>
+  </si>
+  <si>
+    <t>恐吓被视为权威原则的衍生物。恐吓使用权威、信心、甚至是伤害威胁来激励某人遵守或指示。恐吓的重点是在未定义明确的操作或响应指令的情况下利用不确定性。</t>
+  </si>
+  <si>
+    <t>共识 Consensus</t>
+  </si>
+  <si>
+    <t>共识或社会证明是利用一个人的自然倾向，模仿别人正在做的或被认为是过去做过的事情。攻击者视图首付受害者，使其相信一个特定的行为或反应是必要的，与社会规范或以前发生的事情相一致。</t>
   </si>
 </sst>
 </file>
@@ -3485,7 +4081,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25297130" y="124082810"/>
+          <a:off x="27117040" y="124082810"/>
           <a:ext cx="7767955" cy="2110105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3763,9 +4359,9 @@
   <dimension ref="A1:XFD524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C377" sqref="C377:D377"/>
+      <selection pane="bottomLeft" activeCell="C473" sqref="C473:D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1"/>
@@ -3773,8 +4369,8 @@
     <col min="1" max="1" width="36.9765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.15625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.7734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.3359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="95.3046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52.6015625" style="1" customWidth="1"/>
     <col min="7" max="16383" width="41.2734375" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="41.2734375" style="2"/>
@@ -7470,7 +8066,7 @@
       <c r="F326" s="5"/>
     </row>
     <row r="327" ht="38" customHeight="1" spans="1:6">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="5" t="s">
         <v>503</v>
       </c>
       <c r="B327" s="16" t="s">
@@ -7485,7 +8081,8 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" ht="38" customHeight="1" spans="2:6">
+    <row r="328" ht="38" customHeight="1" spans="1:6">
+      <c r="A328" s="5"/>
       <c r="B328" s="18"/>
       <c r="C328" s="5" t="s">
         <v>507</v>
@@ -7496,7 +8093,8 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" ht="38" customHeight="1" spans="2:6">
+    <row r="329" ht="38" customHeight="1" spans="1:6">
+      <c r="A329" s="5"/>
       <c r="B329" s="16" t="s">
         <v>509</v>
       </c>
@@ -7507,7 +8105,8 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" ht="38" customHeight="1" spans="2:6">
+    <row r="330" ht="38" customHeight="1" spans="1:6">
+      <c r="A330" s="5"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19" t="s">
         <v>511</v>
@@ -7516,7 +8115,8 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" ht="38" customHeight="1" spans="2:6">
+    <row r="331" ht="38" customHeight="1" spans="1:6">
+      <c r="A331" s="5"/>
       <c r="B331" s="16" t="s">
         <v>512</v>
       </c>
@@ -7527,7 +8127,8 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" ht="38" customHeight="1" spans="2:6">
+    <row r="332" ht="38" customHeight="1" spans="1:6">
+      <c r="A332" s="5"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19" t="s">
         <v>514</v>
@@ -7536,7 +8137,8 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" ht="38" customHeight="1" spans="2:6">
+    <row r="333" ht="38" customHeight="1" spans="1:6">
+      <c r="A333" s="5"/>
       <c r="B333" s="16" t="s">
         <v>515</v>
       </c>
@@ -7547,7 +8149,8 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" ht="38" customHeight="1" spans="2:6">
+    <row r="334" ht="38" customHeight="1" spans="1:6">
+      <c r="A334" s="5"/>
       <c r="B334" s="18"/>
       <c r="C334" s="19" t="s">
         <v>517</v>
@@ -7556,7 +8159,8 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" ht="38" customHeight="1" spans="2:6">
+    <row r="335" ht="38" customHeight="1" spans="1:6">
+      <c r="A335" s="5"/>
       <c r="B335" s="16" t="s">
         <v>518</v>
       </c>
@@ -7568,7 +8172,7 @@
       <c r="F335" s="5"/>
     </row>
     <row r="336" ht="38" customHeight="1" spans="1:6">
-      <c r="A336" s="2"/>
+      <c r="A336" s="5"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19" t="s">
         <v>520</v>
@@ -7577,7 +8181,8 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" ht="38" customHeight="1" spans="2:6">
+    <row r="337" ht="38" customHeight="1" spans="1:6">
+      <c r="A337" s="5"/>
       <c r="B337" s="16" t="s">
         <v>521</v>
       </c>
@@ -7588,7 +8193,8 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" ht="38" customHeight="1" spans="2:6">
+    <row r="338" ht="38" customHeight="1" spans="1:6">
+      <c r="A338" s="5"/>
       <c r="B338" s="17"/>
       <c r="C338" s="30" t="s">
         <v>523</v>
@@ -7597,7 +8203,8 @@
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" ht="38" customHeight="1" spans="2:6">
+    <row r="339" ht="38" customHeight="1" spans="1:6">
+      <c r="A339" s="5"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19" t="s">
         <v>524</v>
@@ -7606,7 +8213,8 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" ht="38" customHeight="1" spans="2:6">
+    <row r="340" ht="38" customHeight="1" spans="1:6">
+      <c r="A340" s="5"/>
       <c r="B340" s="16" t="s">
         <v>525</v>
       </c>
@@ -7617,7 +8225,8 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" ht="38" customHeight="1" spans="2:6">
+    <row r="341" ht="38" customHeight="1" spans="1:6">
+      <c r="A341" s="5"/>
       <c r="B341" s="17"/>
       <c r="C341" s="19" t="s">
         <v>527</v>
@@ -7626,7 +8235,8 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" ht="38" customHeight="1" spans="2:6">
+    <row r="342" ht="38" customHeight="1" spans="1:6">
+      <c r="A342" s="5"/>
       <c r="B342" s="18"/>
       <c r="C342" s="30" t="s">
         <v>528</v>
@@ -7635,7 +8245,8 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" ht="38" customHeight="1" spans="2:6">
+    <row r="343" ht="38" customHeight="1" spans="1:6">
+      <c r="A343" s="5"/>
       <c r="B343" s="5" t="s">
         <v>529</v>
       </c>
@@ -7646,7 +8257,8 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" ht="38" customHeight="1" spans="2:6">
+    <row r="344" ht="38" customHeight="1" spans="1:6">
+      <c r="A344" s="5"/>
       <c r="B344" s="5" t="s">
         <v>531</v>
       </c>
@@ -7657,7 +8269,8 @@
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" ht="38" customHeight="1" spans="2:6">
+    <row r="345" ht="38" customHeight="1" spans="1:6">
+      <c r="A345" s="5"/>
       <c r="B345" s="5" t="s">
         <v>533</v>
       </c>
@@ -7669,7 +8282,7 @@
       <c r="F345" s="5"/>
     </row>
     <row r="346" ht="38" customHeight="1" spans="1:6">
-      <c r="A346" s="2"/>
+      <c r="A346" s="5"/>
       <c r="B346" s="16" t="s">
         <v>535</v>
       </c>
@@ -7680,7 +8293,8 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" ht="38" customHeight="1" spans="2:6">
+    <row r="347" ht="38" customHeight="1" spans="1:6">
+      <c r="A347" s="5"/>
       <c r="B347" s="18"/>
       <c r="C347" s="19" t="s">
         <v>537</v>
@@ -7689,7 +8303,8 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" ht="38" customHeight="1" spans="2:6">
+    <row r="348" ht="38" customHeight="1" spans="1:6">
+      <c r="A348" s="5"/>
       <c r="B348" s="16" t="s">
         <v>538</v>
       </c>
@@ -7700,7 +8315,8 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" ht="38" customHeight="1" spans="2:6">
+    <row r="349" ht="38" customHeight="1" spans="1:6">
+      <c r="A349" s="5"/>
       <c r="B349" s="17"/>
       <c r="C349" s="5" t="s">
         <v>540</v>
@@ -7711,7 +8327,8 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" ht="38" customHeight="1" spans="2:6">
+    <row r="350" ht="38" customHeight="1" spans="1:6">
+      <c r="A350" s="5"/>
       <c r="B350" s="18"/>
       <c r="C350" s="5" t="s">
         <v>542</v>
@@ -7722,7 +8339,8 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" ht="38" customHeight="1" spans="2:6">
+    <row r="351" ht="38" customHeight="1" spans="1:6">
+      <c r="A351" s="5"/>
       <c r="B351" s="16" t="s">
         <v>540</v>
       </c>
@@ -7733,7 +8351,8 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" ht="38" customHeight="1" spans="2:6">
+    <row r="352" ht="38" customHeight="1" spans="1:6">
+      <c r="A352" s="5"/>
       <c r="B352" s="17"/>
       <c r="C352" s="21" t="s">
         <v>545</v>
@@ -7742,7 +8361,8 @@
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" ht="38" customHeight="1" spans="2:6">
+    <row r="353" ht="38" customHeight="1" spans="1:6">
+      <c r="A353" s="5"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19" t="s">
         <v>546</v>
@@ -7751,7 +8371,8 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" ht="38" customHeight="1" spans="2:6">
+    <row r="354" ht="38" customHeight="1" spans="1:6">
+      <c r="A354" s="5"/>
       <c r="B354" s="16" t="s">
         <v>547</v>
       </c>
@@ -7762,7 +8383,8 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" ht="38" customHeight="1" spans="2:6">
+    <row r="355" ht="38" customHeight="1" spans="1:6">
+      <c r="A355" s="5"/>
       <c r="B355" s="17"/>
       <c r="C355" s="21" t="s">
         <v>549</v>
@@ -7772,7 +8394,7 @@
       <c r="F355" s="5"/>
     </row>
     <row r="356" ht="38" customHeight="1" spans="1:6">
-      <c r="A356" s="2"/>
+      <c r="A356" s="5"/>
       <c r="B356" s="17"/>
       <c r="C356" s="21" t="s">
         <v>550</v>
@@ -7781,7 +8403,8 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" ht="38" customHeight="1" spans="2:6">
+    <row r="357" ht="38" customHeight="1" spans="1:6">
+      <c r="A357" s="5"/>
       <c r="B357" s="18"/>
       <c r="C357" s="21" t="s">
         <v>551</v>
@@ -7790,7 +8413,8 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" ht="38" customHeight="1" spans="2:6">
+    <row r="358" ht="38" customHeight="1" spans="1:6">
+      <c r="A358" s="5"/>
       <c r="B358" s="16" t="s">
         <v>552</v>
       </c>
@@ -7801,7 +8425,8 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" ht="38" customHeight="1" spans="2:6">
+    <row r="359" ht="38" customHeight="1" spans="1:6">
+      <c r="A359" s="5"/>
       <c r="B359" s="17"/>
       <c r="C359" s="19" t="s">
         <v>554</v>
@@ -7810,7 +8435,8 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" ht="38" customHeight="1" spans="2:6">
+    <row r="360" ht="38" customHeight="1" spans="1:6">
+      <c r="A360" s="5"/>
       <c r="B360" s="17"/>
       <c r="C360" s="19" t="s">
         <v>555</v>
@@ -7819,7 +8445,8 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" ht="38" customHeight="1" spans="2:6">
+    <row r="361" ht="38" customHeight="1" spans="1:6">
+      <c r="A361" s="5"/>
       <c r="B361" s="18"/>
       <c r="C361" s="27" t="s">
         <v>556</v>
@@ -7828,7 +8455,8 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" ht="38" customHeight="1" spans="2:6">
+    <row r="362" ht="38" customHeight="1" spans="1:6">
+      <c r="A362" s="5"/>
       <c r="B362" s="16" t="s">
         <v>557</v>
       </c>
@@ -7841,7 +8469,8 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" ht="38" customHeight="1" spans="2:6">
+    <row r="363" ht="38" customHeight="1" spans="1:6">
+      <c r="A363" s="5"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
       <c r="D363" s="5" t="s">
@@ -7850,7 +8479,8 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" ht="38" customHeight="1" spans="2:6">
+    <row r="364" ht="38" customHeight="1" spans="1:6">
+      <c r="A364" s="5"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
       <c r="D364" s="5" t="s">
@@ -7859,7 +8489,8 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" ht="38" customHeight="1" spans="2:6">
+    <row r="365" ht="38" customHeight="1" spans="1:6">
+      <c r="A365" s="5"/>
       <c r="B365" s="17"/>
       <c r="C365" s="18"/>
       <c r="D365" s="5" t="s">
@@ -7869,7 +8500,7 @@
       <c r="F365" s="5"/>
     </row>
     <row r="366" ht="38" customHeight="1" spans="1:6">
-      <c r="A366" s="2"/>
+      <c r="A366" s="5"/>
       <c r="B366" s="18"/>
       <c r="C366" s="21" t="s">
         <v>563</v>
@@ -7878,7 +8509,8 @@
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" ht="38" customHeight="1" spans="2:6">
+    <row r="367" ht="38" customHeight="1" spans="1:6">
+      <c r="A367" s="5"/>
       <c r="B367" s="5" t="s">
         <v>564</v>
       </c>
@@ -7889,7 +8521,8 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" ht="38" customHeight="1" spans="2:6">
+    <row r="368" ht="38" customHeight="1" spans="1:6">
+      <c r="A368" s="5"/>
       <c r="B368" s="5" t="s">
         <v>566</v>
       </c>
@@ -7900,7 +8533,8 @@
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" ht="38" customHeight="1" spans="2:6">
+    <row r="369" ht="38" customHeight="1" spans="1:6">
+      <c r="A369" s="5"/>
       <c r="B369" s="16" t="s">
         <v>568</v>
       </c>
@@ -7911,7 +8545,8 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" ht="38" customHeight="1" spans="2:6">
+    <row r="370" ht="38" customHeight="1" spans="1:6">
+      <c r="A370" s="5"/>
       <c r="B370" s="18"/>
       <c r="C370" s="19" t="s">
         <v>570</v>
@@ -7920,7 +8555,8 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" ht="38" customHeight="1" spans="2:6">
+    <row r="371" ht="38" customHeight="1" spans="1:6">
+      <c r="A371" s="5"/>
       <c r="B371" s="5" t="s">
         <v>571</v>
       </c>
@@ -7933,7 +8569,8 @@
       </c>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" ht="38" customHeight="1" spans="2:6">
+    <row r="372" ht="38" customHeight="1" spans="1:6">
+      <c r="A372" s="5"/>
       <c r="B372" s="5" t="s">
         <v>574</v>
       </c>
@@ -7944,7 +8581,8 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" ht="38" customHeight="1" spans="2:6">
+    <row r="373" ht="38" customHeight="1" spans="1:6">
+      <c r="A373" s="5"/>
       <c r="B373" s="5" t="s">
         <v>576</v>
       </c>
@@ -7955,7 +8593,8 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" ht="38" customHeight="1" spans="2:6">
+    <row r="374" ht="38" customHeight="1" spans="1:6">
+      <c r="A374" s="5"/>
       <c r="B374" s="16" t="s">
         <v>578</v>
       </c>
@@ -7966,7 +8605,8 @@
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" ht="38" customHeight="1" spans="2:6">
+    <row r="375" ht="38" customHeight="1" spans="1:6">
+      <c r="A375" s="5"/>
       <c r="B375" s="17"/>
       <c r="C375" s="19" t="s">
         <v>580</v>
@@ -7976,7 +8616,7 @@
       <c r="F375" s="5"/>
     </row>
     <row r="376" ht="38" customHeight="1" spans="1:6">
-      <c r="A376" s="2"/>
+      <c r="A376" s="5"/>
       <c r="B376" s="18"/>
       <c r="C376" s="19" t="s">
         <v>581</v>
@@ -7985,7 +8625,8 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" ht="38" customHeight="1" spans="2:6">
+    <row r="377" ht="38" customHeight="1" spans="1:6">
+      <c r="A377" s="5"/>
       <c r="B377" s="16" t="s">
         <v>582</v>
       </c>
@@ -7998,7 +8639,8 @@
       </c>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" ht="38" customHeight="1" spans="2:6">
+    <row r="378" ht="38" customHeight="1" spans="1:6">
+      <c r="A378" s="5"/>
       <c r="B378" s="17"/>
       <c r="C378" s="19" t="s">
         <v>585</v>
@@ -8007,7 +8649,8 @@
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" ht="38" customHeight="1" spans="2:6">
+    <row r="379" ht="38" customHeight="1" spans="1:6">
+      <c r="A379" s="5"/>
       <c r="B379" s="18"/>
       <c r="C379" s="19" t="s">
         <v>586</v>
@@ -8016,7 +8659,8 @@
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" ht="38" customHeight="1" spans="2:6">
+    <row r="380" ht="38" customHeight="1" spans="1:6">
+      <c r="A380" s="5"/>
       <c r="B380" s="5" t="s">
         <v>587</v>
       </c>
@@ -8027,678 +8671,1106 @@
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" ht="38" customHeight="1" spans="2:6">
+    <row r="381" ht="38" customHeight="1" spans="1:6">
+      <c r="A381" s="5"/>
       <c r="B381" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C381" s="19"/>
+      <c r="C381" s="21" t="s">
+        <v>590</v>
+      </c>
       <c r="D381" s="20"/>
-      <c r="E381" s="5"/>
+      <c r="E381" s="5" t="s">
+        <v>591</v>
+      </c>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" ht="38" customHeight="1" spans="2:6">
-      <c r="B382" s="5"/>
-      <c r="C382" s="19"/>
+    <row r="382" ht="38" customHeight="1" spans="1:6">
+      <c r="A382" s="5"/>
+      <c r="B382" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C382" s="21" t="s">
+        <v>593</v>
+      </c>
       <c r="D382" s="20"/>
-      <c r="E382" s="5"/>
+      <c r="E382" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" ht="38" customHeight="1" spans="2:6">
-      <c r="B383" s="5"/>
-      <c r="C383" s="19"/>
+    <row r="383" ht="38" customHeight="1" spans="1:6">
+      <c r="A383" s="5"/>
+      <c r="B383" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C383" s="27" t="s">
+        <v>596</v>
+      </c>
       <c r="D383" s="20"/>
-      <c r="E383" s="5"/>
+      <c r="E383" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" ht="38" customHeight="1" spans="2:6">
-      <c r="B384" s="5"/>
-      <c r="C384" s="19"/>
+    <row r="384" ht="38" customHeight="1" spans="1:6">
+      <c r="A384" s="5"/>
+      <c r="B384" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C384" s="21" t="s">
+        <v>599</v>
+      </c>
       <c r="D384" s="20"/>
-      <c r="E384" s="5"/>
+      <c r="E384" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" ht="38" customHeight="1" spans="2:6">
-      <c r="B385" s="5"/>
-      <c r="C385" s="19"/>
+    <row r="385" ht="38" customHeight="1" spans="1:6">
+      <c r="A385" s="5"/>
+      <c r="B385" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C385" s="21" t="s">
+        <v>602</v>
+      </c>
       <c r="D385" s="20"/>
-      <c r="E385" s="5"/>
+      <c r="E385" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="F385" s="5"/>
     </row>
     <row r="386" ht="38" customHeight="1" spans="1:6">
-      <c r="A386" s="2"/>
-      <c r="B386" s="5"/>
-      <c r="C386" s="19"/>
+      <c r="A386" s="5"/>
+      <c r="B386" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C386" s="21" t="s">
+        <v>605</v>
+      </c>
       <c r="D386" s="20"/>
-      <c r="E386" s="5"/>
+      <c r="E386" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" ht="38" customHeight="1" spans="2:6">
-      <c r="B387" s="5"/>
-      <c r="C387" s="19"/>
+    <row r="387" ht="38" customHeight="1" spans="1:6">
+      <c r="A387" s="5"/>
+      <c r="B387" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C387" s="21" t="s">
+        <v>608</v>
+      </c>
       <c r="D387" s="20"/>
-      <c r="E387" s="5"/>
+      <c r="E387" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" ht="38" customHeight="1" spans="2:6">
-      <c r="B388" s="5"/>
-      <c r="C388" s="19"/>
+    <row r="388" ht="64" customHeight="1" spans="1:6">
+      <c r="A388" s="5"/>
+      <c r="B388" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C388" s="21" t="s">
+        <v>611</v>
+      </c>
       <c r="D388" s="20"/>
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" ht="38" customHeight="1" spans="2:6">
-      <c r="B389" s="5"/>
-      <c r="C389" s="19"/>
+    <row r="389" ht="66" customHeight="1" spans="1:6">
+      <c r="A389" s="5"/>
+      <c r="B389" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C389" s="21" t="s">
+        <v>613</v>
+      </c>
       <c r="D389" s="20"/>
-      <c r="E389" s="5"/>
+      <c r="E389" s="5" t="s">
+        <v>614</v>
+      </c>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" ht="38" customHeight="1" spans="2:6">
-      <c r="B390" s="5"/>
-      <c r="C390" s="19"/>
+    <row r="390" ht="38" customHeight="1" spans="1:6">
+      <c r="A390" s="5"/>
+      <c r="B390" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C390" s="21" t="s">
+        <v>616</v>
+      </c>
       <c r="D390" s="20"/>
-      <c r="E390" s="5"/>
+      <c r="E390" s="5" t="s">
+        <v>617</v>
+      </c>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" ht="38" customHeight="1" spans="2:6">
-      <c r="B391" s="5"/>
-      <c r="C391" s="19"/>
+    <row r="391" ht="38" customHeight="1" spans="1:6">
+      <c r="A391" s="5"/>
+      <c r="B391" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>619</v>
+      </c>
       <c r="D391" s="20"/>
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" ht="38" customHeight="1" spans="2:6">
-      <c r="B392" s="5"/>
-      <c r="C392" s="19"/>
+    <row r="392" ht="38" customHeight="1" spans="1:6">
+      <c r="A392" s="5"/>
+      <c r="B392" s="18"/>
+      <c r="C392" s="19" t="s">
+        <v>620</v>
+      </c>
       <c r="D392" s="20"/>
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" ht="38" customHeight="1" spans="2:6">
-      <c r="B393" s="5"/>
-      <c r="C393" s="19"/>
+    <row r="393" ht="38" customHeight="1" spans="1:6">
+      <c r="A393" s="5"/>
+      <c r="B393" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C393" s="21" t="s">
+        <v>622</v>
+      </c>
       <c r="D393" s="20"/>
-      <c r="E393" s="5"/>
+      <c r="E393" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" ht="38" customHeight="1" spans="2:6">
-      <c r="B394" s="5"/>
-      <c r="C394" s="19"/>
+    <row r="394" ht="38" customHeight="1" spans="1:6">
+      <c r="A394" s="5"/>
+      <c r="B394" s="18"/>
+      <c r="C394" s="19" t="s">
+        <v>624</v>
+      </c>
       <c r="D394" s="20"/>
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" ht="38" customHeight="1" spans="2:6">
-      <c r="B395" s="5"/>
-      <c r="C395" s="19"/>
+    <row r="395" ht="38" customHeight="1" spans="1:6">
+      <c r="A395" s="5"/>
+      <c r="B395" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C395" s="21" t="s">
+        <v>626</v>
+      </c>
       <c r="D395" s="20"/>
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
     <row r="396" ht="38" customHeight="1" spans="1:6">
-      <c r="A396" s="2"/>
-      <c r="B396" s="5"/>
-      <c r="C396" s="19"/>
+      <c r="A396" s="5"/>
+      <c r="B396" s="17"/>
+      <c r="C396" s="19" t="s">
+        <v>627</v>
+      </c>
       <c r="D396" s="20"/>
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" ht="38" customHeight="1" spans="2:6">
-      <c r="B397" s="5"/>
-      <c r="C397" s="19"/>
-      <c r="D397" s="20"/>
+    <row r="397" ht="38" customHeight="1" spans="1:6">
+      <c r="A397" s="5"/>
+      <c r="B397" s="17"/>
+      <c r="C397" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>629</v>
+      </c>
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" ht="38" customHeight="1" spans="2:6">
-      <c r="B398" s="5"/>
-      <c r="C398" s="19"/>
-      <c r="D398" s="20"/>
+    <row r="398" ht="38" customHeight="1" spans="1:6">
+      <c r="A398" s="5"/>
+      <c r="B398" s="17"/>
+      <c r="C398" s="17"/>
+      <c r="D398" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" ht="38" customHeight="1" spans="2:6">
-      <c r="B399" s="5"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="20"/>
+    <row r="399" ht="38" customHeight="1" spans="1:6">
+      <c r="A399" s="5"/>
+      <c r="B399" s="17"/>
+      <c r="C399" s="17"/>
+      <c r="D399" s="5" t="s">
+        <v>631</v>
+      </c>
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" ht="38" customHeight="1" spans="2:6">
-      <c r="B400" s="5"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="20"/>
+    <row r="400" ht="38" customHeight="1" spans="1:6">
+      <c r="A400" s="5"/>
+      <c r="B400" s="17"/>
+      <c r="C400" s="18"/>
+      <c r="D400" s="5" t="s">
+        <v>632</v>
+      </c>
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" ht="38" customHeight="1" spans="2:6">
-      <c r="B401" s="5"/>
-      <c r="C401" s="19"/>
+    <row r="401" ht="38" customHeight="1" spans="1:6">
+      <c r="A401" s="5"/>
+      <c r="B401" s="18"/>
+      <c r="C401" s="19" t="s">
+        <v>633</v>
+      </c>
       <c r="D401" s="20"/>
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" ht="38" customHeight="1" spans="2:6">
-      <c r="B402" s="5"/>
-      <c r="C402" s="19"/>
+    <row r="402" ht="38" customHeight="1" spans="1:6">
+      <c r="A402" s="5"/>
+      <c r="B402" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="C402" s="21" t="s">
+        <v>635</v>
+      </c>
       <c r="D402" s="20"/>
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" ht="38" customHeight="1" spans="2:6">
-      <c r="B403" s="5"/>
-      <c r="C403" s="19"/>
+    <row r="403" ht="38" customHeight="1" spans="1:6">
+      <c r="A403" s="5"/>
+      <c r="B403" s="17"/>
+      <c r="C403" s="21" t="s">
+        <v>636</v>
+      </c>
       <c r="D403" s="20"/>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" ht="38" customHeight="1" spans="2:6">
-      <c r="B404" s="5"/>
-      <c r="C404" s="19"/>
+    <row r="404" ht="38" customHeight="1" spans="1:6">
+      <c r="A404" s="5"/>
+      <c r="B404" s="18"/>
+      <c r="C404" s="19" t="s">
+        <v>637</v>
+      </c>
       <c r="D404" s="20"/>
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" ht="38" customHeight="1" spans="2:6">
-      <c r="B405" s="5"/>
-      <c r="C405" s="19"/>
+    <row r="405" ht="38" customHeight="1" spans="1:6">
+      <c r="A405" s="5"/>
+      <c r="B405" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C405" s="19" t="s">
+        <v>639</v>
+      </c>
       <c r="D405" s="20"/>
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
     <row r="406" ht="38" customHeight="1" spans="1:6">
-      <c r="A406" s="2"/>
-      <c r="B406" s="5"/>
-      <c r="C406" s="19"/>
+      <c r="A406" s="5"/>
+      <c r="B406" s="18"/>
+      <c r="C406" s="21" t="s">
+        <v>640</v>
+      </c>
       <c r="D406" s="20"/>
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" ht="38" customHeight="1" spans="2:6">
-      <c r="B407" s="5"/>
-      <c r="C407" s="19"/>
-      <c r="D407" s="20"/>
+    <row r="407" ht="38" customHeight="1" spans="1:6">
+      <c r="A407" s="5"/>
+      <c r="B407" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" ht="38" customHeight="1" spans="2:6">
-      <c r="B408" s="5"/>
-      <c r="C408" s="19"/>
-      <c r="D408" s="20"/>
+    <row r="408" ht="38" customHeight="1" spans="1:6">
+      <c r="A408" s="5"/>
+      <c r="B408" s="17"/>
+      <c r="C408" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>645</v>
+      </c>
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" ht="38" customHeight="1" spans="2:6">
-      <c r="B409" s="5"/>
-      <c r="C409" s="19"/>
-      <c r="D409" s="20"/>
+    <row r="409" ht="38" customHeight="1" spans="1:6">
+      <c r="A409" s="5"/>
+      <c r="B409" s="17"/>
+      <c r="C409" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>647</v>
+      </c>
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" ht="38" customHeight="1" spans="2:6">
-      <c r="B410" s="5"/>
-      <c r="C410" s="19"/>
-      <c r="D410" s="20"/>
+    <row r="410" ht="38" customHeight="1" spans="1:6">
+      <c r="A410" s="5"/>
+      <c r="B410" s="17"/>
+      <c r="C410" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>649</v>
+      </c>
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" ht="38" customHeight="1" spans="2:6">
-      <c r="B411" s="5"/>
-      <c r="C411" s="19"/>
-      <c r="D411" s="20"/>
+    <row r="411" ht="38" customHeight="1" spans="1:6">
+      <c r="A411" s="5"/>
+      <c r="B411" s="18"/>
+      <c r="C411" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>651</v>
+      </c>
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" ht="38" customHeight="1" spans="2:6">
-      <c r="B412" s="5"/>
-      <c r="C412" s="19"/>
-      <c r="D412" s="20"/>
+    <row r="412" ht="38" customHeight="1" spans="1:6">
+      <c r="A412" s="5"/>
+      <c r="B412" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" ht="38" customHeight="1" spans="2:6">
-      <c r="B413" s="5"/>
-      <c r="C413" s="19"/>
-      <c r="D413" s="20"/>
+    <row r="413" ht="38" customHeight="1" spans="1:6">
+      <c r="A413" s="5"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" ht="38" customHeight="1" spans="2:6">
-      <c r="B414" s="5"/>
-      <c r="C414" s="19"/>
-      <c r="D414" s="20"/>
+    <row r="414" ht="38" customHeight="1" spans="1:6">
+      <c r="A414" s="5"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" ht="38" customHeight="1" spans="2:6">
-      <c r="B415" s="5"/>
-      <c r="C415" s="19"/>
-      <c r="D415" s="20"/>
+    <row r="415" ht="38" customHeight="1" spans="1:6">
+      <c r="A415" s="5"/>
+      <c r="B415" s="17"/>
+      <c r="C415" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
     <row r="416" ht="38" customHeight="1" spans="1:6">
-      <c r="A416" s="2"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="19"/>
-      <c r="D416" s="20"/>
+      <c r="A416" s="5"/>
+      <c r="B416" s="17"/>
+      <c r="C416" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>662</v>
+      </c>
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" ht="38" customHeight="1" spans="2:6">
-      <c r="B417" s="5"/>
-      <c r="C417" s="19"/>
-      <c r="D417" s="20"/>
+    <row r="417" ht="38" customHeight="1" spans="1:6">
+      <c r="A417" s="5"/>
+      <c r="B417" s="17"/>
+      <c r="C417" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>664</v>
+      </c>
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" ht="38" customHeight="1" spans="2:6">
-      <c r="B418" s="5"/>
-      <c r="C418" s="19"/>
-      <c r="D418" s="20"/>
+    <row r="418" ht="38" customHeight="1" spans="1:6">
+      <c r="A418" s="5"/>
+      <c r="B418" s="18"/>
+      <c r="C418" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" ht="38" customHeight="1" spans="2:6">
-      <c r="B419" s="5"/>
-      <c r="C419" s="19"/>
+    <row r="419" ht="38" customHeight="1" spans="1:6">
+      <c r="A419" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C419" s="19" t="s">
+        <v>669</v>
+      </c>
       <c r="D419" s="20"/>
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" ht="38" customHeight="1" spans="2:6">
-      <c r="B420" s="5"/>
-      <c r="C420" s="19"/>
+    <row r="420" ht="38" customHeight="1" spans="1:6">
+      <c r="A420" s="5"/>
+      <c r="B420" s="17"/>
+      <c r="C420" s="19" t="s">
+        <v>670</v>
+      </c>
       <c r="D420" s="20"/>
-      <c r="E420" s="5"/>
+      <c r="E420" s="5" t="s">
+        <v>671</v>
+      </c>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" ht="38" customHeight="1" spans="2:6">
-      <c r="B421" s="5"/>
-      <c r="C421" s="19"/>
-      <c r="D421" s="20"/>
+    <row r="421" ht="38" customHeight="1" spans="1:6">
+      <c r="A421" s="5"/>
+      <c r="B421" s="17"/>
+      <c r="C421" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="D421" s="25" t="s">
+        <v>673</v>
+      </c>
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" ht="38" customHeight="1" spans="2:6">
-      <c r="B422" s="5"/>
-      <c r="C422" s="19"/>
-      <c r="D422" s="20"/>
+    <row r="422" ht="38" customHeight="1" spans="1:6">
+      <c r="A422" s="5"/>
+      <c r="B422" s="18"/>
+      <c r="C422" s="18"/>
+      <c r="D422" s="25" t="s">
+        <v>674</v>
+      </c>
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" ht="38" customHeight="1" spans="2:6">
-      <c r="B423" s="5"/>
-      <c r="C423" s="19"/>
+    <row r="423" ht="38" customHeight="1" spans="1:6">
+      <c r="A423" s="5"/>
+      <c r="B423" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="C423" s="19" t="s">
+        <v>676</v>
+      </c>
       <c r="D423" s="20"/>
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" ht="38" customHeight="1" spans="2:6">
-      <c r="B424" s="5"/>
-      <c r="C424" s="19"/>
+    <row r="424" ht="38" customHeight="1" spans="1:6">
+      <c r="A424" s="5"/>
+      <c r="B424" s="18"/>
+      <c r="C424" s="19" t="s">
+        <v>677</v>
+      </c>
       <c r="D424" s="20"/>
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" ht="38" customHeight="1" spans="2:6">
-      <c r="B425" s="5"/>
-      <c r="C425" s="19"/>
+    <row r="425" ht="87" customHeight="1" spans="1:6">
+      <c r="A425" s="5"/>
+      <c r="B425" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C425" s="19" t="s">
+        <v>679</v>
+      </c>
       <c r="D425" s="20"/>
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
     <row r="426" ht="38" customHeight="1" spans="1:6">
-      <c r="A426" s="2"/>
-      <c r="B426" s="5"/>
-      <c r="C426" s="19"/>
-      <c r="D426" s="20"/>
+      <c r="A426" s="5"/>
+      <c r="B426" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>682</v>
+      </c>
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" ht="38" customHeight="1" spans="2:6">
-      <c r="B427" s="5"/>
-      <c r="C427" s="19"/>
-      <c r="D427" s="20"/>
+    <row r="427" ht="38" customHeight="1" spans="1:6">
+      <c r="A427" s="5"/>
+      <c r="B427" s="17"/>
+      <c r="C427" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" ht="38" customHeight="1" spans="2:6">
-      <c r="B428" s="5"/>
-      <c r="C428" s="19"/>
-      <c r="D428" s="20"/>
+    <row r="428" ht="38" customHeight="1" spans="1:6">
+      <c r="A428" s="5"/>
+      <c r="B428" s="18"/>
+      <c r="C428" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" ht="38" customHeight="1" spans="2:6">
-      <c r="B429" s="5"/>
-      <c r="C429" s="19"/>
-      <c r="D429" s="20"/>
+    <row r="429" ht="38" customHeight="1" spans="1:6">
+      <c r="A429" s="5"/>
+      <c r="B429" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>689</v>
+      </c>
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" ht="38" customHeight="1" spans="2:6">
-      <c r="B430" s="5"/>
-      <c r="C430" s="19"/>
-      <c r="D430" s="20"/>
+    <row r="430" ht="38" customHeight="1" spans="1:6">
+      <c r="A430" s="5"/>
+      <c r="B430" s="17"/>
+      <c r="C430" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>691</v>
+      </c>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" ht="38" customHeight="1" spans="2:6">
-      <c r="B431" s="5"/>
-      <c r="C431" s="19"/>
-      <c r="D431" s="20"/>
+    <row r="431" ht="38" customHeight="1" spans="1:6">
+      <c r="A431" s="5"/>
+      <c r="B431" s="17"/>
+      <c r="C431" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>693</v>
+      </c>
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" ht="38" customHeight="1" spans="2:6">
-      <c r="B432" s="5"/>
-      <c r="C432" s="19"/>
-      <c r="D432" s="20"/>
+    <row r="432" ht="38" customHeight="1" spans="1:6">
+      <c r="A432" s="5"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" ht="38" customHeight="1" spans="2:6">
-      <c r="B433" s="5"/>
-      <c r="C433" s="19"/>
-      <c r="D433" s="20"/>
+    <row r="433" ht="38" customHeight="1" spans="1:6">
+      <c r="A433" s="5"/>
+      <c r="B433" s="17"/>
+      <c r="C433" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" ht="38" customHeight="1" spans="2:6">
-      <c r="B434" s="5"/>
-      <c r="C434" s="19"/>
-      <c r="D434" s="20"/>
+    <row r="434" ht="38" customHeight="1" spans="1:6">
+      <c r="A434" s="5"/>
+      <c r="B434" s="18"/>
+      <c r="C434" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>699</v>
+      </c>
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" ht="38" customHeight="1" spans="2:6">
-      <c r="B435" s="5"/>
-      <c r="C435" s="19"/>
+    <row r="435" ht="38" customHeight="1" spans="1:6">
+      <c r="A435" s="5"/>
+      <c r="B435" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>701</v>
+      </c>
       <c r="D435" s="20"/>
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
     <row r="436" ht="38" customHeight="1" spans="1:6">
-      <c r="A436" s="2"/>
-      <c r="B436" s="5"/>
-      <c r="C436" s="19"/>
+      <c r="A436" s="5"/>
+      <c r="B436" s="17"/>
+      <c r="C436" s="19" t="s">
+        <v>702</v>
+      </c>
       <c r="D436" s="20"/>
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" ht="38" customHeight="1" spans="2:6">
-      <c r="B437" s="5"/>
-      <c r="C437" s="19"/>
+    <row r="437" ht="38" customHeight="1" spans="1:6">
+      <c r="A437" s="5"/>
+      <c r="B437" s="17"/>
+      <c r="C437" s="19" t="s">
+        <v>703</v>
+      </c>
       <c r="D437" s="20"/>
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" ht="38" customHeight="1" spans="2:6">
-      <c r="B438" s="5"/>
-      <c r="C438" s="19"/>
+    <row r="438" ht="38" customHeight="1" spans="1:6">
+      <c r="A438" s="5"/>
+      <c r="B438" s="17"/>
+      <c r="C438" s="19" t="s">
+        <v>704</v>
+      </c>
       <c r="D438" s="20"/>
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" ht="38" customHeight="1" spans="2:6">
-      <c r="B439" s="5"/>
-      <c r="C439" s="19"/>
+    <row r="439" ht="38" customHeight="1" spans="1:6">
+      <c r="A439" s="5"/>
+      <c r="B439" s="17"/>
+      <c r="C439" s="19" t="s">
+        <v>705</v>
+      </c>
       <c r="D439" s="20"/>
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" ht="38" customHeight="1" spans="2:6">
-      <c r="B440" s="5"/>
-      <c r="C440" s="19"/>
+    <row r="440" ht="38" customHeight="1" spans="1:6">
+      <c r="A440" s="5"/>
+      <c r="B440" s="17"/>
+      <c r="C440" s="19" t="s">
+        <v>706</v>
+      </c>
       <c r="D440" s="20"/>
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" ht="38" customHeight="1" spans="2:6">
-      <c r="B441" s="5"/>
-      <c r="C441" s="19"/>
+    <row r="441" ht="38" customHeight="1" spans="1:6">
+      <c r="A441" s="5"/>
+      <c r="B441" s="17"/>
+      <c r="C441" s="19" t="s">
+        <v>707</v>
+      </c>
       <c r="D441" s="20"/>
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" ht="38" customHeight="1" spans="2:6">
-      <c r="B442" s="5"/>
-      <c r="C442" s="19"/>
+    <row r="442" ht="38" customHeight="1" spans="1:6">
+      <c r="A442" s="5"/>
+      <c r="B442" s="18"/>
+      <c r="C442" s="19" t="s">
+        <v>708</v>
+      </c>
       <c r="D442" s="20"/>
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" ht="38" customHeight="1" spans="2:6">
-      <c r="B443" s="5"/>
-      <c r="C443" s="19"/>
+    <row r="443" ht="38" customHeight="1" spans="1:6">
+      <c r="A443" s="5"/>
+      <c r="B443" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C443" s="19" t="s">
+        <v>710</v>
+      </c>
       <c r="D443" s="20"/>
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" ht="38" customHeight="1" spans="2:6">
-      <c r="B444" s="5"/>
-      <c r="C444" s="19"/>
+    <row r="444" ht="38" customHeight="1" spans="1:6">
+      <c r="A444" s="5"/>
+      <c r="B444" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="C444" s="19" t="s">
+        <v>712</v>
+      </c>
       <c r="D444" s="20"/>
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" ht="38" customHeight="1" spans="2:6">
-      <c r="B445" s="5"/>
-      <c r="C445" s="19"/>
-      <c r="D445" s="20"/>
+    <row r="445" ht="38" customHeight="1" spans="1:6">
+      <c r="A445" s="5"/>
+      <c r="B445" s="17"/>
+      <c r="C445" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>714</v>
+      </c>
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
     <row r="446" ht="38" customHeight="1" spans="1:6">
-      <c r="A446" s="2"/>
-      <c r="B446" s="5"/>
-      <c r="C446" s="19"/>
-      <c r="D446" s="20"/>
+      <c r="A446" s="5"/>
+      <c r="B446" s="17"/>
+      <c r="C446" s="17"/>
+      <c r="D446" s="5" t="s">
+        <v>715</v>
+      </c>
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" ht="38" customHeight="1" spans="2:6">
-      <c r="B447" s="5"/>
-      <c r="C447" s="19"/>
-      <c r="D447" s="20"/>
+    <row r="447" ht="38" customHeight="1" spans="1:6">
+      <c r="A447" s="5"/>
+      <c r="B447" s="17"/>
+      <c r="C447" s="17"/>
+      <c r="D447" s="5" t="s">
+        <v>716</v>
+      </c>
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" ht="38" customHeight="1" spans="2:6">
-      <c r="B448" s="5"/>
-      <c r="C448" s="19"/>
-      <c r="D448" s="20"/>
+    <row r="448" ht="38" customHeight="1" spans="1:6">
+      <c r="A448" s="5"/>
+      <c r="B448" s="17"/>
+      <c r="C448" s="17"/>
+      <c r="D448" s="5" t="s">
+        <v>717</v>
+      </c>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" ht="38" customHeight="1" spans="2:6">
-      <c r="B449" s="5"/>
-      <c r="C449" s="19"/>
-      <c r="D449" s="20"/>
+    <row r="449" ht="38" customHeight="1" spans="1:6">
+      <c r="A449" s="5"/>
+      <c r="B449" s="17"/>
+      <c r="C449" s="18"/>
+      <c r="D449" s="5" t="s">
+        <v>718</v>
+      </c>
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" ht="38" customHeight="1" spans="2:6">
-      <c r="B450" s="5"/>
-      <c r="C450" s="19"/>
+    <row r="450" ht="38" customHeight="1" spans="1:6">
+      <c r="A450" s="5"/>
+      <c r="B450" s="18"/>
+      <c r="C450" s="19" t="s">
+        <v>719</v>
+      </c>
       <c r="D450" s="20"/>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" ht="38" customHeight="1" spans="2:6">
-      <c r="B451" s="5"/>
-      <c r="C451" s="19"/>
+    <row r="451" ht="38" customHeight="1" spans="1:6">
+      <c r="A451" s="5"/>
+      <c r="B451" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>721</v>
+      </c>
       <c r="D451" s="20"/>
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" ht="38" customHeight="1" spans="2:6">
-      <c r="B452" s="5"/>
-      <c r="C452" s="19"/>
+    <row r="452" ht="38" customHeight="1" spans="1:6">
+      <c r="A452" s="5"/>
+      <c r="B452" s="17"/>
+      <c r="C452" s="19" t="s">
+        <v>722</v>
+      </c>
       <c r="D452" s="20"/>
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" ht="38" customHeight="1" spans="2:6">
-      <c r="B453" s="5"/>
-      <c r="C453" s="19"/>
-      <c r="D453" s="20"/>
+    <row r="453" ht="38" customHeight="1" spans="1:6">
+      <c r="A453" s="5"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" ht="38" customHeight="1" spans="2:6">
-      <c r="B454" s="5"/>
-      <c r="C454" s="19"/>
-      <c r="D454" s="20"/>
+    <row r="454" ht="38" customHeight="1" spans="1:6">
+      <c r="A454" s="5"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="17"/>
+      <c r="D454" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" ht="38" customHeight="1" spans="2:6">
-      <c r="B455" s="5"/>
-      <c r="C455" s="19"/>
-      <c r="D455" s="20"/>
+    <row r="455" ht="38" customHeight="1" spans="1:6">
+      <c r="A455" s="5"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="17"/>
+      <c r="D455" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
     <row r="456" ht="38" customHeight="1" spans="1:6">
-      <c r="A456" s="2"/>
-      <c r="B456" s="5"/>
-      <c r="C456" s="19"/>
-      <c r="D456" s="20"/>
+      <c r="A456" s="5"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="17"/>
+      <c r="D456" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" ht="38" customHeight="1" spans="2:6">
-      <c r="B457" s="5"/>
-      <c r="C457" s="19"/>
-      <c r="D457" s="20"/>
+    <row r="457" ht="38" customHeight="1" spans="1:6">
+      <c r="A457" s="5"/>
+      <c r="B457" s="18"/>
+      <c r="C457" s="18"/>
+      <c r="D457" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" ht="38" customHeight="1" spans="2:6">
-      <c r="B458" s="5"/>
-      <c r="C458" s="19"/>
+    <row r="458" ht="71" customHeight="1" spans="1:6">
+      <c r="A458" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C458" s="19" t="s">
+        <v>731</v>
+      </c>
       <c r="D458" s="20"/>
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" ht="38" customHeight="1" spans="2:6">
-      <c r="B459" s="5"/>
-      <c r="C459" s="19"/>
+    <row r="459" ht="38" customHeight="1" spans="1:6">
+      <c r="A459" s="5"/>
+      <c r="B459" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C459" s="19" t="s">
+        <v>733</v>
+      </c>
       <c r="D459" s="20"/>
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" ht="38" customHeight="1" spans="2:6">
-      <c r="B460" s="5"/>
-      <c r="C460" s="19"/>
-      <c r="D460" s="20"/>
+    <row r="460" ht="38" customHeight="1" spans="1:6">
+      <c r="A460" s="5"/>
+      <c r="B460" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D460" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" ht="38" customHeight="1" spans="2:6">
-      <c r="B461" s="5"/>
-      <c r="C461" s="19"/>
-      <c r="D461" s="20"/>
+    <row r="461" ht="38" customHeight="1" spans="1:6">
+      <c r="A461" s="5"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D461" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" ht="38" customHeight="1" spans="2:6">
-      <c r="B462" s="5"/>
-      <c r="C462" s="19"/>
-      <c r="D462" s="20"/>
+    <row r="462" ht="38" customHeight="1" spans="1:6">
+      <c r="A462" s="5"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" ht="38" customHeight="1" spans="2:6">
-      <c r="B463" s="5"/>
-      <c r="C463" s="19"/>
-      <c r="D463" s="20"/>
+    <row r="463" ht="38" customHeight="1" spans="1:6">
+      <c r="A463" s="5"/>
+      <c r="B463" s="18"/>
+      <c r="C463" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" ht="38" customHeight="1" spans="2:6">
-      <c r="B464" s="5"/>
-      <c r="C464" s="19"/>
+    <row r="464" ht="38" customHeight="1" spans="1:6">
+      <c r="A464" s="5"/>
+      <c r="B464" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C464" s="19" t="s">
+        <v>736</v>
+      </c>
       <c r="D464" s="20"/>
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" ht="38" customHeight="1" spans="2:6">
-      <c r="B465" s="5"/>
-      <c r="C465" s="19"/>
+    <row r="465" ht="38" customHeight="1" spans="1:6">
+      <c r="A465" s="5"/>
+      <c r="B465" s="17"/>
+      <c r="C465" s="19" t="s">
+        <v>737</v>
+      </c>
       <c r="D465" s="20"/>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
     <row r="466" ht="38" customHeight="1" spans="1:6">
-      <c r="A466" s="2"/>
-      <c r="B466" s="5"/>
-      <c r="C466" s="19"/>
+      <c r="A466" s="5"/>
+      <c r="B466" s="18"/>
+      <c r="C466" s="19" t="s">
+        <v>738</v>
+      </c>
       <c r="D466" s="20"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" ht="38" customHeight="1" spans="2:6">
-      <c r="B467" s="5"/>
-      <c r="C467" s="19"/>
+    <row r="467" ht="38" customHeight="1" spans="1:6">
+      <c r="A467" s="5"/>
+      <c r="B467" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="C467" s="21" t="s">
+        <v>740</v>
+      </c>
       <c r="D467" s="20"/>
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" ht="38" customHeight="1" spans="2:6">
-      <c r="B468" s="5"/>
-      <c r="C468" s="19"/>
+    <row r="468" ht="38" customHeight="1" spans="1:6">
+      <c r="A468" s="5"/>
+      <c r="B468" s="18"/>
+      <c r="C468" s="19" t="s">
+        <v>741</v>
+      </c>
       <c r="D468" s="20"/>
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" ht="38" customHeight="1" spans="2:6">
-      <c r="B469" s="5"/>
-      <c r="C469" s="19"/>
+    <row r="469" ht="38" customHeight="1" spans="1:6">
+      <c r="A469" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="C469" s="21" t="s">
+        <v>744</v>
+      </c>
       <c r="D469" s="20"/>
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
     <row r="470" ht="38" customHeight="1" spans="2:6">
-      <c r="B470" s="5"/>
-      <c r="C470" s="19"/>
+      <c r="B470" s="18"/>
+      <c r="C470" s="19" t="s">
+        <v>745</v>
+      </c>
       <c r="D470" s="20"/>
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
     <row r="471" ht="38" customHeight="1" spans="2:6">
-      <c r="B471" s="5"/>
-      <c r="C471" s="19"/>
+      <c r="B471" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C471" s="21" t="s">
+        <v>747</v>
+      </c>
       <c r="D471" s="20"/>
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
     <row r="472" ht="38" customHeight="1" spans="2:6">
-      <c r="B472" s="5"/>
-      <c r="C472" s="19"/>
+      <c r="B472" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C472" s="19" t="s">
+        <v>749</v>
+      </c>
       <c r="D472" s="20"/>
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
     <row r="473" ht="38" customHeight="1" spans="2:6">
-      <c r="B473" s="5"/>
-      <c r="C473" s="19"/>
+      <c r="B473" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C473" s="19" t="s">
+        <v>751</v>
+      </c>
       <c r="D473" s="20"/>
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
     <row r="474" ht="38" customHeight="1" spans="2:6">
-      <c r="B474" s="5"/>
-      <c r="C474" s="19"/>
+      <c r="B474" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C474" s="19" t="s">
+        <v>753</v>
+      </c>
       <c r="D474" s="20"/>
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
     <row r="475" ht="38" customHeight="1" spans="2:6">
-      <c r="B475" s="5"/>
-      <c r="C475" s="19"/>
+      <c r="B475" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>755</v>
+      </c>
       <c r="D475" s="20"/>
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
@@ -9052,7 +10124,7 @@
       <c r="F524" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="491">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C6:D6"/>
@@ -9334,44 +10406,17 @@
     <mergeCell ref="C394:D394"/>
     <mergeCell ref="C395:D395"/>
     <mergeCell ref="C396:D396"/>
-    <mergeCell ref="C397:D397"/>
-    <mergeCell ref="C398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="C400:D400"/>
     <mergeCell ref="C401:D401"/>
     <mergeCell ref="C402:D402"/>
     <mergeCell ref="C403:D403"/>
     <mergeCell ref="C404:D404"/>
     <mergeCell ref="C405:D405"/>
     <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="C410:D410"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="C414:D414"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="C416:D416"/>
-    <mergeCell ref="C417:D417"/>
-    <mergeCell ref="C418:D418"/>
     <mergeCell ref="C419:D419"/>
     <mergeCell ref="C420:D420"/>
-    <mergeCell ref="C421:D421"/>
-    <mergeCell ref="C422:D422"/>
     <mergeCell ref="C423:D423"/>
     <mergeCell ref="C424:D424"/>
     <mergeCell ref="C425:D425"/>
-    <mergeCell ref="C426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="C428:D428"/>
-    <mergeCell ref="C429:D429"/>
-    <mergeCell ref="C430:D430"/>
-    <mergeCell ref="C431:D431"/>
-    <mergeCell ref="C432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="C434:D434"/>
     <mergeCell ref="C435:D435"/>
     <mergeCell ref="C436:D436"/>
     <mergeCell ref="C437:D437"/>
@@ -9382,25 +10427,11 @@
     <mergeCell ref="C442:D442"/>
     <mergeCell ref="C443:D443"/>
     <mergeCell ref="C444:D444"/>
-    <mergeCell ref="C445:D445"/>
-    <mergeCell ref="C446:D446"/>
-    <mergeCell ref="C447:D447"/>
-    <mergeCell ref="C448:D448"/>
-    <mergeCell ref="C449:D449"/>
     <mergeCell ref="C450:D450"/>
     <mergeCell ref="C451:D451"/>
     <mergeCell ref="C452:D452"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="C454:D454"/>
-    <mergeCell ref="C455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="C457:D457"/>
     <mergeCell ref="C458:D458"/>
     <mergeCell ref="C459:D459"/>
-    <mergeCell ref="C460:D460"/>
-    <mergeCell ref="C461:D461"/>
-    <mergeCell ref="C462:D462"/>
-    <mergeCell ref="C463:D463"/>
     <mergeCell ref="C464:D464"/>
     <mergeCell ref="C465:D465"/>
     <mergeCell ref="C466:D466"/>
@@ -9470,6 +10501,9 @@
     <mergeCell ref="A160:A186"/>
     <mergeCell ref="A187:A275"/>
     <mergeCell ref="A276:A326"/>
+    <mergeCell ref="A327:A418"/>
+    <mergeCell ref="A419:A457"/>
+    <mergeCell ref="A458:A468"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
@@ -9548,6 +10582,24 @@
     <mergeCell ref="B369:B370"/>
     <mergeCell ref="B374:B376"/>
     <mergeCell ref="B377:B379"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="B395:B401"/>
+    <mergeCell ref="B402:B404"/>
+    <mergeCell ref="B405:B406"/>
+    <mergeCell ref="B407:B411"/>
+    <mergeCell ref="B412:B418"/>
+    <mergeCell ref="B419:B422"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="B426:B428"/>
+    <mergeCell ref="B429:B434"/>
+    <mergeCell ref="B435:B442"/>
+    <mergeCell ref="B444:B450"/>
+    <mergeCell ref="B451:B457"/>
+    <mergeCell ref="B460:B463"/>
+    <mergeCell ref="B464:B466"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="B469:B470"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C63:C68"/>
     <mergeCell ref="C75:C83"/>
@@ -9558,6 +10610,10 @@
     <mergeCell ref="C311:C316"/>
     <mergeCell ref="C322:C324"/>
     <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C397:C400"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="C445:C449"/>
+    <mergeCell ref="C453:C457"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E27:E31"/>
   </mergeCells>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974">
   <si>
     <t>章节</t>
   </si>
@@ -4038,6 +4038,231 @@
   <si>
     <t>擦除 Erasing</t>
   </si>
+  <si>
+    <r>
+      <t>擦除介质上的数据就是对文件、文件的选择或整个介质执行删除操作。在大多数情况下删除或清除程序只是删除了目录或与目录相链接的数据。实际的数据还在驱动器中。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随着新文件写入介质，系统最终将重写删除的数据，但是这取决于驱动器的大小，还有多少剩余空间以及其他影响因素，数据可能几个月都不会被完全重写。任何人都可以使用复原工具来恢复这些数据。</t>
+    </r>
+  </si>
+  <si>
+    <t>清理 Clearing or overwriting</t>
+  </si>
+  <si>
+    <t>清理或覆盖操作，以便重新使用介质，并确保攻击者不能使用传统恢复工具来恢复已经清理的数据。当介质被清理时，介质上的所有可寻随地址位置上写入未分类的数据。</t>
+  </si>
+  <si>
+    <t>标记为“坏”的扇区和许多现代 SSD 上的区域不一定被清除，扔可能保留数据。</t>
+  </si>
+  <si>
+    <t>清除 Purging</t>
+  </si>
+  <si>
+    <t>清除（Purging）是一种更强烈的清理形式，未在不太安全的环境中重用介质做准备。它提供了使用任何已知方法都无法恢复原始数据的级别。清除过程将多次重复清除，并可与另一种方法（如消磁）组合以完全去除数据。尽管清除是为了清除所有数据残留物，但它并不总是可信的。</t>
+  </si>
+  <si>
+    <t>消磁（Degaussing）</t>
+  </si>
+  <si>
+    <t>消磁器产生一个强磁场，在消磁过程中擦除某些介质上的数据。可以消磁磁带，但无法保证磁盘上的所有数据被销毁。消磁不影响光学 CD、DVD或SSD。</t>
+  </si>
+  <si>
+    <t>销毁（Destruction）</t>
+  </si>
+  <si>
+    <t>销毁是介质声明周期中的一个阶段，是最安全的介质净化方法。销毁介质时，确保介质不能被重用或修复以及不能从被销毁的介质中提取数据是很重要的。销毁方法包括焚烧、粉碎、分解和使用腐蚀性或酸性化学品溶解。一些组织在高度保密的磁盘驱动器中卸下盘片并分别销毁它们。</t>
+  </si>
+  <si>
+    <t>解除分类（Declassification）</t>
+  </si>
+  <si>
+    <t>指任何不保密环境中为重复使用介质或系统而清除数据的过程。可以净化方法为解除介质分类做准备，但通常安全环境接触介质分类所需的努力远远大于在较不安全环境中使用新介质的成本。许多组织为了不承担风险，选择不对任何介质解除分类，而是在不需要的时候销毁它。</t>
+  </si>
+  <si>
+    <t>净化（Sanitization）</t>
+  </si>
+  <si>
+    <t>如果要从辅助存储设备中删除数据，则必须使用专门的实用程序来破坏设备上的所有数据很急，或破坏或销毁辅助存储设备本身，并使其无法被修复。</t>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+  </si>
+  <si>
+    <t>SSD 使用的是集成电路，而不是旋转盘片的磁盘。最好的净化方法是销毁固态硬盘。</t>
+  </si>
+  <si>
+    <t>密码擦除</t>
+  </si>
+  <si>
+    <t>如果数据在设备上加密，可以使用加密擦除或加密粉碎来破坏数据。他们不会查出或粉碎数据，相反，他们会破坏加密密钥，或者同时使用加密密钥和解密密钥。删除加密迷药后，数据仍保持加密状态，无法访问。</t>
+  </si>
+  <si>
+    <t>使用云存储时，销毁密钥可能是组织可用的唯一安全删除形式。</t>
+  </si>
+  <si>
+    <t>2.3 安全配置资源</t>
+  </si>
+  <si>
+    <t>信息和资产所有权</t>
+  </si>
+  <si>
+    <t>数据所有者是对数据负有最终组织责任的人</t>
+  </si>
+  <si>
+    <t>通过识别资产所有者，组织还可以识别负责保护这些资产的个人。数据所有者通常将数据保护任务委托给组织中的其他人。</t>
+  </si>
+  <si>
+    <t>资产管理</t>
+  </si>
+  <si>
+    <t>资产管理是指管理有形资产和无形资产。通常从资产清单开始，跟踪资产，并采取额外措施在整个生命周期内保护他们。</t>
+  </si>
+  <si>
+    <t>通过配置管理系统（CMS）来帮助管理硬件资产。CMS的主要目的是配置管理。CMS在检查配置时需要连接到硬件系统。这样做时，它会验证系统是否仍在网络中并已打开。</t>
+  </si>
+  <si>
+    <t>硬件资产清单</t>
+  </si>
+  <si>
+    <t>硬件资产是计算机、服务器、路由器、交换机和外围设备等 IT 资源。许多组织使用数据库和库存应用程序在整个设备声明周期内执行库存和跟踪硬件资产。</t>
+  </si>
+  <si>
+    <t>在处理掉设备之前，员工会对其进行净化（sanitize）。净化设备会删除设备上的所有数据，确保未经授权的人员无法访问到敏感信息。当设备使用寿命结束时，员工很容易忽视其存储的数据，因此使用检查表（checklist）来清理系统通常非常又有。检查表（checklist）包含丢系统内各类介质的净化步骤。</t>
+  </si>
+  <si>
+    <t>软件资产清单</t>
+  </si>
+  <si>
+    <t>软件资产是操作系统和应用程序。监控许可证合规性以避免法律问题。</t>
+  </si>
+  <si>
+    <t>任何类型的许可证密钥对组织都非常有价值，应该受到保护。</t>
+  </si>
+  <si>
+    <t>软件许可还指确保系统没有安装未经授权的软件。有许多工具可以远程检查系统以检测系统的详细信息。这样能够识别系统上运行的未经授权的软件，并帮助组织确保其遵守软件许可规则。</t>
+  </si>
+  <si>
+    <t>无形资产清单</t>
+  </si>
+  <si>
+    <t>无形资产是知识资产（知识产权、专利、商标、公司声誉和版权）而不是实物资产，因此很难为他们分配货币价值。</t>
+  </si>
+  <si>
+    <t>管理管理团队通常是这些资产的所有者。他们试图通过估计资产将为组织带来的受益来确定无形资产的价值。</t>
+  </si>
+  <si>
+    <t>大型组织使用工人会计原则（GAAP）在其资产负债表上报告无形资产的价值。有助于至少每年审查一次无形资产。</t>
+  </si>
+  <si>
+    <t>2.4 管理数据生命周期</t>
+  </si>
+  <si>
+    <t>数据所有者是数据的最终责任人。数据所有者定义数据类别，确保给数据贴上合适标签。他们也要确保基于分类和组织的安全策略要求足够安全。如果数据所有者在制定和执行安全策略的过程中没有尽职去保护和维持机密数据，他们有义务承担过失责任。</t>
+  </si>
+  <si>
+    <t>NISTSP800-18</t>
+  </si>
+  <si>
+    <t>制定规则，以便用于主体的数据或信息的适当使用及保护。</t>
+  </si>
+  <si>
+    <t>为信息系统所有者提供输入，要考虑到信息所在地的信息系统的安全要求和安全控制。</t>
+  </si>
+  <si>
+    <t>决定谁有权访问信息系统，拥有何种特权或准入权。</t>
+  </si>
+  <si>
+    <t>协助对信息所在地的普通安全控制进行定义和评估。</t>
+  </si>
+  <si>
+    <t>资产所有者</t>
+  </si>
+  <si>
+    <t>资产所有者（或系统所有者）是拥有处理敏感数据的资产或系统的人。</t>
+  </si>
+  <si>
+    <t>与信息所有者，系统管理员和功能最终用户协调制定系统安全计划。</t>
+  </si>
+  <si>
+    <t>维护系统安全计划，并确保根据商定的安全要求部署和操作系统。</t>
+  </si>
+  <si>
+    <t>确保系统用户和支持人员接受适当的安全培训，例如行为规则指导（或AUP）</t>
+  </si>
+  <si>
+    <t>在发生重大变化时更新系统安全计划</t>
+  </si>
+  <si>
+    <t>协助识别、实施和评估通用安全控制</t>
+  </si>
+  <si>
+    <t>系统所有者通常与数据所有者是同一个人</t>
+  </si>
+  <si>
+    <t>系统所有者负责确保在系统上处理的数据保持安全。这包括识别系统处理的最高级别的数据。系统所有者然后确保系统被准确标记并且适当的安全控制措施到位以保护数据。系统所有者与数据所有者交互，以确保数据在系统上处于静止状态、在系统之间传输以及由系统上运行的应用程序使用时受到保护。</t>
+  </si>
+  <si>
+    <t>业务/任务所有者</t>
+  </si>
+  <si>
+    <t>NISTSP800-18 将业务/任务所有者称为项目经理或信息系统所哟这。因此，业务/任务所有者的职责可与系统所有者的职责重叠，或者二者可以比交替使用。</t>
+  </si>
+  <si>
+    <t>业务所有者拥有的程序可能是由其他部门开发或管理的系统，技术人员过度严格的安全控制可能会影响业务人员的使用。</t>
+  </si>
+  <si>
+    <t>公司通常实施一些对 IT 部门的治理方法，如COBIT，来帮助企业所有者和任务所有者平衡安全控制要求与业务需求之间的关系。</t>
+  </si>
+  <si>
+    <t>数据处理者</t>
+  </si>
+  <si>
+    <t>数据处理者是用来加工数据的任意系统。欧盟保护法将数据处理者定义为“一个自然人或法人，他拥有个人资料，仅代表数据控制者的利益“。</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>组织必须告知个人收集和使用信息的目的。</t>
+  </si>
+  <si>
+    <t>组织赋予个人选择退出的权利。</t>
+  </si>
+  <si>
+    <t>向前传输</t>
+  </si>
+  <si>
+    <t>组织职能将数据传输给符合以上的”通知“和“选择”原则的组织。</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>组织必须采取合理的预防措施来保护个人数据。</t>
+  </si>
+  <si>
+    <t>数据完整性和仅收集与自己相关的数据</t>
+  </si>
+  <si>
+    <t>组织仅可收集为达到”通知“原则中的目的所有包含的数据，而不允许收集其他数据。组织还负责采取合理措施确保个人数据准确、完整和最新。</t>
+  </si>
+  <si>
+    <t>可访问</t>
+  </si>
+  <si>
+    <t>个人必须能访问组织持有的个人信息。当个人信息不准确时，个人还必须能纠正，修改或删除信息。</t>
+  </si>
+  <si>
+    <t>方法、强化和责任</t>
+  </si>
+  <si>
+    <t>组织必须建立一套机制以确保其所有操作都遵守隐私和保护原则，并建立投诉机制以处理例来自个人的投诉。</t>
+  </si>
 </sst>
 </file>
 
@@ -4049,7 +4274,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4227,6 +4452,12 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4819,7 +5050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4916,13 +5147,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5114,7 +5357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27117040" y="119968010"/>
+          <a:off x="27117040" y="120196610"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5525,13 +5768,13 @@
       <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
@@ -5539,7 +5782,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="21"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -5553,7 +5796,7 @@
     </row>
     <row r="4" ht="34" spans="1:6">
       <c r="A4" s="21"/>
-      <c r="B4" s="38"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
@@ -5565,7 +5808,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="21"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
@@ -5577,43 +5820,43 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="21"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="21"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="21"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" ht="68" spans="1:6">
       <c r="A9" s="21"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -5623,11 +5866,11 @@
     </row>
     <row r="10" ht="51" spans="1:6">
       <c r="A10" s="21"/>
-      <c r="B10" s="38"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="21"/>
@@ -5635,7 +5878,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="21"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
@@ -5647,17 +5890,17 @@
     </row>
     <row r="12" ht="109" customHeight="1" spans="1:6">
       <c r="A12" s="21"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" ht="64" customHeight="1" spans="1:6">
       <c r="A13" s="21"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -5671,7 +5914,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="21"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="21" t="s">
         <v>28</v>
       </c>
@@ -5683,7 +5926,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="21"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="21" t="s">
         <v>30</v>
       </c>
@@ -5695,13 +5938,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="21"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="21"/>
@@ -5709,114 +5952,114 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="21"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="21"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="21"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="21"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="21"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
     <row r="22" ht="17" spans="1:6">
       <c r="A22" s="21"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="21"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="21"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="21"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="21"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="21"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="21"/>
@@ -5827,53 +6070,53 @@
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="21"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="44" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="21"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="44" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="21"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="21"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
       <c r="A32" s="21"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="21" t="s">
         <v>56</v>
       </c>
@@ -5881,13 +6124,13 @@
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="21"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="21" t="s">
         <v>59</v>
       </c>
@@ -5895,35 +6138,35 @@
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="21"/>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="21"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="21"/>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="21" t="s">
         <v>65</v>
       </c>
@@ -5931,54 +6174,54 @@
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="21"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="21"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="42"/>
+      <c r="C38" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="21"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="35"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="41" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="45" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="21" t="s">
@@ -5988,9 +6231,9 @@
       <c r="F41" s="21"/>
     </row>
     <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="21" t="s">
         <v>75</v>
       </c>
@@ -5998,9 +6241,9 @@
       <c r="F42" s="21"/>
     </row>
     <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="21" t="s">
         <v>76</v>
       </c>
@@ -6008,9 +6251,9 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="21" t="s">
         <v>77</v>
       </c>
@@ -6018,20 +6261,20 @@
       <c r="F44" s="21"/>
     </row>
     <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="46"/>
+      <c r="B45" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="35"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" customHeight="1" spans="1:6">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="21" t="s">
         <v>80</v>
       </c>
@@ -6042,8 +6285,8 @@
       <c r="F46" s="21"/>
     </row>
     <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="21" t="s">
         <v>82</v>
       </c>
@@ -6056,8 +6299,8 @@
       <c r="F47" s="21"/>
     </row>
     <row r="48" ht="60" customHeight="1" spans="1:6">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="21" t="s">
         <v>85</v>
       </c>
@@ -6070,20 +6313,20 @@
       <c r="F48" s="21"/>
     </row>
     <row r="49" ht="54" customHeight="1" spans="1:6">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" ht="62" customHeight="1" spans="1:6">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="21" t="s">
         <v>90</v>
       </c>
@@ -6092,8 +6335,8 @@
       <c r="F50" s="21"/>
     </row>
     <row r="51" customHeight="1" spans="1:6">
-      <c r="A51" s="42"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="21" t="s">
         <v>91</v>
       </c>
@@ -6102,8 +6345,8 @@
       <c r="F51" s="21"/>
     </row>
     <row r="52" customHeight="1" spans="1:6">
-      <c r="A52" s="42"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -6116,8 +6359,8 @@
       <c r="F52" s="21"/>
     </row>
     <row r="53" customHeight="1" spans="1:6">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="21" t="s">
         <v>95</v>
       </c>
@@ -6128,8 +6371,8 @@
       <c r="F53" s="21"/>
     </row>
     <row r="54" customHeight="1" spans="1:6">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="21" t="s">
         <v>97</v>
       </c>
@@ -6140,8 +6383,8 @@
       <c r="F54" s="21"/>
     </row>
     <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="21" t="s">
         <v>99</v>
       </c>
@@ -6152,46 +6395,46 @@
       <c r="F55" s="21"/>
     </row>
     <row r="56" ht="52" customHeight="1" spans="1:6">
-      <c r="A56" s="42"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="46"/>
+      <c r="B56" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="50" t="s">
         <v>103</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" ht="86" customHeight="1" spans="1:6">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="52" t="s">
         <v>105</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="46" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="52" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" ht="51" spans="1:6">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="21" t="s">
         <v>108</v>
       </c>
@@ -6202,8 +6445,8 @@
       <c r="F59" s="21"/>
     </row>
     <row r="60" ht="66" customHeight="1" spans="1:6">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="21" t="s">
         <v>110</v>
       </c>
@@ -6214,20 +6457,20 @@
       <c r="F60" s="21"/>
     </row>
     <row r="61" ht="63" customHeight="1" spans="1:6">
-      <c r="A61" s="42"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="46" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="50" t="s">
         <v>113</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" customHeight="1" spans="1:6">
-      <c r="A62" s="42"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="21" t="s">
@@ -6240,8 +6483,8 @@
       <c r="F62" s="21"/>
     </row>
     <row r="63" customHeight="1" spans="1:6">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="21" t="s">
         <v>117</v>
       </c>
@@ -6252,8 +6495,8 @@
       <c r="F63" s="21"/>
     </row>
     <row r="64" customHeight="1" spans="1:6">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21" t="s">
         <v>119</v>
@@ -6262,8 +6505,8 @@
       <c r="F64" s="21"/>
     </row>
     <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21" t="s">
         <v>120</v>
@@ -6272,8 +6515,8 @@
       <c r="F65" s="21"/>
     </row>
     <row r="66" customHeight="1" spans="1:6">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21" t="s">
         <v>121</v>
@@ -6282,8 +6525,8 @@
       <c r="F66" s="21"/>
     </row>
     <row r="67" customHeight="1" spans="1:6">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21" t="s">
         <v>122</v>
@@ -6292,8 +6535,8 @@
       <c r="F67" s="21"/>
     </row>
     <row r="68" customHeight="1" spans="1:6">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21" t="s">
         <v>123</v>
@@ -6302,9 +6545,9 @@
       <c r="F68" s="21"/>
     </row>
     <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="43" t="s">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47" t="s">
         <v>124</v>
       </c>
       <c r="D69" s="21"/>
@@ -6312,8 +6555,8 @@
       <c r="F69" s="21"/>
     </row>
     <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="21" t="s">
         <v>125</v>
       </c>
@@ -6324,8 +6567,8 @@
       <c r="F70" s="21"/>
     </row>
     <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="21" t="s">
         <v>127</v>
       </c>
@@ -6336,8 +6579,8 @@
       <c r="F71" s="21"/>
     </row>
     <row r="72" customHeight="1" spans="1:6">
-      <c r="A72" s="42"/>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="45" t="s">
         <v>129</v>
       </c>
       <c r="C72" s="21" t="s">
@@ -6352,8 +6595,8 @@
       <c r="F72" s="21"/>
     </row>
     <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="21" t="s">
         <v>133</v>
       </c>
@@ -6369,20 +6612,20 @@
       <c r="A74" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="35"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" customHeight="1" spans="1:6">
       <c r="A75" s="21"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="41" t="s">
+      <c r="B75" s="46"/>
+      <c r="C75" s="45" t="s">
         <v>139</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -6393,8 +6636,8 @@
     </row>
     <row r="76" customHeight="1" spans="1:6">
       <c r="A76" s="21"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="21" t="s">
         <v>141</v>
       </c>
@@ -6403,8 +6646,8 @@
     </row>
     <row r="77" customHeight="1" spans="1:6">
       <c r="A77" s="21"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="21" t="s">
         <v>142</v>
       </c>
@@ -6413,8 +6656,8 @@
     </row>
     <row r="78" customHeight="1" spans="1:6">
       <c r="A78" s="21"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="21" t="s">
         <v>143</v>
       </c>
@@ -6423,8 +6666,8 @@
     </row>
     <row r="79" customHeight="1" spans="1:6">
       <c r="A79" s="21"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="21" t="s">
         <v>144</v>
       </c>
@@ -6433,8 +6676,8 @@
     </row>
     <row r="80" customHeight="1" spans="1:6">
       <c r="A80" s="21"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="21" t="s">
         <v>145</v>
       </c>
@@ -6443,8 +6686,8 @@
     </row>
     <row r="81" customHeight="1" spans="1:6">
       <c r="A81" s="21"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="21" t="s">
         <v>146</v>
       </c>
@@ -6453,8 +6696,8 @@
     </row>
     <row r="82" customHeight="1" spans="1:6">
       <c r="A82" s="21"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="21" t="s">
         <v>147</v>
       </c>
@@ -6463,8 +6706,8 @@
     </row>
     <row r="83" customHeight="1" spans="1:6">
       <c r="A83" s="21"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="21" t="s">
         <v>148</v>
       </c>
@@ -6476,10 +6719,10 @@
       <c r="B84" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="35"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
     </row>
@@ -6498,10 +6741,10 @@
       <c r="B86" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="D86" s="35"/>
+      <c r="D86" s="39"/>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
     </row>
@@ -6510,10 +6753,10 @@
       <c r="B87" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="35"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="21" t="s">
         <v>156</v>
       </c>
@@ -6524,90 +6767,90 @@
       <c r="B88" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="35"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" customHeight="1" spans="1:6">
       <c r="A89" s="21"/>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="35"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" customHeight="1" spans="1:6">
       <c r="A90" s="21"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="49" t="s">
+      <c r="B90" s="46"/>
+      <c r="C90" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="50"/>
+      <c r="D90" s="54"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="21"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="36" t="s">
+      <c r="B91" s="46"/>
+      <c r="C91" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="35"/>
+      <c r="D91" s="39"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
     </row>
     <row r="92" customHeight="1" spans="1:6">
       <c r="A92" s="21"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="36" t="s">
+      <c r="B92" s="46"/>
+      <c r="C92" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="35"/>
+      <c r="D92" s="39"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
     </row>
     <row r="93" customHeight="1" spans="1:6">
       <c r="A93" s="21"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="49" t="s">
+      <c r="B93" s="46"/>
+      <c r="C93" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="50"/>
+      <c r="D93" s="54"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
     </row>
     <row r="94" customHeight="1" spans="1:6">
       <c r="A94" s="21"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="36" t="s">
+      <c r="B94" s="46"/>
+      <c r="C94" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="35"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
     </row>
     <row r="95" customHeight="1" spans="1:6">
       <c r="A95" s="21"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="46"/>
+      <c r="C95" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="35"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
     </row>
     <row r="96" customHeight="1" spans="1:6">
       <c r="A96" s="21"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="36" t="s">
+      <c r="B96" s="47"/>
+      <c r="C96" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D96" s="35"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
     </row>
@@ -6616,132 +6859,132 @@
       <c r="B97" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="35"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
     </row>
     <row r="98" customHeight="1" spans="1:6">
       <c r="A98" s="21"/>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D98" s="35"/>
+      <c r="D98" s="39"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
     </row>
     <row r="99" customHeight="1" spans="1:6">
       <c r="A99" s="21"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="36" t="s">
+      <c r="B99" s="46"/>
+      <c r="C99" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="35"/>
+      <c r="D99" s="39"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
     </row>
     <row r="100" customHeight="1" spans="1:6">
       <c r="A100" s="21"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="36" t="s">
+      <c r="B100" s="46"/>
+      <c r="C100" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="35"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
     <row r="101" customHeight="1" spans="1:6">
       <c r="A101" s="21"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="36" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="35"/>
+      <c r="D101" s="39"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
     </row>
     <row r="102" customHeight="1" spans="1:6">
       <c r="A102" s="21"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="36" t="s">
+      <c r="B102" s="46"/>
+      <c r="C102" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="35"/>
+      <c r="D102" s="39"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
     </row>
     <row r="103" customHeight="1" spans="1:6">
       <c r="A103" s="21"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="36" t="s">
+      <c r="B103" s="46"/>
+      <c r="C103" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D103" s="35"/>
+      <c r="D103" s="39"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
     <row r="104" customHeight="1" spans="1:6">
       <c r="A104" s="21"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="36" t="s">
+      <c r="B104" s="46"/>
+      <c r="C104" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="35"/>
+      <c r="D104" s="39"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
     </row>
     <row r="105" customHeight="1" spans="1:6">
       <c r="A105" s="21"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="36" t="s">
+      <c r="B105" s="46"/>
+      <c r="C105" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D105" s="35"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
     <row r="106" customHeight="1" spans="1:6">
       <c r="A106" s="21"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="36" t="s">
+      <c r="B106" s="46"/>
+      <c r="C106" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D106" s="35"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
     </row>
     <row r="107" customHeight="1" spans="1:6">
       <c r="A107" s="21"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="36" t="s">
+      <c r="B107" s="46"/>
+      <c r="C107" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D107" s="35"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
     </row>
     <row r="108" customHeight="1" spans="1:6">
       <c r="A108" s="21"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="36" t="s">
+      <c r="B108" s="46"/>
+      <c r="C108" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D108" s="35"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
     </row>
     <row r="109" customHeight="1" spans="1:6">
       <c r="A109" s="21"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="36" t="s">
+      <c r="B109" s="47"/>
+      <c r="C109" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="35"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
     </row>
@@ -6750,32 +6993,32 @@
       <c r="B110" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="D110" s="35"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
     </row>
     <row r="111" customHeight="1" spans="1:6">
       <c r="A111" s="21"/>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D111" s="35"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
     </row>
     <row r="112" customHeight="1" spans="1:6">
       <c r="A112" s="21"/>
-      <c r="B112" s="42"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="55" t="s">
         <v>187</v>
       </c>
       <c r="E112" s="21"/>
@@ -6783,11 +7026,11 @@
     </row>
     <row r="113" customHeight="1" spans="1:6">
       <c r="A113" s="21"/>
-      <c r="B113" s="42"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="55" t="s">
         <v>189</v>
       </c>
       <c r="E113" s="21"/>
@@ -6795,11 +7038,11 @@
     </row>
     <row r="114" customHeight="1" spans="1:6">
       <c r="A114" s="21"/>
-      <c r="B114" s="43"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="39" t="s">
         <v>191</v>
       </c>
       <c r="E114" s="21"/>
@@ -6837,7 +7080,7 @@
     </row>
     <row r="118" customHeight="1" spans="1:6">
       <c r="A118" s="21"/>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="45" t="s">
         <v>195</v>
       </c>
       <c r="C118" s="21" t="s">
@@ -6851,7 +7094,7 @@
     </row>
     <row r="119" customHeight="1" spans="1:6">
       <c r="A119" s="21"/>
-      <c r="B119" s="42"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="21" t="s">
         <v>198</v>
       </c>
@@ -6863,7 +7106,7 @@
     </row>
     <row r="120" customHeight="1" spans="1:6">
       <c r="A120" s="21"/>
-      <c r="B120" s="42"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="21" t="s">
         <v>200</v>
       </c>
@@ -6875,7 +7118,7 @@
     </row>
     <row r="121" customHeight="1" spans="1:6">
       <c r="A121" s="21"/>
-      <c r="B121" s="42"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="21" t="s">
         <v>202</v>
       </c>
@@ -6887,7 +7130,7 @@
     </row>
     <row r="122" customHeight="1" spans="1:6">
       <c r="A122" s="21"/>
-      <c r="B122" s="42"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="21" t="s">
         <v>204</v>
       </c>
@@ -6899,7 +7142,7 @@
     </row>
     <row r="123" customHeight="1" spans="1:6">
       <c r="A123" s="21"/>
-      <c r="B123" s="42"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="21" t="s">
         <v>206</v>
       </c>
@@ -6911,7 +7154,7 @@
     </row>
     <row r="124" customHeight="1" spans="1:6">
       <c r="A124" s="21"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="21" t="s">
         <v>208</v>
       </c>
@@ -6935,13 +7178,13 @@
       <c r="A126" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D126" s="35"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="21" t="s">
         <v>214</v>
       </c>
@@ -6949,11 +7192,11 @@
     </row>
     <row r="127" customHeight="1" spans="1:6">
       <c r="A127" s="21"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="36" t="s">
+      <c r="B127" s="46"/>
+      <c r="C127" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D127" s="35"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="21" t="s">
         <v>216</v>
       </c>
@@ -6961,69 +7204,69 @@
     </row>
     <row r="128" customHeight="1" spans="1:6">
       <c r="A128" s="21"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="36" t="s">
+      <c r="B128" s="47"/>
+      <c r="C128" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="D128" s="35"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
     </row>
     <row r="129" customHeight="1" spans="1:6">
       <c r="A129" s="21"/>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D129" s="35"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
     </row>
     <row r="130" customHeight="1" spans="1:6">
       <c r="A130" s="21"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="36" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D130" s="35"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
     </row>
     <row r="131" customHeight="1" spans="1:6">
       <c r="A131" s="21"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="36" t="s">
+      <c r="B131" s="46"/>
+      <c r="C131" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="D131" s="35"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
     </row>
     <row r="132" customHeight="1" spans="1:6">
       <c r="A132" s="21"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="36" t="s">
+      <c r="B132" s="46"/>
+      <c r="C132" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="D132" s="35"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
     </row>
     <row r="133" customHeight="1" spans="1:6">
       <c r="A133" s="21"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="36" t="s">
+      <c r="B133" s="47"/>
+      <c r="C133" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="D133" s="35"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
     </row>
     <row r="134" customHeight="1" spans="1:6">
       <c r="A134" s="21"/>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="45" t="s">
         <v>224</v>
       </c>
       <c r="C134" s="21" t="s">
@@ -7037,7 +7280,7 @@
     </row>
     <row r="135" customHeight="1" spans="1:6">
       <c r="A135" s="21"/>
-      <c r="B135" s="42"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="21" t="s">
         <v>227</v>
       </c>
@@ -7049,7 +7292,7 @@
     </row>
     <row r="136" customHeight="1" spans="1:6">
       <c r="A136" s="21"/>
-      <c r="B136" s="42"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="21" t="s">
         <v>229</v>
       </c>
@@ -7061,7 +7304,7 @@
     </row>
     <row r="137" customHeight="1" spans="1:6">
       <c r="A137" s="21"/>
-      <c r="B137" s="42"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="21" t="s">
         <v>231</v>
       </c>
@@ -7073,7 +7316,7 @@
     </row>
     <row r="138" customHeight="1" spans="1:6">
       <c r="A138" s="21"/>
-      <c r="B138" s="42"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="21" t="s">
         <v>233</v>
       </c>
@@ -7085,7 +7328,7 @@
     </row>
     <row r="139" customHeight="1" spans="1:6">
       <c r="A139" s="21"/>
-      <c r="B139" s="42"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="21" t="s">
         <v>235</v>
       </c>
@@ -7097,7 +7340,7 @@
     </row>
     <row r="140" customHeight="1" spans="1:6">
       <c r="A140" s="21"/>
-      <c r="B140" s="42"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="21" t="s">
         <v>237</v>
       </c>
@@ -7109,7 +7352,7 @@
     </row>
     <row r="141" customHeight="1" spans="1:6">
       <c r="A141" s="21"/>
-      <c r="B141" s="43"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="21" t="s">
         <v>239</v>
       </c>
@@ -7124,10 +7367,10 @@
       <c r="B142" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="D142" s="35"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
     </row>
@@ -7136,10 +7379,10 @@
       <c r="B143" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D143" s="35"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
     </row>
@@ -7148,10 +7391,10 @@
       <c r="B144" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="D144" s="35"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
     </row>
@@ -7160,8 +7403,8 @@
       <c r="B145" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="36"/>
-      <c r="D145" s="35"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
     </row>
@@ -7170,10 +7413,10 @@
       <c r="B146" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="D146" s="35"/>
+      <c r="D146" s="39"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
     </row>
@@ -7182,8 +7425,8 @@
       <c r="B147" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C147" s="36"/>
-      <c r="D147" s="35"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
     </row>
@@ -7192,10 +7435,10 @@
       <c r="B148" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="D148" s="35"/>
+      <c r="D148" s="39"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
     </row>
@@ -7204,10 +7447,10 @@
       <c r="B149" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="D149" s="35"/>
+      <c r="D149" s="39"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
     </row>
@@ -7216,8 +7459,8 @@
       <c r="B150" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C150" s="36"/>
-      <c r="D150" s="35"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="39"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
     </row>
@@ -7228,50 +7471,50 @@
       <c r="B151" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C151" s="36"/>
-      <c r="D151" s="35"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
     </row>
     <row r="152" customHeight="1" spans="1:6">
       <c r="A152" s="21"/>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D152" s="35"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
     </row>
     <row r="153" customHeight="1" spans="1:6">
       <c r="A153" s="21"/>
-      <c r="B153" s="42"/>
-      <c r="C153" s="36" t="s">
+      <c r="B153" s="46"/>
+      <c r="C153" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="D153" s="35"/>
+      <c r="D153" s="39"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
     </row>
     <row r="154" customHeight="1" spans="1:6">
       <c r="A154" s="21"/>
-      <c r="B154" s="42"/>
-      <c r="C154" s="36" t="s">
+      <c r="B154" s="46"/>
+      <c r="C154" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D154" s="35"/>
+      <c r="D154" s="39"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
     </row>
     <row r="155" customHeight="1" spans="1:6">
       <c r="A155" s="21"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="36" t="s">
+      <c r="B155" s="47"/>
+      <c r="C155" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="D155" s="35"/>
+      <c r="D155" s="39"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
     </row>
@@ -7280,8 +7523,8 @@
       <c r="B156" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C156" s="36"/>
-      <c r="D156" s="35"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="39"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
     </row>
@@ -7290,8 +7533,8 @@
       <c r="B157" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="36"/>
-      <c r="D157" s="35"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="39"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
     </row>
@@ -7300,10 +7543,10 @@
       <c r="B158" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C158" s="36" t="s">
+      <c r="C158" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D158" s="35"/>
+      <c r="D158" s="39"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
     </row>
@@ -7312,294 +7555,294 @@
       <c r="B159" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="D159" s="35"/>
+      <c r="D159" s="39"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
     </row>
     <row r="160" customHeight="1" spans="1:6">
-      <c r="A160" s="41" t="s">
+      <c r="A160" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D160" s="35"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
     </row>
     <row r="161" customHeight="1" spans="1:6">
-      <c r="A161" s="42"/>
-      <c r="B161" s="42"/>
-      <c r="C161" s="36" t="s">
+      <c r="A161" s="46"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D161" s="35"/>
+      <c r="D161" s="39"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
     </row>
     <row r="162" customHeight="1" spans="1:6">
-      <c r="A162" s="42"/>
-      <c r="B162" s="42"/>
-      <c r="C162" s="36" t="s">
+      <c r="A162" s="46"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D162" s="35"/>
+      <c r="D162" s="39"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
     </row>
     <row r="163" customHeight="1" spans="1:6">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
-      <c r="C163" s="36" t="s">
+      <c r="A163" s="46"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="D163" s="35"/>
+      <c r="D163" s="39"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
     </row>
     <row r="164" customHeight="1" spans="1:6">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
-      <c r="C164" s="36" t="s">
+      <c r="A164" s="46"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="D164" s="35"/>
+      <c r="D164" s="39"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
     </row>
     <row r="165" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
-      <c r="C165" s="36" t="s">
+      <c r="A165" s="46"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D165" s="35"/>
+      <c r="D165" s="39"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
     </row>
     <row r="166" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A166" s="42"/>
-      <c r="B166" s="42"/>
-      <c r="C166" s="36" t="s">
+      <c r="A166" s="46"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="D166" s="35"/>
+      <c r="D166" s="39"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
     </row>
     <row r="167" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A167" s="42"/>
-      <c r="B167" s="42"/>
-      <c r="C167" s="36" t="s">
+      <c r="A167" s="46"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="D167" s="35"/>
+      <c r="D167" s="39"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
     </row>
     <row r="168" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
-      <c r="C168" s="36" t="s">
+      <c r="A168" s="46"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="D168" s="35"/>
+      <c r="D168" s="39"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
     </row>
     <row r="169" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A169" s="42"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="36" t="s">
+      <c r="A169" s="46"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="D169" s="35"/>
+      <c r="D169" s="39"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
     </row>
     <row r="170" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A170" s="42"/>
-      <c r="B170" s="41" t="s">
+      <c r="A170" s="46"/>
+      <c r="B170" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C170" s="36" t="s">
+      <c r="C170" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D170" s="35"/>
+      <c r="D170" s="39"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
     </row>
     <row r="171" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
-      <c r="C171" s="47" t="s">
+      <c r="A171" s="46"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D171" s="35"/>
+      <c r="D171" s="39"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
     </row>
     <row r="172" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A172" s="42"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="44" t="s">
+      <c r="A172" s="46"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D172" s="35"/>
+      <c r="D172" s="39"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
     </row>
     <row r="173" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A173" s="42"/>
-      <c r="B173" s="41" t="s">
+      <c r="A173" s="46"/>
+      <c r="B173" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C173" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D173" s="35"/>
+      <c r="D173" s="39"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
     </row>
     <row r="174" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
-      <c r="C174" s="36" t="s">
+      <c r="A174" s="46"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="D174" s="35"/>
+      <c r="D174" s="39"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
     </row>
     <row r="175" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A175" s="42"/>
-      <c r="B175" s="43"/>
-      <c r="C175" s="36" t="s">
+      <c r="A175" s="46"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="D175" s="35"/>
+      <c r="D175" s="39"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
     </row>
     <row r="176" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A176" s="42"/>
-      <c r="B176" s="41" t="s">
+      <c r="A176" s="46"/>
+      <c r="B176" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="C176" s="44" t="s">
+      <c r="C176" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D176" s="35"/>
+      <c r="D176" s="39"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
     </row>
     <row r="177" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A177" s="42"/>
-      <c r="B177" s="42"/>
-      <c r="C177" s="44" t="s">
+      <c r="A177" s="46"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D177" s="35"/>
+      <c r="D177" s="39"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
     </row>
     <row r="178" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A178" s="42"/>
-      <c r="B178" s="42"/>
-      <c r="C178" s="36" t="s">
+      <c r="A178" s="46"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D178" s="35"/>
+      <c r="D178" s="39"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
     </row>
     <row r="179" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A179" s="42"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="36" t="s">
+      <c r="A179" s="46"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="35"/>
+      <c r="D179" s="39"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
     </row>
     <row r="180" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41" t="s">
+      <c r="A180" s="46"/>
+      <c r="B180" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C180" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="D180" s="35"/>
+      <c r="D180" s="39"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
     </row>
     <row r="181" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
-      <c r="C181" s="36" t="s">
+      <c r="A181" s="46"/>
+      <c r="B181" s="46"/>
+      <c r="C181" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="D181" s="35"/>
+      <c r="D181" s="39"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
     </row>
     <row r="182" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
-      <c r="C182" s="36" t="s">
+      <c r="A182" s="46"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="D182" s="35"/>
+      <c r="D182" s="39"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
     </row>
     <row r="183" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A183" s="42"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="36" t="s">
+      <c r="A183" s="46"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="D183" s="35"/>
+      <c r="D183" s="39"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
     </row>
     <row r="184" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A184" s="42"/>
-      <c r="B184" s="41" t="s">
+      <c r="A184" s="46"/>
+      <c r="B184" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="D184" s="35"/>
+      <c r="D184" s="39"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
     </row>
     <row r="185" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A185" s="42"/>
-      <c r="B185" s="42"/>
-      <c r="C185" s="36" t="s">
+      <c r="A185" s="46"/>
+      <c r="B185" s="46"/>
+      <c r="C185" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="D185" s="35"/>
+      <c r="D185" s="39"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
     </row>
     <row r="186" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A186" s="43"/>
-      <c r="B186" s="43"/>
-      <c r="C186" s="36" t="s">
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D186" s="35"/>
+      <c r="D186" s="39"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
     </row>
@@ -7607,206 +7850,206 @@
       <c r="A187" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="C187" s="36" t="s">
+      <c r="C187" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="D187" s="35"/>
+      <c r="D187" s="39"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
     </row>
     <row r="188" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A188" s="21"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="36" t="s">
+      <c r="B188" s="43"/>
+      <c r="C188" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="D188" s="35"/>
+      <c r="D188" s="39"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
     </row>
     <row r="189" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A189" s="21"/>
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C189" s="36" t="s">
+      <c r="C189" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="D189" s="35"/>
+      <c r="D189" s="39"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
     </row>
     <row r="190" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A190" s="21"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="36" t="s">
+      <c r="B190" s="42"/>
+      <c r="C190" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D190" s="35"/>
+      <c r="D190" s="39"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
     </row>
     <row r="191" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A191" s="21"/>
-      <c r="B191" s="38"/>
-      <c r="C191" s="36" t="s">
+      <c r="B191" s="42"/>
+      <c r="C191" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="D191" s="35"/>
+      <c r="D191" s="39"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
     </row>
     <row r="192" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A192" s="21"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="36" t="s">
+      <c r="B192" s="42"/>
+      <c r="C192" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="D192" s="35"/>
+      <c r="D192" s="39"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
     </row>
     <row r="193" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A193" s="21"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="36" t="s">
+      <c r="B193" s="42"/>
+      <c r="C193" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="D193" s="35"/>
+      <c r="D193" s="39"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A194" s="21"/>
-      <c r="B194" s="38"/>
-      <c r="C194" s="36" t="s">
+      <c r="B194" s="42"/>
+      <c r="C194" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="D194" s="35"/>
+      <c r="D194" s="39"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
     </row>
     <row r="195" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A195" s="21"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="36" t="s">
+      <c r="B195" s="43"/>
+      <c r="C195" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D195" s="35"/>
+      <c r="D195" s="39"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
     </row>
     <row r="196" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A196" s="21"/>
-      <c r="B196" s="37" t="s">
+      <c r="B196" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="C196" s="36" t="s">
+      <c r="C196" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="D196" s="35"/>
+      <c r="D196" s="39"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
     </row>
     <row r="197" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A197" s="21"/>
-      <c r="B197" s="38"/>
-      <c r="C197" s="36" t="s">
+      <c r="B197" s="42"/>
+      <c r="C197" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="D197" s="35"/>
+      <c r="D197" s="39"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
     </row>
     <row r="198" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A198" s="21"/>
-      <c r="B198" s="38"/>
-      <c r="C198" s="36" t="s">
+      <c r="B198" s="42"/>
+      <c r="C198" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="D198" s="35"/>
+      <c r="D198" s="39"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
     </row>
     <row r="199" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A199" s="21"/>
-      <c r="B199" s="38"/>
-      <c r="C199" s="36" t="s">
+      <c r="B199" s="42"/>
+      <c r="C199" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="D199" s="35"/>
+      <c r="D199" s="39"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
     </row>
     <row r="200" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A200" s="21"/>
-      <c r="B200" s="38"/>
-      <c r="C200" s="36" t="s">
+      <c r="B200" s="42"/>
+      <c r="C200" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="D200" s="35"/>
+      <c r="D200" s="39"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
     </row>
     <row r="201" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A201" s="21"/>
-      <c r="B201" s="38"/>
-      <c r="C201" s="36" t="s">
+      <c r="B201" s="42"/>
+      <c r="C201" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="D201" s="35"/>
+      <c r="D201" s="39"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
     </row>
     <row r="202" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A202" s="21"/>
-      <c r="B202" s="38"/>
-      <c r="C202" s="36" t="s">
+      <c r="B202" s="42"/>
+      <c r="C202" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="D202" s="35"/>
+      <c r="D202" s="39"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
     </row>
     <row r="203" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A203" s="21"/>
-      <c r="B203" s="38"/>
-      <c r="C203" s="36" t="s">
+      <c r="B203" s="42"/>
+      <c r="C203" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="D203" s="35"/>
+      <c r="D203" s="39"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
     </row>
     <row r="204" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A204" s="21"/>
-      <c r="B204" s="38"/>
-      <c r="C204" s="36" t="s">
+      <c r="B204" s="42"/>
+      <c r="C204" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="D204" s="35"/>
+      <c r="D204" s="39"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
     </row>
     <row r="205" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A205" s="21"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="36" t="s">
+      <c r="B205" s="43"/>
+      <c r="C205" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="D205" s="35"/>
+      <c r="D205" s="39"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
     </row>
     <row r="206" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A206" s="21"/>
-      <c r="B206" s="37" t="s">
+      <c r="B206" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="C206" s="41" t="s">
+      <c r="C206" s="45" t="s">
         <v>326</v>
       </c>
       <c r="D206" s="21" t="s">
@@ -7817,8 +8060,8 @@
     </row>
     <row r="207" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A207" s="21"/>
-      <c r="B207" s="38"/>
-      <c r="C207" s="42"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="46"/>
       <c r="D207" s="21" t="s">
         <v>328</v>
       </c>
@@ -7827,8 +8070,8 @@
     </row>
     <row r="208" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A208" s="21"/>
-      <c r="B208" s="38"/>
-      <c r="C208" s="42"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="46"/>
       <c r="D208" s="21" t="s">
         <v>329</v>
       </c>
@@ -7837,8 +8080,8 @@
     </row>
     <row r="209" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A209" s="21"/>
-      <c r="B209" s="38"/>
-      <c r="C209" s="43"/>
+      <c r="B209" s="42"/>
+      <c r="C209" s="47"/>
       <c r="D209" s="21" t="s">
         <v>330</v>
       </c>
@@ -7847,251 +8090,251 @@
     </row>
     <row r="210" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A210" s="21"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="36" t="s">
+      <c r="B210" s="43"/>
+      <c r="C210" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="D210" s="35"/>
+      <c r="D210" s="39"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
     </row>
     <row r="211" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A211" s="21"/>
-      <c r="B211" s="37" t="s">
+      <c r="B211" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="C211" s="36" t="s">
+      <c r="C211" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="D211" s="35"/>
+      <c r="D211" s="39"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
     </row>
     <row r="212" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A212" s="21"/>
-      <c r="B212" s="38"/>
-      <c r="C212" s="36" t="s">
+      <c r="B212" s="42"/>
+      <c r="C212" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="D212" s="35"/>
+      <c r="D212" s="39"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
     </row>
     <row r="213" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A213" s="21"/>
-      <c r="B213" s="38"/>
-      <c r="C213" s="36" t="s">
+      <c r="B213" s="42"/>
+      <c r="C213" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="D213" s="35"/>
+      <c r="D213" s="39"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
     </row>
     <row r="214" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A214" s="21"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="36" t="s">
+      <c r="B214" s="43"/>
+      <c r="C214" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D214" s="35"/>
+      <c r="D214" s="39"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
     </row>
     <row r="215" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A215" s="21"/>
-      <c r="B215" s="37" t="s">
+      <c r="B215" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="C215" s="36" t="s">
+      <c r="C215" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D215" s="35"/>
+      <c r="D215" s="39"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
     </row>
     <row r="216" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A216" s="21"/>
-      <c r="B216" s="38"/>
-      <c r="C216" s="36" t="s">
+      <c r="B216" s="42"/>
+      <c r="C216" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D216" s="35"/>
+      <c r="D216" s="39"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
     </row>
     <row r="217" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A217" s="21"/>
-      <c r="B217" s="38"/>
-      <c r="C217" s="36" t="s">
+      <c r="B217" s="42"/>
+      <c r="C217" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="D217" s="35"/>
+      <c r="D217" s="39"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
     </row>
     <row r="218" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A218" s="21"/>
-      <c r="B218" s="39"/>
-      <c r="C218" s="36" t="s">
+      <c r="B218" s="43"/>
+      <c r="C218" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="D218" s="35"/>
+      <c r="D218" s="39"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
     </row>
     <row r="219" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A219" s="21"/>
-      <c r="B219" s="37" t="s">
+      <c r="B219" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="D219" s="35"/>
+      <c r="D219" s="39"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
     </row>
     <row r="220" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A220" s="21"/>
-      <c r="B220" s="38"/>
-      <c r="C220" s="36" t="s">
+      <c r="B220" s="42"/>
+      <c r="C220" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="D220" s="35"/>
+      <c r="D220" s="39"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
     </row>
     <row r="221" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A221" s="21"/>
-      <c r="B221" s="38"/>
-      <c r="C221" s="36" t="s">
+      <c r="B221" s="42"/>
+      <c r="C221" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D221" s="35"/>
+      <c r="D221" s="39"/>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
     </row>
     <row r="222" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A222" s="21"/>
-      <c r="B222" s="38"/>
-      <c r="C222" s="36" t="s">
+      <c r="B222" s="42"/>
+      <c r="C222" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="D222" s="35"/>
+      <c r="D222" s="39"/>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
     </row>
     <row r="223" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A223" s="21"/>
-      <c r="B223" s="38"/>
-      <c r="C223" s="36" t="s">
+      <c r="B223" s="42"/>
+      <c r="C223" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="D223" s="35"/>
+      <c r="D223" s="39"/>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
     </row>
     <row r="224" ht="38" customHeight="1" spans="1:6">
       <c r="A224" s="21"/>
-      <c r="B224" s="38"/>
-      <c r="C224" s="36" t="s">
+      <c r="B224" s="42"/>
+      <c r="C224" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D224" s="35"/>
+      <c r="D224" s="39"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
     </row>
     <row r="225" ht="38" customHeight="1" spans="1:6">
       <c r="A225" s="21"/>
-      <c r="B225" s="38"/>
-      <c r="C225" s="36" t="s">
+      <c r="B225" s="42"/>
+      <c r="C225" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="D225" s="35"/>
+      <c r="D225" s="39"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
     </row>
     <row r="226" ht="38" customHeight="1" spans="1:6">
       <c r="A226" s="21"/>
-      <c r="B226" s="38"/>
-      <c r="C226" s="36" t="s">
+      <c r="B226" s="42"/>
+      <c r="C226" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D226" s="35"/>
+      <c r="D226" s="39"/>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
     </row>
     <row r="227" ht="38" customHeight="1" spans="1:6">
       <c r="A227" s="21"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="36" t="s">
+      <c r="B227" s="43"/>
+      <c r="C227" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="D227" s="35"/>
+      <c r="D227" s="39"/>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
     </row>
     <row r="228" ht="38" customHeight="1" spans="1:6">
       <c r="A228" s="21"/>
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="C228" s="47" t="s">
+      <c r="C228" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="D228" s="35"/>
+      <c r="D228" s="39"/>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
     </row>
     <row r="229" ht="38" customHeight="1" spans="1:6">
       <c r="A229" s="21"/>
-      <c r="B229" s="35" t="s">
+      <c r="B229" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C229" s="36" t="s">
+      <c r="C229" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="D229" s="35"/>
+      <c r="D229" s="39"/>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
     </row>
     <row r="230" ht="38" customHeight="1" spans="1:6">
       <c r="A230" s="21"/>
-      <c r="B230" s="35" t="s">
+      <c r="B230" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="C230" s="36" t="s">
+      <c r="C230" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="D230" s="35"/>
+      <c r="D230" s="39"/>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
     </row>
     <row r="231" ht="38" customHeight="1" spans="1:6">
       <c r="A231" s="21"/>
-      <c r="B231" s="37" t="s">
+      <c r="B231" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="C231" s="36" t="s">
+      <c r="C231" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="D231" s="35"/>
+      <c r="D231" s="39"/>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
     </row>
     <row r="232" ht="38" customHeight="1" spans="1:6">
       <c r="A232" s="21"/>
-      <c r="B232" s="38"/>
-      <c r="C232" s="44" t="s">
+      <c r="B232" s="42"/>
+      <c r="C232" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="D232" s="35"/>
+      <c r="D232" s="39"/>
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
     </row>
     <row r="233" ht="38" customHeight="1" spans="1:6">
       <c r="A233" s="21"/>
-      <c r="B233" s="38"/>
+      <c r="B233" s="42"/>
       <c r="C233" s="21" t="s">
         <v>360</v>
       </c>
@@ -8103,7 +8346,7 @@
     </row>
     <row r="234" ht="38" customHeight="1" spans="1:6">
       <c r="A234" s="21"/>
-      <c r="B234" s="39"/>
+      <c r="B234" s="43"/>
       <c r="C234" s="21" t="s">
         <v>362</v>
       </c>
@@ -8117,39 +8360,39 @@
     </row>
     <row r="235" ht="38" customHeight="1" spans="1:6">
       <c r="A235" s="21"/>
-      <c r="B235" s="37" t="s">
+      <c r="B235" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="C235" s="44" t="s">
+      <c r="C235" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="D235" s="35"/>
+      <c r="D235" s="39"/>
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
     </row>
     <row r="236" ht="38" customHeight="1" spans="1:6">
       <c r="A236" s="21"/>
-      <c r="B236" s="38"/>
-      <c r="C236" s="36" t="s">
+      <c r="B236" s="42"/>
+      <c r="C236" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="D236" s="35"/>
+      <c r="D236" s="39"/>
       <c r="E236" s="21"/>
       <c r="F236" s="21"/>
     </row>
     <row r="237" ht="38" customHeight="1" spans="1:6">
       <c r="A237" s="21"/>
-      <c r="B237" s="39"/>
-      <c r="C237" s="36" t="s">
+      <c r="B237" s="43"/>
+      <c r="C237" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="D237" s="35"/>
+      <c r="D237" s="39"/>
       <c r="E237" s="21"/>
       <c r="F237" s="21"/>
     </row>
     <row r="238" ht="38" customHeight="1" spans="1:6">
       <c r="A238" s="21"/>
-      <c r="B238" s="37" t="s">
+      <c r="B238" s="41" t="s">
         <v>369</v>
       </c>
       <c r="C238" s="21" t="s">
@@ -8165,7 +8408,7 @@
     </row>
     <row r="239" ht="38" customHeight="1" spans="1:6">
       <c r="A239" s="21"/>
-      <c r="B239" s="38"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="21" t="s">
         <v>373</v>
       </c>
@@ -8177,7 +8420,7 @@
     </row>
     <row r="240" ht="38" customHeight="1" spans="1:6">
       <c r="A240" s="21"/>
-      <c r="B240" s="39"/>
+      <c r="B240" s="43"/>
       <c r="C240" s="21" t="s">
         <v>375</v>
       </c>
@@ -8189,89 +8432,89 @@
     </row>
     <row r="241" ht="38" customHeight="1" spans="1:6">
       <c r="A241" s="21"/>
-      <c r="B241" s="37" t="s">
+      <c r="B241" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C241" s="36" t="s">
+      <c r="C241" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="D241" s="35"/>
+      <c r="D241" s="39"/>
       <c r="E241" s="21"/>
       <c r="F241" s="21"/>
     </row>
     <row r="242" ht="38" customHeight="1" spans="1:6">
       <c r="A242" s="21"/>
-      <c r="B242" s="39"/>
-      <c r="C242" s="36" t="s">
+      <c r="B242" s="43"/>
+      <c r="C242" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="D242" s="35"/>
+      <c r="D242" s="39"/>
       <c r="E242" s="21"/>
       <c r="F242" s="21"/>
     </row>
     <row r="243" ht="38" customHeight="1" spans="1:6">
       <c r="A243" s="21"/>
-      <c r="B243" s="37" t="s">
+      <c r="B243" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="C243" s="44" t="s">
+      <c r="C243" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="D243" s="35"/>
+      <c r="D243" s="39"/>
       <c r="E243" s="21"/>
       <c r="F243" s="21"/>
     </row>
     <row r="244" ht="38" customHeight="1" spans="1:6">
       <c r="A244" s="21"/>
-      <c r="B244" s="38"/>
-      <c r="C244" s="36" t="s">
+      <c r="B244" s="42"/>
+      <c r="C244" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="D244" s="35"/>
+      <c r="D244" s="39"/>
       <c r="E244" s="21"/>
       <c r="F244" s="21"/>
     </row>
     <row r="245" ht="38" customHeight="1" spans="1:6">
       <c r="A245" s="21"/>
-      <c r="B245" s="39"/>
-      <c r="C245" s="36" t="s">
+      <c r="B245" s="43"/>
+      <c r="C245" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="D245" s="35"/>
+      <c r="D245" s="39"/>
       <c r="E245" s="21"/>
       <c r="F245" s="21"/>
     </row>
     <row r="246" ht="38" customHeight="1" spans="1:6">
       <c r="A246" s="21"/>
-      <c r="B246" s="37" t="s">
+      <c r="B246" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="C246" s="36" t="s">
+      <c r="C246" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D246" s="35"/>
+      <c r="D246" s="39"/>
       <c r="E246" s="21"/>
       <c r="F246" s="21"/>
     </row>
     <row r="247" ht="38" customHeight="1" spans="1:6">
       <c r="A247" s="21"/>
-      <c r="B247" s="39"/>
-      <c r="C247" s="44" t="s">
+      <c r="B247" s="43"/>
+      <c r="C247" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="D247" s="35"/>
+      <c r="D247" s="39"/>
       <c r="E247" s="21"/>
       <c r="F247" s="21"/>
     </row>
     <row r="248" ht="38" customHeight="1" spans="1:6">
       <c r="A248" s="21"/>
-      <c r="B248" s="35" t="s">
+      <c r="B248" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="C248" s="47" t="s">
+      <c r="C248" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="D248" s="35"/>
+      <c r="D248" s="39"/>
       <c r="E248" s="21" t="s">
         <v>389</v>
       </c>
@@ -8279,13 +8522,13 @@
     </row>
     <row r="249" ht="38" customHeight="1" spans="1:6">
       <c r="A249" s="21"/>
-      <c r="B249" s="35" t="s">
+      <c r="B249" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C249" s="47" t="s">
+      <c r="C249" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="D249" s="35"/>
+      <c r="D249" s="39"/>
       <c r="E249" s="21" t="s">
         <v>392</v>
       </c>
@@ -8295,13 +8538,13 @@
     </row>
     <row r="250" ht="38" customHeight="1" spans="1:6">
       <c r="A250" s="21"/>
-      <c r="B250" s="35" t="s">
+      <c r="B250" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="C250" s="36" t="s">
+      <c r="C250" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="D250" s="35"/>
+      <c r="D250" s="39"/>
       <c r="E250" s="21" t="s">
         <v>396</v>
       </c>
@@ -8309,67 +8552,67 @@
     </row>
     <row r="251" ht="38" customHeight="1" spans="1:6">
       <c r="A251" s="21"/>
-      <c r="B251" s="37" t="s">
+      <c r="B251" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="C251" s="36" t="s">
+      <c r="C251" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="D251" s="35"/>
+      <c r="D251" s="39"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
     </row>
     <row r="252" ht="38" customHeight="1" spans="1:6">
       <c r="A252" s="21"/>
-      <c r="B252" s="39"/>
-      <c r="C252" s="36" t="s">
+      <c r="B252" s="43"/>
+      <c r="C252" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="D252" s="35"/>
+      <c r="D252" s="39"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
     </row>
     <row r="253" ht="38" customHeight="1" spans="1:6">
       <c r="A253" s="21"/>
-      <c r="B253" s="37" t="s">
+      <c r="B253" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="C253" s="44" t="s">
+      <c r="C253" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="D253" s="35"/>
+      <c r="D253" s="39"/>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
     </row>
     <row r="254" ht="38" customHeight="1" spans="1:6">
       <c r="A254" s="21"/>
-      <c r="B254" s="39"/>
-      <c r="C254" s="44" t="s">
+      <c r="B254" s="43"/>
+      <c r="C254" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="D254" s="35"/>
+      <c r="D254" s="39"/>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
     </row>
     <row r="255" ht="38" customHeight="1" spans="1:6">
       <c r="A255" s="21"/>
-      <c r="B255" s="37" t="s">
+      <c r="B255" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="C255" s="47" t="s">
+      <c r="C255" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="D255" s="35"/>
+      <c r="D255" s="39"/>
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
     </row>
     <row r="256" ht="38" customHeight="1" spans="1:6">
       <c r="A256" s="21"/>
-      <c r="B256" s="39"/>
-      <c r="C256" s="47" t="s">
+      <c r="B256" s="43"/>
+      <c r="C256" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="D256" s="35"/>
+      <c r="D256" s="39"/>
       <c r="E256" s="21" t="s">
         <v>405</v>
       </c>
@@ -8377,51 +8620,51 @@
     </row>
     <row r="257" ht="38" customHeight="1" spans="1:6">
       <c r="A257" s="21"/>
-      <c r="B257" s="37" t="s">
+      <c r="B257" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="C257" s="36" t="s">
+      <c r="C257" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="D257" s="35"/>
+      <c r="D257" s="39"/>
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
     </row>
     <row r="258" ht="38" customHeight="1" spans="1:6">
       <c r="A258" s="21"/>
-      <c r="B258" s="38"/>
-      <c r="C258" s="44" t="s">
+      <c r="B258" s="42"/>
+      <c r="C258" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="D258" s="35"/>
+      <c r="D258" s="39"/>
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
     </row>
     <row r="259" ht="38" customHeight="1" spans="1:6">
       <c r="A259" s="21"/>
-      <c r="B259" s="39"/>
-      <c r="C259" s="36" t="s">
+      <c r="B259" s="43"/>
+      <c r="C259" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="D259" s="35"/>
+      <c r="D259" s="39"/>
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
     </row>
     <row r="260" ht="38" customHeight="1" spans="1:6">
       <c r="A260" s="21"/>
-      <c r="B260" s="37" t="s">
+      <c r="B260" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="C260" s="36" t="s">
+      <c r="C260" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="D260" s="35"/>
+      <c r="D260" s="39"/>
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
     </row>
     <row r="261" ht="38" customHeight="1" spans="1:6">
       <c r="A261" s="21"/>
-      <c r="B261" s="38"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="21" t="s">
         <v>412</v>
       </c>
@@ -8433,7 +8676,7 @@
     </row>
     <row r="262" ht="38" customHeight="1" spans="1:6">
       <c r="A262" s="21"/>
-      <c r="B262" s="38"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="21" t="s">
         <v>414</v>
       </c>
@@ -8445,7 +8688,7 @@
     </row>
     <row r="263" ht="38" customHeight="1" spans="1:6">
       <c r="A263" s="21"/>
-      <c r="B263" s="39"/>
+      <c r="B263" s="43"/>
       <c r="C263" s="21" t="s">
         <v>416</v>
       </c>
@@ -8457,129 +8700,129 @@
     </row>
     <row r="264" ht="38" customHeight="1" spans="1:6">
       <c r="A264" s="21"/>
-      <c r="B264" s="37" t="s">
+      <c r="B264" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="C264" s="36" t="s">
+      <c r="C264" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="D264" s="35"/>
+      <c r="D264" s="39"/>
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
     </row>
     <row r="265" ht="38" customHeight="1" spans="1:6">
       <c r="A265" s="21"/>
-      <c r="B265" s="38"/>
-      <c r="C265" s="36" t="s">
+      <c r="B265" s="42"/>
+      <c r="C265" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="D265" s="35"/>
+      <c r="D265" s="39"/>
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
     </row>
     <row r="266" ht="38" customHeight="1" spans="1:6">
       <c r="A266" s="21"/>
-      <c r="B266" s="39"/>
-      <c r="C266" s="36" t="s">
+      <c r="B266" s="43"/>
+      <c r="C266" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="D266" s="35"/>
+      <c r="D266" s="39"/>
       <c r="E266" s="21"/>
       <c r="F266" s="21"/>
     </row>
     <row r="267" ht="38" customHeight="1" spans="1:6">
       <c r="A267" s="21"/>
-      <c r="B267" s="37" t="s">
+      <c r="B267" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="C267" s="36" t="s">
+      <c r="C267" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="D267" s="35"/>
+      <c r="D267" s="39"/>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
     </row>
     <row r="268" ht="38" customHeight="1" spans="1:6">
       <c r="A268" s="21"/>
-      <c r="B268" s="38"/>
-      <c r="C268" s="36" t="s">
+      <c r="B268" s="42"/>
+      <c r="C268" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="D268" s="35"/>
+      <c r="D268" s="39"/>
       <c r="E268" s="21"/>
       <c r="F268" s="21"/>
     </row>
     <row r="269" ht="38" customHeight="1" spans="1:6">
       <c r="A269" s="21"/>
-      <c r="B269" s="39"/>
-      <c r="C269" s="36" t="s">
+      <c r="B269" s="43"/>
+      <c r="C269" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="D269" s="35"/>
+      <c r="D269" s="39"/>
       <c r="E269" s="21"/>
       <c r="F269" s="21"/>
     </row>
     <row r="270" ht="38" customHeight="1" spans="1:6">
       <c r="A270" s="21"/>
-      <c r="B270" s="37" t="s">
+      <c r="B270" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="C270" s="36" t="s">
+      <c r="C270" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="D270" s="35"/>
+      <c r="D270" s="39"/>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
     </row>
     <row r="271" ht="38" customHeight="1" spans="1:6">
       <c r="A271" s="21"/>
-      <c r="B271" s="38"/>
-      <c r="C271" s="47" t="s">
+      <c r="B271" s="42"/>
+      <c r="C271" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="D271" s="35"/>
+      <c r="D271" s="39"/>
       <c r="E271" s="21"/>
       <c r="F271" s="21"/>
     </row>
     <row r="272" ht="38" customHeight="1" spans="1:6">
       <c r="A272" s="21"/>
-      <c r="B272" s="39"/>
-      <c r="C272" s="36" t="s">
+      <c r="B272" s="43"/>
+      <c r="C272" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="D272" s="35"/>
+      <c r="D272" s="39"/>
       <c r="E272" s="21"/>
       <c r="F272" s="21"/>
     </row>
     <row r="273" ht="38" customHeight="1" spans="1:6">
       <c r="A273" s="21"/>
-      <c r="B273" s="37" t="s">
+      <c r="B273" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="C273" s="36" t="s">
+      <c r="C273" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="D273" s="35"/>
+      <c r="D273" s="39"/>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
     </row>
     <row r="274" ht="38" customHeight="1" spans="1:6">
       <c r="A274" s="21"/>
-      <c r="B274" s="38"/>
-      <c r="C274" s="36" t="s">
+      <c r="B274" s="42"/>
+      <c r="C274" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="D274" s="35"/>
+      <c r="D274" s="39"/>
       <c r="E274" s="21"/>
       <c r="F274" s="21"/>
     </row>
     <row r="275" ht="38" customHeight="1" spans="1:6">
       <c r="A275" s="21"/>
-      <c r="B275" s="39"/>
-      <c r="C275" s="36" t="s">
+      <c r="B275" s="43"/>
+      <c r="C275" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="D275" s="35"/>
+      <c r="D275" s="39"/>
       <c r="E275" s="21"/>
       <c r="F275" s="21"/>
     </row>
@@ -8587,33 +8830,33 @@
       <c r="A276" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B276" s="41" t="s">
+      <c r="B276" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="D276" s="35"/>
+      <c r="D276" s="39"/>
       <c r="E276" s="21"/>
       <c r="F276" s="21"/>
     </row>
     <row r="277" ht="38" customHeight="1" spans="1:6">
       <c r="A277" s="21"/>
-      <c r="B277" s="42"/>
-      <c r="C277" s="36" t="s">
+      <c r="B277" s="46"/>
+      <c r="C277" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="D277" s="35"/>
+      <c r="D277" s="39"/>
       <c r="E277" s="21"/>
       <c r="F277" s="21"/>
     </row>
     <row r="278" ht="38" customHeight="1" spans="1:6">
       <c r="A278" s="21"/>
-      <c r="B278" s="42"/>
+      <c r="B278" s="46"/>
       <c r="C278" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="D278" s="35" t="s">
+      <c r="D278" s="39" t="s">
         <v>439</v>
       </c>
       <c r="E278" s="21"/>
@@ -8621,9 +8864,9 @@
     </row>
     <row r="279" ht="38" customHeight="1" spans="1:6">
       <c r="A279" s="21"/>
-      <c r="B279" s="42"/>
+      <c r="B279" s="46"/>
       <c r="C279" s="21"/>
-      <c r="D279" s="35" t="s">
+      <c r="D279" s="39" t="s">
         <v>440</v>
       </c>
       <c r="E279" s="21"/>
@@ -8631,9 +8874,9 @@
     </row>
     <row r="280" ht="38" customHeight="1" spans="1:6">
       <c r="A280" s="21"/>
-      <c r="B280" s="42"/>
+      <c r="B280" s="46"/>
       <c r="C280" s="21"/>
-      <c r="D280" s="35" t="s">
+      <c r="D280" s="39" t="s">
         <v>441</v>
       </c>
       <c r="E280" s="21"/>
@@ -8641,9 +8884,9 @@
     </row>
     <row r="281" ht="38" customHeight="1" spans="1:6">
       <c r="A281" s="21"/>
-      <c r="B281" s="43"/>
+      <c r="B281" s="47"/>
       <c r="C281" s="21"/>
-      <c r="D281" s="35" t="s">
+      <c r="D281" s="39" t="s">
         <v>442</v>
       </c>
       <c r="E281" s="21"/>
@@ -8651,43 +8894,43 @@
     </row>
     <row r="282" ht="38" customHeight="1" spans="1:6">
       <c r="A282" s="21"/>
-      <c r="B282" s="41" t="s">
+      <c r="B282" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="D282" s="35"/>
+      <c r="D282" s="39"/>
       <c r="E282" s="21"/>
       <c r="F282" s="21"/>
     </row>
     <row r="283" ht="38" customHeight="1" spans="1:6">
       <c r="A283" s="21"/>
-      <c r="B283" s="42"/>
-      <c r="C283" s="36" t="s">
+      <c r="B283" s="46"/>
+      <c r="C283" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D283" s="35"/>
+      <c r="D283" s="39"/>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
     </row>
     <row r="284" ht="38" customHeight="1" spans="1:6">
       <c r="A284" s="21"/>
-      <c r="B284" s="42"/>
-      <c r="C284" s="36" t="s">
+      <c r="B284" s="46"/>
+      <c r="C284" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D284" s="35"/>
+      <c r="D284" s="39"/>
       <c r="E284" s="21"/>
       <c r="F284" s="21"/>
     </row>
     <row r="285" ht="38" customHeight="1" spans="1:6">
       <c r="A285" s="21"/>
-      <c r="B285" s="43"/>
-      <c r="C285" s="36" t="s">
+      <c r="B285" s="47"/>
+      <c r="C285" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="D285" s="35"/>
+      <c r="D285" s="39"/>
       <c r="E285" s="21"/>
       <c r="F285" s="21"/>
     </row>
@@ -8696,74 +8939,74 @@
       <c r="B286" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C286" s="47" t="s">
+      <c r="C286" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="D286" s="35"/>
+      <c r="D286" s="39"/>
       <c r="E286" s="21"/>
       <c r="F286" s="21"/>
     </row>
     <row r="287" ht="38" customHeight="1" spans="1:6">
       <c r="A287" s="21"/>
-      <c r="B287" s="41" t="s">
+      <c r="B287" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="C287" s="36" t="s">
+      <c r="C287" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="D287" s="35"/>
+      <c r="D287" s="39"/>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
     </row>
     <row r="288" ht="38" customHeight="1" spans="1:6">
       <c r="A288" s="21"/>
-      <c r="B288" s="42"/>
-      <c r="C288" s="44" t="s">
+      <c r="B288" s="46"/>
+      <c r="C288" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="D288" s="35"/>
+      <c r="D288" s="39"/>
       <c r="E288" s="21"/>
       <c r="F288" s="21"/>
     </row>
     <row r="289" ht="38" customHeight="1" spans="1:6">
       <c r="A289" s="21"/>
-      <c r="B289" s="43"/>
-      <c r="C289" s="44" t="s">
+      <c r="B289" s="47"/>
+      <c r="C289" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="D289" s="35"/>
+      <c r="D289" s="39"/>
       <c r="E289" s="21"/>
       <c r="F289" s="21"/>
     </row>
     <row r="290" ht="38" customHeight="1" spans="1:6">
       <c r="A290" s="21"/>
-      <c r="B290" s="41" t="s">
+      <c r="B290" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="C290" s="36" t="s">
+      <c r="C290" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="D290" s="35"/>
+      <c r="D290" s="39"/>
       <c r="E290" s="21"/>
       <c r="F290" s="21"/>
     </row>
     <row r="291" ht="38" customHeight="1" spans="1:6">
       <c r="A291" s="21"/>
-      <c r="B291" s="42"/>
-      <c r="C291" s="44" t="s">
+      <c r="B291" s="46"/>
+      <c r="C291" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="D291" s="35"/>
+      <c r="D291" s="39"/>
       <c r="E291" s="21"/>
       <c r="F291" s="21"/>
     </row>
     <row r="292" ht="38" customHeight="1" spans="1:6">
       <c r="A292" s="21"/>
-      <c r="B292" s="43"/>
-      <c r="C292" s="44" t="s">
+      <c r="B292" s="47"/>
+      <c r="C292" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="D292" s="35"/>
+      <c r="D292" s="39"/>
       <c r="E292" s="21"/>
       <c r="F292" s="21"/>
     </row>
@@ -8772,10 +9015,10 @@
       <c r="B293" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="C293" s="47" t="s">
+      <c r="C293" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="D293" s="35"/>
+      <c r="D293" s="39"/>
       <c r="E293" s="21"/>
       <c r="F293" s="21"/>
     </row>
@@ -8784,10 +9027,10 @@
       <c r="B294" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C294" s="47" t="s">
+      <c r="C294" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="D294" s="35"/>
+      <c r="D294" s="39"/>
       <c r="E294" s="21"/>
       <c r="F294" s="21"/>
     </row>
@@ -8796,19 +9039,19 @@
       <c r="B295" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="D295" s="35"/>
+      <c r="D295" s="39"/>
       <c r="E295" s="21"/>
       <c r="F295" s="21"/>
     </row>
     <row r="296" ht="38" customHeight="1" spans="1:6">
       <c r="A296" s="21"/>
-      <c r="B296" s="41" t="s">
+      <c r="B296" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="C296" s="41" t="s">
+      <c r="C296" s="45" t="s">
         <v>463</v>
       </c>
       <c r="D296" s="21" t="s">
@@ -8819,8 +9062,8 @@
     </row>
     <row r="297" ht="38" customHeight="1" spans="1:6">
       <c r="A297" s="21"/>
-      <c r="B297" s="42"/>
-      <c r="C297" s="42"/>
+      <c r="B297" s="46"/>
+      <c r="C297" s="46"/>
       <c r="D297" s="21" t="s">
         <v>465</v>
       </c>
@@ -8829,8 +9072,8 @@
     </row>
     <row r="298" ht="38" customHeight="1" spans="1:6">
       <c r="A298" s="21"/>
-      <c r="B298" s="42"/>
-      <c r="C298" s="42"/>
+      <c r="B298" s="46"/>
+      <c r="C298" s="46"/>
       <c r="D298" s="21" t="s">
         <v>466</v>
       </c>
@@ -8839,8 +9082,8 @@
     </row>
     <row r="299" ht="38" customHeight="1" spans="1:6">
       <c r="A299" s="21"/>
-      <c r="B299" s="43"/>
-      <c r="C299" s="43"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="47"/>
       <c r="D299" s="21" t="s">
         <v>467</v>
       </c>
@@ -8849,52 +9092,52 @@
     </row>
     <row r="300" ht="38" customHeight="1" spans="1:6">
       <c r="A300" s="21"/>
-      <c r="B300" s="41" t="s">
+      <c r="B300" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="C300" s="36" t="s">
+      <c r="C300" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="D300" s="35"/>
+      <c r="D300" s="39"/>
       <c r="E300" s="21"/>
       <c r="F300" s="21"/>
     </row>
     <row r="301" ht="38" customHeight="1" spans="1:6">
       <c r="A301" s="21"/>
-      <c r="B301" s="43"/>
-      <c r="C301" s="44" t="s">
+      <c r="B301" s="47"/>
+      <c r="C301" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D301" s="35"/>
+      <c r="D301" s="39"/>
       <c r="E301" s="21"/>
       <c r="F301" s="21"/>
     </row>
     <row r="302" ht="38" customHeight="1" spans="1:6">
       <c r="A302" s="21"/>
-      <c r="B302" s="41" t="s">
+      <c r="B302" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="D302" s="35"/>
+      <c r="D302" s="39"/>
       <c r="E302" s="21"/>
       <c r="F302" s="21"/>
     </row>
     <row r="303" ht="38" customHeight="1" spans="1:6">
       <c r="A303" s="21"/>
-      <c r="B303" s="42"/>
-      <c r="C303" s="36" t="s">
+      <c r="B303" s="46"/>
+      <c r="C303" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="D303" s="35"/>
+      <c r="D303" s="39"/>
       <c r="E303" s="21"/>
       <c r="F303" s="21"/>
     </row>
     <row r="304" ht="38" customHeight="1" spans="1:6">
       <c r="A304" s="21"/>
-      <c r="B304" s="42"/>
-      <c r="C304" s="41" t="s">
+      <c r="B304" s="46"/>
+      <c r="C304" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D304" s="21" t="s">
@@ -8905,8 +9148,8 @@
     </row>
     <row r="305" ht="38" customHeight="1" spans="1:6">
       <c r="A305" s="21"/>
-      <c r="B305" s="42"/>
-      <c r="C305" s="42"/>
+      <c r="B305" s="46"/>
+      <c r="C305" s="46"/>
       <c r="D305" s="21" t="s">
         <v>476</v>
       </c>
@@ -8915,8 +9158,8 @@
     </row>
     <row r="306" ht="38" customHeight="1" spans="1:6">
       <c r="A306" s="21"/>
-      <c r="B306" s="42"/>
-      <c r="C306" s="42"/>
+      <c r="B306" s="46"/>
+      <c r="C306" s="46"/>
       <c r="D306" s="21" t="s">
         <v>477</v>
       </c>
@@ -8925,8 +9168,8 @@
     </row>
     <row r="307" ht="38" customHeight="1" spans="1:6">
       <c r="A307" s="21"/>
-      <c r="B307" s="42"/>
-      <c r="C307" s="42"/>
+      <c r="B307" s="46"/>
+      <c r="C307" s="46"/>
       <c r="D307" s="21" t="s">
         <v>478</v>
       </c>
@@ -8935,8 +9178,8 @@
     </row>
     <row r="308" ht="38" customHeight="1" spans="1:6">
       <c r="A308" s="21"/>
-      <c r="B308" s="43"/>
-      <c r="C308" s="43"/>
+      <c r="B308" s="47"/>
+      <c r="C308" s="47"/>
       <c r="D308" s="21" t="s">
         <v>479</v>
       </c>
@@ -8945,30 +9188,30 @@
     </row>
     <row r="309" ht="38" customHeight="1" spans="1:6">
       <c r="A309" s="21"/>
-      <c r="B309" s="41" t="s">
+      <c r="B309" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="C309" s="47" t="s">
+      <c r="C309" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="D309" s="35"/>
+      <c r="D309" s="39"/>
       <c r="E309" s="21"/>
       <c r="F309" s="21"/>
     </row>
     <row r="310" ht="38" customHeight="1" spans="1:6">
       <c r="A310" s="21"/>
-      <c r="B310" s="42"/>
-      <c r="C310" s="36" t="s">
+      <c r="B310" s="46"/>
+      <c r="C310" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="D310" s="35"/>
+      <c r="D310" s="39"/>
       <c r="E310" s="21"/>
       <c r="F310" s="21"/>
     </row>
     <row r="311" ht="38" customHeight="1" spans="1:6">
       <c r="A311" s="21"/>
-      <c r="B311" s="42"/>
-      <c r="C311" s="41" t="s">
+      <c r="B311" s="46"/>
+      <c r="C311" s="45" t="s">
         <v>483</v>
       </c>
       <c r="D311" s="21" t="s">
@@ -8979,8 +9222,8 @@
     </row>
     <row r="312" ht="38" customHeight="1" spans="1:6">
       <c r="A312" s="21"/>
-      <c r="B312" s="42"/>
-      <c r="C312" s="42"/>
+      <c r="B312" s="46"/>
+      <c r="C312" s="46"/>
       <c r="D312" s="21" t="s">
         <v>485</v>
       </c>
@@ -8989,8 +9232,8 @@
     </row>
     <row r="313" ht="38" customHeight="1" spans="1:6">
       <c r="A313" s="21"/>
-      <c r="B313" s="42"/>
-      <c r="C313" s="42"/>
+      <c r="B313" s="46"/>
+      <c r="C313" s="46"/>
       <c r="D313" s="21" t="s">
         <v>486</v>
       </c>
@@ -8999,8 +9242,8 @@
     </row>
     <row r="314" ht="38" customHeight="1" spans="1:6">
       <c r="A314" s="21"/>
-      <c r="B314" s="42"/>
-      <c r="C314" s="42"/>
+      <c r="B314" s="46"/>
+      <c r="C314" s="46"/>
       <c r="D314" s="21" t="s">
         <v>487</v>
       </c>
@@ -9009,8 +9252,8 @@
     </row>
     <row r="315" ht="38" customHeight="1" spans="1:6">
       <c r="A315" s="21"/>
-      <c r="B315" s="42"/>
-      <c r="C315" s="42"/>
+      <c r="B315" s="46"/>
+      <c r="C315" s="46"/>
       <c r="D315" s="21" t="s">
         <v>488</v>
       </c>
@@ -9019,8 +9262,8 @@
     </row>
     <row r="316" ht="38" customHeight="1" spans="1:6">
       <c r="A316" s="21"/>
-      <c r="B316" s="43"/>
-      <c r="C316" s="43"/>
+      <c r="B316" s="47"/>
+      <c r="C316" s="47"/>
       <c r="D316" s="21" t="s">
         <v>489</v>
       </c>
@@ -9029,62 +9272,62 @@
     </row>
     <row r="317" ht="38" customHeight="1" spans="1:6">
       <c r="A317" s="21"/>
-      <c r="B317" s="41" t="s">
+      <c r="B317" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="C317" s="44" t="s">
+      <c r="C317" s="48" t="s">
         <v>491</v>
       </c>
-      <c r="D317" s="35"/>
+      <c r="D317" s="39"/>
       <c r="E317" s="21"/>
       <c r="F317" s="21"/>
     </row>
     <row r="318" ht="38" customHeight="1" spans="1:6">
       <c r="A318" s="21"/>
-      <c r="B318" s="42"/>
-      <c r="C318" s="36" t="s">
+      <c r="B318" s="46"/>
+      <c r="C318" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="D318" s="35"/>
+      <c r="D318" s="39"/>
       <c r="E318" s="21"/>
       <c r="F318" s="21"/>
     </row>
     <row r="319" ht="38" customHeight="1" spans="1:6">
       <c r="A319" s="21"/>
-      <c r="B319" s="42"/>
-      <c r="C319" s="36" t="s">
+      <c r="B319" s="46"/>
+      <c r="C319" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="D319" s="35"/>
+      <c r="D319" s="39"/>
       <c r="E319" s="21"/>
       <c r="F319" s="21"/>
     </row>
     <row r="320" ht="38" customHeight="1" spans="1:6">
       <c r="A320" s="21"/>
-      <c r="B320" s="42"/>
-      <c r="C320" s="36" t="s">
+      <c r="B320" s="46"/>
+      <c r="C320" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="D320" s="35"/>
+      <c r="D320" s="39"/>
       <c r="E320" s="21"/>
       <c r="F320" s="21"/>
     </row>
     <row r="321" ht="38" customHeight="1" spans="1:6">
       <c r="A321" s="21"/>
-      <c r="B321" s="43"/>
-      <c r="C321" s="36" t="s">
+      <c r="B321" s="47"/>
+      <c r="C321" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="D321" s="35"/>
+      <c r="D321" s="39"/>
       <c r="E321" s="21"/>
       <c r="F321" s="21"/>
     </row>
     <row r="322" ht="38" customHeight="1" spans="1:6">
       <c r="A322" s="21"/>
-      <c r="B322" s="41" t="s">
+      <c r="B322" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="C322" s="41" t="s">
+      <c r="C322" s="45" t="s">
         <v>497</v>
       </c>
       <c r="D322" s="21" t="s">
@@ -9095,8 +9338,8 @@
     </row>
     <row r="323" ht="38" customHeight="1" spans="1:6">
       <c r="A323" s="21"/>
-      <c r="B323" s="42"/>
-      <c r="C323" s="42"/>
+      <c r="B323" s="46"/>
+      <c r="C323" s="46"/>
       <c r="D323" s="21" t="s">
         <v>499</v>
       </c>
@@ -9105,8 +9348,8 @@
     </row>
     <row r="324" ht="38" customHeight="1" spans="1:6">
       <c r="A324" s="21"/>
-      <c r="B324" s="42"/>
-      <c r="C324" s="43"/>
+      <c r="B324" s="46"/>
+      <c r="C324" s="47"/>
       <c r="D324" s="21" t="s">
         <v>500</v>
       </c>
@@ -9115,21 +9358,21 @@
     </row>
     <row r="325" ht="38" customHeight="1" spans="1:6">
       <c r="A325" s="21"/>
-      <c r="B325" s="42"/>
-      <c r="C325" s="44" t="s">
+      <c r="B325" s="46"/>
+      <c r="C325" s="48" t="s">
         <v>501</v>
       </c>
-      <c r="D325" s="35"/>
+      <c r="D325" s="39"/>
       <c r="E325" s="21"/>
       <c r="F325" s="21"/>
     </row>
     <row r="326" ht="38" customHeight="1" spans="1:6">
       <c r="A326" s="21"/>
-      <c r="B326" s="43"/>
-      <c r="C326" s="36" t="s">
+      <c r="B326" s="47"/>
+      <c r="C326" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="D326" s="35"/>
+      <c r="D326" s="39"/>
       <c r="E326" s="21"/>
       <c r="F326" s="21"/>
     </row>
@@ -9137,7 +9380,7 @@
       <c r="A327" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B327" s="41" t="s">
+      <c r="B327" s="45" t="s">
         <v>504</v>
       </c>
       <c r="C327" s="21" t="s">
@@ -9151,7 +9394,7 @@
     </row>
     <row r="328" ht="38" customHeight="1" spans="1:6">
       <c r="A328" s="21"/>
-      <c r="B328" s="43"/>
+      <c r="B328" s="47"/>
       <c r="C328" s="21" t="s">
         <v>507</v>
       </c>
@@ -9163,153 +9406,153 @@
     </row>
     <row r="329" ht="38" customHeight="1" spans="1:6">
       <c r="A329" s="21"/>
-      <c r="B329" s="41" t="s">
+      <c r="B329" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C329" s="44" t="s">
+      <c r="C329" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="D329" s="35"/>
+      <c r="D329" s="39"/>
       <c r="E329" s="21"/>
       <c r="F329" s="21"/>
     </row>
     <row r="330" ht="38" customHeight="1" spans="1:6">
       <c r="A330" s="21"/>
-      <c r="B330" s="43"/>
-      <c r="C330" s="36" t="s">
+      <c r="B330" s="47"/>
+      <c r="C330" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="D330" s="35"/>
+      <c r="D330" s="39"/>
       <c r="E330" s="21"/>
       <c r="F330" s="21"/>
     </row>
     <row r="331" ht="38" customHeight="1" spans="1:6">
       <c r="A331" s="21"/>
-      <c r="B331" s="41" t="s">
+      <c r="B331" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="C331" s="36" t="s">
+      <c r="C331" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="D331" s="35"/>
+      <c r="D331" s="39"/>
       <c r="E331" s="21"/>
       <c r="F331" s="21"/>
     </row>
     <row r="332" ht="38" customHeight="1" spans="1:6">
       <c r="A332" s="21"/>
-      <c r="B332" s="43"/>
-      <c r="C332" s="36" t="s">
+      <c r="B332" s="47"/>
+      <c r="C332" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="D332" s="35"/>
+      <c r="D332" s="39"/>
       <c r="E332" s="21"/>
       <c r="F332" s="21"/>
     </row>
     <row r="333" ht="38" customHeight="1" spans="1:6">
       <c r="A333" s="21"/>
-      <c r="B333" s="41" t="s">
+      <c r="B333" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C333" s="44" t="s">
+      <c r="C333" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="D333" s="35"/>
+      <c r="D333" s="39"/>
       <c r="E333" s="21"/>
       <c r="F333" s="21"/>
     </row>
     <row r="334" ht="38" customHeight="1" spans="1:6">
       <c r="A334" s="21"/>
-      <c r="B334" s="43"/>
-      <c r="C334" s="36" t="s">
+      <c r="B334" s="47"/>
+      <c r="C334" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="D334" s="35"/>
+      <c r="D334" s="39"/>
       <c r="E334" s="21"/>
       <c r="F334" s="21"/>
     </row>
     <row r="335" ht="38" customHeight="1" spans="1:6">
       <c r="A335" s="21"/>
-      <c r="B335" s="41" t="s">
+      <c r="B335" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="C335" s="44" t="s">
+      <c r="C335" s="48" t="s">
         <v>519</v>
       </c>
-      <c r="D335" s="35"/>
+      <c r="D335" s="39"/>
       <c r="E335" s="21"/>
       <c r="F335" s="21"/>
     </row>
     <row r="336" ht="38" customHeight="1" spans="1:6">
       <c r="A336" s="21"/>
-      <c r="B336" s="43"/>
-      <c r="C336" s="36" t="s">
+      <c r="B336" s="47"/>
+      <c r="C336" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="D336" s="35"/>
+      <c r="D336" s="39"/>
       <c r="E336" s="21"/>
       <c r="F336" s="21"/>
     </row>
     <row r="337" ht="38" customHeight="1" spans="1:6">
       <c r="A337" s="21"/>
-      <c r="B337" s="41" t="s">
+      <c r="B337" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="C337" s="49" t="s">
+      <c r="C337" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="D337" s="50"/>
+      <c r="D337" s="54"/>
       <c r="E337" s="21"/>
       <c r="F337" s="21"/>
     </row>
     <row r="338" ht="38" customHeight="1" spans="1:6">
       <c r="A338" s="21"/>
-      <c r="B338" s="42"/>
-      <c r="C338" s="49" t="s">
+      <c r="B338" s="46"/>
+      <c r="C338" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="D338" s="35"/>
+      <c r="D338" s="39"/>
       <c r="E338" s="21"/>
       <c r="F338" s="21"/>
     </row>
     <row r="339" ht="38" customHeight="1" spans="1:6">
       <c r="A339" s="21"/>
-      <c r="B339" s="43"/>
-      <c r="C339" s="36" t="s">
+      <c r="B339" s="47"/>
+      <c r="C339" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="D339" s="35"/>
+      <c r="D339" s="39"/>
       <c r="E339" s="21"/>
       <c r="F339" s="21"/>
     </row>
     <row r="340" ht="38" customHeight="1" spans="1:6">
       <c r="A340" s="21"/>
-      <c r="B340" s="41" t="s">
+      <c r="B340" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="C340" s="49" t="s">
+      <c r="C340" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="D340" s="35"/>
+      <c r="D340" s="39"/>
       <c r="E340" s="21"/>
       <c r="F340" s="21"/>
     </row>
     <row r="341" ht="38" customHeight="1" spans="1:6">
       <c r="A341" s="21"/>
-      <c r="B341" s="42"/>
-      <c r="C341" s="36" t="s">
+      <c r="B341" s="46"/>
+      <c r="C341" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="D341" s="35"/>
+      <c r="D341" s="39"/>
       <c r="E341" s="21"/>
       <c r="F341" s="21"/>
     </row>
     <row r="342" ht="38" customHeight="1" spans="1:6">
       <c r="A342" s="21"/>
-      <c r="B342" s="43"/>
-      <c r="C342" s="49" t="s">
+      <c r="B342" s="47"/>
+      <c r="C342" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="D342" s="35"/>
+      <c r="D342" s="39"/>
       <c r="E342" s="21"/>
       <c r="F342" s="21"/>
     </row>
@@ -9318,10 +9561,10 @@
       <c r="B343" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="D343" s="35"/>
+      <c r="D343" s="39"/>
       <c r="E343" s="21"/>
       <c r="F343" s="21"/>
     </row>
@@ -9330,10 +9573,10 @@
       <c r="B344" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="C344" s="49" t="s">
+      <c r="C344" s="53" t="s">
         <v>532</v>
       </c>
-      <c r="D344" s="35"/>
+      <c r="D344" s="39"/>
       <c r="E344" s="21"/>
       <c r="F344" s="21"/>
     </row>
@@ -9342,50 +9585,50 @@
       <c r="B345" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="C345" s="49" t="s">
+      <c r="C345" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="D345" s="35"/>
+      <c r="D345" s="39"/>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
     </row>
     <row r="346" ht="38" customHeight="1" spans="1:6">
       <c r="A346" s="21"/>
-      <c r="B346" s="41" t="s">
+      <c r="B346" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="C346" s="49" t="s">
+      <c r="C346" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="D346" s="35"/>
+      <c r="D346" s="39"/>
       <c r="E346" s="21"/>
       <c r="F346" s="21"/>
     </row>
     <row r="347" ht="38" customHeight="1" spans="1:6">
       <c r="A347" s="21"/>
-      <c r="B347" s="43"/>
-      <c r="C347" s="36" t="s">
+      <c r="B347" s="47"/>
+      <c r="C347" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="D347" s="35"/>
+      <c r="D347" s="39"/>
       <c r="E347" s="21"/>
       <c r="F347" s="21"/>
     </row>
     <row r="348" ht="38" customHeight="1" spans="1:6">
       <c r="A348" s="21"/>
-      <c r="B348" s="41" t="s">
+      <c r="B348" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C348" s="49" t="s">
+      <c r="C348" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="D348" s="35"/>
+      <c r="D348" s="39"/>
       <c r="E348" s="21"/>
       <c r="F348" s="21"/>
     </row>
     <row r="349" ht="38" customHeight="1" spans="1:6">
       <c r="A349" s="21"/>
-      <c r="B349" s="42"/>
+      <c r="B349" s="46"/>
       <c r="C349" s="21" t="s">
         <v>540</v>
       </c>
@@ -9397,7 +9640,7 @@
     </row>
     <row r="350" ht="38" customHeight="1" spans="1:6">
       <c r="A350" s="21"/>
-      <c r="B350" s="43"/>
+      <c r="B350" s="47"/>
       <c r="C350" s="21" t="s">
         <v>542</v>
       </c>
@@ -9409,126 +9652,126 @@
     </row>
     <row r="351" ht="38" customHeight="1" spans="1:6">
       <c r="A351" s="21"/>
-      <c r="B351" s="41" t="s">
+      <c r="B351" s="45" t="s">
         <v>540</v>
       </c>
-      <c r="C351" s="36" t="s">
+      <c r="C351" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="D351" s="35"/>
+      <c r="D351" s="39"/>
       <c r="E351" s="21"/>
       <c r="F351" s="21"/>
     </row>
     <row r="352" ht="38" customHeight="1" spans="1:6">
       <c r="A352" s="21"/>
-      <c r="B352" s="42"/>
-      <c r="C352" s="44" t="s">
+      <c r="B352" s="46"/>
+      <c r="C352" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="D352" s="51"/>
+      <c r="D352" s="55"/>
       <c r="E352" s="21"/>
       <c r="F352" s="21"/>
     </row>
     <row r="353" ht="38" customHeight="1" spans="1:6">
       <c r="A353" s="21"/>
-      <c r="B353" s="43"/>
-      <c r="C353" s="36" t="s">
+      <c r="B353" s="47"/>
+      <c r="C353" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="D353" s="35"/>
+      <c r="D353" s="39"/>
       <c r="E353" s="21"/>
       <c r="F353" s="21"/>
     </row>
     <row r="354" ht="38" customHeight="1" spans="1:6">
       <c r="A354" s="21"/>
-      <c r="B354" s="41" t="s">
+      <c r="B354" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="C354" s="44" t="s">
+      <c r="C354" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="D354" s="35"/>
+      <c r="D354" s="39"/>
       <c r="E354" s="21"/>
       <c r="F354" s="21"/>
     </row>
     <row r="355" ht="38" customHeight="1" spans="1:6">
       <c r="A355" s="21"/>
-      <c r="B355" s="42"/>
-      <c r="C355" s="44" t="s">
+      <c r="B355" s="46"/>
+      <c r="C355" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="D355" s="35"/>
+      <c r="D355" s="39"/>
       <c r="E355" s="21"/>
       <c r="F355" s="21"/>
     </row>
     <row r="356" ht="38" customHeight="1" spans="1:6">
       <c r="A356" s="21"/>
-      <c r="B356" s="42"/>
-      <c r="C356" s="44" t="s">
+      <c r="B356" s="46"/>
+      <c r="C356" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="D356" s="35"/>
+      <c r="D356" s="39"/>
       <c r="E356" s="21"/>
       <c r="F356" s="21"/>
     </row>
     <row r="357" ht="38" customHeight="1" spans="1:6">
       <c r="A357" s="21"/>
-      <c r="B357" s="43"/>
-      <c r="C357" s="44" t="s">
+      <c r="B357" s="47"/>
+      <c r="C357" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="D357" s="35"/>
+      <c r="D357" s="39"/>
       <c r="E357" s="21"/>
       <c r="F357" s="21"/>
     </row>
     <row r="358" ht="38" customHeight="1" spans="1:6">
       <c r="A358" s="21"/>
-      <c r="B358" s="41" t="s">
+      <c r="B358" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="C358" s="36" t="s">
+      <c r="C358" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="D358" s="35"/>
+      <c r="D358" s="39"/>
       <c r="E358" s="21"/>
       <c r="F358" s="21"/>
     </row>
     <row r="359" ht="38" customHeight="1" spans="1:6">
       <c r="A359" s="21"/>
-      <c r="B359" s="42"/>
-      <c r="C359" s="36" t="s">
+      <c r="B359" s="46"/>
+      <c r="C359" s="40" t="s">
         <v>554</v>
       </c>
-      <c r="D359" s="35"/>
+      <c r="D359" s="39"/>
       <c r="E359" s="21"/>
       <c r="F359" s="21"/>
     </row>
     <row r="360" ht="38" customHeight="1" spans="1:6">
       <c r="A360" s="21"/>
-      <c r="B360" s="42"/>
-      <c r="C360" s="36" t="s">
+      <c r="B360" s="46"/>
+      <c r="C360" s="40" t="s">
         <v>555</v>
       </c>
-      <c r="D360" s="35"/>
+      <c r="D360" s="39"/>
       <c r="E360" s="21"/>
       <c r="F360" s="21"/>
     </row>
     <row r="361" ht="38" customHeight="1" spans="1:6">
       <c r="A361" s="21"/>
-      <c r="B361" s="43"/>
-      <c r="C361" s="47" t="s">
+      <c r="B361" s="47"/>
+      <c r="C361" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="D361" s="35"/>
+      <c r="D361" s="39"/>
       <c r="E361" s="21"/>
       <c r="F361" s="21"/>
     </row>
     <row r="362" ht="38" customHeight="1" spans="1:6">
       <c r="A362" s="21"/>
-      <c r="B362" s="41" t="s">
+      <c r="B362" s="45" t="s">
         <v>557</v>
       </c>
-      <c r="C362" s="41" t="s">
+      <c r="C362" s="45" t="s">
         <v>558</v>
       </c>
       <c r="D362" s="21" t="s">
@@ -9539,8 +9782,8 @@
     </row>
     <row r="363" ht="38" customHeight="1" spans="1:6">
       <c r="A363" s="21"/>
-      <c r="B363" s="42"/>
-      <c r="C363" s="42"/>
+      <c r="B363" s="46"/>
+      <c r="C363" s="46"/>
       <c r="D363" s="21" t="s">
         <v>560</v>
       </c>
@@ -9549,8 +9792,8 @@
     </row>
     <row r="364" ht="38" customHeight="1" spans="1:6">
       <c r="A364" s="21"/>
-      <c r="B364" s="42"/>
-      <c r="C364" s="42"/>
+      <c r="B364" s="46"/>
+      <c r="C364" s="46"/>
       <c r="D364" s="21" t="s">
         <v>561</v>
       </c>
@@ -9559,8 +9802,8 @@
     </row>
     <row r="365" ht="38" customHeight="1" spans="1:6">
       <c r="A365" s="21"/>
-      <c r="B365" s="42"/>
-      <c r="C365" s="43"/>
+      <c r="B365" s="46"/>
+      <c r="C365" s="47"/>
       <c r="D365" s="21" t="s">
         <v>562</v>
       </c>
@@ -9569,11 +9812,11 @@
     </row>
     <row r="366" ht="38" customHeight="1" spans="1:6">
       <c r="A366" s="21"/>
-      <c r="B366" s="43"/>
-      <c r="C366" s="44" t="s">
+      <c r="B366" s="47"/>
+      <c r="C366" s="48" t="s">
         <v>563</v>
       </c>
-      <c r="D366" s="35"/>
+      <c r="D366" s="39"/>
       <c r="E366" s="21"/>
       <c r="F366" s="21"/>
     </row>
@@ -9582,10 +9825,10 @@
       <c r="B367" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C367" s="44" t="s">
+      <c r="C367" s="48" t="s">
         <v>565</v>
       </c>
-      <c r="D367" s="35"/>
+      <c r="D367" s="39"/>
       <c r="E367" s="21"/>
       <c r="F367" s="21"/>
     </row>
@@ -9594,32 +9837,32 @@
       <c r="B368" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="C368" s="36" t="s">
+      <c r="C368" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="D368" s="35"/>
+      <c r="D368" s="39"/>
       <c r="E368" s="21"/>
       <c r="F368" s="21"/>
     </row>
     <row r="369" ht="38" customHeight="1" spans="1:6">
       <c r="A369" s="21"/>
-      <c r="B369" s="41" t="s">
+      <c r="B369" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="C369" s="36" t="s">
+      <c r="C369" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="D369" s="35"/>
+      <c r="D369" s="39"/>
       <c r="E369" s="21"/>
       <c r="F369" s="21"/>
     </row>
     <row r="370" ht="38" customHeight="1" spans="1:6">
       <c r="A370" s="21"/>
-      <c r="B370" s="43"/>
-      <c r="C370" s="36" t="s">
+      <c r="B370" s="47"/>
+      <c r="C370" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="D370" s="35"/>
+      <c r="D370" s="39"/>
       <c r="E370" s="21"/>
       <c r="F370" s="21"/>
     </row>
@@ -9628,10 +9871,10 @@
       <c r="B371" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="D371" s="35"/>
+      <c r="D371" s="39"/>
       <c r="E371" s="21" t="s">
         <v>573</v>
       </c>
@@ -9642,10 +9885,10 @@
       <c r="B372" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="C372" s="36" t="s">
+      <c r="C372" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="D372" s="35"/>
+      <c r="D372" s="39"/>
       <c r="E372" s="21"/>
       <c r="F372" s="21"/>
     </row>
@@ -9654,54 +9897,54 @@
       <c r="B373" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="C373" s="36" t="s">
+      <c r="C373" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="D373" s="35"/>
+      <c r="D373" s="39"/>
       <c r="E373" s="21"/>
       <c r="F373" s="21"/>
     </row>
     <row r="374" ht="38" customHeight="1" spans="1:6">
       <c r="A374" s="21"/>
-      <c r="B374" s="41" t="s">
+      <c r="B374" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="C374" s="36" t="s">
+      <c r="C374" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="D374" s="35"/>
+      <c r="D374" s="39"/>
       <c r="E374" s="21"/>
       <c r="F374" s="21"/>
     </row>
     <row r="375" ht="38" customHeight="1" spans="1:6">
       <c r="A375" s="21"/>
-      <c r="B375" s="42"/>
-      <c r="C375" s="36" t="s">
+      <c r="B375" s="46"/>
+      <c r="C375" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="D375" s="35"/>
+      <c r="D375" s="39"/>
       <c r="E375" s="21"/>
       <c r="F375" s="21"/>
     </row>
     <row r="376" ht="38" customHeight="1" spans="1:6">
       <c r="A376" s="21"/>
-      <c r="B376" s="43"/>
-      <c r="C376" s="36" t="s">
+      <c r="B376" s="47"/>
+      <c r="C376" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="D376" s="35"/>
+      <c r="D376" s="39"/>
       <c r="E376" s="21"/>
       <c r="F376" s="21"/>
     </row>
     <row r="377" ht="38" customHeight="1" spans="1:6">
       <c r="A377" s="21"/>
-      <c r="B377" s="41" t="s">
+      <c r="B377" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="C377" s="36" t="s">
+      <c r="C377" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="D377" s="35"/>
+      <c r="D377" s="39"/>
       <c r="E377" s="21" t="s">
         <v>584</v>
       </c>
@@ -9709,21 +9952,21 @@
     </row>
     <row r="378" ht="38" customHeight="1" spans="1:6">
       <c r="A378" s="21"/>
-      <c r="B378" s="42"/>
-      <c r="C378" s="36" t="s">
+      <c r="B378" s="46"/>
+      <c r="C378" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="D378" s="35"/>
+      <c r="D378" s="39"/>
       <c r="E378" s="21"/>
       <c r="F378" s="21"/>
     </row>
     <row r="379" ht="38" customHeight="1" spans="1:6">
       <c r="A379" s="21"/>
-      <c r="B379" s="43"/>
-      <c r="C379" s="36" t="s">
+      <c r="B379" s="47"/>
+      <c r="C379" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="D379" s="35"/>
+      <c r="D379" s="39"/>
       <c r="E379" s="21"/>
       <c r="F379" s="21"/>
     </row>
@@ -9732,10 +9975,10 @@
       <c r="B380" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="C380" s="44" t="s">
+      <c r="C380" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="D380" s="35"/>
+      <c r="D380" s="39"/>
       <c r="E380" s="21"/>
       <c r="F380" s="21"/>
     </row>
@@ -9744,10 +9987,10 @@
       <c r="B381" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C381" s="44" t="s">
+      <c r="C381" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="D381" s="35"/>
+      <c r="D381" s="39"/>
       <c r="E381" s="21" t="s">
         <v>591</v>
       </c>
@@ -9758,10 +10001,10 @@
       <c r="B382" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="C382" s="44" t="s">
+      <c r="C382" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="D382" s="35"/>
+      <c r="D382" s="39"/>
       <c r="E382" s="21" t="s">
         <v>594</v>
       </c>
@@ -9772,10 +10015,10 @@
       <c r="B383" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="C383" s="47" t="s">
+      <c r="C383" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="D383" s="35"/>
+      <c r="D383" s="39"/>
       <c r="E383" s="21" t="s">
         <v>597</v>
       </c>
@@ -9786,10 +10029,10 @@
       <c r="B384" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="C384" s="44" t="s">
+      <c r="C384" s="48" t="s">
         <v>599</v>
       </c>
-      <c r="D384" s="35"/>
+      <c r="D384" s="39"/>
       <c r="E384" s="21" t="s">
         <v>600</v>
       </c>
@@ -9800,10 +10043,10 @@
       <c r="B385" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="C385" s="44" t="s">
+      <c r="C385" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="D385" s="35"/>
+      <c r="D385" s="39"/>
       <c r="E385" s="21" t="s">
         <v>603</v>
       </c>
@@ -9814,10 +10057,10 @@
       <c r="B386" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="C386" s="44" t="s">
+      <c r="C386" s="48" t="s">
         <v>605</v>
       </c>
-      <c r="D386" s="35"/>
+      <c r="D386" s="39"/>
       <c r="E386" s="21" t="s">
         <v>606</v>
       </c>
@@ -9828,10 +10071,10 @@
       <c r="B387" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="C387" s="44" t="s">
+      <c r="C387" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="D387" s="35"/>
+      <c r="D387" s="39"/>
       <c r="E387" s="21" t="s">
         <v>609</v>
       </c>
@@ -9842,10 +10085,10 @@
       <c r="B388" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C388" s="44" t="s">
+      <c r="C388" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="D388" s="35"/>
+      <c r="D388" s="39"/>
       <c r="E388" s="21"/>
       <c r="F388" s="21"/>
     </row>
@@ -9854,10 +10097,10 @@
       <c r="B389" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="C389" s="44" t="s">
+      <c r="C389" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="D389" s="35"/>
+      <c r="D389" s="39"/>
       <c r="E389" s="21" t="s">
         <v>614</v>
       </c>
@@ -9868,10 +10111,10 @@
       <c r="B390" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="C390" s="44" t="s">
+      <c r="C390" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="D390" s="35"/>
+      <c r="D390" s="39"/>
       <c r="E390" s="21" t="s">
         <v>617</v>
       </c>
@@ -9879,35 +10122,35 @@
     </row>
     <row r="391" ht="38" customHeight="1" spans="1:6">
       <c r="A391" s="21"/>
-      <c r="B391" s="41" t="s">
+      <c r="B391" s="45" t="s">
         <v>618</v>
       </c>
-      <c r="C391" s="36" t="s">
+      <c r="C391" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="D391" s="35"/>
+      <c r="D391" s="39"/>
       <c r="E391" s="21"/>
       <c r="F391" s="21"/>
     </row>
     <row r="392" ht="38" customHeight="1" spans="1:6">
       <c r="A392" s="21"/>
-      <c r="B392" s="43"/>
-      <c r="C392" s="36" t="s">
+      <c r="B392" s="47"/>
+      <c r="C392" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="D392" s="35"/>
+      <c r="D392" s="39"/>
       <c r="E392" s="21"/>
       <c r="F392" s="21"/>
     </row>
     <row r="393" ht="38" customHeight="1" spans="1:6">
       <c r="A393" s="21"/>
-      <c r="B393" s="41" t="s">
+      <c r="B393" s="45" t="s">
         <v>621</v>
       </c>
-      <c r="C393" s="44" t="s">
+      <c r="C393" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="D393" s="35"/>
+      <c r="D393" s="39"/>
       <c r="E393" s="21" t="s">
         <v>623</v>
       </c>
@@ -9915,40 +10158,40 @@
     </row>
     <row r="394" ht="38" customHeight="1" spans="1:6">
       <c r="A394" s="21"/>
-      <c r="B394" s="43"/>
-      <c r="C394" s="36" t="s">
+      <c r="B394" s="47"/>
+      <c r="C394" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="D394" s="35"/>
+      <c r="D394" s="39"/>
       <c r="E394" s="21"/>
       <c r="F394" s="21"/>
     </row>
     <row r="395" ht="38" customHeight="1" spans="1:6">
       <c r="A395" s="21"/>
-      <c r="B395" s="41" t="s">
+      <c r="B395" s="45" t="s">
         <v>625</v>
       </c>
-      <c r="C395" s="44" t="s">
+      <c r="C395" s="48" t="s">
         <v>626</v>
       </c>
-      <c r="D395" s="35"/>
+      <c r="D395" s="39"/>
       <c r="E395" s="21"/>
       <c r="F395" s="21"/>
     </row>
     <row r="396" ht="38" customHeight="1" spans="1:6">
       <c r="A396" s="21"/>
-      <c r="B396" s="42"/>
-      <c r="C396" s="36" t="s">
+      <c r="B396" s="46"/>
+      <c r="C396" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="D396" s="35"/>
+      <c r="D396" s="39"/>
       <c r="E396" s="21"/>
       <c r="F396" s="21"/>
     </row>
     <row r="397" ht="38" customHeight="1" spans="1:6">
       <c r="A397" s="21"/>
-      <c r="B397" s="42"/>
-      <c r="C397" s="41" t="s">
+      <c r="B397" s="46"/>
+      <c r="C397" s="45" t="s">
         <v>628</v>
       </c>
       <c r="D397" s="21" t="s">
@@ -9959,8 +10202,8 @@
     </row>
     <row r="398" ht="38" customHeight="1" spans="1:6">
       <c r="A398" s="21"/>
-      <c r="B398" s="42"/>
-      <c r="C398" s="42"/>
+      <c r="B398" s="46"/>
+      <c r="C398" s="46"/>
       <c r="D398" s="21" t="s">
         <v>630</v>
       </c>
@@ -9969,8 +10212,8 @@
     </row>
     <row r="399" ht="38" customHeight="1" spans="1:6">
       <c r="A399" s="21"/>
-      <c r="B399" s="42"/>
-      <c r="C399" s="42"/>
+      <c r="B399" s="46"/>
+      <c r="C399" s="46"/>
       <c r="D399" s="21" t="s">
         <v>631</v>
       </c>
@@ -9979,8 +10222,8 @@
     </row>
     <row r="400" ht="38" customHeight="1" spans="1:6">
       <c r="A400" s="21"/>
-      <c r="B400" s="42"/>
-      <c r="C400" s="43"/>
+      <c r="B400" s="46"/>
+      <c r="C400" s="47"/>
       <c r="D400" s="21" t="s">
         <v>632</v>
       </c>
@@ -9989,71 +10232,71 @@
     </row>
     <row r="401" ht="38" customHeight="1" spans="1:6">
       <c r="A401" s="21"/>
-      <c r="B401" s="43"/>
-      <c r="C401" s="36" t="s">
+      <c r="B401" s="47"/>
+      <c r="C401" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="D401" s="35"/>
+      <c r="D401" s="39"/>
       <c r="E401" s="21"/>
       <c r="F401" s="21"/>
     </row>
     <row r="402" ht="38" customHeight="1" spans="1:6">
       <c r="A402" s="21"/>
-      <c r="B402" s="41" t="s">
+      <c r="B402" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="C402" s="44" t="s">
+      <c r="C402" s="48" t="s">
         <v>635</v>
       </c>
-      <c r="D402" s="35"/>
+      <c r="D402" s="39"/>
       <c r="E402" s="21"/>
       <c r="F402" s="21"/>
     </row>
     <row r="403" ht="38" customHeight="1" spans="1:6">
       <c r="A403" s="21"/>
-      <c r="B403" s="42"/>
-      <c r="C403" s="44" t="s">
+      <c r="B403" s="46"/>
+      <c r="C403" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="D403" s="35"/>
+      <c r="D403" s="39"/>
       <c r="E403" s="21"/>
       <c r="F403" s="21"/>
     </row>
     <row r="404" ht="38" customHeight="1" spans="1:6">
       <c r="A404" s="21"/>
-      <c r="B404" s="43"/>
-      <c r="C404" s="36" t="s">
+      <c r="B404" s="47"/>
+      <c r="C404" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="D404" s="35"/>
+      <c r="D404" s="39"/>
       <c r="E404" s="21"/>
       <c r="F404" s="21"/>
     </row>
     <row r="405" ht="38" customHeight="1" spans="1:6">
       <c r="A405" s="21"/>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="45" t="s">
         <v>638</v>
       </c>
-      <c r="C405" s="36" t="s">
+      <c r="C405" s="40" t="s">
         <v>639</v>
       </c>
-      <c r="D405" s="35"/>
+      <c r="D405" s="39"/>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
     </row>
     <row r="406" ht="38" customHeight="1" spans="1:6">
       <c r="A406" s="21"/>
-      <c r="B406" s="43"/>
-      <c r="C406" s="44" t="s">
+      <c r="B406" s="47"/>
+      <c r="C406" s="48" t="s">
         <v>640</v>
       </c>
-      <c r="D406" s="35"/>
+      <c r="D406" s="39"/>
       <c r="E406" s="21"/>
       <c r="F406" s="21"/>
     </row>
     <row r="407" ht="38" customHeight="1" spans="1:6">
       <c r="A407" s="21"/>
-      <c r="B407" s="41" t="s">
+      <c r="B407" s="45" t="s">
         <v>641</v>
       </c>
       <c r="C407" s="21" t="s">
@@ -10067,7 +10310,7 @@
     </row>
     <row r="408" ht="38" customHeight="1" spans="1:6">
       <c r="A408" s="21"/>
-      <c r="B408" s="42"/>
+      <c r="B408" s="46"/>
       <c r="C408" s="21" t="s">
         <v>644</v>
       </c>
@@ -10079,7 +10322,7 @@
     </row>
     <row r="409" ht="38" customHeight="1" spans="1:6">
       <c r="A409" s="21"/>
-      <c r="B409" s="42"/>
+      <c r="B409" s="46"/>
       <c r="C409" s="21" t="s">
         <v>646</v>
       </c>
@@ -10091,7 +10334,7 @@
     </row>
     <row r="410" ht="38" customHeight="1" spans="1:6">
       <c r="A410" s="21"/>
-      <c r="B410" s="42"/>
+      <c r="B410" s="46"/>
       <c r="C410" s="21" t="s">
         <v>648</v>
       </c>
@@ -10103,7 +10346,7 @@
     </row>
     <row r="411" ht="38" customHeight="1" spans="1:6">
       <c r="A411" s="21"/>
-      <c r="B411" s="43"/>
+      <c r="B411" s="47"/>
       <c r="C411" s="21" t="s">
         <v>650</v>
       </c>
@@ -10115,7 +10358,7 @@
     </row>
     <row r="412" ht="38" customHeight="1" spans="1:6">
       <c r="A412" s="21"/>
-      <c r="B412" s="41" t="s">
+      <c r="B412" s="45" t="s">
         <v>652</v>
       </c>
       <c r="C412" s="21" t="s">
@@ -10129,7 +10372,7 @@
     </row>
     <row r="413" ht="38" customHeight="1" spans="1:6">
       <c r="A413" s="21"/>
-      <c r="B413" s="42"/>
+      <c r="B413" s="46"/>
       <c r="C413" s="21" t="s">
         <v>655</v>
       </c>
@@ -10141,7 +10384,7 @@
     </row>
     <row r="414" ht="38" customHeight="1" spans="1:6">
       <c r="A414" s="21"/>
-      <c r="B414" s="42"/>
+      <c r="B414" s="46"/>
       <c r="C414" s="21" t="s">
         <v>657</v>
       </c>
@@ -10153,7 +10396,7 @@
     </row>
     <row r="415" ht="38" customHeight="1" spans="1:6">
       <c r="A415" s="21"/>
-      <c r="B415" s="42"/>
+      <c r="B415" s="46"/>
       <c r="C415" s="21" t="s">
         <v>659</v>
       </c>
@@ -10165,7 +10408,7 @@
     </row>
     <row r="416" ht="38" customHeight="1" spans="1:6">
       <c r="A416" s="21"/>
-      <c r="B416" s="42"/>
+      <c r="B416" s="46"/>
       <c r="C416" s="21" t="s">
         <v>661</v>
       </c>
@@ -10177,7 +10420,7 @@
     </row>
     <row r="417" ht="38" customHeight="1" spans="1:6">
       <c r="A417" s="21"/>
-      <c r="B417" s="42"/>
+      <c r="B417" s="46"/>
       <c r="C417" s="21" t="s">
         <v>663</v>
       </c>
@@ -10189,7 +10432,7 @@
     </row>
     <row r="418" ht="38" customHeight="1" spans="1:6">
       <c r="A418" s="21"/>
-      <c r="B418" s="43"/>
+      <c r="B418" s="47"/>
       <c r="C418" s="21" t="s">
         <v>665</v>
       </c>
@@ -10203,23 +10446,23 @@
       <c r="A419" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B419" s="41" t="s">
+      <c r="B419" s="45" t="s">
         <v>668</v>
       </c>
-      <c r="C419" s="36" t="s">
+      <c r="C419" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="D419" s="35"/>
+      <c r="D419" s="39"/>
       <c r="E419" s="21"/>
       <c r="F419" s="21"/>
     </row>
     <row r="420" ht="38" customHeight="1" spans="1:6">
       <c r="A420" s="21"/>
-      <c r="B420" s="42"/>
-      <c r="C420" s="36" t="s">
+      <c r="B420" s="46"/>
+      <c r="C420" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="D420" s="35"/>
+      <c r="D420" s="39"/>
       <c r="E420" s="21" t="s">
         <v>671</v>
       </c>
@@ -10227,11 +10470,11 @@
     </row>
     <row r="421" ht="38" customHeight="1" spans="1:6">
       <c r="A421" s="21"/>
-      <c r="B421" s="42"/>
-      <c r="C421" s="41" t="s">
+      <c r="B421" s="46"/>
+      <c r="C421" s="45" t="s">
         <v>672</v>
       </c>
-      <c r="D421" s="46" t="s">
+      <c r="D421" s="50" t="s">
         <v>673</v>
       </c>
       <c r="E421" s="21"/>
@@ -10239,9 +10482,9 @@
     </row>
     <row r="422" ht="38" customHeight="1" spans="1:6">
       <c r="A422" s="21"/>
-      <c r="B422" s="43"/>
-      <c r="C422" s="43"/>
-      <c r="D422" s="46" t="s">
+      <c r="B422" s="47"/>
+      <c r="C422" s="47"/>
+      <c r="D422" s="50" t="s">
         <v>674</v>
       </c>
       <c r="E422" s="21"/>
@@ -10249,23 +10492,23 @@
     </row>
     <row r="423" ht="38" customHeight="1" spans="1:6">
       <c r="A423" s="21"/>
-      <c r="B423" s="41" t="s">
+      <c r="B423" s="45" t="s">
         <v>675</v>
       </c>
-      <c r="C423" s="36" t="s">
+      <c r="C423" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="D423" s="35"/>
+      <c r="D423" s="39"/>
       <c r="E423" s="21"/>
       <c r="F423" s="21"/>
     </row>
     <row r="424" ht="38" customHeight="1" spans="1:6">
       <c r="A424" s="21"/>
-      <c r="B424" s="43"/>
-      <c r="C424" s="36" t="s">
+      <c r="B424" s="47"/>
+      <c r="C424" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="D424" s="35"/>
+      <c r="D424" s="39"/>
       <c r="E424" s="21"/>
       <c r="F424" s="21"/>
     </row>
@@ -10274,16 +10517,16 @@
       <c r="B425" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="C425" s="36" t="s">
+      <c r="C425" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="D425" s="35"/>
+      <c r="D425" s="39"/>
       <c r="E425" s="21"/>
       <c r="F425" s="21"/>
     </row>
     <row r="426" ht="38" customHeight="1" spans="1:6">
       <c r="A426" s="21"/>
-      <c r="B426" s="41" t="s">
+      <c r="B426" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C426" s="21" t="s">
@@ -10297,7 +10540,7 @@
     </row>
     <row r="427" ht="38" customHeight="1" spans="1:6">
       <c r="A427" s="21"/>
-      <c r="B427" s="42"/>
+      <c r="B427" s="46"/>
       <c r="C427" s="21" t="s">
         <v>683</v>
       </c>
@@ -10309,7 +10552,7 @@
     </row>
     <row r="428" ht="38" customHeight="1" spans="1:6">
       <c r="A428" s="21"/>
-      <c r="B428" s="43"/>
+      <c r="B428" s="47"/>
       <c r="C428" s="21" t="s">
         <v>685</v>
       </c>
@@ -10321,7 +10564,7 @@
     </row>
     <row r="429" ht="38" customHeight="1" spans="1:6">
       <c r="A429" s="21"/>
-      <c r="B429" s="41" t="s">
+      <c r="B429" s="45" t="s">
         <v>687</v>
       </c>
       <c r="C429" s="21" t="s">
@@ -10335,7 +10578,7 @@
     </row>
     <row r="430" ht="38" customHeight="1" spans="1:6">
       <c r="A430" s="21"/>
-      <c r="B430" s="42"/>
+      <c r="B430" s="46"/>
       <c r="C430" s="21" t="s">
         <v>690</v>
       </c>
@@ -10347,7 +10590,7 @@
     </row>
     <row r="431" ht="38" customHeight="1" spans="1:6">
       <c r="A431" s="21"/>
-      <c r="B431" s="42"/>
+      <c r="B431" s="46"/>
       <c r="C431" s="21" t="s">
         <v>692</v>
       </c>
@@ -10359,7 +10602,7 @@
     </row>
     <row r="432" ht="38" customHeight="1" spans="1:6">
       <c r="A432" s="21"/>
-      <c r="B432" s="42"/>
+      <c r="B432" s="46"/>
       <c r="C432" s="21" t="s">
         <v>694</v>
       </c>
@@ -10371,7 +10614,7 @@
     </row>
     <row r="433" ht="38" customHeight="1" spans="1:6">
       <c r="A433" s="21"/>
-      <c r="B433" s="42"/>
+      <c r="B433" s="46"/>
       <c r="C433" s="21" t="s">
         <v>696</v>
       </c>
@@ -10383,7 +10626,7 @@
     </row>
     <row r="434" ht="38" customHeight="1" spans="1:6">
       <c r="A434" s="21"/>
-      <c r="B434" s="43"/>
+      <c r="B434" s="47"/>
       <c r="C434" s="21" t="s">
         <v>698</v>
       </c>
@@ -10395,83 +10638,83 @@
     </row>
     <row r="435" ht="38" customHeight="1" spans="1:6">
       <c r="A435" s="21"/>
-      <c r="B435" s="41" t="s">
+      <c r="B435" s="45" t="s">
         <v>700</v>
       </c>
-      <c r="C435" s="36" t="s">
+      <c r="C435" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="D435" s="35"/>
+      <c r="D435" s="39"/>
       <c r="E435" s="21"/>
       <c r="F435" s="21"/>
     </row>
     <row r="436" ht="38" customHeight="1" spans="1:6">
       <c r="A436" s="21"/>
-      <c r="B436" s="42"/>
-      <c r="C436" s="36" t="s">
+      <c r="B436" s="46"/>
+      <c r="C436" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="D436" s="35"/>
+      <c r="D436" s="39"/>
       <c r="E436" s="21"/>
       <c r="F436" s="21"/>
     </row>
     <row r="437" ht="38" customHeight="1" spans="1:6">
       <c r="A437" s="21"/>
-      <c r="B437" s="42"/>
-      <c r="C437" s="36" t="s">
+      <c r="B437" s="46"/>
+      <c r="C437" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="D437" s="35"/>
+      <c r="D437" s="39"/>
       <c r="E437" s="21"/>
       <c r="F437" s="21"/>
     </row>
     <row r="438" ht="38" customHeight="1" spans="1:6">
       <c r="A438" s="21"/>
-      <c r="B438" s="42"/>
-      <c r="C438" s="36" t="s">
+      <c r="B438" s="46"/>
+      <c r="C438" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="D438" s="35"/>
+      <c r="D438" s="39"/>
       <c r="E438" s="21"/>
       <c r="F438" s="21"/>
     </row>
     <row r="439" ht="38" customHeight="1" spans="1:6">
       <c r="A439" s="21"/>
-      <c r="B439" s="42"/>
-      <c r="C439" s="36" t="s">
+      <c r="B439" s="46"/>
+      <c r="C439" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="D439" s="35"/>
+      <c r="D439" s="39"/>
       <c r="E439" s="21"/>
       <c r="F439" s="21"/>
     </row>
     <row r="440" ht="38" customHeight="1" spans="1:6">
       <c r="A440" s="21"/>
-      <c r="B440" s="42"/>
-      <c r="C440" s="36" t="s">
+      <c r="B440" s="46"/>
+      <c r="C440" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="D440" s="35"/>
+      <c r="D440" s="39"/>
       <c r="E440" s="21"/>
       <c r="F440" s="21"/>
     </row>
     <row r="441" ht="38" customHeight="1" spans="1:6">
       <c r="A441" s="21"/>
-      <c r="B441" s="42"/>
-      <c r="C441" s="36" t="s">
+      <c r="B441" s="46"/>
+      <c r="C441" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="D441" s="35"/>
+      <c r="D441" s="39"/>
       <c r="E441" s="21"/>
       <c r="F441" s="21"/>
     </row>
     <row r="442" ht="38" customHeight="1" spans="1:6">
       <c r="A442" s="21"/>
-      <c r="B442" s="43"/>
-      <c r="C442" s="36" t="s">
+      <c r="B442" s="47"/>
+      <c r="C442" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="D442" s="35"/>
+      <c r="D442" s="39"/>
       <c r="E442" s="21"/>
       <c r="F442" s="21"/>
     </row>
@@ -10480,29 +10723,29 @@
       <c r="B443" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="C443" s="36" t="s">
+      <c r="C443" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="D443" s="35"/>
+      <c r="D443" s="39"/>
       <c r="E443" s="21"/>
       <c r="F443" s="21"/>
     </row>
     <row r="444" ht="38" customHeight="1" spans="1:6">
       <c r="A444" s="21"/>
-      <c r="B444" s="41" t="s">
+      <c r="B444" s="45" t="s">
         <v>711</v>
       </c>
-      <c r="C444" s="36" t="s">
+      <c r="C444" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="D444" s="35"/>
+      <c r="D444" s="39"/>
       <c r="E444" s="21"/>
       <c r="F444" s="21"/>
     </row>
     <row r="445" ht="38" customHeight="1" spans="1:6">
       <c r="A445" s="21"/>
-      <c r="B445" s="42"/>
-      <c r="C445" s="41" t="s">
+      <c r="B445" s="46"/>
+      <c r="C445" s="45" t="s">
         <v>713</v>
       </c>
       <c r="D445" s="21" t="s">
@@ -10513,8 +10756,8 @@
     </row>
     <row r="446" ht="38" customHeight="1" spans="1:6">
       <c r="A446" s="21"/>
-      <c r="B446" s="42"/>
-      <c r="C446" s="42"/>
+      <c r="B446" s="46"/>
+      <c r="C446" s="46"/>
       <c r="D446" s="21" t="s">
         <v>715</v>
       </c>
@@ -10523,8 +10766,8 @@
     </row>
     <row r="447" ht="38" customHeight="1" spans="1:6">
       <c r="A447" s="21"/>
-      <c r="B447" s="42"/>
-      <c r="C447" s="42"/>
+      <c r="B447" s="46"/>
+      <c r="C447" s="46"/>
       <c r="D447" s="21" t="s">
         <v>716</v>
       </c>
@@ -10533,8 +10776,8 @@
     </row>
     <row r="448" ht="38" customHeight="1" spans="1:6">
       <c r="A448" s="21"/>
-      <c r="B448" s="42"/>
-      <c r="C448" s="42"/>
+      <c r="B448" s="46"/>
+      <c r="C448" s="46"/>
       <c r="D448" s="21" t="s">
         <v>717</v>
       </c>
@@ -10543,8 +10786,8 @@
     </row>
     <row r="449" ht="38" customHeight="1" spans="1:6">
       <c r="A449" s="21"/>
-      <c r="B449" s="42"/>
-      <c r="C449" s="43"/>
+      <c r="B449" s="46"/>
+      <c r="C449" s="47"/>
       <c r="D449" s="21" t="s">
         <v>718</v>
       </c>
@@ -10553,40 +10796,40 @@
     </row>
     <row r="450" ht="38" customHeight="1" spans="1:6">
       <c r="A450" s="21"/>
-      <c r="B450" s="43"/>
-      <c r="C450" s="36" t="s">
+      <c r="B450" s="47"/>
+      <c r="C450" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="D450" s="35"/>
+      <c r="D450" s="39"/>
       <c r="E450" s="21"/>
       <c r="F450" s="21"/>
     </row>
     <row r="451" ht="38" customHeight="1" spans="1:6">
       <c r="A451" s="21"/>
-      <c r="B451" s="41" t="s">
+      <c r="B451" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="C451" s="36" t="s">
+      <c r="C451" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="D451" s="35"/>
+      <c r="D451" s="39"/>
       <c r="E451" s="21"/>
       <c r="F451" s="21"/>
     </row>
     <row r="452" ht="38" customHeight="1" spans="1:6">
       <c r="A452" s="21"/>
-      <c r="B452" s="42"/>
-      <c r="C452" s="36" t="s">
+      <c r="B452" s="46"/>
+      <c r="C452" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="D452" s="35"/>
+      <c r="D452" s="39"/>
       <c r="E452" s="21"/>
       <c r="F452" s="21"/>
     </row>
     <row r="453" ht="38" customHeight="1" spans="1:6">
       <c r="A453" s="21"/>
-      <c r="B453" s="42"/>
-      <c r="C453" s="41" t="s">
+      <c r="B453" s="46"/>
+      <c r="C453" s="45" t="s">
         <v>723</v>
       </c>
       <c r="D453" s="21" t="s">
@@ -10597,8 +10840,8 @@
     </row>
     <row r="454" ht="38" customHeight="1" spans="1:6">
       <c r="A454" s="21"/>
-      <c r="B454" s="42"/>
-      <c r="C454" s="42"/>
+      <c r="B454" s="46"/>
+      <c r="C454" s="46"/>
       <c r="D454" s="21" t="s">
         <v>725</v>
       </c>
@@ -10607,8 +10850,8 @@
     </row>
     <row r="455" ht="38" customHeight="1" spans="1:6">
       <c r="A455" s="21"/>
-      <c r="B455" s="42"/>
-      <c r="C455" s="42"/>
+      <c r="B455" s="46"/>
+      <c r="C455" s="46"/>
       <c r="D455" s="21" t="s">
         <v>726</v>
       </c>
@@ -10617,8 +10860,8 @@
     </row>
     <row r="456" ht="38" customHeight="1" spans="1:6">
       <c r="A456" s="21"/>
-      <c r="B456" s="42"/>
-      <c r="C456" s="42"/>
+      <c r="B456" s="46"/>
+      <c r="C456" s="46"/>
       <c r="D456" s="21" t="s">
         <v>727</v>
       </c>
@@ -10627,8 +10870,8 @@
     </row>
     <row r="457" ht="38" customHeight="1" spans="1:6">
       <c r="A457" s="21"/>
-      <c r="B457" s="43"/>
-      <c r="C457" s="43"/>
+      <c r="B457" s="47"/>
+      <c r="C457" s="47"/>
       <c r="D457" s="21" t="s">
         <v>728</v>
       </c>
@@ -10642,10 +10885,10 @@
       <c r="B458" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="C458" s="36" t="s">
+      <c r="C458" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="D458" s="35"/>
+      <c r="D458" s="39"/>
       <c r="E458" s="21"/>
       <c r="F458" s="21"/>
     </row>
@@ -10654,16 +10897,16 @@
       <c r="B459" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="C459" s="36" t="s">
+      <c r="C459" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="D459" s="35"/>
+      <c r="D459" s="39"/>
       <c r="E459" s="21"/>
       <c r="F459" s="21"/>
     </row>
     <row r="460" ht="38" customHeight="1" spans="1:6">
       <c r="A460" s="21"/>
-      <c r="B460" s="41" t="s">
+      <c r="B460" s="45" t="s">
         <v>734</v>
       </c>
       <c r="C460" s="21" t="s">
@@ -10677,7 +10920,7 @@
     </row>
     <row r="461" ht="38" customHeight="1" spans="1:6">
       <c r="A461" s="21"/>
-      <c r="B461" s="42"/>
+      <c r="B461" s="46"/>
       <c r="C461" s="21" t="s">
         <v>95</v>
       </c>
@@ -10689,7 +10932,7 @@
     </row>
     <row r="462" ht="38" customHeight="1" spans="1:6">
       <c r="A462" s="21"/>
-      <c r="B462" s="42"/>
+      <c r="B462" s="46"/>
       <c r="C462" s="21" t="s">
         <v>97</v>
       </c>
@@ -10701,7 +10944,7 @@
     </row>
     <row r="463" ht="38" customHeight="1" spans="1:6">
       <c r="A463" s="21"/>
-      <c r="B463" s="43"/>
+      <c r="B463" s="47"/>
       <c r="C463" s="21" t="s">
         <v>99</v>
       </c>
@@ -10713,55 +10956,55 @@
     </row>
     <row r="464" ht="38" customHeight="1" spans="1:6">
       <c r="A464" s="21"/>
-      <c r="B464" s="41" t="s">
+      <c r="B464" s="45" t="s">
         <v>735</v>
       </c>
-      <c r="C464" s="36" t="s">
+      <c r="C464" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="D464" s="35"/>
+      <c r="D464" s="39"/>
       <c r="E464" s="21"/>
       <c r="F464" s="21"/>
     </row>
     <row r="465" ht="38" customHeight="1" spans="1:6">
       <c r="A465" s="21"/>
-      <c r="B465" s="42"/>
-      <c r="C465" s="36" t="s">
+      <c r="B465" s="46"/>
+      <c r="C465" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="D465" s="35"/>
+      <c r="D465" s="39"/>
       <c r="E465" s="21"/>
       <c r="F465" s="21"/>
     </row>
     <row r="466" ht="38" customHeight="1" spans="1:6">
       <c r="A466" s="21"/>
-      <c r="B466" s="43"/>
-      <c r="C466" s="36" t="s">
+      <c r="B466" s="47"/>
+      <c r="C466" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="D466" s="35"/>
+      <c r="D466" s="39"/>
       <c r="E466" s="21"/>
       <c r="F466" s="21"/>
     </row>
     <row r="467" ht="38" customHeight="1" spans="1:6">
       <c r="A467" s="21"/>
-      <c r="B467" s="41" t="s">
+      <c r="B467" s="45" t="s">
         <v>739</v>
       </c>
-      <c r="C467" s="44" t="s">
+      <c r="C467" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="D467" s="35"/>
+      <c r="D467" s="39"/>
       <c r="E467" s="21"/>
       <c r="F467" s="21"/>
     </row>
     <row r="468" ht="38" customHeight="1" spans="1:6">
       <c r="A468" s="21"/>
-      <c r="B468" s="43"/>
-      <c r="C468" s="36" t="s">
+      <c r="B468" s="47"/>
+      <c r="C468" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="D468" s="35"/>
+      <c r="D468" s="39"/>
       <c r="E468" s="21"/>
       <c r="F468" s="21"/>
     </row>
@@ -10769,22 +11012,22 @@
       <c r="A469" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B469" s="41" t="s">
+      <c r="B469" s="45" t="s">
         <v>743</v>
       </c>
-      <c r="C469" s="44" t="s">
+      <c r="C469" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="D469" s="35"/>
+      <c r="D469" s="39"/>
       <c r="E469" s="21"/>
       <c r="F469" s="21"/>
     </row>
     <row r="470" ht="38" customHeight="1" spans="2:6">
-      <c r="B470" s="43"/>
-      <c r="C470" s="36" t="s">
+      <c r="B470" s="47"/>
+      <c r="C470" s="40" t="s">
         <v>745</v>
       </c>
-      <c r="D470" s="35"/>
+      <c r="D470" s="39"/>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
     </row>
@@ -10792,10 +11035,10 @@
       <c r="B471" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C471" s="44" t="s">
+      <c r="C471" s="48" t="s">
         <v>747</v>
       </c>
-      <c r="D471" s="35"/>
+      <c r="D471" s="39"/>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
     </row>
@@ -10803,10 +11046,10 @@
       <c r="B472" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="C472" s="36" t="s">
+      <c r="C472" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="D472" s="35"/>
+      <c r="D472" s="39"/>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
     </row>
@@ -10814,10 +11057,10 @@
       <c r="B473" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="C473" s="36" t="s">
+      <c r="C473" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="D473" s="35"/>
+      <c r="D473" s="39"/>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
     </row>
@@ -10825,10 +11068,10 @@
       <c r="B474" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="C474" s="36" t="s">
+      <c r="C474" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="D474" s="35"/>
+      <c r="D474" s="39"/>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
     </row>
@@ -10836,10 +11079,10 @@
       <c r="B475" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="C475" s="36" t="s">
+      <c r="C475" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="D475" s="35"/>
+      <c r="D475" s="39"/>
       <c r="E475" s="21"/>
       <c r="F475" s="21"/>
     </row>
@@ -10847,10 +11090,10 @@
       <c r="B476" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C476" s="36" t="s">
+      <c r="C476" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="D476" s="35"/>
+      <c r="D476" s="39"/>
       <c r="E476" s="21"/>
       <c r="F476" s="21"/>
     </row>
@@ -10858,10 +11101,10 @@
       <c r="B477" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="D477" s="35"/>
+      <c r="D477" s="39"/>
       <c r="E477" s="21"/>
       <c r="F477" s="21"/>
     </row>
@@ -10869,10 +11112,10 @@
       <c r="B478" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="C478" s="36" t="s">
+      <c r="C478" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="D478" s="35"/>
+      <c r="D478" s="39"/>
       <c r="E478" s="21"/>
       <c r="F478" s="21"/>
     </row>
@@ -10880,72 +11123,72 @@
       <c r="B479" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="C479" s="36" t="s">
+      <c r="C479" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="D479" s="35"/>
+      <c r="D479" s="39"/>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
     </row>
     <row r="480" ht="38" customHeight="1" spans="2:6">
-      <c r="B480" s="41" t="s">
+      <c r="B480" s="45" t="s">
         <v>764</v>
       </c>
-      <c r="C480" s="36" t="s">
+      <c r="C480" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="D480" s="35"/>
+      <c r="D480" s="39"/>
       <c r="E480" s="21"/>
       <c r="F480" s="21"/>
     </row>
     <row r="481" ht="38" customHeight="1" spans="2:6">
-      <c r="B481" s="43"/>
-      <c r="C481" s="36" t="s">
+      <c r="B481" s="47"/>
+      <c r="C481" s="40" t="s">
         <v>766</v>
       </c>
-      <c r="D481" s="35"/>
+      <c r="D481" s="39"/>
       <c r="E481" s="21"/>
       <c r="F481" s="21"/>
     </row>
     <row r="482" ht="38" customHeight="1" spans="2:6">
-      <c r="B482" s="41" t="s">
+      <c r="B482" s="45" t="s">
         <v>767</v>
       </c>
-      <c r="C482" s="36" t="s">
+      <c r="C482" s="40" t="s">
         <v>768</v>
       </c>
-      <c r="D482" s="35"/>
+      <c r="D482" s="39"/>
       <c r="E482" s="21" t="s">
         <v>769</v>
       </c>
       <c r="F482" s="21"/>
     </row>
     <row r="483" ht="38" customHeight="1" spans="2:6">
-      <c r="B483" s="43"/>
-      <c r="C483" s="36" t="s">
+      <c r="B483" s="47"/>
+      <c r="C483" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="D483" s="35"/>
+      <c r="D483" s="39"/>
       <c r="E483" s="21"/>
       <c r="F483" s="21"/>
     </row>
     <row r="484" ht="38" customHeight="1" spans="2:6">
-      <c r="B484" s="41" t="s">
+      <c r="B484" s="45" t="s">
         <v>771</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="D484" s="35"/>
+      <c r="D484" s="39"/>
       <c r="E484" s="21"/>
       <c r="F484" s="21"/>
     </row>
     <row r="485" ht="38" customHeight="1" spans="2:6">
-      <c r="B485" s="43"/>
-      <c r="C485" s="36" t="s">
+      <c r="B485" s="47"/>
+      <c r="C485" s="40" t="s">
         <v>773</v>
       </c>
-      <c r="D485" s="35"/>
+      <c r="D485" s="39"/>
       <c r="E485" s="21"/>
       <c r="F485" s="21"/>
     </row>
@@ -10953,10 +11196,10 @@
       <c r="B486" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="C486" s="36" t="s">
+      <c r="C486" s="40" t="s">
         <v>775</v>
       </c>
-      <c r="D486" s="35"/>
+      <c r="D486" s="39"/>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
     </row>
@@ -10964,10 +11207,10 @@
       <c r="B487" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C487" s="36" t="s">
+      <c r="C487" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="D487" s="35"/>
+      <c r="D487" s="39"/>
       <c r="E487" s="21"/>
       <c r="F487" s="21"/>
     </row>
@@ -10975,59 +11218,59 @@
       <c r="B488" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="C488" s="36" t="s">
+      <c r="C488" s="40" t="s">
         <v>779</v>
       </c>
-      <c r="D488" s="35"/>
+      <c r="D488" s="39"/>
       <c r="E488" s="21"/>
       <c r="F488" s="21"/>
     </row>
     <row r="489" ht="38" customHeight="1" spans="2:6">
-      <c r="B489" s="41" t="s">
+      <c r="B489" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="C489" s="36" t="s">
+      <c r="C489" s="40" t="s">
         <v>781</v>
       </c>
-      <c r="D489" s="35"/>
+      <c r="D489" s="39"/>
       <c r="E489" s="21"/>
       <c r="F489" s="21"/>
     </row>
     <row r="490" ht="38" customHeight="1" spans="2:6">
-      <c r="B490" s="43"/>
-      <c r="C490" s="36" t="s">
+      <c r="B490" s="47"/>
+      <c r="C490" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="D490" s="35"/>
+      <c r="D490" s="39"/>
       <c r="E490" s="21"/>
       <c r="F490" s="21"/>
     </row>
     <row r="491" ht="38" customHeight="1" spans="2:6">
-      <c r="B491" s="41" t="s">
+      <c r="B491" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="C491" s="36" t="s">
+      <c r="C491" s="40" t="s">
         <v>784</v>
       </c>
-      <c r="D491" s="35"/>
+      <c r="D491" s="39"/>
       <c r="E491" s="21"/>
       <c r="F491" s="21"/>
     </row>
     <row r="492" ht="38" customHeight="1" spans="2:6">
-      <c r="B492" s="42"/>
-      <c r="C492" s="36" t="s">
+      <c r="B492" s="46"/>
+      <c r="C492" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="D492" s="35"/>
+      <c r="D492" s="39"/>
       <c r="E492" s="21"/>
       <c r="F492" s="21"/>
     </row>
     <row r="493" ht="38" customHeight="1" spans="2:6">
-      <c r="B493" s="43"/>
-      <c r="C493" s="36" t="s">
+      <c r="B493" s="47"/>
+      <c r="C493" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="D493" s="35"/>
+      <c r="D493" s="39"/>
       <c r="E493" s="21"/>
       <c r="F493" s="21"/>
     </row>
@@ -11035,10 +11278,10 @@
       <c r="B494" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="C494" s="36" t="s">
+      <c r="C494" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="D494" s="35"/>
+      <c r="D494" s="39"/>
       <c r="E494" s="21" t="s">
         <v>789</v>
       </c>
@@ -11048,10 +11291,10 @@
       <c r="B495" s="21" t="s">
         <v>790</v>
       </c>
-      <c r="C495" s="36" t="s">
+      <c r="C495" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="D495" s="35"/>
+      <c r="D495" s="39"/>
       <c r="E495" s="21"/>
       <c r="F495" s="21"/>
     </row>
@@ -11059,10 +11302,10 @@
       <c r="B496" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="C496" s="36" t="s">
+      <c r="C496" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="D496" s="35"/>
+      <c r="D496" s="39"/>
       <c r="E496" s="21"/>
       <c r="F496" s="21"/>
     </row>
@@ -11070,30 +11313,30 @@
       <c r="B497" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="C497" s="36" t="s">
+      <c r="C497" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="D497" s="35"/>
+      <c r="D497" s="39"/>
       <c r="E497" s="21"/>
       <c r="F497" s="21"/>
     </row>
     <row r="498" ht="38" customHeight="1" spans="2:6">
-      <c r="B498" s="41" t="s">
+      <c r="B498" s="45" t="s">
         <v>796</v>
       </c>
-      <c r="C498" s="36" t="s">
+      <c r="C498" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="D498" s="35"/>
+      <c r="D498" s="39"/>
       <c r="E498" s="21"/>
       <c r="F498" s="21"/>
     </row>
     <row r="499" ht="38" customHeight="1" spans="2:6">
-      <c r="B499" s="43"/>
-      <c r="C499" s="36" t="s">
+      <c r="B499" s="47"/>
+      <c r="C499" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="D499" s="35"/>
+      <c r="D499" s="39"/>
       <c r="E499" s="21"/>
       <c r="F499" s="21"/>
     </row>
@@ -11101,10 +11344,10 @@
       <c r="B500" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="C500" s="36" t="s">
+      <c r="C500" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="D500" s="35"/>
+      <c r="D500" s="39"/>
       <c r="E500" s="21"/>
       <c r="F500" s="21"/>
     </row>
@@ -11112,39 +11355,39 @@
       <c r="B501" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="C501" s="36" t="s">
+      <c r="C501" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="D501" s="35"/>
+      <c r="D501" s="39"/>
       <c r="E501" s="21"/>
       <c r="F501" s="21"/>
     </row>
     <row r="502" ht="38" customHeight="1" spans="2:6">
-      <c r="B502" s="41" t="s">
+      <c r="B502" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C502" s="36" t="s">
+      <c r="C502" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="D502" s="35"/>
+      <c r="D502" s="39"/>
       <c r="E502" s="21"/>
       <c r="F502" s="21"/>
     </row>
     <row r="503" ht="38" customHeight="1" spans="2:6">
-      <c r="B503" s="42"/>
-      <c r="C503" s="36" t="s">
+      <c r="B503" s="46"/>
+      <c r="C503" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="D503" s="35"/>
+      <c r="D503" s="39"/>
       <c r="E503" s="21"/>
       <c r="F503" s="21"/>
     </row>
     <row r="504" ht="38" customHeight="1" spans="2:6">
-      <c r="B504" s="43"/>
-      <c r="C504" s="36" t="s">
+      <c r="B504" s="47"/>
+      <c r="C504" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="D504" s="35"/>
+      <c r="D504" s="39"/>
       <c r="E504" s="21"/>
       <c r="F504" s="21"/>
     </row>
@@ -11152,28 +11395,28 @@
       <c r="B505" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="C505" s="36" t="s">
+      <c r="C505" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="D505" s="35"/>
+      <c r="D505" s="39"/>
       <c r="E505" s="21"/>
       <c r="F505" s="21"/>
     </row>
     <row r="506" ht="38" customHeight="1" spans="2:6">
       <c r="B506" s="17"/>
-      <c r="C506" s="36" t="s">
+      <c r="C506" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="D506" s="35"/>
+      <c r="D506" s="39"/>
       <c r="E506" s="21"/>
       <c r="F506" s="21"/>
     </row>
     <row r="507" ht="38" customHeight="1" spans="2:6">
       <c r="B507" s="18"/>
-      <c r="C507" s="36" t="s">
+      <c r="C507" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="D507" s="35"/>
+      <c r="D507" s="39"/>
       <c r="E507" s="21"/>
       <c r="F507" s="21"/>
     </row>
@@ -11181,10 +11424,10 @@
       <c r="B508" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="C508" s="36" t="s">
+      <c r="C508" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="D508" s="35"/>
+      <c r="D508" s="39"/>
       <c r="E508" s="21"/>
       <c r="F508" s="21"/>
     </row>
@@ -11192,10 +11435,10 @@
       <c r="B509" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="C509" s="36" t="s">
+      <c r="C509" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="D509" s="35"/>
+      <c r="D509" s="39"/>
       <c r="E509" s="21"/>
       <c r="F509" s="21"/>
     </row>
@@ -11203,28 +11446,28 @@
       <c r="B510" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="C510" s="44" t="s">
+      <c r="C510" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="D510" s="35"/>
+      <c r="D510" s="39"/>
       <c r="E510" s="21"/>
       <c r="F510" s="21"/>
     </row>
     <row r="511" ht="38" customHeight="1" spans="2:6">
       <c r="B511" s="17"/>
-      <c r="C511" s="47" t="s">
+      <c r="C511" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="D511" s="35"/>
+      <c r="D511" s="39"/>
       <c r="E511" s="21"/>
       <c r="F511" s="21"/>
     </row>
     <row r="512" ht="38" customHeight="1" spans="2:6">
       <c r="B512" s="18"/>
-      <c r="C512" s="47" t="s">
+      <c r="C512" s="51" t="s">
         <v>818</v>
       </c>
-      <c r="D512" s="35"/>
+      <c r="D512" s="39"/>
       <c r="E512" s="21"/>
       <c r="F512" s="21"/>
     </row>
@@ -11232,28 +11475,28 @@
       <c r="B513" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="C513" s="44" t="s">
+      <c r="C513" s="48" t="s">
         <v>820</v>
       </c>
-      <c r="D513" s="35"/>
+      <c r="D513" s="39"/>
       <c r="E513" s="21"/>
       <c r="F513" s="21"/>
     </row>
     <row r="514" ht="38" customHeight="1" spans="2:6">
       <c r="B514" s="17"/>
-      <c r="C514" s="44" t="s">
+      <c r="C514" s="48" t="s">
         <v>821</v>
       </c>
-      <c r="D514" s="35"/>
+      <c r="D514" s="39"/>
       <c r="E514" s="21"/>
       <c r="F514" s="21"/>
     </row>
     <row r="515" ht="38" customHeight="1" spans="2:6">
       <c r="B515" s="18"/>
-      <c r="C515" s="47" t="s">
+      <c r="C515" s="51" t="s">
         <v>822</v>
       </c>
-      <c r="D515" s="35"/>
+      <c r="D515" s="39"/>
       <c r="E515" s="21"/>
       <c r="F515" s="21"/>
     </row>
@@ -11261,37 +11504,37 @@
       <c r="B516" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="C516" s="36" t="s">
+      <c r="C516" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="D516" s="35"/>
+      <c r="D516" s="39"/>
       <c r="E516" s="21"/>
       <c r="F516" s="21"/>
     </row>
     <row r="517" ht="38" customHeight="1" spans="2:6">
       <c r="B517" s="17"/>
-      <c r="C517" s="36" t="s">
+      <c r="C517" s="40" t="s">
         <v>825</v>
       </c>
-      <c r="D517" s="35"/>
+      <c r="D517" s="39"/>
       <c r="E517" s="21"/>
       <c r="F517" s="21"/>
     </row>
     <row r="518" ht="38" customHeight="1" spans="2:6">
       <c r="B518" s="17"/>
-      <c r="C518" s="36" t="s">
+      <c r="C518" s="40" t="s">
         <v>826</v>
       </c>
-      <c r="D518" s="35"/>
+      <c r="D518" s="39"/>
       <c r="E518" s="21"/>
       <c r="F518" s="21"/>
     </row>
     <row r="519" ht="38" customHeight="1" spans="2:6">
       <c r="B519" s="18"/>
-      <c r="C519" s="36" t="s">
+      <c r="C519" s="40" t="s">
         <v>827</v>
       </c>
-      <c r="D519" s="35"/>
+      <c r="D519" s="39"/>
       <c r="E519" s="21"/>
       <c r="F519" s="21"/>
     </row>
@@ -11299,10 +11542,10 @@
       <c r="B520" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="C520" s="36" t="s">
+      <c r="C520" s="40" t="s">
         <v>829</v>
       </c>
-      <c r="D520" s="35"/>
+      <c r="D520" s="39"/>
       <c r="E520" s="21"/>
       <c r="F520" s="21"/>
     </row>
@@ -11310,10 +11553,10 @@
       <c r="B521" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="C521" s="36" t="s">
+      <c r="C521" s="40" t="s">
         <v>831</v>
       </c>
-      <c r="D521" s="35"/>
+      <c r="D521" s="39"/>
       <c r="E521" s="21"/>
       <c r="F521" s="21"/>
     </row>
@@ -11321,37 +11564,37 @@
       <c r="B522" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C522" s="44" t="s">
+      <c r="C522" s="48" t="s">
         <v>833</v>
       </c>
-      <c r="D522" s="35"/>
+      <c r="D522" s="39"/>
       <c r="E522" s="21"/>
       <c r="F522" s="21"/>
     </row>
     <row r="523" ht="38" customHeight="1" spans="2:6">
       <c r="B523" s="17"/>
-      <c r="C523" s="36" t="s">
+      <c r="C523" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="D523" s="35"/>
+      <c r="D523" s="39"/>
       <c r="E523" s="21"/>
       <c r="F523" s="21"/>
     </row>
     <row r="524" ht="38" customHeight="1" spans="2:6">
       <c r="B524" s="17"/>
-      <c r="C524" s="44" t="s">
+      <c r="C524" s="48" t="s">
         <v>835</v>
       </c>
-      <c r="D524" s="35"/>
+      <c r="D524" s="39"/>
       <c r="E524" s="21"/>
       <c r="F524" s="21"/>
     </row>
     <row r="525" s="1" customFormat="1" ht="38" customHeight="1" spans="2:6">
       <c r="B525" s="17"/>
-      <c r="C525" s="44" t="s">
+      <c r="C525" s="48" t="s">
         <v>836</v>
       </c>
-      <c r="D525" s="35"/>
+      <c r="D525" s="39"/>
       <c r="E525" s="21"/>
       <c r="F525" s="21"/>
     </row>
@@ -11918,8 +12161,8 @@
   <sheetPr/>
   <dimension ref="A1:F1195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B72" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -12253,7 +12496,7 @@
       <c r="F28" s="30"/>
     </row>
     <row r="29" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>888</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -12267,7 +12510,7 @@
       <c r="F29" s="30"/>
     </row>
     <row r="30" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="28" t="s">
         <v>891</v>
       </c>
@@ -12279,7 +12522,7 @@
       <c r="F30" s="30"/>
     </row>
     <row r="31" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A31" s="30"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="22" t="s">
         <v>893</v>
@@ -12289,7 +12532,7 @@
       <c r="F31" s="30"/>
     </row>
     <row r="32" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="29"/>
       <c r="C32" s="22" t="s">
         <v>894</v>
@@ -12299,7 +12542,7 @@
       <c r="F32" s="30"/>
     </row>
     <row r="33" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="28" t="s">
         <v>895</v>
       </c>
@@ -12311,7 +12554,7 @@
       <c r="F33" s="30"/>
     </row>
     <row r="34" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="29"/>
       <c r="C34" s="15" t="s">
         <v>897</v>
@@ -12321,7 +12564,7 @@
       <c r="F34" s="30"/>
     </row>
     <row r="35" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A35" s="30"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="28" t="s">
         <v>898</v>
       </c>
@@ -12333,7 +12576,7 @@
       <c r="F35" s="30"/>
     </row>
     <row r="36" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A36" s="30"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="29"/>
       <c r="C36" s="26" t="s">
         <v>900</v>
@@ -12342,381 +12585,531 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
     </row>
-    <row r="37" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A37" s="30"/>
+    <row r="37" s="11" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A37" s="31"/>
       <c r="B37" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="15" t="s">
+        <v>902</v>
+      </c>
       <c r="D37" s="27"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
     </row>
     <row r="38" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>904</v>
+      </c>
       <c r="D38" s="27"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
     </row>
     <row r="39" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="26" t="s">
+        <v>905</v>
+      </c>
       <c r="D39" s="27"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
     </row>
     <row r="40" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="22"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>907</v>
+      </c>
       <c r="D40" s="25"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
     </row>
     <row r="41" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>909</v>
+      </c>
       <c r="D41" s="27"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
     </row>
     <row r="42" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="30" t="s">
+        <v>910</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>911</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
     </row>
     <row r="43" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>913</v>
+      </c>
       <c r="D43" s="27"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
     </row>
     <row r="44" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="30" t="s">
+        <v>914</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>915</v>
+      </c>
       <c r="D44" s="27"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
     </row>
     <row r="45" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>917</v>
+      </c>
       <c r="D45" s="27"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
     </row>
     <row r="46" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="28" t="s">
+        <v>918</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>919</v>
+      </c>
       <c r="D46" s="27"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
     </row>
     <row r="47" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="26" t="s">
+        <v>920</v>
+      </c>
       <c r="D47" s="27"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
     </row>
     <row r="48" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>922</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>923</v>
+      </c>
       <c r="D48" s="27"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
     </row>
     <row r="49" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="22" t="s">
+        <v>924</v>
+      </c>
       <c r="D49" s="25"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
     </row>
     <row r="50" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>926</v>
+      </c>
       <c r="D50" s="27"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
     </row>
     <row r="51" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="26" t="s">
+        <v>927</v>
+      </c>
       <c r="D51" s="27"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
     </row>
     <row r="52" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>929</v>
+      </c>
       <c r="D52" s="27"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
     </row>
     <row r="53" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="26" t="s">
+        <v>930</v>
+      </c>
       <c r="D53" s="27"/>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>932</v>
+      </c>
       <c r="D54" s="27"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
     </row>
     <row r="55" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="26" t="s">
+        <v>933</v>
+      </c>
       <c r="D55" s="27"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
     </row>
     <row r="56" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="26" t="s">
+        <v>934</v>
+      </c>
       <c r="D56" s="27"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
     </row>
     <row r="57" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>936</v>
+      </c>
       <c r="D57" s="27"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
     </row>
     <row r="58" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="22"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="22" t="s">
+        <v>937</v>
+      </c>
       <c r="D58" s="25"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
     </row>
     <row r="59" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="26" t="s">
+        <v>938</v>
+      </c>
       <c r="D59" s="27"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
     </row>
     <row r="60" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="30" t="s">
+        <v>939</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>940</v>
+      </c>
       <c r="D60" s="27"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
     </row>
     <row r="61" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="25"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>942</v>
+      </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30"/>
     </row>
     <row r="62" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35" t="s">
+        <v>943</v>
+      </c>
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
     </row>
     <row r="63" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="33" t="s">
+        <v>944</v>
+      </c>
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
     </row>
     <row r="64" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="35" t="s">
+        <v>945</v>
+      </c>
       <c r="E64" s="30"/>
       <c r="F64" s="30"/>
     </row>
     <row r="65" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>947</v>
+      </c>
       <c r="D65" s="27"/>
       <c r="E65" s="30"/>
       <c r="F65" s="30"/>
     </row>
     <row r="66" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>948</v>
+      </c>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
     </row>
     <row r="67" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="35" t="s">
+        <v>949</v>
+      </c>
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
     </row>
     <row r="68" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="35" t="s">
+        <v>950</v>
+      </c>
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
     </row>
     <row r="69" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="35" t="s">
+        <v>951</v>
+      </c>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
     </row>
     <row r="70" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="35" t="s">
+        <v>952</v>
+      </c>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
     </row>
     <row r="71" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="26" t="s">
+        <v>953</v>
+      </c>
       <c r="D71" s="27"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
     </row>
     <row r="72" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="D72" s="27"/>
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
     </row>
     <row r="73" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="26"/>
+      <c r="B73" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>956</v>
+      </c>
       <c r="D73" s="27"/>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
     </row>
     <row r="74" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="26" t="s">
+        <v>957</v>
+      </c>
       <c r="D74" s="27"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
     </row>
     <row r="75" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="26" t="s">
+        <v>958</v>
+      </c>
       <c r="D75" s="27"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
     </row>
     <row r="76" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>960</v>
+      </c>
       <c r="D76" s="27"/>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
     </row>
     <row r="77" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="35" t="s">
+        <v>961</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>962</v>
+      </c>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
     </row>
     <row r="78" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>963</v>
+      </c>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
     </row>
     <row r="79" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>965</v>
+      </c>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
     </row>
     <row r="80" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>967</v>
+      </c>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>969</v>
+      </c>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="35" t="s">
+        <v>970</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>971</v>
+      </c>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
     </row>
     <row r="83" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="35" t="s">
+        <v>972</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>973</v>
+      </c>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
     </row>
@@ -12771,8 +13164,8 @@
     <row r="90" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
     </row>
@@ -12795,8 +13188,8 @@
     <row r="93" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="33"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="30"/>
       <c r="F93" s="30"/>
     </row>
@@ -14747,16 +15140,16 @@
     <row r="337" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A337" s="30"/>
       <c r="B337" s="30"/>
-      <c r="C337" s="32"/>
-      <c r="D337" s="33"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="38"/>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
     </row>
     <row r="338" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A338" s="30"/>
       <c r="B338" s="30"/>
-      <c r="C338" s="32"/>
-      <c r="D338" s="33"/>
+      <c r="C338" s="37"/>
+      <c r="D338" s="38"/>
       <c r="E338" s="30"/>
       <c r="F338" s="30"/>
     </row>
@@ -14771,8 +15164,8 @@
     <row r="340" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A340" s="30"/>
       <c r="B340" s="30"/>
-      <c r="C340" s="32"/>
-      <c r="D340" s="33"/>
+      <c r="C340" s="37"/>
+      <c r="D340" s="38"/>
       <c r="E340" s="30"/>
       <c r="F340" s="30"/>
     </row>
@@ -14787,8 +15180,8 @@
     <row r="342" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A342" s="30"/>
       <c r="B342" s="30"/>
-      <c r="C342" s="32"/>
-      <c r="D342" s="33"/>
+      <c r="C342" s="37"/>
+      <c r="D342" s="38"/>
       <c r="E342" s="30"/>
       <c r="F342" s="30"/>
     </row>
@@ -14803,24 +15196,24 @@
     <row r="344" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A344" s="30"/>
       <c r="B344" s="30"/>
-      <c r="C344" s="32"/>
-      <c r="D344" s="33"/>
+      <c r="C344" s="37"/>
+      <c r="D344" s="38"/>
       <c r="E344" s="30"/>
       <c r="F344" s="30"/>
     </row>
     <row r="345" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A345" s="30"/>
       <c r="B345" s="30"/>
-      <c r="C345" s="32"/>
-      <c r="D345" s="33"/>
+      <c r="C345" s="37"/>
+      <c r="D345" s="38"/>
       <c r="E345" s="30"/>
       <c r="F345" s="30"/>
     </row>
     <row r="346" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A346" s="30"/>
       <c r="B346" s="30"/>
-      <c r="C346" s="32"/>
-      <c r="D346" s="33"/>
+      <c r="C346" s="37"/>
+      <c r="D346" s="38"/>
       <c r="E346" s="30"/>
       <c r="F346" s="30"/>
     </row>
@@ -14835,8 +15228,8 @@
     <row r="348" s="11" customFormat="1" customHeight="1" spans="1:6">
       <c r="A348" s="30"/>
       <c r="B348" s="30"/>
-      <c r="C348" s="32"/>
-      <c r="D348" s="33"/>
+      <c r="C348" s="37"/>
+      <c r="D348" s="38"/>
       <c r="E348" s="30"/>
       <c r="F348" s="30"/>
     </row>
@@ -15801,7 +16194,7 @@
       <c r="F468" s="30"/>
     </row>
     <row r="469" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A469" s="34"/>
+      <c r="A469" s="35"/>
       <c r="B469" s="30"/>
       <c r="C469" s="22"/>
       <c r="D469" s="25"/>
@@ -15809,7 +16202,7 @@
       <c r="F469" s="30"/>
     </row>
     <row r="470" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A470" s="34"/>
+      <c r="A470" s="35"/>
       <c r="B470" s="30"/>
       <c r="C470" s="26"/>
       <c r="D470" s="27"/>
@@ -15817,7 +16210,7 @@
       <c r="F470" s="30"/>
     </row>
     <row r="471" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A471" s="34"/>
+      <c r="A471" s="35"/>
       <c r="B471" s="30"/>
       <c r="C471" s="22"/>
       <c r="D471" s="25"/>
@@ -15825,7 +16218,7 @@
       <c r="F471" s="30"/>
     </row>
     <row r="472" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A472" s="34"/>
+      <c r="A472" s="35"/>
       <c r="B472" s="30"/>
       <c r="C472" s="26"/>
       <c r="D472" s="27"/>
@@ -15833,7 +16226,7 @@
       <c r="F472" s="30"/>
     </row>
     <row r="473" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A473" s="34"/>
+      <c r="A473" s="35"/>
       <c r="B473" s="30"/>
       <c r="C473" s="26"/>
       <c r="D473" s="27"/>
@@ -15841,7 +16234,7 @@
       <c r="F473" s="30"/>
     </row>
     <row r="474" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A474" s="34"/>
+      <c r="A474" s="35"/>
       <c r="B474" s="30"/>
       <c r="C474" s="26"/>
       <c r="D474" s="27"/>
@@ -15849,7 +16242,7 @@
       <c r="F474" s="30"/>
     </row>
     <row r="475" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A475" s="34"/>
+      <c r="A475" s="35"/>
       <c r="B475" s="30"/>
       <c r="C475" s="26"/>
       <c r="D475" s="27"/>
@@ -15857,7 +16250,7 @@
       <c r="F475" s="30"/>
     </row>
     <row r="476" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A476" s="34"/>
+      <c r="A476" s="35"/>
       <c r="B476" s="30"/>
       <c r="C476" s="26"/>
       <c r="D476" s="27"/>
@@ -15865,7 +16258,7 @@
       <c r="F476" s="30"/>
     </row>
     <row r="477" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A477" s="34"/>
+      <c r="A477" s="35"/>
       <c r="B477" s="30"/>
       <c r="C477" s="26"/>
       <c r="D477" s="27"/>
@@ -15873,7 +16266,7 @@
       <c r="F477" s="30"/>
     </row>
     <row r="478" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A478" s="34"/>
+      <c r="A478" s="35"/>
       <c r="B478" s="30"/>
       <c r="C478" s="26"/>
       <c r="D478" s="27"/>
@@ -15881,7 +16274,7 @@
       <c r="F478" s="30"/>
     </row>
     <row r="479" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A479" s="34"/>
+      <c r="A479" s="35"/>
       <c r="B479" s="30"/>
       <c r="C479" s="26"/>
       <c r="D479" s="27"/>
@@ -15889,7 +16282,7 @@
       <c r="F479" s="30"/>
     </row>
     <row r="480" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A480" s="34"/>
+      <c r="A480" s="35"/>
       <c r="B480" s="30"/>
       <c r="C480" s="26"/>
       <c r="D480" s="27"/>
@@ -15897,7 +16290,7 @@
       <c r="F480" s="30"/>
     </row>
     <row r="481" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A481" s="34"/>
+      <c r="A481" s="35"/>
       <c r="B481" s="30"/>
       <c r="C481" s="26"/>
       <c r="D481" s="27"/>
@@ -15905,7 +16298,7 @@
       <c r="F481" s="30"/>
     </row>
     <row r="482" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A482" s="34"/>
+      <c r="A482" s="35"/>
       <c r="B482" s="30"/>
       <c r="C482" s="26"/>
       <c r="D482" s="27"/>
@@ -15913,7 +16306,7 @@
       <c r="F482" s="30"/>
     </row>
     <row r="483" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A483" s="34"/>
+      <c r="A483" s="35"/>
       <c r="B483" s="30"/>
       <c r="C483" s="26"/>
       <c r="D483" s="27"/>
@@ -15921,7 +16314,7 @@
       <c r="F483" s="30"/>
     </row>
     <row r="484" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A484" s="34"/>
+      <c r="A484" s="35"/>
       <c r="B484" s="30"/>
       <c r="C484" s="26"/>
       <c r="D484" s="27"/>
@@ -15929,7 +16322,7 @@
       <c r="F484" s="30"/>
     </row>
     <row r="485" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A485" s="34"/>
+      <c r="A485" s="35"/>
       <c r="B485" s="30"/>
       <c r="C485" s="26"/>
       <c r="D485" s="27"/>
@@ -15937,7 +16330,7 @@
       <c r="F485" s="30"/>
     </row>
     <row r="486" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A486" s="34"/>
+      <c r="A486" s="35"/>
       <c r="B486" s="30"/>
       <c r="C486" s="26"/>
       <c r="D486" s="27"/>
@@ -15945,7 +16338,7 @@
       <c r="F486" s="30"/>
     </row>
     <row r="487" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A487" s="34"/>
+      <c r="A487" s="35"/>
       <c r="B487" s="30"/>
       <c r="C487" s="26"/>
       <c r="D487" s="27"/>
@@ -15953,7 +16346,7 @@
       <c r="F487" s="30"/>
     </row>
     <row r="488" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A488" s="34"/>
+      <c r="A488" s="35"/>
       <c r="B488" s="30"/>
       <c r="C488" s="26"/>
       <c r="D488" s="27"/>
@@ -15961,7 +16354,7 @@
       <c r="F488" s="30"/>
     </row>
     <row r="489" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A489" s="34"/>
+      <c r="A489" s="35"/>
       <c r="B489" s="30"/>
       <c r="C489" s="26"/>
       <c r="D489" s="27"/>
@@ -15969,7 +16362,7 @@
       <c r="F489" s="30"/>
     </row>
     <row r="490" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A490" s="34"/>
+      <c r="A490" s="35"/>
       <c r="B490" s="30"/>
       <c r="C490" s="26"/>
       <c r="D490" s="27"/>
@@ -15977,7 +16370,7 @@
       <c r="F490" s="30"/>
     </row>
     <row r="491" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A491" s="34"/>
+      <c r="A491" s="35"/>
       <c r="B491" s="30"/>
       <c r="C491" s="26"/>
       <c r="D491" s="27"/>
@@ -15985,7 +16378,7 @@
       <c r="F491" s="30"/>
     </row>
     <row r="492" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A492" s="34"/>
+      <c r="A492" s="35"/>
       <c r="B492" s="30"/>
       <c r="C492" s="26"/>
       <c r="D492" s="27"/>
@@ -15993,7 +16386,7 @@
       <c r="F492" s="30"/>
     </row>
     <row r="493" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A493" s="34"/>
+      <c r="A493" s="35"/>
       <c r="B493" s="30"/>
       <c r="C493" s="26"/>
       <c r="D493" s="27"/>
@@ -16001,7 +16394,7 @@
       <c r="F493" s="30"/>
     </row>
     <row r="494" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A494" s="34"/>
+      <c r="A494" s="35"/>
       <c r="B494" s="30"/>
       <c r="C494" s="26"/>
       <c r="D494" s="27"/>
@@ -16009,7 +16402,7 @@
       <c r="F494" s="30"/>
     </row>
     <row r="495" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A495" s="34"/>
+      <c r="A495" s="35"/>
       <c r="B495" s="30"/>
       <c r="C495" s="26"/>
       <c r="D495" s="27"/>
@@ -16017,7 +16410,7 @@
       <c r="F495" s="30"/>
     </row>
     <row r="496" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A496" s="34"/>
+      <c r="A496" s="35"/>
       <c r="B496" s="30"/>
       <c r="C496" s="26"/>
       <c r="D496" s="27"/>
@@ -16025,7 +16418,7 @@
       <c r="F496" s="30"/>
     </row>
     <row r="497" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A497" s="34"/>
+      <c r="A497" s="35"/>
       <c r="B497" s="30"/>
       <c r="C497" s="26"/>
       <c r="D497" s="27"/>
@@ -16033,7 +16426,7 @@
       <c r="F497" s="30"/>
     </row>
     <row r="498" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A498" s="34"/>
+      <c r="A498" s="35"/>
       <c r="B498" s="30"/>
       <c r="C498" s="26"/>
       <c r="D498" s="27"/>
@@ -16041,7 +16434,7 @@
       <c r="F498" s="30"/>
     </row>
     <row r="499" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A499" s="34"/>
+      <c r="A499" s="35"/>
       <c r="B499" s="30"/>
       <c r="C499" s="26"/>
       <c r="D499" s="27"/>
@@ -16049,7 +16442,7 @@
       <c r="F499" s="30"/>
     </row>
     <row r="500" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A500" s="34"/>
+      <c r="A500" s="35"/>
       <c r="B500" s="30"/>
       <c r="C500" s="26"/>
       <c r="D500" s="27"/>
@@ -16057,7 +16450,7 @@
       <c r="F500" s="30"/>
     </row>
     <row r="501" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A501" s="34"/>
+      <c r="A501" s="35"/>
       <c r="B501" s="30"/>
       <c r="C501" s="26"/>
       <c r="D501" s="27"/>
@@ -16065,7 +16458,7 @@
       <c r="F501" s="30"/>
     </row>
     <row r="502" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A502" s="34"/>
+      <c r="A502" s="35"/>
       <c r="B502" s="30"/>
       <c r="C502" s="26"/>
       <c r="D502" s="27"/>
@@ -16073,7 +16466,7 @@
       <c r="F502" s="30"/>
     </row>
     <row r="503" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A503" s="34"/>
+      <c r="A503" s="35"/>
       <c r="B503" s="30"/>
       <c r="C503" s="26"/>
       <c r="D503" s="27"/>
@@ -16081,7 +16474,7 @@
       <c r="F503" s="30"/>
     </row>
     <row r="504" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A504" s="34"/>
+      <c r="A504" s="35"/>
       <c r="B504" s="30"/>
       <c r="C504" s="26"/>
       <c r="D504" s="27"/>
@@ -16089,31 +16482,31 @@
       <c r="F504" s="30"/>
     </row>
     <row r="505" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A505" s="34"/>
-      <c r="B505" s="34"/>
+      <c r="A505" s="35"/>
+      <c r="B505" s="35"/>
       <c r="C505" s="26"/>
       <c r="D505" s="27"/>
       <c r="E505" s="30"/>
       <c r="F505" s="30"/>
     </row>
     <row r="506" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A506" s="34"/>
-      <c r="B506" s="34"/>
+      <c r="A506" s="35"/>
+      <c r="B506" s="35"/>
       <c r="C506" s="26"/>
       <c r="D506" s="27"/>
       <c r="E506" s="30"/>
       <c r="F506" s="30"/>
     </row>
     <row r="507" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A507" s="34"/>
-      <c r="B507" s="34"/>
+      <c r="A507" s="35"/>
+      <c r="B507" s="35"/>
       <c r="C507" s="26"/>
       <c r="D507" s="27"/>
       <c r="E507" s="30"/>
       <c r="F507" s="30"/>
     </row>
     <row r="508" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A508" s="34"/>
+      <c r="A508" s="35"/>
       <c r="B508" s="30"/>
       <c r="C508" s="26"/>
       <c r="D508" s="27"/>
@@ -16121,7 +16514,7 @@
       <c r="F508" s="30"/>
     </row>
     <row r="509" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A509" s="34"/>
+      <c r="A509" s="35"/>
       <c r="B509" s="30"/>
       <c r="C509" s="26"/>
       <c r="D509" s="27"/>
@@ -16129,87 +16522,87 @@
       <c r="F509" s="30"/>
     </row>
     <row r="510" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A510" s="34"/>
-      <c r="B510" s="34"/>
+      <c r="A510" s="35"/>
+      <c r="B510" s="35"/>
       <c r="C510" s="22"/>
       <c r="D510" s="25"/>
       <c r="E510" s="30"/>
       <c r="F510" s="30"/>
     </row>
     <row r="511" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A511" s="34"/>
-      <c r="B511" s="34"/>
+      <c r="A511" s="35"/>
+      <c r="B511" s="35"/>
       <c r="C511" s="22"/>
       <c r="D511" s="25"/>
       <c r="E511" s="30"/>
       <c r="F511" s="30"/>
     </row>
     <row r="512" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A512" s="34"/>
-      <c r="B512" s="34"/>
+      <c r="A512" s="35"/>
+      <c r="B512" s="35"/>
       <c r="C512" s="22"/>
       <c r="D512" s="25"/>
       <c r="E512" s="30"/>
       <c r="F512" s="30"/>
     </row>
     <row r="513" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A513" s="34"/>
-      <c r="B513" s="34"/>
+      <c r="A513" s="35"/>
+      <c r="B513" s="35"/>
       <c r="C513" s="22"/>
       <c r="D513" s="25"/>
       <c r="E513" s="30"/>
       <c r="F513" s="30"/>
     </row>
     <row r="514" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A514" s="34"/>
-      <c r="B514" s="34"/>
+      <c r="A514" s="35"/>
+      <c r="B514" s="35"/>
       <c r="C514" s="22"/>
       <c r="D514" s="25"/>
       <c r="E514" s="30"/>
       <c r="F514" s="30"/>
     </row>
     <row r="515" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A515" s="34"/>
-      <c r="B515" s="34"/>
+      <c r="A515" s="35"/>
+      <c r="B515" s="35"/>
       <c r="C515" s="22"/>
       <c r="D515" s="25"/>
       <c r="E515" s="30"/>
       <c r="F515" s="30"/>
     </row>
     <row r="516" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A516" s="34"/>
-      <c r="B516" s="34"/>
+      <c r="A516" s="35"/>
+      <c r="B516" s="35"/>
       <c r="C516" s="26"/>
       <c r="D516" s="27"/>
       <c r="E516" s="30"/>
       <c r="F516" s="30"/>
     </row>
     <row r="517" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A517" s="34"/>
-      <c r="B517" s="34"/>
+      <c r="A517" s="35"/>
+      <c r="B517" s="35"/>
       <c r="C517" s="26"/>
       <c r="D517" s="27"/>
       <c r="E517" s="30"/>
       <c r="F517" s="30"/>
     </row>
     <row r="518" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A518" s="34"/>
-      <c r="B518" s="34"/>
+      <c r="A518" s="35"/>
+      <c r="B518" s="35"/>
       <c r="C518" s="26"/>
       <c r="D518" s="27"/>
       <c r="E518" s="30"/>
       <c r="F518" s="30"/>
     </row>
     <row r="519" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A519" s="34"/>
-      <c r="B519" s="34"/>
+      <c r="A519" s="35"/>
+      <c r="B519" s="35"/>
       <c r="C519" s="26"/>
       <c r="D519" s="27"/>
       <c r="E519" s="30"/>
       <c r="F519" s="30"/>
     </row>
     <row r="520" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A520" s="34"/>
+      <c r="A520" s="35"/>
       <c r="B520" s="30"/>
       <c r="C520" s="26"/>
       <c r="D520" s="27"/>
@@ -16217,7 +16610,7 @@
       <c r="F520" s="30"/>
     </row>
     <row r="521" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A521" s="34"/>
+      <c r="A521" s="35"/>
       <c r="B521" s="30"/>
       <c r="C521" s="26"/>
       <c r="D521" s="27"/>
@@ -16225,64 +16618,64 @@
       <c r="F521" s="30"/>
     </row>
     <row r="522" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A522" s="34"/>
-      <c r="B522" s="34"/>
+      <c r="A522" s="35"/>
+      <c r="B522" s="35"/>
       <c r="C522" s="22"/>
       <c r="D522" s="25"/>
       <c r="E522" s="30"/>
       <c r="F522" s="30"/>
     </row>
     <row r="523" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A523" s="34"/>
-      <c r="B523" s="34"/>
+      <c r="A523" s="35"/>
+      <c r="B523" s="35"/>
       <c r="C523" s="26"/>
       <c r="D523" s="27"/>
       <c r="E523" s="30"/>
       <c r="F523" s="30"/>
     </row>
     <row r="524" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A524" s="34"/>
-      <c r="B524" s="34"/>
+      <c r="A524" s="35"/>
+      <c r="B524" s="35"/>
       <c r="C524" s="22"/>
       <c r="D524" s="25"/>
       <c r="E524" s="30"/>
       <c r="F524" s="30"/>
     </row>
     <row r="525" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A525" s="34"/>
-      <c r="B525" s="34"/>
+      <c r="A525" s="35"/>
+      <c r="B525" s="35"/>
       <c r="C525" s="22"/>
       <c r="D525" s="25"/>
       <c r="E525" s="30"/>
       <c r="F525" s="30"/>
     </row>
     <row r="526" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A526" s="34"/>
-      <c r="B526" s="34"/>
+      <c r="A526" s="35"/>
+      <c r="B526" s="35"/>
       <c r="C526" s="26"/>
       <c r="D526" s="27"/>
       <c r="E526" s="30"/>
       <c r="F526" s="30"/>
     </row>
     <row r="527" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A527" s="34"/>
-      <c r="B527" s="34"/>
+      <c r="A527" s="35"/>
+      <c r="B527" s="35"/>
       <c r="C527" s="26"/>
       <c r="D527" s="27"/>
       <c r="E527" s="30"/>
       <c r="F527" s="30"/>
     </row>
     <row r="528" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A528" s="34"/>
-      <c r="B528" s="34"/>
+      <c r="A528" s="35"/>
+      <c r="B528" s="35"/>
       <c r="C528" s="26"/>
       <c r="D528" s="27"/>
       <c r="E528" s="30"/>
       <c r="F528" s="30"/>
     </row>
     <row r="529" s="11" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A529" s="34"/>
-      <c r="B529" s="34"/>
+      <c r="A529" s="35"/>
+      <c r="B529" s="35"/>
       <c r="C529" s="26"/>
       <c r="D529" s="27"/>
       <c r="E529" s="30"/>
@@ -16955,7 +17348,7 @@
     <row r="1194" s="11" customFormat="1" customHeight="1"/>
     <row r="1195" s="11" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="536">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -17012,29 +17405,13 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
@@ -17482,6 +17859,8 @@
     <mergeCell ref="C528:D528"/>
     <mergeCell ref="C529:D529"/>
     <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A47"/>
+    <mergeCell ref="A48:A59"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B11"/>
@@ -17493,6 +17872,19 @@
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C66:C70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277">
   <si>
     <t>章节</t>
   </si>
@@ -5285,22 +5285,84 @@
     <t>EAL1 功能测试</t>
   </si>
   <si>
+    <t>要求正确操作的一定置信度，但是在安全威胁不严重的时候可以用该级别。当应用了适当关注的独立保证来包含个人信息时，这个级别非常有用</t>
+  </si>
+  <si>
     <t>EAL2 结构测试</t>
   </si>
   <si>
+    <t>设计信息和测试结果的交付与良好的商业应用一致时可以应用该级别。在开发人员或用户要求从低级别到中等独立保证安全性时，这个界别非常有用。尤其是评估传统系统时，IT与该级别的关系很大。</t>
+  </si>
+  <si>
     <t>EAL3 系统地测试和检查</t>
   </si>
   <si>
+    <t>安全工程从设计阶段开始，并且随后未发生重大更改直至完成的时候可以用该级别。在开发人员和用户要求从低级到中等的度量保证安全性时，这个界别非常有用（包括对 TOE 及其开发的彻底研究）</t>
+  </si>
+  <si>
     <t>EAL4 系统地设计、测试和回顾</t>
   </si>
   <si>
+    <t>已使用严格、确定的安全工程和良好的商业开发实践时可以应用该级别。这个级别不要求大量的专业知识、技能或资源、涉及所有TOE安全功能的独立测试。</t>
+  </si>
+  <si>
     <t>EAL5 半正式设计和测试</t>
   </si>
   <si>
+    <t>使用严格的安全工程和商业开发实践（包括专业的安全工程技术）来进行半正式测试。开发人员或用户要求高级别的度量保证安全性时（以计划好的开发方式开始，随后进行严格的开发）可以应用该级别。</t>
+  </si>
+  <si>
     <t>EAL6 半正式验证、设计和测试</t>
   </si>
   <si>
+    <t>在设计、开发和测试的所有阶段都使用直接、严格的安全工程技术，从而生成优良的TOE。在需要高风险状况下的 TOE 可以应用该级别。此时受保护资产的价值会证明额外的成本是合理的。广泛的测试减少了渗透的风险、隐蔽通道的可能性以及被攻击的脆弱性。</t>
+  </si>
+  <si>
     <t>EAL7 正式验证、设计和测试</t>
+  </si>
+  <si>
+    <t>只用于最高风险状况或涉及高价值资产的情况。这个级别限于这样的 TOE：密切关注的安全功能性需要进行广泛的正式分析和测试。</t>
+  </si>
+  <si>
+    <t>CC 局限性</t>
+  </si>
+  <si>
+    <t>CC 指南并不确保用户对数据的操作方式也是安全的。</t>
+  </si>
+  <si>
+    <t>CC 指南也没有解决特定安全范围之外的管理问题。CC 指南不包括现场安全评估，也就是说，他们不涉及与人员、组织实践和过程或物理安全相关的控制。</t>
+  </si>
+  <si>
+    <t>也没有明确规定对加密算法强度进行评级的标准。</t>
+  </si>
+  <si>
+    <t>3.4 理解信息系统（IS）的安全功能</t>
+  </si>
+  <si>
+    <t>内存保护（Memory Protection）</t>
+  </si>
+  <si>
+    <r>
+      <t>内存保护是很安全组件，在操作系统中必须设计和实现。无论系统中执行哪些程序，都必须执行内存保护，否则可能导致不稳定、侵害完整性、拒绝服务和泄露等结果。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存保护用于防止活动的进程与不是专门指派或分配给他们的内存区域进行交互。</t>
+    </r>
+  </si>
+  <si>
+    <t>由于整个操作系统和所有应用程序都在内存中加载和运行，因此内存是攻击者真正能实施破坏的地方。如果攻击者想要与进程进行恶意交互，则需要知道输入攻击应该发送到的内存地址。如果操作系统不断改变这些地址（如Address Space Layout Randomization ASLR技术），将大大降低攻击成功的可能性。攻击者不知道访问在哪里，则无法进行破坏。</t>
+  </si>
+  <si>
+    <t>内存泄漏（Memroy Leak）</t>
+  </si>
+  <si>
+    <t>当应用程序请求使用一段内存时，操作系统会为其分配特定的内存空间。当应用程序使用完内存后，应该通知操作系统释放内存，一遍其他应用程序继续使用。担有些应用程序编写的不够规范，不会像操作系统表明该内存已不再使用。</t>
   </si>
 </sst>
 </file>
@@ -6193,9 +6255,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6212,6 +6271,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6478,7 +6540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27784425" y="123308110"/>
+          <a:off x="27784425" y="123524010"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16104,10 +16166,10 @@
   <sheetPr/>
   <dimension ref="A1:F704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -16929,7 +16991,7 @@
       <c r="F73" s="30"/>
     </row>
     <row r="74" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="23" t="s">
         <v>1228</v>
       </c>
       <c r="B74" s="23" t="s">
@@ -16943,7 +17005,7 @@
       <c r="F74" s="30"/>
     </row>
     <row r="75" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A75" s="30"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="24" t="s">
         <v>1231</v>
@@ -16953,7 +17015,7 @@
       <c r="F75" s="30"/>
     </row>
     <row r="76" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A76" s="30"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="29"/>
       <c r="C76" s="24" t="s">
         <v>1232</v>
@@ -16963,7 +17025,7 @@
       <c r="F76" s="30"/>
     </row>
     <row r="77" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A77" s="30"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="23" t="s">
         <v>1233</v>
       </c>
@@ -16975,7 +17037,7 @@
       <c r="F77" s="30"/>
     </row>
     <row r="78" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A78" s="30"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="29"/>
       <c r="C78" s="24" t="s">
         <v>1235</v>
@@ -16985,7 +17047,7 @@
       <c r="F78" s="30"/>
     </row>
     <row r="79" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A79" s="30"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="23" t="s">
         <v>1236</v>
       </c>
@@ -16997,7 +17059,7 @@
       <c r="F79" s="30"/>
     </row>
     <row r="80" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A80" s="30"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="24" t="s">
         <v>1238</v>
@@ -17007,7 +17069,7 @@
       <c r="F80" s="30"/>
     </row>
     <row r="81" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A81" s="30"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="24" t="s">
         <v>1239</v>
@@ -17017,7 +17079,7 @@
       <c r="F81" s="30"/>
     </row>
     <row r="82" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A82" s="30"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="24" t="s">
         <v>1240</v>
@@ -17027,7 +17089,7 @@
       <c r="F82" s="30"/>
     </row>
     <row r="83" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A83" s="30"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="24" t="s">
         <v>1241</v>
@@ -17037,7 +17099,7 @@
       <c r="F83" s="30"/>
     </row>
     <row r="84" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A84" s="30"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="29"/>
       <c r="C84" s="24" t="s">
         <v>1242</v>
@@ -17047,7 +17109,7 @@
       <c r="F84" s="30"/>
     </row>
     <row r="85" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A85" s="30"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="23" t="s">
         <v>1243</v>
       </c>
@@ -17059,7 +17121,7 @@
       <c r="F85" s="30"/>
     </row>
     <row r="86" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A86" s="30"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="24" t="s">
         <v>1245</v>
@@ -17069,7 +17131,7 @@
       <c r="F86" s="30"/>
     </row>
     <row r="87" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A87" s="30"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="24" t="s">
         <v>1246</v>
@@ -17079,7 +17141,7 @@
       <c r="F87" s="30"/>
     </row>
     <row r="88" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A88" s="30"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="29"/>
       <c r="C88" s="24" t="s">
         <v>1247</v>
@@ -17089,7 +17151,7 @@
       <c r="F88" s="30"/>
     </row>
     <row r="89" s="14" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A89" s="30"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="23" t="s">
         <v>1248</v>
       </c>
@@ -17101,744 +17163,778 @@
       <c r="F89" s="30"/>
     </row>
     <row r="90" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A90" s="32"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="20" t="s">
         <v>1250</v>
       </c>
       <c r="D90" s="21"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
     </row>
     <row r="91" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A91" s="32"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="29"/>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="32" t="s">
         <v>1251</v>
       </c>
-      <c r="D91" s="34"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
     </row>
     <row r="92" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A92" s="32"/>
-      <c r="B92" s="35" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="34" t="s">
         <v>1252</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="35" t="s">
         <v>1253</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
+      <c r="D92" s="35" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
     </row>
     <row r="93" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A93" s="32"/>
-      <c r="B93" s="37"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="27" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
+        <v>1255</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
     </row>
     <row r="94" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A94" s="32"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="36" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
     </row>
     <row r="95" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A95" s="32"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="36" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="35" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
     </row>
     <row r="96" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A96" s="32"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="36" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="35" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
     </row>
     <row r="97" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A97" s="32"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="36" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="35" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
     </row>
     <row r="98" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A98" s="32"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="36" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="35" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
     </row>
     <row r="99" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="34" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
     </row>
     <row r="100" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="32" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
     </row>
     <row r="101" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="32" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
     </row>
     <row r="102" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-    </row>
-    <row r="103" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
+      <c r="A102" s="38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+    </row>
+    <row r="103" s="15" customFormat="1" ht="57" customHeight="1" spans="1:6">
+      <c r="A103" s="38"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="32" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
     </row>
     <row r="104" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D104" s="33"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
     </row>
     <row r="105" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
     </row>
     <row r="106" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
     </row>
     <row r="107" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
     </row>
     <row r="108" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
     </row>
     <row r="109" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
     </row>
     <row r="110" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
     </row>
     <row r="111" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
     </row>
     <row r="112" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
     </row>
     <row r="113" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
     </row>
     <row r="114" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A114" s="32"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
     </row>
     <row r="115" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A115" s="32"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
     </row>
     <row r="116" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
     </row>
     <row r="118" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
     </row>
     <row r="119" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
     </row>
     <row r="120" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
     </row>
     <row r="121" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
     </row>
     <row r="122" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
     </row>
     <row r="123" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
     </row>
     <row r="124" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
     </row>
     <row r="125" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
     </row>
     <row r="126" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
     </row>
     <row r="127" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
     </row>
     <row r="128" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
     </row>
     <row r="129" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
     </row>
     <row r="130" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
     </row>
     <row r="131" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
     </row>
     <row r="132" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
     </row>
     <row r="133" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
     </row>
     <row r="134" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
     </row>
     <row r="135" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
+      <c r="A135" s="38"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
     </row>
     <row r="136" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
     </row>
     <row r="137" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
     </row>
     <row r="138" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
     </row>
     <row r="139" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
     </row>
     <row r="140" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
     </row>
     <row r="142" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
     </row>
     <row r="143" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
     </row>
     <row r="144" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
+      <c r="A144" s="38"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
     </row>
     <row r="145" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
     </row>
     <row r="146" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="38"/>
     </row>
     <row r="147" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
     </row>
     <row r="148" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
     </row>
     <row r="149" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="38"/>
     </row>
     <row r="150" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
+      <c r="A150" s="38"/>
+      <c r="B150" s="38"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="38"/>
+      <c r="F150" s="38"/>
     </row>
     <row r="151" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
+      <c r="A151" s="38"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
     </row>
     <row r="152" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A152" s="32"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
+      <c r="A152" s="38"/>
+      <c r="B152" s="38"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="38"/>
     </row>
     <row r="153" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A153" s="32"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="38"/>
     </row>
     <row r="154" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="A154" s="38"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
     </row>
     <row r="155" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
+      <c r="A155" s="38"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="38"/>
+      <c r="F155" s="38"/>
     </row>
     <row r="156" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A156" s="32"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
+      <c r="A156" s="38"/>
+      <c r="B156" s="38"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="38"/>
     </row>
     <row r="157" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A157" s="32"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="38"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="38"/>
+      <c r="F157" s="38"/>
     </row>
     <row r="158" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A158" s="32"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="38"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="38"/>
     </row>
     <row r="159" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A159" s="32"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
     </row>
     <row r="160" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="38"/>
     </row>
     <row r="161" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="A161" s="38"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="38"/>
     </row>
     <row r="162" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
+      <c r="A162" s="38"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
     </row>
     <row r="163" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
+      <c r="A163" s="38"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
     </row>
     <row r="164" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
+      <c r="A164" s="38"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="38"/>
+      <c r="F164" s="38"/>
     </row>
     <row r="165" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A165" s="32"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
+      <c r="A165" s="38"/>
+      <c r="B165" s="38"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
     </row>
     <row r="166" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
+      <c r="A166" s="38"/>
+      <c r="B166" s="38"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="38"/>
     </row>
     <row r="167" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
+      <c r="A167" s="38"/>
+      <c r="B167" s="38"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
     </row>
     <row r="168" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="A168" s="38"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
+      <c r="A169" s="38"/>
+      <c r="B169" s="38"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
     </row>
     <row r="170" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A170" s="32"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
+      <c r="A170" s="38"/>
+      <c r="B170" s="38"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="38"/>
     </row>
     <row r="171" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A171" s="32"/>
-      <c r="B171" s="32"/>
+      <c r="A171" s="38"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="20"/>
       <c r="D171" s="21"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
+      <c r="E171" s="38"/>
+      <c r="F171" s="38"/>
     </row>
     <row r="172" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A172" s="32"/>
-      <c r="B172" s="32"/>
+      <c r="A172" s="38"/>
+      <c r="B172" s="38"/>
       <c r="C172" s="20"/>
       <c r="D172" s="21"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
+      <c r="E172" s="38"/>
+      <c r="F172" s="38"/>
     </row>
     <row r="173" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
+      <c r="A173" s="38"/>
+      <c r="B173" s="38"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
     </row>
     <row r="174" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
+      <c r="A174" s="38"/>
+      <c r="B174" s="38"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="38"/>
+      <c r="F174" s="38"/>
     </row>
     <row r="175" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="A175" s="38"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="38"/>
     </row>
     <row r="176" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
+      <c r="A176" s="38"/>
+      <c r="B176" s="38"/>
       <c r="C176" s="20"/>
       <c r="D176" s="21"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
+      <c r="E176" s="38"/>
+      <c r="F176" s="38"/>
     </row>
     <row r="177" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
+      <c r="A177" s="38"/>
+      <c r="B177" s="38"/>
       <c r="C177" s="20"/>
       <c r="D177" s="21"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="38"/>
     </row>
     <row r="178" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
     </row>
     <row r="179" s="15" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="38"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
     </row>
     <row r="180" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A180" s="30"/>
@@ -20816,7 +20912,7 @@
     <row r="703" s="14" customFormat="1" customHeight="1"/>
     <row r="704" s="14" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="536">
+  <mergeCells count="539">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -21325,6 +21421,7 @@
     <mergeCell ref="C529:D529"/>
     <mergeCell ref="A2:A38"/>
     <mergeCell ref="A39:A73"/>
+    <mergeCell ref="A74:A101"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -21351,6 +21448,8 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B103"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="C60:C62"/>
   </mergeCells>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680">
   <si>
     <t>章节</t>
   </si>
@@ -7036,6 +7036,46 @@
   </si>
   <si>
     <t>通过对数据散列值的比较可以验证数据完整性。</t>
+  </si>
+  <si>
+    <t>散列函数的5个基本要求</t>
+  </si>
+  <si>
+    <t>输入值可以是任意长度。</t>
+  </si>
+  <si>
+    <t>输出值具有固定的长度。</t>
+  </si>
+  <si>
+    <t>散列函数在计算任何输入值时要相对容易。</t>
+  </si>
+  <si>
+    <t>散列函数是单向的（输出值不能逆向计算出输入值）。</t>
+  </si>
+  <si>
+    <t>散列函数是不会发生冲突的（意味着找到产生相同散列值的两条消息是及其困难的）。</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <r>
+      <t>MD5算法产生128位消息摘要。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现了额外的安全特性，显著降低了消息只要的生成速度。</t>
+    </r>
+  </si>
+  <si>
+    <t>md5 协议会产生冲突，表名它不是一种单向函数。</t>
+  </si>
+  <si>
+    <t>SHA</t>
   </si>
 </sst>
 </file>
@@ -17804,10 +17844,10 @@
   <sheetPr/>
   <dimension ref="A1:F812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B352" sqref="B352:B355"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361:D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -21782,63 +21822,83 @@
     </row>
     <row r="356" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A356" s="23"/>
-      <c r="B356" s="23"/>
-      <c r="C356" s="19"/>
-      <c r="D356" s="20"/>
+      <c r="B356" s="26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D356" s="8"/>
       <c r="E356" s="23"/>
       <c r="F356" s="23"/>
     </row>
     <row r="357" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A357" s="23"/>
-      <c r="B357" s="23"/>
-      <c r="C357" s="19"/>
-      <c r="D357" s="20"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D357" s="8"/>
       <c r="E357" s="23"/>
       <c r="F357" s="23"/>
     </row>
     <row r="358" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A358" s="23"/>
-      <c r="B358" s="23"/>
-      <c r="C358" s="19"/>
+      <c r="B358" s="27"/>
+      <c r="C358" s="19" t="s">
+        <v>1673</v>
+      </c>
       <c r="D358" s="20"/>
       <c r="E358" s="23"/>
       <c r="F358" s="23"/>
     </row>
     <row r="359" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A359" s="23"/>
-      <c r="B359" s="23"/>
-      <c r="C359" s="19"/>
+      <c r="B359" s="27"/>
+      <c r="C359" s="19" t="s">
+        <v>1674</v>
+      </c>
       <c r="D359" s="20"/>
       <c r="E359" s="23"/>
       <c r="F359" s="23"/>
     </row>
     <row r="360" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A360" s="23"/>
-      <c r="B360" s="23"/>
-      <c r="C360" s="19"/>
+      <c r="B360" s="28"/>
+      <c r="C360" s="19" t="s">
+        <v>1675</v>
+      </c>
       <c r="D360" s="20"/>
       <c r="E360" s="23"/>
       <c r="F360" s="23"/>
     </row>
     <row r="361" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A361" s="23"/>
-      <c r="B361" s="23"/>
-      <c r="C361" s="19"/>
+      <c r="B361" s="26" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>1677</v>
+      </c>
       <c r="D361" s="20"/>
       <c r="E361" s="23"/>
       <c r="F361" s="23"/>
     </row>
     <row r="362" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A362" s="23"/>
-      <c r="B362" s="23"/>
-      <c r="C362" s="19"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="19" t="s">
+        <v>1678</v>
+      </c>
       <c r="D362" s="20"/>
       <c r="E362" s="23"/>
       <c r="F362" s="23"/>
     </row>
     <row r="363" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A363" s="23"/>
-      <c r="B363" s="23"/>
+      <c r="B363" s="23" t="s">
+        <v>1679</v>
+      </c>
       <c r="C363" s="19"/>
       <c r="D363" s="20"/>
       <c r="E363" s="23"/>
@@ -23456,7 +23516,7 @@
     <row r="811" s="14" customFormat="1" customHeight="1"/>
     <row r="812" s="14" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="548">
+  <mergeCells count="550">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -23998,6 +24058,8 @@
     <mergeCell ref="B346:B348"/>
     <mergeCell ref="B349:B351"/>
     <mergeCell ref="B352:B355"/>
+    <mergeCell ref="B356:B360"/>
+    <mergeCell ref="B361:B362"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C172:C178"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700">
   <si>
     <t>章节</t>
   </si>
@@ -6644,6 +6644,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">包括 DES-EDE2 和 DES-EDE3，也被称为 3DES, </t>
     </r>
     <r>
@@ -6658,6 +6663,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DES-EDE2 使用 112 位有效密钥，</t>
     </r>
     <r>
@@ -6671,6 +6682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>DES-EDE3 使用 168 位有效密钥，</t>
     </r>
     <r>
@@ -6837,6 +6854,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>非对称密钥算法也被称为公钥算法，它为对称密钥加密的弱点提供了解决方案。</t>
     </r>
     <r>
@@ -7060,6 +7083,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>MD5算法产生128位消息摘要。</t>
     </r>
     <r>
@@ -7077,16 +7106,107 @@
   <si>
     <t>SHA</t>
   </si>
+  <si>
+    <t>SHA-1 表面上可以接受任意长度的输入数据并且生成一个160位的消息摘要。SHA-1算法处理512位消息分组。</t>
+  </si>
+  <si>
+    <t>SHA-1算法中存在缺陷，这导致SHA-2算法的出现，SHA-2具有下列4种变体</t>
+  </si>
+  <si>
+    <t>SHA-2的4种变体</t>
+  </si>
+  <si>
+    <t>SHA-256 处理512位的分组大小，生成一个256位的消息摘要。</t>
+  </si>
+  <si>
+    <t>SHA-224 处理512位的分组大小，使用删减版本的SHA-256散列算法生成一个244位的消息摘要。</t>
+  </si>
+  <si>
+    <t>SHA-512 处理1024为的分组大小，生成一个512位的消息摘要。</t>
+  </si>
+  <si>
+    <t>SHA-512处理1024位的分组大小，使用删减版本的SHA-512散列算法生成一个384位的消息摘要。</t>
+  </si>
+  <si>
+    <t>201年，将 Keccak 算法定为 SHA-3 标准。SHA-3系列的开发是为了插进来取代 SHA-2 散列函数，通过一种更安全的算法提供与 SHA-2 相同的变体和散列长度。</t>
+  </si>
+  <si>
+    <t>数字签名 Digital Signatures</t>
+  </si>
+  <si>
+    <t>一旦选择足够安全的散列算法，那么就能够使用其实现数字签名系统。</t>
+  </si>
+  <si>
+    <t>数字签名的两个目标</t>
+  </si>
+  <si>
+    <r>
+      <t>数字化的签名消息可以向接收方保证：消息确实来自已声明的发送者，并且实施了不可否认性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（也就是说，排除了发送者之后声称消息是伪造的情况）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数字化的签名消息可以向接收方保证：消息在发送方和接收方之间进行传输的过程中不会被改变。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种方法确保消息不会受到合一的修改（第三方想要修改消息的含义）以及无意识修改（由通信过程中的故障造成，如电磁干扰）。</t>
+    </r>
+  </si>
+  <si>
+    <t>散列函数确保了消息的完整性，散列值的签名则提供了身份验证和不可否认性。签名动作实际上就是使用私钥加密散列值。</t>
+  </si>
+  <si>
+    <t>消息可以加密，这提供了机密性。</t>
+  </si>
+  <si>
+    <t>消息可以散列运算，这提供了完整性。</t>
+  </si>
+  <si>
+    <t>消息可以数字签名，这提供了身份验证、不可否认性以及完整性。</t>
+  </si>
+  <si>
+    <t>消息可以即加密又数字签名，这提供了机密性、身份验证、不可否认性以及完整性。</t>
+  </si>
+  <si>
+    <t>HMAC （Hashed Message Authentication Code）</t>
+  </si>
+  <si>
+    <r>
+      <t>HMAC 算法实现了部分的数字签名功能，即保证了消息在传输过程中的完整性，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是不提供不可否认性。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -7154,84 +7274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7245,8 +7289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7268,9 +7313,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7284,7 +7389,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7341,7 +7461,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7353,7 +7551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7365,7 +7563,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7377,151 +7635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7655,17 +7775,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7685,15 +7808,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7709,13 +7823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7738,17 +7856,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7757,142 +7877,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7902,7 +8022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7981,15 +8101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7999,13 +8110,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8638,7 +8749,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8652,7 +8763,7 @@
     </row>
     <row r="4" ht="34" spans="1:6">
       <c r="A4" s="4"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -8664,7 +8775,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="4"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -8676,7 +8787,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="4"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8797,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="4"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -8696,7 +8807,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="4"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
@@ -8706,13 +8817,13 @@
     </row>
     <row r="9" ht="68" spans="1:6">
       <c r="A9" s="4"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="40" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -8722,11 +8833,11 @@
     </row>
     <row r="10" ht="51" spans="1:6">
       <c r="A10" s="4"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="4"/>
@@ -8734,7 +8845,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="4"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8746,7 +8857,7 @@
     </row>
     <row r="12" ht="109" customHeight="1" spans="1:6">
       <c r="A12" s="4"/>
-      <c r="B12" s="42"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
@@ -8756,7 +8867,7 @@
     </row>
     <row r="13" ht="64" customHeight="1" spans="1:6">
       <c r="A13" s="4"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -8770,7 +8881,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="4"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
@@ -8782,7 +8893,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="4"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
@@ -8794,7 +8905,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="4"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -8808,7 +8919,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="4"/>
-      <c r="B17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
@@ -8818,7 +8929,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
@@ -8828,7 +8939,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
@@ -8838,7 +8949,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="41"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="5" t="s">
         <v>38</v>
       </c>
@@ -8848,7 +8959,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="4"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
@@ -8870,7 +8981,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:6">
       <c r="A23" s="4"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -8882,7 +8993,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="4"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
@@ -8892,7 +9003,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="4"/>
-      <c r="B25" s="41"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
@@ -8902,17 +9013,17 @@
     </row>
     <row r="26" customHeight="1" spans="1:6">
       <c r="A26" s="4"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="15"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="4"/>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -8926,7 +9037,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="4"/>
-      <c r="B28" s="41"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
@@ -8936,7 +9047,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="41"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
@@ -8946,7 +9057,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="4"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="7" t="s">
         <v>52</v>
       </c>
@@ -8956,7 +9067,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="4"/>
-      <c r="B31" s="42"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="7" t="s">
         <v>53</v>
       </c>
@@ -8994,7 +9105,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="4"/>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -9006,7 +9117,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="4"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="5" t="s">
         <v>62</v>
       </c>
@@ -9030,7 +9141,7 @@
     </row>
     <row r="37" customHeight="1" spans="1:6">
       <c r="A37" s="4"/>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -9042,7 +9153,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="4"/>
-      <c r="B38" s="41"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="5" t="s">
         <v>68</v>
       </c>
@@ -9052,7 +9163,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="4"/>
-      <c r="B39" s="42"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="5" t="s">
         <v>69</v>
       </c>
@@ -10706,7 +10817,7 @@
       <c r="A187" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B187" s="40" t="s">
+      <c r="B187" s="37" t="s">
         <v>304</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -10718,7 +10829,7 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A188" s="4"/>
-      <c r="B188" s="42"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="5" t="s">
         <v>306</v>
       </c>
@@ -10728,7 +10839,7 @@
     </row>
     <row r="189" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A189" s="4"/>
-      <c r="B189" s="40" t="s">
+      <c r="B189" s="37" t="s">
         <v>307</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -10740,7 +10851,7 @@
     </row>
     <row r="190" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A190" s="4"/>
-      <c r="B190" s="41"/>
+      <c r="B190" s="38"/>
       <c r="C190" s="5" t="s">
         <v>309</v>
       </c>
@@ -10750,7 +10861,7 @@
     </row>
     <row r="191" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A191" s="4"/>
-      <c r="B191" s="41"/>
+      <c r="B191" s="38"/>
       <c r="C191" s="5" t="s">
         <v>310</v>
       </c>
@@ -10760,7 +10871,7 @@
     </row>
     <row r="192" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A192" s="4"/>
-      <c r="B192" s="41"/>
+      <c r="B192" s="38"/>
       <c r="C192" s="5" t="s">
         <v>311</v>
       </c>
@@ -10770,7 +10881,7 @@
     </row>
     <row r="193" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A193" s="4"/>
-      <c r="B193" s="41"/>
+      <c r="B193" s="38"/>
       <c r="C193" s="5" t="s">
         <v>312</v>
       </c>
@@ -10780,7 +10891,7 @@
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A194" s="4"/>
-      <c r="B194" s="41"/>
+      <c r="B194" s="38"/>
       <c r="C194" s="5" t="s">
         <v>313</v>
       </c>
@@ -10790,7 +10901,7 @@
     </row>
     <row r="195" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A195" s="4"/>
-      <c r="B195" s="42"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="5" t="s">
         <v>314</v>
       </c>
@@ -10800,7 +10911,7 @@
     </row>
     <row r="196" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A196" s="4"/>
-      <c r="B196" s="40" t="s">
+      <c r="B196" s="37" t="s">
         <v>315</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -10812,7 +10923,7 @@
     </row>
     <row r="197" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A197" s="4"/>
-      <c r="B197" s="41"/>
+      <c r="B197" s="38"/>
       <c r="C197" s="5" t="s">
         <v>317</v>
       </c>
@@ -10822,7 +10933,7 @@
     </row>
     <row r="198" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A198" s="4"/>
-      <c r="B198" s="41"/>
+      <c r="B198" s="38"/>
       <c r="C198" s="5" t="s">
         <v>318</v>
       </c>
@@ -10832,7 +10943,7 @@
     </row>
     <row r="199" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A199" s="4"/>
-      <c r="B199" s="41"/>
+      <c r="B199" s="38"/>
       <c r="C199" s="5" t="s">
         <v>319</v>
       </c>
@@ -10842,7 +10953,7 @@
     </row>
     <row r="200" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A200" s="4"/>
-      <c r="B200" s="41"/>
+      <c r="B200" s="38"/>
       <c r="C200" s="5" t="s">
         <v>320</v>
       </c>
@@ -10852,7 +10963,7 @@
     </row>
     <row r="201" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A201" s="4"/>
-      <c r="B201" s="41"/>
+      <c r="B201" s="38"/>
       <c r="C201" s="5" t="s">
         <v>321</v>
       </c>
@@ -10862,7 +10973,7 @@
     </row>
     <row r="202" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A202" s="4"/>
-      <c r="B202" s="41"/>
+      <c r="B202" s="38"/>
       <c r="C202" s="5" t="s">
         <v>322</v>
       </c>
@@ -10872,7 +10983,7 @@
     </row>
     <row r="203" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A203" s="4"/>
-      <c r="B203" s="41"/>
+      <c r="B203" s="38"/>
       <c r="C203" s="5" t="s">
         <v>323</v>
       </c>
@@ -10882,7 +10993,7 @@
     </row>
     <row r="204" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A204" s="4"/>
-      <c r="B204" s="41"/>
+      <c r="B204" s="38"/>
       <c r="C204" s="5" t="s">
         <v>324</v>
       </c>
@@ -10892,7 +11003,7 @@
     </row>
     <row r="205" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A205" s="4"/>
-      <c r="B205" s="42"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="5" t="s">
         <v>325</v>
       </c>
@@ -10902,7 +11013,7 @@
     </row>
     <row r="206" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A206" s="4"/>
-      <c r="B206" s="40" t="s">
+      <c r="B206" s="37" t="s">
         <v>304</v>
       </c>
       <c r="C206" s="15" t="s">
@@ -10916,7 +11027,7 @@
     </row>
     <row r="207" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A207" s="4"/>
-      <c r="B207" s="41"/>
+      <c r="B207" s="38"/>
       <c r="C207" s="16"/>
       <c r="D207" s="4" t="s">
         <v>328</v>
@@ -10926,7 +11037,7 @@
     </row>
     <row r="208" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A208" s="4"/>
-      <c r="B208" s="41"/>
+      <c r="B208" s="38"/>
       <c r="C208" s="16"/>
       <c r="D208" s="4" t="s">
         <v>329</v>
@@ -10936,7 +11047,7 @@
     </row>
     <row r="209" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A209" s="4"/>
-      <c r="B209" s="41"/>
+      <c r="B209" s="38"/>
       <c r="C209" s="17"/>
       <c r="D209" s="4" t="s">
         <v>330</v>
@@ -10946,7 +11057,7 @@
     </row>
     <row r="210" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A210" s="4"/>
-      <c r="B210" s="42"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="5" t="s">
         <v>331</v>
       </c>
@@ -10956,7 +11067,7 @@
     </row>
     <row r="211" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A211" s="4"/>
-      <c r="B211" s="40" t="s">
+      <c r="B211" s="37" t="s">
         <v>327</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -10968,7 +11079,7 @@
     </row>
     <row r="212" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A212" s="4"/>
-      <c r="B212" s="41"/>
+      <c r="B212" s="38"/>
       <c r="C212" s="5" t="s">
         <v>333</v>
       </c>
@@ -10978,7 +11089,7 @@
     </row>
     <row r="213" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A213" s="4"/>
-      <c r="B213" s="41"/>
+      <c r="B213" s="38"/>
       <c r="C213" s="5" t="s">
         <v>334</v>
       </c>
@@ -10988,7 +11099,7 @@
     </row>
     <row r="214" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A214" s="4"/>
-      <c r="B214" s="42"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="5" t="s">
         <v>335</v>
       </c>
@@ -10998,7 +11109,7 @@
     </row>
     <row r="215" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A215" s="4"/>
-      <c r="B215" s="40" t="s">
+      <c r="B215" s="37" t="s">
         <v>336</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -11010,7 +11121,7 @@
     </row>
     <row r="216" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A216" s="4"/>
-      <c r="B216" s="41"/>
+      <c r="B216" s="38"/>
       <c r="C216" s="5" t="s">
         <v>338</v>
       </c>
@@ -11020,7 +11131,7 @@
     </row>
     <row r="217" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A217" s="4"/>
-      <c r="B217" s="41"/>
+      <c r="B217" s="38"/>
       <c r="C217" s="5" t="s">
         <v>339</v>
       </c>
@@ -11030,7 +11141,7 @@
     </row>
     <row r="218" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A218" s="4"/>
-      <c r="B218" s="42"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="5" t="s">
         <v>340</v>
       </c>
@@ -11040,7 +11151,7 @@
     </row>
     <row r="219" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A219" s="4"/>
-      <c r="B219" s="40" t="s">
+      <c r="B219" s="37" t="s">
         <v>341</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -11052,7 +11163,7 @@
     </row>
     <row r="220" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A220" s="4"/>
-      <c r="B220" s="41"/>
+      <c r="B220" s="38"/>
       <c r="C220" s="5" t="s">
         <v>343</v>
       </c>
@@ -11062,7 +11173,7 @@
     </row>
     <row r="221" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A221" s="4"/>
-      <c r="B221" s="41"/>
+      <c r="B221" s="38"/>
       <c r="C221" s="5" t="s">
         <v>344</v>
       </c>
@@ -11072,7 +11183,7 @@
     </row>
     <row r="222" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A222" s="4"/>
-      <c r="B222" s="41"/>
+      <c r="B222" s="38"/>
       <c r="C222" s="5" t="s">
         <v>345</v>
       </c>
@@ -11082,7 +11193,7 @@
     </row>
     <row r="223" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A223" s="4"/>
-      <c r="B223" s="41"/>
+      <c r="B223" s="38"/>
       <c r="C223" s="5" t="s">
         <v>346</v>
       </c>
@@ -11092,7 +11203,7 @@
     </row>
     <row r="224" ht="38" customHeight="1" spans="1:6">
       <c r="A224" s="4"/>
-      <c r="B224" s="41"/>
+      <c r="B224" s="38"/>
       <c r="C224" s="5" t="s">
         <v>347</v>
       </c>
@@ -11102,7 +11213,7 @@
     </row>
     <row r="225" ht="38" customHeight="1" spans="1:6">
       <c r="A225" s="4"/>
-      <c r="B225" s="41"/>
+      <c r="B225" s="38"/>
       <c r="C225" s="5" t="s">
         <v>348</v>
       </c>
@@ -11112,7 +11223,7 @@
     </row>
     <row r="226" ht="38" customHeight="1" spans="1:6">
       <c r="A226" s="4"/>
-      <c r="B226" s="41"/>
+      <c r="B226" s="38"/>
       <c r="C226" s="5" t="s">
         <v>349</v>
       </c>
@@ -11122,7 +11233,7 @@
     </row>
     <row r="227" ht="38" customHeight="1" spans="1:6">
       <c r="A227" s="4"/>
-      <c r="B227" s="42"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="5" t="s">
         <v>350</v>
       </c>
@@ -11168,7 +11279,7 @@
     </row>
     <row r="231" ht="38" customHeight="1" spans="1:6">
       <c r="A231" s="4"/>
-      <c r="B231" s="40" t="s">
+      <c r="B231" s="37" t="s">
         <v>357</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -11180,7 +11291,7 @@
     </row>
     <row r="232" ht="38" customHeight="1" spans="1:6">
       <c r="A232" s="4"/>
-      <c r="B232" s="41"/>
+      <c r="B232" s="38"/>
       <c r="C232" s="7" t="s">
         <v>359</v>
       </c>
@@ -11190,7 +11301,7 @@
     </row>
     <row r="233" ht="38" customHeight="1" spans="1:6">
       <c r="A233" s="4"/>
-      <c r="B233" s="41"/>
+      <c r="B233" s="38"/>
       <c r="C233" s="4" t="s">
         <v>360</v>
       </c>
@@ -11202,7 +11313,7 @@
     </row>
     <row r="234" ht="38" customHeight="1" spans="1:6">
       <c r="A234" s="4"/>
-      <c r="B234" s="42"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="4" t="s">
         <v>362</v>
       </c>
@@ -11216,7 +11327,7 @@
     </row>
     <row r="235" ht="38" customHeight="1" spans="1:6">
       <c r="A235" s="4"/>
-      <c r="B235" s="40" t="s">
+      <c r="B235" s="37" t="s">
         <v>365</v>
       </c>
       <c r="C235" s="7" t="s">
@@ -11228,7 +11339,7 @@
     </row>
     <row r="236" ht="38" customHeight="1" spans="1:6">
       <c r="A236" s="4"/>
-      <c r="B236" s="41"/>
+      <c r="B236" s="38"/>
       <c r="C236" s="5" t="s">
         <v>367</v>
       </c>
@@ -11238,7 +11349,7 @@
     </row>
     <row r="237" ht="38" customHeight="1" spans="1:6">
       <c r="A237" s="4"/>
-      <c r="B237" s="42"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="5" t="s">
         <v>368</v>
       </c>
@@ -11248,7 +11359,7 @@
     </row>
     <row r="238" ht="38" customHeight="1" spans="1:6">
       <c r="A238" s="4"/>
-      <c r="B238" s="40" t="s">
+      <c r="B238" s="37" t="s">
         <v>369</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -11264,7 +11375,7 @@
     </row>
     <row r="239" ht="38" customHeight="1" spans="1:6">
       <c r="A239" s="4"/>
-      <c r="B239" s="41"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="4" t="s">
         <v>373</v>
       </c>
@@ -11276,7 +11387,7 @@
     </row>
     <row r="240" ht="38" customHeight="1" spans="1:6">
       <c r="A240" s="4"/>
-      <c r="B240" s="42"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="4" t="s">
         <v>375</v>
       </c>
@@ -11288,7 +11399,7 @@
     </row>
     <row r="241" ht="38" customHeight="1" spans="1:6">
       <c r="A241" s="4"/>
-      <c r="B241" s="40" t="s">
+      <c r="B241" s="37" t="s">
         <v>377</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -11300,7 +11411,7 @@
     </row>
     <row r="242" ht="38" customHeight="1" spans="1:6">
       <c r="A242" s="4"/>
-      <c r="B242" s="42"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="5" t="s">
         <v>379</v>
       </c>
@@ -11310,7 +11421,7 @@
     </row>
     <row r="243" ht="38" customHeight="1" spans="1:6">
       <c r="A243" s="4"/>
-      <c r="B243" s="40" t="s">
+      <c r="B243" s="37" t="s">
         <v>380</v>
       </c>
       <c r="C243" s="7" t="s">
@@ -11322,7 +11433,7 @@
     </row>
     <row r="244" ht="38" customHeight="1" spans="1:6">
       <c r="A244" s="4"/>
-      <c r="B244" s="41"/>
+      <c r="B244" s="38"/>
       <c r="C244" s="5" t="s">
         <v>382</v>
       </c>
@@ -11332,7 +11443,7 @@
     </row>
     <row r="245" ht="38" customHeight="1" spans="1:6">
       <c r="A245" s="4"/>
-      <c r="B245" s="42"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="5" t="s">
         <v>383</v>
       </c>
@@ -11342,7 +11453,7 @@
     </row>
     <row r="246" ht="38" customHeight="1" spans="1:6">
       <c r="A246" s="4"/>
-      <c r="B246" s="40" t="s">
+      <c r="B246" s="37" t="s">
         <v>384</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -11354,7 +11465,7 @@
     </row>
     <row r="247" ht="38" customHeight="1" spans="1:6">
       <c r="A247" s="4"/>
-      <c r="B247" s="42"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="7" t="s">
         <v>386</v>
       </c>
@@ -11408,7 +11519,7 @@
     </row>
     <row r="251" ht="38" customHeight="1" spans="1:6">
       <c r="A251" s="4"/>
-      <c r="B251" s="40" t="s">
+      <c r="B251" s="37" t="s">
         <v>397</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -11420,7 +11531,7 @@
     </row>
     <row r="252" ht="38" customHeight="1" spans="1:6">
       <c r="A252" s="4"/>
-      <c r="B252" s="42"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="5" t="s">
         <v>399</v>
       </c>
@@ -11430,7 +11541,7 @@
     </row>
     <row r="253" ht="38" customHeight="1" spans="1:6">
       <c r="A253" s="4"/>
-      <c r="B253" s="40" t="s">
+      <c r="B253" s="37" t="s">
         <v>400</v>
       </c>
       <c r="C253" s="7" t="s">
@@ -11442,7 +11553,7 @@
     </row>
     <row r="254" ht="38" customHeight="1" spans="1:6">
       <c r="A254" s="4"/>
-      <c r="B254" s="42"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="7" t="s">
         <v>402</v>
       </c>
@@ -11452,7 +11563,7 @@
     </row>
     <row r="255" ht="38" customHeight="1" spans="1:6">
       <c r="A255" s="4"/>
-      <c r="B255" s="40" t="s">
+      <c r="B255" s="37" t="s">
         <v>329</v>
       </c>
       <c r="C255" s="9" t="s">
@@ -11464,7 +11575,7 @@
     </row>
     <row r="256" ht="38" customHeight="1" spans="1:6">
       <c r="A256" s="4"/>
-      <c r="B256" s="42"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="9" t="s">
         <v>404</v>
       </c>
@@ -11476,7 +11587,7 @@
     </row>
     <row r="257" ht="38" customHeight="1" spans="1:6">
       <c r="A257" s="4"/>
-      <c r="B257" s="40" t="s">
+      <c r="B257" s="37" t="s">
         <v>406</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -11488,7 +11599,7 @@
     </row>
     <row r="258" ht="38" customHeight="1" spans="1:6">
       <c r="A258" s="4"/>
-      <c r="B258" s="41"/>
+      <c r="B258" s="38"/>
       <c r="C258" s="7" t="s">
         <v>408</v>
       </c>
@@ -11498,7 +11609,7 @@
     </row>
     <row r="259" ht="38" customHeight="1" spans="1:6">
       <c r="A259" s="4"/>
-      <c r="B259" s="42"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="5" t="s">
         <v>409</v>
       </c>
@@ -11508,7 +11619,7 @@
     </row>
     <row r="260" ht="38" customHeight="1" spans="1:6">
       <c r="A260" s="4"/>
-      <c r="B260" s="40" t="s">
+      <c r="B260" s="37" t="s">
         <v>410</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -11520,7 +11631,7 @@
     </row>
     <row r="261" ht="38" customHeight="1" spans="1:6">
       <c r="A261" s="4"/>
-      <c r="B261" s="41"/>
+      <c r="B261" s="38"/>
       <c r="C261" s="4" t="s">
         <v>412</v>
       </c>
@@ -11532,7 +11643,7 @@
     </row>
     <row r="262" ht="38" customHeight="1" spans="1:6">
       <c r="A262" s="4"/>
-      <c r="B262" s="41"/>
+      <c r="B262" s="38"/>
       <c r="C262" s="4" t="s">
         <v>414</v>
       </c>
@@ -11544,7 +11655,7 @@
     </row>
     <row r="263" ht="38" customHeight="1" spans="1:6">
       <c r="A263" s="4"/>
-      <c r="B263" s="42"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="4" t="s">
         <v>416</v>
       </c>
@@ -11556,7 +11667,7 @@
     </row>
     <row r="264" ht="38" customHeight="1" spans="1:6">
       <c r="A264" s="4"/>
-      <c r="B264" s="40" t="s">
+      <c r="B264" s="37" t="s">
         <v>418</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -11568,7 +11679,7 @@
     </row>
     <row r="265" ht="38" customHeight="1" spans="1:6">
       <c r="A265" s="4"/>
-      <c r="B265" s="41"/>
+      <c r="B265" s="38"/>
       <c r="C265" s="5" t="s">
         <v>420</v>
       </c>
@@ -11578,7 +11689,7 @@
     </row>
     <row r="266" ht="38" customHeight="1" spans="1:6">
       <c r="A266" s="4"/>
-      <c r="B266" s="42"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="5" t="s">
         <v>421</v>
       </c>
@@ -11588,7 +11699,7 @@
     </row>
     <row r="267" ht="38" customHeight="1" spans="1:6">
       <c r="A267" s="4"/>
-      <c r="B267" s="40" t="s">
+      <c r="B267" s="37" t="s">
         <v>422</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -11600,7 +11711,7 @@
     </row>
     <row r="268" ht="38" customHeight="1" spans="1:6">
       <c r="A268" s="4"/>
-      <c r="B268" s="41"/>
+      <c r="B268" s="38"/>
       <c r="C268" s="5" t="s">
         <v>424</v>
       </c>
@@ -11610,7 +11721,7 @@
     </row>
     <row r="269" ht="38" customHeight="1" spans="1:6">
       <c r="A269" s="4"/>
-      <c r="B269" s="42"/>
+      <c r="B269" s="39"/>
       <c r="C269" s="5" t="s">
         <v>425</v>
       </c>
@@ -11620,7 +11731,7 @@
     </row>
     <row r="270" ht="38" customHeight="1" spans="1:6">
       <c r="A270" s="4"/>
-      <c r="B270" s="40" t="s">
+      <c r="B270" s="37" t="s">
         <v>426</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -11632,7 +11743,7 @@
     </row>
     <row r="271" ht="38" customHeight="1" spans="1:6">
       <c r="A271" s="4"/>
-      <c r="B271" s="41"/>
+      <c r="B271" s="38"/>
       <c r="C271" s="9" t="s">
         <v>428</v>
       </c>
@@ -11642,7 +11753,7 @@
     </row>
     <row r="272" ht="38" customHeight="1" spans="1:6">
       <c r="A272" s="4"/>
-      <c r="B272" s="42"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="5" t="s">
         <v>429</v>
       </c>
@@ -11652,7 +11763,7 @@
     </row>
     <row r="273" ht="38" customHeight="1" spans="1:6">
       <c r="A273" s="4"/>
-      <c r="B273" s="40" t="s">
+      <c r="B273" s="37" t="s">
         <v>430</v>
       </c>
       <c r="C273" s="5" t="s">
@@ -11664,7 +11775,7 @@
     </row>
     <row r="274" ht="38" customHeight="1" spans="1:6">
       <c r="A274" s="4"/>
-      <c r="B274" s="41"/>
+      <c r="B274" s="38"/>
       <c r="C274" s="5" t="s">
         <v>432</v>
       </c>
@@ -11674,7 +11785,7 @@
     </row>
     <row r="275" ht="38" customHeight="1" spans="1:6">
       <c r="A275" s="4"/>
-      <c r="B275" s="42"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="5" t="s">
         <v>433</v>
       </c>
@@ -15042,10 +15153,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -15279,7 +15390,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="22" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="9" t="s">
@@ -15289,7 +15400,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="23" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
@@ -15299,7 +15410,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="24" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
@@ -15309,7 +15420,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="25" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="9" t="s">
@@ -15319,9 +15430,9 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="26" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A26" s="16"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>883</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -15331,9 +15442,9 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="27" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A27" s="16"/>
-      <c r="B27" s="38"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="9" t="s">
         <v>885</v>
       </c>
@@ -15341,7 +15452,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" s="34" customFormat="1" customHeight="1" spans="1:6">
+    <row r="28" s="14" customFormat="1" customHeight="1" spans="1:6">
       <c r="A28" s="17"/>
       <c r="B28" s="25" t="s">
         <v>886</v>
@@ -15353,8 +15464,8 @@
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A29" s="37" t="s">
+    <row r="29" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A29" s="34" t="s">
         <v>888</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -15367,9 +15478,9 @@
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A30" s="39"/>
-      <c r="B30" s="37" t="s">
+    <row r="30" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A30" s="36"/>
+      <c r="B30" s="34" t="s">
         <v>891</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -15379,9 +15490,9 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+    <row r="31" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="9" t="s">
         <v>893</v>
       </c>
@@ -15389,9 +15500,9 @@
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
+    <row r="32" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A32" s="36"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="9" t="s">
         <v>894</v>
       </c>
@@ -15399,9 +15510,9 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A33" s="39"/>
-      <c r="B33" s="37" t="s">
+    <row r="33" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A33" s="36"/>
+      <c r="B33" s="34" t="s">
         <v>895</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -15411,9 +15522,9 @@
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A34" s="39"/>
-      <c r="B34" s="38"/>
+    <row r="34" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A34" s="36"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="7" t="s">
         <v>897</v>
       </c>
@@ -15421,9 +15532,9 @@
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A35" s="39"/>
-      <c r="B35" s="37" t="s">
+    <row r="35" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A35" s="36"/>
+      <c r="B35" s="34" t="s">
         <v>898</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -15433,9 +15544,9 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A36" s="39"/>
-      <c r="B36" s="38"/>
+    <row r="36" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A36" s="36"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="9" t="s">
         <v>900</v>
       </c>
@@ -15443,8 +15554,8 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" s="34" customFormat="1" ht="58" customHeight="1" spans="1:6">
-      <c r="A37" s="39"/>
+    <row r="37" s="14" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A37" s="36"/>
       <c r="B37" s="25" t="s">
         <v>901</v>
       </c>
@@ -15455,9 +15566,9 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
     </row>
-    <row r="38" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A38" s="39"/>
-      <c r="B38" s="37" t="s">
+    <row r="38" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A38" s="36"/>
+      <c r="B38" s="34" t="s">
         <v>903</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -15467,9 +15578,9 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A39" s="39"/>
-      <c r="B39" s="38"/>
+    <row r="39" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A39" s="36"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="9" t="s">
         <v>905</v>
       </c>
@@ -15477,8 +15588,8 @@
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A40" s="39"/>
+    <row r="40" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A40" s="36"/>
       <c r="B40" s="25" t="s">
         <v>906</v>
       </c>
@@ -15489,8 +15600,8 @@
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A41" s="39"/>
+    <row r="41" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A41" s="36"/>
       <c r="B41" s="25" t="s">
         <v>908</v>
       </c>
@@ -15501,8 +15612,8 @@
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A42" s="39"/>
+    <row r="42" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A42" s="36"/>
       <c r="B42" s="25" t="s">
         <v>910</v>
       </c>
@@ -15513,8 +15624,8 @@
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="39"/>
+    <row r="43" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A43" s="36"/>
       <c r="B43" s="25" t="s">
         <v>912</v>
       </c>
@@ -15525,8 +15636,8 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A44" s="39"/>
+    <row r="44" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A44" s="36"/>
       <c r="B44" s="25" t="s">
         <v>914</v>
       </c>
@@ -15537,8 +15648,8 @@
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
     </row>
-    <row r="45" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A45" s="39"/>
+    <row r="45" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A45" s="36"/>
       <c r="B45" s="25" t="s">
         <v>916</v>
       </c>
@@ -15549,9 +15660,9 @@
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A46" s="39"/>
-      <c r="B46" s="37" t="s">
+    <row r="46" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A46" s="36"/>
+      <c r="B46" s="34" t="s">
         <v>918</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -15561,9 +15672,9 @@
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+    <row r="47" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="9" t="s">
         <v>920</v>
       </c>
@@ -15571,11 +15682,11 @@
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A48" s="37" t="s">
+    <row r="48" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A48" s="34" t="s">
         <v>921</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="34" t="s">
         <v>922</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -15585,9 +15696,9 @@
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A49" s="39"/>
-      <c r="B49" s="38"/>
+    <row r="49" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A49" s="36"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="9" t="s">
         <v>924</v>
       </c>
@@ -15595,9 +15706,9 @@
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A50" s="39"/>
-      <c r="B50" s="37" t="s">
+    <row r="50" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A50" s="36"/>
+      <c r="B50" s="34" t="s">
         <v>925</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -15607,9 +15718,9 @@
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A51" s="39"/>
-      <c r="B51" s="38"/>
+    <row r="51" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A51" s="36"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="9" t="s">
         <v>927</v>
       </c>
@@ -15617,9 +15728,9 @@
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A52" s="39"/>
-      <c r="B52" s="37" t="s">
+    <row r="52" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A52" s="36"/>
+      <c r="B52" s="34" t="s">
         <v>928</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -15629,9 +15740,9 @@
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A53" s="39"/>
-      <c r="B53" s="38"/>
+    <row r="53" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A53" s="36"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="9" t="s">
         <v>930</v>
       </c>
@@ -15639,9 +15750,9 @@
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
     </row>
-    <row r="54" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A54" s="39"/>
-      <c r="B54" s="37" t="s">
+    <row r="54" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A54" s="36"/>
+      <c r="B54" s="34" t="s">
         <v>931</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -15651,9 +15762,9 @@
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
+    <row r="55" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="9" t="s">
         <v>933</v>
       </c>
@@ -15661,9 +15772,9 @@
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A56" s="39"/>
-      <c r="B56" s="38"/>
+    <row r="56" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A56" s="36"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="9" t="s">
         <v>934</v>
       </c>
@@ -15671,9 +15782,9 @@
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
     </row>
-    <row r="57" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A57" s="39"/>
-      <c r="B57" s="37" t="s">
+    <row r="57" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A57" s="36"/>
+      <c r="B57" s="34" t="s">
         <v>935</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -15683,9 +15794,9 @@
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
     </row>
-    <row r="58" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+    <row r="58" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="9" t="s">
         <v>937</v>
       </c>
@@ -15693,9 +15804,9 @@
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
     </row>
-    <row r="59" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+    <row r="59" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="9" t="s">
         <v>938</v>
       </c>
@@ -15703,11 +15814,11 @@
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
     </row>
-    <row r="60" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A60" s="37" t="s">
+    <row r="60" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A60" s="34" t="s">
         <v>939</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="34" t="s">
         <v>106</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -15717,10 +15828,10 @@
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="37" t="s">
+    <row r="61" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="34" t="s">
         <v>941</v>
       </c>
       <c r="D61" s="24" t="s">
@@ -15729,39 +15840,39 @@
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+    <row r="62" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="25" t="s">
         <v>943</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
+    <row r="63" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="24" t="s">
         <v>944</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A64" s="39"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
+    <row r="64" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A64" s="36"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="25" t="s">
         <v>945</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
     </row>
-    <row r="65" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A65" s="39"/>
-      <c r="B65" s="37" t="s">
+    <row r="65" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A65" s="36"/>
+      <c r="B65" s="34" t="s">
         <v>946</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -15771,10 +15882,10 @@
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
     </row>
-    <row r="66" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="37" t="s">
+    <row r="66" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="34" t="s">
         <v>941</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -15783,49 +15894,49 @@
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+    <row r="67" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="25" t="s">
         <v>949</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
     </row>
-    <row r="68" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+    <row r="68" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="25" t="s">
         <v>950</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
+    <row r="69" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="25" t="s">
         <v>951</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
     </row>
-    <row r="70" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="38"/>
+    <row r="70" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="25" t="s">
         <v>952</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+    <row r="71" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="9" t="s">
         <v>953</v>
       </c>
@@ -15833,9 +15944,9 @@
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
     </row>
-    <row r="72" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A72" s="39"/>
-      <c r="B72" s="38"/>
+    <row r="72" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A72" s="36"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="9" t="s">
         <v>954</v>
       </c>
@@ -15843,9 +15954,9 @@
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A73" s="39"/>
-      <c r="B73" s="37" t="s">
+    <row r="73" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A73" s="36"/>
+      <c r="B73" s="34" t="s">
         <v>955</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -15855,9 +15966,9 @@
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
     </row>
-    <row r="74" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+    <row r="74" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="9" t="s">
         <v>957</v>
       </c>
@@ -15865,9 +15976,9 @@
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A75" s="39"/>
-      <c r="B75" s="38"/>
+    <row r="75" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A75" s="36"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="9" t="s">
         <v>958</v>
       </c>
@@ -15875,9 +15986,9 @@
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
     </row>
-    <row r="76" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A76" s="39"/>
-      <c r="B76" s="37" t="s">
+    <row r="76" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A76" s="36"/>
+      <c r="B76" s="34" t="s">
         <v>959</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -15887,9 +15998,9 @@
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
     </row>
-    <row r="77" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+    <row r="77" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="25" t="s">
         <v>961</v>
       </c>
@@ -15899,9 +16010,9 @@
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
     </row>
-    <row r="78" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+    <row r="78" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="25" t="s">
         <v>657</v>
       </c>
@@ -15911,9 +16022,9 @@
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
     </row>
-    <row r="79" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+    <row r="79" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="25" t="s">
         <v>964</v>
       </c>
@@ -15923,9 +16034,9 @@
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
     </row>
-    <row r="80" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+    <row r="80" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="25" t="s">
         <v>966</v>
       </c>
@@ -15935,9 +16046,9 @@
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+    <row r="81" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="25" t="s">
         <v>968</v>
       </c>
@@ -15947,9 +16058,9 @@
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+    <row r="82" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="25" t="s">
         <v>970</v>
       </c>
@@ -15959,9 +16070,9 @@
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A83" s="39"/>
-      <c r="B83" s="38"/>
+    <row r="83" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A83" s="36"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="25" t="s">
         <v>972</v>
       </c>
@@ -15971,9 +16082,9 @@
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A84" s="39"/>
-      <c r="B84" s="37" t="s">
+    <row r="84" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A84" s="36"/>
+      <c r="B84" s="34" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -15985,9 +16096,9 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A85" s="39"/>
-      <c r="B85" s="38"/>
+    <row r="85" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A85" s="36"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="9" t="s">
         <v>976</v>
       </c>
@@ -15995,9 +16106,9 @@
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A86" s="39"/>
-      <c r="B86" s="37" t="s">
+    <row r="86" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A86" s="36"/>
+      <c r="B86" s="34" t="s">
         <v>977</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -16007,9 +16118,9 @@
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
     </row>
-    <row r="87" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A87" s="39"/>
-      <c r="B87" s="38"/>
+    <row r="87" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A87" s="36"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="9" t="s">
         <v>979</v>
       </c>
@@ -16019,9 +16130,9 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A88" s="39"/>
-      <c r="B88" s="37" t="s">
+    <row r="88" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A88" s="36"/>
+      <c r="B88" s="34" t="s">
         <v>981</v>
       </c>
       <c r="C88" s="9" t="s">
@@ -16031,9 +16142,9 @@
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A89" s="39"/>
-      <c r="B89" s="38"/>
+    <row r="89" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A89" s="36"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="9" t="s">
         <v>983</v>
       </c>
@@ -16041,9 +16152,9 @@
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A90" s="39"/>
-      <c r="B90" s="37" t="s">
+    <row r="90" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A90" s="36"/>
+      <c r="B90" s="34" t="s">
         <v>984</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -16053,9 +16164,9 @@
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A91" s="39"/>
-      <c r="B91" s="38"/>
+    <row r="91" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A91" s="36"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="9" t="s">
         <v>986</v>
       </c>
@@ -16063,9 +16174,9 @@
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A92" s="39"/>
-      <c r="B92" s="37" t="s">
+    <row r="92" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A92" s="36"/>
+      <c r="B92" s="34" t="s">
         <v>987</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -16075,9 +16186,9 @@
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
+    <row r="93" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="9" t="s">
         <v>989</v>
       </c>
@@ -16085,9 +16196,9 @@
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A94" s="39"/>
-      <c r="B94" s="38"/>
+    <row r="94" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A94" s="36"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="9" t="s">
         <v>990</v>
       </c>
@@ -16095,9 +16206,9 @@
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A95" s="39"/>
-      <c r="B95" s="37" t="s">
+    <row r="95" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A95" s="36"/>
+      <c r="B95" s="34" t="s">
         <v>991</v>
       </c>
       <c r="C95" s="9" t="s">
@@ -16107,9 +16218,9 @@
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
+    <row r="96" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="9" t="s">
         <v>993</v>
       </c>
@@ -16117,9 +16228,9 @@
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A97" s="39"/>
-      <c r="B97" s="38"/>
+    <row r="97" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A97" s="36"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="9" t="s">
         <v>994</v>
       </c>
@@ -16127,9 +16238,9 @@
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A98" s="39"/>
-      <c r="B98" s="37" t="s">
+    <row r="98" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A98" s="36"/>
+      <c r="B98" s="34" t="s">
         <v>995</v>
       </c>
       <c r="C98" s="9" t="s">
@@ -16139,9 +16250,9 @@
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
+    <row r="99" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="9" t="s">
         <v>997</v>
       </c>
@@ -16149,9 +16260,9 @@
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A100" s="39"/>
-      <c r="B100" s="38"/>
+    <row r="100" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A100" s="36"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="9" t="s">
         <v>998</v>
       </c>
@@ -16159,9 +16270,9 @@
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A101" s="39"/>
-      <c r="B101" s="37" t="s">
+    <row r="101" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A101" s="36"/>
+      <c r="B101" s="34" t="s">
         <v>999</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -16173,9 +16284,9 @@
       </c>
       <c r="F101" s="25"/>
     </row>
-    <row r="102" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
+    <row r="102" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="9" t="s">
         <v>1002</v>
       </c>
@@ -16183,9 +16294,9 @@
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
     </row>
-    <row r="103" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
+    <row r="103" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="7" t="s">
         <v>1003</v>
       </c>
@@ -16193,11 +16304,11 @@
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
     </row>
-    <row r="104" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A104" s="37" t="s">
+    <row r="104" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A104" s="34" t="s">
         <v>1004</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="34" t="s">
         <v>1005</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -16207,9 +16318,9 @@
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
     </row>
-    <row r="105" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A105" s="39"/>
-      <c r="B105" s="38"/>
+    <row r="105" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A105" s="36"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="7" t="s">
         <v>1007</v>
       </c>
@@ -16217,9 +16328,9 @@
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
     </row>
-    <row r="106" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A106" s="39"/>
-      <c r="B106" s="37" t="s">
+    <row r="106" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A106" s="36"/>
+      <c r="B106" s="34" t="s">
         <v>1008</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -16229,9 +16340,9 @@
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
     </row>
-    <row r="107" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+    <row r="107" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="7" t="s">
         <v>1010</v>
       </c>
@@ -16239,9 +16350,9 @@
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
     </row>
-    <row r="108" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A108" s="39"/>
-      <c r="B108" s="38"/>
+    <row r="108" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A108" s="36"/>
+      <c r="B108" s="35"/>
       <c r="C108" s="7" t="s">
         <v>1011</v>
       </c>
@@ -16249,9 +16360,9 @@
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
     </row>
-    <row r="109" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A109" s="39"/>
-      <c r="B109" s="37" t="s">
+    <row r="109" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A109" s="36"/>
+      <c r="B109" s="34" t="s">
         <v>1012</v>
       </c>
       <c r="C109" s="24" t="s">
@@ -16263,9 +16374,9 @@
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
     </row>
-    <row r="110" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
+    <row r="110" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="24" t="s">
         <v>1015</v>
       </c>
@@ -16277,9 +16388,9 @@
       </c>
       <c r="F110" s="25"/>
     </row>
-    <row r="111" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
+    <row r="111" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="24" t="s">
         <v>1018</v>
       </c>
@@ -16289,9 +16400,9 @@
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
     </row>
-    <row r="112" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A112" s="39"/>
-      <c r="B112" s="38"/>
+    <row r="112" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A112" s="36"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="24" t="s">
         <v>1020</v>
       </c>
@@ -16301,9 +16412,9 @@
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
     </row>
-    <row r="113" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A113" s="39"/>
-      <c r="B113" s="37" t="s">
+    <row r="113" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A113" s="36"/>
+      <c r="B113" s="34" t="s">
         <v>1022</v>
       </c>
       <c r="C113" s="9" t="s">
@@ -16313,9 +16424,9 @@
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
     </row>
-    <row r="114" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
+    <row r="114" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="9" t="s">
         <v>1024</v>
       </c>
@@ -16323,9 +16434,9 @@
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
     </row>
-    <row r="115" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A115" s="39"/>
-      <c r="B115" s="38"/>
+    <row r="115" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A115" s="36"/>
+      <c r="B115" s="35"/>
       <c r="C115" s="7" t="s">
         <v>1025</v>
       </c>
@@ -16333,9 +16444,9 @@
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
     </row>
-    <row r="116" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A116" s="39"/>
-      <c r="B116" s="37" t="s">
+    <row r="116" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A116" s="36"/>
+      <c r="B116" s="34" t="s">
         <v>1026</v>
       </c>
       <c r="C116" s="25" t="s">
@@ -16347,9 +16458,9 @@
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
     </row>
-    <row r="117" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
+    <row r="117" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="25" t="s">
         <v>1029</v>
       </c>
@@ -16359,9 +16470,9 @@
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
     </row>
-    <row r="118" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
+    <row r="118" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="25" t="s">
         <v>1031</v>
       </c>
@@ -16371,9 +16482,9 @@
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
     </row>
-    <row r="119" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
+    <row r="119" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="25" t="s">
         <v>1032</v>
       </c>
@@ -16383,9 +16494,9 @@
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
     </row>
-    <row r="120" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
+    <row r="120" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="25" t="s">
         <v>1034</v>
       </c>
@@ -16395,9 +16506,9 @@
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
     </row>
-    <row r="121" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A121" s="39"/>
-      <c r="B121" s="38"/>
+    <row r="121" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A121" s="36"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="25" t="s">
         <v>1036</v>
       </c>
@@ -16407,9 +16518,9 @@
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
     </row>
-    <row r="122" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A122" s="39"/>
-      <c r="B122" s="37" t="s">
+    <row r="122" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A122" s="36"/>
+      <c r="B122" s="34" t="s">
         <v>1038</v>
       </c>
       <c r="C122" s="9" t="s">
@@ -16419,9 +16530,9 @@
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A123" s="39"/>
-      <c r="B123" s="39"/>
+    <row r="123" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="9" t="s">
         <v>1040</v>
       </c>
@@ -16429,9 +16540,9 @@
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" s="34" customFormat="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A124" s="39"/>
-      <c r="B124" s="38"/>
+    <row r="124" s="14" customFormat="1" ht="63" customHeight="1" spans="1:6">
+      <c r="A124" s="36"/>
+      <c r="B124" s="35"/>
       <c r="C124" s="9" t="s">
         <v>1041</v>
       </c>
@@ -16439,9 +16550,9 @@
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A125" s="39"/>
-      <c r="B125" s="37" t="s">
+    <row r="125" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A125" s="36"/>
+      <c r="B125" s="34" t="s">
         <v>1042</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -16451,9 +16562,9 @@
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
     </row>
-    <row r="126" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A126" s="39"/>
-      <c r="B126" s="38"/>
+    <row r="126" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A126" s="36"/>
+      <c r="B126" s="35"/>
       <c r="C126" s="9" t="s">
         <v>1044</v>
       </c>
@@ -16461,8 +16572,8 @@
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
     </row>
-    <row r="127" s="34" customFormat="1" ht="65" customHeight="1" spans="1:6">
-      <c r="A127" s="39"/>
+    <row r="127" s="14" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="A127" s="36"/>
       <c r="B127" s="25" t="s">
         <v>1045</v>
       </c>
@@ -16473,9 +16584,9 @@
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
     </row>
-    <row r="128" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A128" s="39"/>
-      <c r="B128" s="37" t="s">
+    <row r="128" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A128" s="36"/>
+      <c r="B128" s="34" t="s">
         <v>1047</v>
       </c>
       <c r="C128" s="9" t="s">
@@ -16485,9 +16596,9 @@
       <c r="E128" s="25"/>
       <c r="F128" s="25"/>
     </row>
-    <row r="129" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
+    <row r="129" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="25" t="s">
         <v>1049</v>
       </c>
@@ -16497,9 +16608,9 @@
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
     </row>
-    <row r="130" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
+    <row r="130" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="25" t="s">
         <v>1051</v>
       </c>
@@ -16509,9 +16620,9 @@
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
     </row>
-    <row r="131" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A131" s="39"/>
-      <c r="B131" s="38"/>
+    <row r="131" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A131" s="36"/>
+      <c r="B131" s="35"/>
       <c r="C131" s="9" t="s">
         <v>1053</v>
       </c>
@@ -16519,9 +16630,9 @@
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
     </row>
-    <row r="132" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A132" s="39"/>
-      <c r="B132" s="37" t="s">
+    <row r="132" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A132" s="36"/>
+      <c r="B132" s="34" t="s">
         <v>1054</v>
       </c>
       <c r="C132" s="9" t="s">
@@ -16531,9 +16642,9 @@
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
     </row>
-    <row r="133" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
+    <row r="133" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="9" t="s">
         <v>1056</v>
       </c>
@@ -16541,9 +16652,9 @@
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
     </row>
-    <row r="134" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
+    <row r="134" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
       <c r="C134" s="9" t="s">
         <v>1057</v>
       </c>
@@ -16551,11 +16662,11 @@
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
     </row>
-    <row r="135" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A135" s="37" t="s">
+    <row r="135" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A135" s="34" t="s">
         <v>1058</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="34" t="s">
         <v>1059</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -16565,9 +16676,9 @@
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
     </row>
-    <row r="136" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A136" s="39"/>
-      <c r="B136" s="38"/>
+    <row r="136" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A136" s="36"/>
+      <c r="B136" s="35"/>
       <c r="C136" s="9" t="s">
         <v>1061</v>
       </c>
@@ -16575,9 +16686,9 @@
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
     </row>
-    <row r="137" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A137" s="39"/>
-      <c r="B137" s="37" t="s">
+    <row r="137" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A137" s="36"/>
+      <c r="B137" s="34" t="s">
         <v>1062</v>
       </c>
       <c r="C137" s="9" t="s">
@@ -16587,9 +16698,9 @@
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
     </row>
-    <row r="138" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38"/>
+    <row r="138" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A138" s="36"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="9" t="s">
         <v>1064</v>
       </c>
@@ -16597,9 +16708,9 @@
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
     </row>
-    <row r="139" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A139" s="39"/>
-      <c r="B139" s="37" t="s">
+    <row r="139" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A139" s="36"/>
+      <c r="B139" s="34" t="s">
         <v>1065</v>
       </c>
       <c r="C139" s="9" t="s">
@@ -16609,9 +16720,9 @@
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
     </row>
-    <row r="140" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A140" s="39"/>
-      <c r="B140" s="38"/>
+    <row r="140" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A140" s="36"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="9" t="s">
         <v>1067</v>
       </c>
@@ -16619,9 +16730,9 @@
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
     </row>
-    <row r="141" s="34" customFormat="1" ht="55" customHeight="1" spans="1:6">
-      <c r="A141" s="39"/>
-      <c r="B141" s="37" t="s">
+    <row r="141" s="14" customFormat="1" ht="55" customHeight="1" spans="1:6">
+      <c r="A141" s="36"/>
+      <c r="B141" s="34" t="s">
         <v>1068</v>
       </c>
       <c r="C141" s="9" t="s">
@@ -16631,9 +16742,9 @@
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
     </row>
-    <row r="142" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A142" s="39"/>
-      <c r="B142" s="38"/>
+    <row r="142" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A142" s="36"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="9" t="s">
         <v>1070</v>
       </c>
@@ -16641,9 +16752,9 @@
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
     </row>
-    <row r="143" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A143" s="39"/>
-      <c r="B143" s="37" t="s">
+    <row r="143" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A143" s="36"/>
+      <c r="B143" s="34" t="s">
         <v>1071</v>
       </c>
       <c r="C143" s="9" t="s">
@@ -16653,9 +16764,9 @@
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
     </row>
-    <row r="144" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
+    <row r="144" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="9" t="s">
         <v>1073</v>
       </c>
@@ -16663,9 +16774,9 @@
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
     </row>
-    <row r="145" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
+    <row r="145" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="9" t="s">
         <v>1074</v>
       </c>
@@ -16675,9 +16786,9 @@
       </c>
       <c r="F145" s="25"/>
     </row>
-    <row r="146" s="34" customFormat="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A146" s="39"/>
-      <c r="B146" s="38"/>
+    <row r="146" s="14" customFormat="1" ht="63" customHeight="1" spans="1:6">
+      <c r="A146" s="36"/>
+      <c r="B146" s="35"/>
       <c r="C146" s="9" t="s">
         <v>1076</v>
       </c>
@@ -16687,9 +16798,9 @@
       </c>
       <c r="F146" s="25"/>
     </row>
-    <row r="147" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A147" s="39"/>
-      <c r="B147" s="37" t="s">
+    <row r="147" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A147" s="36"/>
+      <c r="B147" s="34" t="s">
         <v>1078</v>
       </c>
       <c r="C147" s="9" t="s">
@@ -16699,9 +16810,9 @@
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
     </row>
-    <row r="148" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A148" s="39"/>
-      <c r="B148" s="38"/>
+    <row r="148" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A148" s="36"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="9" t="s">
         <v>1080</v>
       </c>
@@ -16709,9 +16820,9 @@
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
     </row>
-    <row r="149" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A149" s="39"/>
-      <c r="B149" s="37" t="s">
+    <row r="149" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A149" s="36"/>
+      <c r="B149" s="34" t="s">
         <v>1081</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -16721,9 +16832,9 @@
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
     </row>
-    <row r="150" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A150" s="39"/>
-      <c r="B150" s="38"/>
+    <row r="150" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A150" s="36"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="9" t="s">
         <v>1083</v>
       </c>
@@ -16733,8 +16844,8 @@
       </c>
       <c r="F150" s="25"/>
     </row>
-    <row r="151" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A151" s="39"/>
+    <row r="151" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A151" s="36"/>
       <c r="B151" s="25" t="s">
         <v>1085</v>
       </c>
@@ -16745,8 +16856,8 @@
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
     </row>
-    <row r="152" s="34" customFormat="1" ht="59" customHeight="1" spans="1:6">
-      <c r="A152" s="39"/>
+    <row r="152" s="14" customFormat="1" ht="59" customHeight="1" spans="1:6">
+      <c r="A152" s="36"/>
       <c r="B152" s="25" t="s">
         <v>1087</v>
       </c>
@@ -16757,9 +16868,9 @@
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
     </row>
-    <row r="153" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A153" s="39"/>
-      <c r="B153" s="37" t="s">
+    <row r="153" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A153" s="36"/>
+      <c r="B153" s="34" t="s">
         <v>1089</v>
       </c>
       <c r="C153" s="9" t="s">
@@ -16769,9 +16880,9 @@
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
     </row>
-    <row r="154" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
+    <row r="154" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="25" t="s">
         <v>1091</v>
       </c>
@@ -16781,9 +16892,9 @@
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
     </row>
-    <row r="155" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A155" s="39"/>
-      <c r="B155" s="39"/>
+    <row r="155" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="25" t="s">
         <v>1093</v>
       </c>
@@ -16793,9 +16904,9 @@
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
     </row>
-    <row r="156" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
+    <row r="156" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A156" s="36"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="25" t="s">
         <v>1095</v>
       </c>
@@ -16805,9 +16916,9 @@
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
     </row>
-    <row r="157" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A157" s="39"/>
-      <c r="B157" s="38"/>
+    <row r="157" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A157" s="36"/>
+      <c r="B157" s="35"/>
       <c r="C157" s="25" t="s">
         <v>1097</v>
       </c>
@@ -16817,9 +16928,9 @@
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
     </row>
-    <row r="158" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A158" s="39"/>
-      <c r="B158" s="37" t="s">
+    <row r="158" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A158" s="36"/>
+      <c r="B158" s="34" t="s">
         <v>1099</v>
       </c>
       <c r="C158" s="9" t="s">
@@ -16831,9 +16942,9 @@
       </c>
       <c r="F158" s="25"/>
     </row>
-    <row r="159" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A159" s="39"/>
-      <c r="B159" s="39"/>
+    <row r="159" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="9" t="s">
         <v>1102</v>
       </c>
@@ -16841,9 +16952,9 @@
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
     </row>
-    <row r="160" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A160" s="39"/>
-      <c r="B160" s="38"/>
+    <row r="160" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A160" s="36"/>
+      <c r="B160" s="35"/>
       <c r="C160" s="9" t="s">
         <v>1103</v>
       </c>
@@ -16851,9 +16962,9 @@
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
     </row>
-    <row r="161" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A161" s="39"/>
-      <c r="B161" s="37" t="s">
+    <row r="161" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A161" s="36"/>
+      <c r="B161" s="34" t="s">
         <v>1104</v>
       </c>
       <c r="C161" s="9" t="s">
@@ -16863,9 +16974,9 @@
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
     </row>
-    <row r="162" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A162" s="39"/>
-      <c r="B162" s="38"/>
+    <row r="162" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A162" s="36"/>
+      <c r="B162" s="35"/>
       <c r="C162" s="9" t="s">
         <v>1106</v>
       </c>
@@ -16873,9 +16984,9 @@
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
     </row>
-    <row r="163" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A163" s="39"/>
-      <c r="B163" s="37" t="s">
+    <row r="163" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A163" s="36"/>
+      <c r="B163" s="34" t="s">
         <v>1107</v>
       </c>
       <c r="C163" s="9" t="s">
@@ -16885,9 +16996,9 @@
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
     </row>
-    <row r="164" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
+    <row r="164" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="9" t="s">
         <v>1109</v>
       </c>
@@ -16895,9 +17006,9 @@
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
     </row>
-    <row r="165" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A165" s="39"/>
-      <c r="B165" s="38"/>
+    <row r="165" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A165" s="36"/>
+      <c r="B165" s="35"/>
       <c r="C165" s="9" t="s">
         <v>1110</v>
       </c>
@@ -16905,9 +17016,9 @@
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
     </row>
-    <row r="166" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A166" s="39"/>
-      <c r="B166" s="37" t="s">
+    <row r="166" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A166" s="36"/>
+      <c r="B166" s="34" t="s">
         <v>1111</v>
       </c>
       <c r="C166" s="9" t="s">
@@ -16917,9 +17028,9 @@
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
     </row>
-    <row r="167" s="34" customFormat="1" ht="55" customHeight="1" spans="1:6">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
+    <row r="167" s="14" customFormat="1" ht="55" customHeight="1" spans="1:6">
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
       <c r="C167" s="25" t="s">
         <v>1113</v>
       </c>
@@ -16929,9 +17040,9 @@
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
     </row>
-    <row r="168" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
+    <row r="168" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="25" t="s">
         <v>1115</v>
       </c>
@@ -16941,9 +17052,9 @@
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
     </row>
-    <row r="169" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
+    <row r="169" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="25" t="s">
         <v>1117</v>
       </c>
@@ -16953,9 +17064,9 @@
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
     </row>
-    <row r="170" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
+    <row r="170" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A170" s="36"/>
+      <c r="B170" s="36"/>
       <c r="C170" s="25" t="s">
         <v>1119</v>
       </c>
@@ -16965,9 +17076,9 @@
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
     </row>
-    <row r="171" s="34" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A171" s="38"/>
-      <c r="B171" s="38"/>
+    <row r="171" s="14" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A171" s="35"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="9" t="s">
         <v>1121</v>
       </c>
@@ -16975,672 +17086,672 @@
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
     </row>
-    <row r="172" s="34" customFormat="1" customHeight="1"/>
-    <row r="173" s="34" customFormat="1" customHeight="1"/>
-    <row r="174" s="34" customFormat="1" customHeight="1"/>
-    <row r="175" s="34" customFormat="1" customHeight="1"/>
-    <row r="176" s="34" customFormat="1" customHeight="1"/>
-    <row r="177" s="34" customFormat="1" customHeight="1"/>
-    <row r="178" s="34" customFormat="1" customHeight="1"/>
-    <row r="179" s="34" customFormat="1" customHeight="1"/>
-    <row r="180" s="34" customFormat="1" customHeight="1"/>
-    <row r="181" s="34" customFormat="1" customHeight="1"/>
-    <row r="182" s="34" customFormat="1" customHeight="1"/>
-    <row r="183" s="34" customFormat="1" customHeight="1"/>
-    <row r="184" s="34" customFormat="1" customHeight="1"/>
-    <row r="185" s="34" customFormat="1" customHeight="1"/>
-    <row r="186" s="34" customFormat="1" customHeight="1"/>
-    <row r="187" s="34" customFormat="1" customHeight="1"/>
-    <row r="188" s="34" customFormat="1" customHeight="1"/>
-    <row r="189" s="34" customFormat="1" customHeight="1"/>
-    <row r="190" s="34" customFormat="1" customHeight="1"/>
-    <row r="191" s="34" customFormat="1" customHeight="1"/>
-    <row r="192" s="34" customFormat="1" customHeight="1"/>
-    <row r="193" s="34" customFormat="1" customHeight="1"/>
-    <row r="194" s="34" customFormat="1" customHeight="1"/>
-    <row r="195" s="34" customFormat="1" customHeight="1"/>
-    <row r="196" s="34" customFormat="1" customHeight="1"/>
-    <row r="197" s="34" customFormat="1" customHeight="1"/>
-    <row r="198" s="34" customFormat="1" customHeight="1"/>
-    <row r="199" s="34" customFormat="1" customHeight="1"/>
-    <row r="200" s="34" customFormat="1" customHeight="1"/>
-    <row r="201" s="34" customFormat="1" customHeight="1"/>
-    <row r="202" s="34" customFormat="1" customHeight="1"/>
-    <row r="203" s="34" customFormat="1" customHeight="1"/>
-    <row r="204" s="34" customFormat="1" customHeight="1"/>
-    <row r="205" s="34" customFormat="1" customHeight="1"/>
-    <row r="206" s="34" customFormat="1" customHeight="1"/>
-    <row r="207" s="34" customFormat="1" customHeight="1"/>
-    <row r="208" s="34" customFormat="1" customHeight="1"/>
-    <row r="209" s="34" customFormat="1" customHeight="1"/>
-    <row r="210" s="34" customFormat="1" customHeight="1"/>
-    <row r="211" s="34" customFormat="1" customHeight="1"/>
-    <row r="212" s="34" customFormat="1" customHeight="1"/>
-    <row r="213" s="34" customFormat="1" customHeight="1"/>
-    <row r="214" s="34" customFormat="1" customHeight="1"/>
-    <row r="215" s="34" customFormat="1" customHeight="1"/>
-    <row r="216" s="34" customFormat="1" customHeight="1"/>
-    <row r="217" s="34" customFormat="1" customHeight="1"/>
-    <row r="218" s="34" customFormat="1" customHeight="1"/>
-    <row r="219" s="34" customFormat="1" customHeight="1"/>
-    <row r="220" s="34" customFormat="1" customHeight="1"/>
-    <row r="221" s="34" customFormat="1" customHeight="1"/>
-    <row r="222" s="34" customFormat="1" customHeight="1"/>
-    <row r="223" s="34" customFormat="1" customHeight="1"/>
-    <row r="224" s="34" customFormat="1" customHeight="1"/>
-    <row r="225" s="34" customFormat="1" customHeight="1"/>
-    <row r="226" s="34" customFormat="1" customHeight="1"/>
-    <row r="227" s="34" customFormat="1" customHeight="1"/>
-    <row r="228" s="34" customFormat="1" customHeight="1"/>
-    <row r="229" s="34" customFormat="1" customHeight="1"/>
-    <row r="230" s="34" customFormat="1" customHeight="1"/>
-    <row r="231" s="34" customFormat="1" customHeight="1"/>
-    <row r="232" s="34" customFormat="1" customHeight="1"/>
-    <row r="233" s="34" customFormat="1" customHeight="1"/>
-    <row r="234" s="34" customFormat="1" customHeight="1"/>
-    <row r="235" s="34" customFormat="1" customHeight="1"/>
-    <row r="236" s="34" customFormat="1" customHeight="1"/>
-    <row r="237" s="34" customFormat="1" customHeight="1"/>
-    <row r="238" s="34" customFormat="1" customHeight="1"/>
-    <row r="239" s="34" customFormat="1" customHeight="1"/>
-    <row r="240" s="34" customFormat="1" customHeight="1"/>
-    <row r="241" s="34" customFormat="1" customHeight="1"/>
-    <row r="242" s="34" customFormat="1" customHeight="1"/>
-    <row r="243" s="34" customFormat="1" customHeight="1"/>
-    <row r="244" s="34" customFormat="1" customHeight="1"/>
-    <row r="245" s="34" customFormat="1" customHeight="1"/>
-    <row r="246" s="34" customFormat="1" customHeight="1"/>
-    <row r="247" s="34" customFormat="1" customHeight="1"/>
-    <row r="248" s="34" customFormat="1" customHeight="1"/>
-    <row r="249" s="34" customFormat="1" customHeight="1"/>
-    <row r="250" s="34" customFormat="1" customHeight="1"/>
-    <row r="251" s="34" customFormat="1" customHeight="1"/>
-    <row r="252" s="34" customFormat="1" customHeight="1"/>
-    <row r="253" s="34" customFormat="1" customHeight="1"/>
-    <row r="254" s="34" customFormat="1" customHeight="1"/>
-    <row r="255" s="34" customFormat="1" customHeight="1"/>
-    <row r="256" s="34" customFormat="1" customHeight="1"/>
-    <row r="257" s="34" customFormat="1" customHeight="1"/>
-    <row r="258" s="34" customFormat="1" customHeight="1"/>
-    <row r="259" s="34" customFormat="1" customHeight="1"/>
-    <row r="260" s="34" customFormat="1" customHeight="1"/>
-    <row r="261" s="34" customFormat="1" customHeight="1"/>
-    <row r="262" s="34" customFormat="1" customHeight="1"/>
-    <row r="263" s="34" customFormat="1" customHeight="1"/>
-    <row r="264" s="34" customFormat="1" customHeight="1"/>
-    <row r="265" s="34" customFormat="1" customHeight="1"/>
-    <row r="266" s="34" customFormat="1" customHeight="1"/>
-    <row r="267" s="34" customFormat="1" customHeight="1"/>
-    <row r="268" s="34" customFormat="1" customHeight="1"/>
-    <row r="269" s="34" customFormat="1" customHeight="1"/>
-    <row r="270" s="34" customFormat="1" customHeight="1"/>
-    <row r="271" s="34" customFormat="1" customHeight="1"/>
-    <row r="272" s="34" customFormat="1" customHeight="1"/>
-    <row r="273" s="34" customFormat="1" customHeight="1"/>
-    <row r="274" s="34" customFormat="1" customHeight="1"/>
-    <row r="275" s="34" customFormat="1" customHeight="1"/>
-    <row r="276" s="34" customFormat="1" customHeight="1"/>
-    <row r="277" s="34" customFormat="1" customHeight="1"/>
-    <row r="278" s="34" customFormat="1" customHeight="1"/>
-    <row r="279" s="34" customFormat="1" customHeight="1"/>
-    <row r="280" s="34" customFormat="1" customHeight="1"/>
-    <row r="281" s="34" customFormat="1" customHeight="1"/>
-    <row r="282" s="34" customFormat="1" customHeight="1"/>
-    <row r="283" s="34" customFormat="1" customHeight="1"/>
-    <row r="284" s="34" customFormat="1" customHeight="1"/>
-    <row r="285" s="34" customFormat="1" customHeight="1"/>
-    <row r="286" s="34" customFormat="1" customHeight="1"/>
-    <row r="287" s="34" customFormat="1" customHeight="1"/>
-    <row r="288" s="34" customFormat="1" customHeight="1"/>
-    <row r="289" s="34" customFormat="1" customHeight="1"/>
-    <row r="290" s="34" customFormat="1" customHeight="1"/>
-    <row r="291" s="34" customFormat="1" customHeight="1"/>
-    <row r="292" s="34" customFormat="1" customHeight="1"/>
-    <row r="293" s="34" customFormat="1" customHeight="1"/>
-    <row r="294" s="34" customFormat="1" customHeight="1"/>
-    <row r="295" s="34" customFormat="1" customHeight="1"/>
-    <row r="296" s="34" customFormat="1" customHeight="1"/>
-    <row r="297" s="34" customFormat="1" customHeight="1"/>
-    <row r="298" s="34" customFormat="1" customHeight="1"/>
-    <row r="299" s="34" customFormat="1" customHeight="1"/>
-    <row r="300" s="34" customFormat="1" customHeight="1"/>
-    <row r="301" s="34" customFormat="1" customHeight="1"/>
-    <row r="302" s="34" customFormat="1" customHeight="1"/>
-    <row r="303" s="34" customFormat="1" customHeight="1"/>
-    <row r="304" s="34" customFormat="1" customHeight="1"/>
-    <row r="305" s="34" customFormat="1" customHeight="1"/>
-    <row r="306" s="34" customFormat="1" customHeight="1"/>
-    <row r="307" s="34" customFormat="1" customHeight="1"/>
-    <row r="308" s="34" customFormat="1" customHeight="1"/>
-    <row r="309" s="34" customFormat="1" customHeight="1"/>
-    <row r="310" s="34" customFormat="1" customHeight="1"/>
-    <row r="311" s="34" customFormat="1" customHeight="1"/>
-    <row r="312" s="34" customFormat="1" customHeight="1"/>
-    <row r="313" s="34" customFormat="1" customHeight="1"/>
-    <row r="314" s="34" customFormat="1" customHeight="1"/>
-    <row r="315" s="34" customFormat="1" customHeight="1"/>
-    <row r="316" s="34" customFormat="1" customHeight="1"/>
-    <row r="317" s="34" customFormat="1" customHeight="1"/>
-    <row r="318" s="34" customFormat="1" customHeight="1"/>
-    <row r="319" s="34" customFormat="1" customHeight="1"/>
-    <row r="320" s="34" customFormat="1" customHeight="1"/>
-    <row r="321" s="34" customFormat="1" customHeight="1"/>
-    <row r="322" s="34" customFormat="1" customHeight="1"/>
-    <row r="323" s="34" customFormat="1" customHeight="1"/>
-    <row r="324" s="34" customFormat="1" customHeight="1"/>
-    <row r="325" s="34" customFormat="1" customHeight="1"/>
-    <row r="326" s="34" customFormat="1" customHeight="1"/>
-    <row r="327" s="34" customFormat="1" customHeight="1"/>
-    <row r="328" s="34" customFormat="1" customHeight="1"/>
-    <row r="329" s="34" customFormat="1" customHeight="1"/>
-    <row r="330" s="34" customFormat="1" customHeight="1"/>
-    <row r="331" s="34" customFormat="1" customHeight="1"/>
-    <row r="332" s="34" customFormat="1" customHeight="1"/>
-    <row r="333" s="34" customFormat="1" customHeight="1"/>
-    <row r="334" s="34" customFormat="1" customHeight="1"/>
-    <row r="335" s="34" customFormat="1" customHeight="1"/>
-    <row r="336" s="34" customFormat="1" customHeight="1"/>
-    <row r="337" s="34" customFormat="1" customHeight="1"/>
-    <row r="338" s="34" customFormat="1" customHeight="1"/>
-    <row r="339" s="34" customFormat="1" customHeight="1"/>
-    <row r="340" s="34" customFormat="1" customHeight="1"/>
-    <row r="341" s="34" customFormat="1" customHeight="1"/>
-    <row r="342" s="34" customFormat="1" customHeight="1"/>
-    <row r="343" s="34" customFormat="1" customHeight="1"/>
-    <row r="344" s="34" customFormat="1" customHeight="1"/>
-    <row r="345" s="34" customFormat="1" customHeight="1"/>
-    <row r="346" s="34" customFormat="1" customHeight="1"/>
-    <row r="347" s="34" customFormat="1" customHeight="1"/>
-    <row r="348" s="34" customFormat="1" customHeight="1"/>
-    <row r="349" s="34" customFormat="1" customHeight="1"/>
-    <row r="350" s="34" customFormat="1" customHeight="1"/>
-    <row r="351" s="34" customFormat="1" customHeight="1"/>
-    <row r="352" s="34" customFormat="1" customHeight="1"/>
-    <row r="353" s="34" customFormat="1" customHeight="1"/>
-    <row r="354" s="34" customFormat="1" customHeight="1"/>
-    <row r="355" s="34" customFormat="1" customHeight="1"/>
-    <row r="356" s="34" customFormat="1" customHeight="1"/>
-    <row r="357" s="34" customFormat="1" customHeight="1"/>
-    <row r="358" s="34" customFormat="1" customHeight="1"/>
-    <row r="359" s="34" customFormat="1" customHeight="1"/>
-    <row r="360" s="34" customFormat="1" customHeight="1"/>
-    <row r="361" s="34" customFormat="1" customHeight="1"/>
-    <row r="362" s="34" customFormat="1" customHeight="1"/>
-    <row r="363" s="34" customFormat="1" customHeight="1"/>
-    <row r="364" s="34" customFormat="1" customHeight="1"/>
-    <row r="365" s="34" customFormat="1" customHeight="1"/>
-    <row r="366" s="34" customFormat="1" customHeight="1"/>
-    <row r="367" s="34" customFormat="1" customHeight="1"/>
-    <row r="368" s="34" customFormat="1" customHeight="1"/>
-    <row r="369" s="34" customFormat="1" customHeight="1"/>
-    <row r="370" s="34" customFormat="1" customHeight="1"/>
-    <row r="371" s="34" customFormat="1" customHeight="1"/>
-    <row r="372" s="34" customFormat="1" customHeight="1"/>
-    <row r="373" s="34" customFormat="1" customHeight="1"/>
-    <row r="374" s="34" customFormat="1" customHeight="1"/>
-    <row r="375" s="34" customFormat="1" customHeight="1"/>
-    <row r="376" s="34" customFormat="1" customHeight="1"/>
-    <row r="377" s="34" customFormat="1" customHeight="1"/>
-    <row r="378" s="34" customFormat="1" customHeight="1"/>
-    <row r="379" s="34" customFormat="1" customHeight="1"/>
-    <row r="380" s="34" customFormat="1" customHeight="1"/>
-    <row r="381" s="34" customFormat="1" customHeight="1"/>
-    <row r="382" s="34" customFormat="1" customHeight="1"/>
-    <row r="383" s="34" customFormat="1" customHeight="1"/>
-    <row r="384" s="34" customFormat="1" customHeight="1"/>
-    <row r="385" s="34" customFormat="1" customHeight="1"/>
-    <row r="386" s="34" customFormat="1" customHeight="1"/>
-    <row r="387" s="34" customFormat="1" customHeight="1"/>
-    <row r="388" s="34" customFormat="1" customHeight="1"/>
-    <row r="389" s="34" customFormat="1" customHeight="1"/>
-    <row r="390" s="34" customFormat="1" customHeight="1"/>
-    <row r="391" s="34" customFormat="1" customHeight="1"/>
-    <row r="392" s="34" customFormat="1" customHeight="1"/>
-    <row r="393" s="34" customFormat="1" customHeight="1"/>
-    <row r="394" s="34" customFormat="1" customHeight="1"/>
-    <row r="395" s="34" customFormat="1" customHeight="1"/>
-    <row r="396" s="34" customFormat="1" customHeight="1"/>
-    <row r="397" s="34" customFormat="1" customHeight="1"/>
-    <row r="398" s="34" customFormat="1" customHeight="1"/>
-    <row r="399" s="34" customFormat="1" customHeight="1"/>
-    <row r="400" s="34" customFormat="1" customHeight="1"/>
-    <row r="401" s="34" customFormat="1" customHeight="1"/>
-    <row r="402" s="34" customFormat="1" customHeight="1"/>
-    <row r="403" s="34" customFormat="1" customHeight="1"/>
-    <row r="404" s="34" customFormat="1" customHeight="1"/>
-    <row r="405" s="34" customFormat="1" customHeight="1"/>
-    <row r="406" s="34" customFormat="1" customHeight="1"/>
-    <row r="407" s="34" customFormat="1" customHeight="1"/>
-    <row r="408" s="34" customFormat="1" customHeight="1"/>
-    <row r="409" s="34" customFormat="1" customHeight="1"/>
-    <row r="410" s="34" customFormat="1" customHeight="1"/>
-    <row r="411" s="34" customFormat="1" customHeight="1"/>
-    <row r="412" s="34" customFormat="1" customHeight="1"/>
-    <row r="413" s="34" customFormat="1" customHeight="1"/>
-    <row r="414" s="34" customFormat="1" customHeight="1"/>
-    <row r="415" s="34" customFormat="1" customHeight="1"/>
-    <row r="416" s="34" customFormat="1" customHeight="1"/>
-    <row r="417" s="34" customFormat="1" customHeight="1"/>
-    <row r="418" s="34" customFormat="1" customHeight="1"/>
-    <row r="419" s="34" customFormat="1" customHeight="1"/>
-    <row r="420" s="34" customFormat="1" customHeight="1"/>
-    <row r="421" s="34" customFormat="1" customHeight="1"/>
-    <row r="422" s="34" customFormat="1" customHeight="1"/>
-    <row r="423" s="34" customFormat="1" customHeight="1"/>
-    <row r="424" s="34" customFormat="1" customHeight="1"/>
-    <row r="425" s="34" customFormat="1" customHeight="1"/>
-    <row r="426" s="34" customFormat="1" customHeight="1"/>
-    <row r="427" s="34" customFormat="1" customHeight="1"/>
-    <row r="428" s="34" customFormat="1" customHeight="1"/>
-    <row r="429" s="34" customFormat="1" customHeight="1"/>
-    <row r="430" s="34" customFormat="1" customHeight="1"/>
-    <row r="431" s="34" customFormat="1" customHeight="1"/>
-    <row r="432" s="34" customFormat="1" customHeight="1"/>
-    <row r="433" s="34" customFormat="1" customHeight="1"/>
-    <row r="434" s="34" customFormat="1" customHeight="1"/>
-    <row r="435" s="34" customFormat="1" customHeight="1"/>
-    <row r="436" s="34" customFormat="1" customHeight="1"/>
-    <row r="437" s="34" customFormat="1" customHeight="1"/>
-    <row r="438" s="34" customFormat="1" customHeight="1"/>
-    <row r="439" s="34" customFormat="1" customHeight="1"/>
-    <row r="440" s="34" customFormat="1" customHeight="1"/>
-    <row r="441" s="34" customFormat="1" customHeight="1"/>
-    <row r="442" s="34" customFormat="1" customHeight="1"/>
-    <row r="443" s="34" customFormat="1" customHeight="1"/>
-    <row r="444" s="34" customFormat="1" customHeight="1"/>
-    <row r="445" s="34" customFormat="1" customHeight="1"/>
-    <row r="446" s="34" customFormat="1" customHeight="1"/>
-    <row r="447" s="34" customFormat="1" customHeight="1"/>
-    <row r="448" s="34" customFormat="1" customHeight="1"/>
-    <row r="449" s="34" customFormat="1" customHeight="1"/>
-    <row r="450" s="34" customFormat="1" customHeight="1"/>
-    <row r="451" s="34" customFormat="1" customHeight="1"/>
-    <row r="452" s="34" customFormat="1" customHeight="1"/>
-    <row r="453" s="34" customFormat="1" customHeight="1"/>
-    <row r="454" s="34" customFormat="1" customHeight="1"/>
-    <row r="455" s="34" customFormat="1" customHeight="1"/>
-    <row r="456" s="34" customFormat="1" customHeight="1"/>
-    <row r="457" s="34" customFormat="1" customHeight="1"/>
-    <row r="458" s="34" customFormat="1" customHeight="1"/>
-    <row r="459" s="34" customFormat="1" customHeight="1"/>
-    <row r="460" s="34" customFormat="1" customHeight="1"/>
-    <row r="461" s="34" customFormat="1" customHeight="1"/>
-    <row r="462" s="34" customFormat="1" customHeight="1"/>
-    <row r="463" s="34" customFormat="1" customHeight="1"/>
-    <row r="464" s="34" customFormat="1" customHeight="1"/>
-    <row r="465" s="34" customFormat="1" customHeight="1"/>
-    <row r="466" s="34" customFormat="1" customHeight="1"/>
-    <row r="467" s="34" customFormat="1" customHeight="1"/>
-    <row r="468" s="34" customFormat="1" customHeight="1"/>
-    <row r="469" s="34" customFormat="1" customHeight="1"/>
-    <row r="470" s="34" customFormat="1" customHeight="1"/>
-    <row r="471" s="34" customFormat="1" customHeight="1"/>
-    <row r="472" s="34" customFormat="1" customHeight="1"/>
-    <row r="473" s="34" customFormat="1" customHeight="1"/>
-    <row r="474" s="34" customFormat="1" customHeight="1"/>
-    <row r="475" s="34" customFormat="1" customHeight="1"/>
-    <row r="476" s="34" customFormat="1" customHeight="1"/>
-    <row r="477" s="34" customFormat="1" customHeight="1"/>
-    <row r="478" s="34" customFormat="1" customHeight="1"/>
-    <row r="479" s="34" customFormat="1" customHeight="1"/>
-    <row r="480" s="34" customFormat="1" customHeight="1"/>
-    <row r="481" s="34" customFormat="1" customHeight="1"/>
-    <row r="482" s="34" customFormat="1" customHeight="1"/>
-    <row r="483" s="34" customFormat="1" customHeight="1"/>
-    <row r="484" s="34" customFormat="1" customHeight="1"/>
-    <row r="485" s="34" customFormat="1" customHeight="1"/>
-    <row r="486" s="34" customFormat="1" customHeight="1"/>
-    <row r="487" s="34" customFormat="1" customHeight="1"/>
-    <row r="488" s="34" customFormat="1" customHeight="1"/>
-    <row r="489" s="34" customFormat="1" customHeight="1"/>
-    <row r="490" s="34" customFormat="1" customHeight="1"/>
-    <row r="491" s="34" customFormat="1" customHeight="1"/>
-    <row r="492" s="34" customFormat="1" customHeight="1"/>
-    <row r="493" s="34" customFormat="1" customHeight="1"/>
-    <row r="494" s="34" customFormat="1" customHeight="1"/>
-    <row r="495" s="34" customFormat="1" customHeight="1"/>
-    <row r="496" s="34" customFormat="1" customHeight="1"/>
-    <row r="497" s="34" customFormat="1" customHeight="1"/>
-    <row r="498" s="34" customFormat="1" customHeight="1"/>
-    <row r="499" s="34" customFormat="1" customHeight="1"/>
-    <row r="500" s="34" customFormat="1" customHeight="1"/>
-    <row r="501" s="34" customFormat="1" customHeight="1"/>
-    <row r="502" s="34" customFormat="1" customHeight="1"/>
-    <row r="503" s="34" customFormat="1" customHeight="1"/>
-    <row r="504" s="34" customFormat="1" customHeight="1"/>
-    <row r="505" s="34" customFormat="1" customHeight="1"/>
-    <row r="506" s="34" customFormat="1" customHeight="1"/>
-    <row r="507" s="34" customFormat="1" customHeight="1"/>
-    <row r="508" s="34" customFormat="1" customHeight="1"/>
-    <row r="509" s="34" customFormat="1" customHeight="1"/>
-    <row r="510" s="34" customFormat="1" customHeight="1"/>
-    <row r="511" s="34" customFormat="1" customHeight="1"/>
-    <row r="512" s="34" customFormat="1" customHeight="1"/>
-    <row r="513" s="34" customFormat="1" customHeight="1"/>
-    <row r="514" s="34" customFormat="1" customHeight="1"/>
-    <row r="515" s="34" customFormat="1" customHeight="1"/>
-    <row r="516" s="34" customFormat="1" customHeight="1"/>
-    <row r="517" s="34" customFormat="1" customHeight="1"/>
-    <row r="518" s="34" customFormat="1" customHeight="1"/>
-    <row r="519" s="34" customFormat="1" customHeight="1"/>
-    <row r="520" s="34" customFormat="1" customHeight="1"/>
-    <row r="521" s="34" customFormat="1" customHeight="1"/>
-    <row r="522" s="34" customFormat="1" customHeight="1"/>
-    <row r="523" s="34" customFormat="1" customHeight="1"/>
-    <row r="524" s="34" customFormat="1" customHeight="1"/>
-    <row r="525" s="34" customFormat="1" customHeight="1"/>
-    <row r="526" s="34" customFormat="1" customHeight="1"/>
-    <row r="527" s="34" customFormat="1" customHeight="1"/>
-    <row r="528" s="34" customFormat="1" customHeight="1"/>
-    <row r="529" s="34" customFormat="1" customHeight="1"/>
-    <row r="530" s="34" customFormat="1" customHeight="1"/>
-    <row r="531" s="34" customFormat="1" customHeight="1"/>
-    <row r="532" s="34" customFormat="1" customHeight="1"/>
-    <row r="533" s="34" customFormat="1" customHeight="1"/>
-    <row r="534" s="34" customFormat="1" customHeight="1"/>
-    <row r="535" s="34" customFormat="1" customHeight="1"/>
-    <row r="536" s="34" customFormat="1" customHeight="1"/>
-    <row r="537" s="34" customFormat="1" customHeight="1"/>
-    <row r="538" s="34" customFormat="1" customHeight="1"/>
-    <row r="539" s="34" customFormat="1" customHeight="1"/>
-    <row r="540" s="34" customFormat="1" customHeight="1"/>
-    <row r="541" s="34" customFormat="1" customHeight="1"/>
-    <row r="542" s="34" customFormat="1" customHeight="1"/>
-    <row r="543" s="34" customFormat="1" customHeight="1"/>
-    <row r="544" s="34" customFormat="1" customHeight="1"/>
-    <row r="545" s="34" customFormat="1" customHeight="1"/>
-    <row r="546" s="34" customFormat="1" customHeight="1"/>
-    <row r="547" s="34" customFormat="1" customHeight="1"/>
-    <row r="548" s="34" customFormat="1" customHeight="1"/>
-    <row r="549" s="34" customFormat="1" customHeight="1"/>
-    <row r="550" s="34" customFormat="1" customHeight="1"/>
-    <row r="551" s="34" customFormat="1" customHeight="1"/>
-    <row r="552" s="34" customFormat="1" customHeight="1"/>
-    <row r="553" s="34" customFormat="1" customHeight="1"/>
-    <row r="554" s="34" customFormat="1" customHeight="1"/>
-    <row r="555" s="34" customFormat="1" customHeight="1"/>
-    <row r="556" s="34" customFormat="1" customHeight="1"/>
-    <row r="557" s="34" customFormat="1" customHeight="1"/>
-    <row r="558" s="34" customFormat="1" customHeight="1"/>
-    <row r="559" s="34" customFormat="1" customHeight="1"/>
-    <row r="560" s="34" customFormat="1" customHeight="1"/>
-    <row r="561" s="34" customFormat="1" customHeight="1"/>
-    <row r="562" s="34" customFormat="1" customHeight="1"/>
-    <row r="563" s="34" customFormat="1" customHeight="1"/>
-    <row r="564" s="34" customFormat="1" customHeight="1"/>
-    <row r="565" s="34" customFormat="1" customHeight="1"/>
-    <row r="566" s="34" customFormat="1" customHeight="1"/>
-    <row r="567" s="34" customFormat="1" customHeight="1"/>
-    <row r="568" s="34" customFormat="1" customHeight="1"/>
-    <row r="569" s="34" customFormat="1" customHeight="1"/>
-    <row r="570" s="34" customFormat="1" customHeight="1"/>
-    <row r="571" s="34" customFormat="1" customHeight="1"/>
-    <row r="572" s="34" customFormat="1" customHeight="1"/>
-    <row r="573" s="34" customFormat="1" customHeight="1"/>
-    <row r="574" s="34" customFormat="1" customHeight="1"/>
-    <row r="575" s="34" customFormat="1" customHeight="1"/>
-    <row r="576" s="34" customFormat="1" customHeight="1"/>
-    <row r="577" s="34" customFormat="1" customHeight="1"/>
-    <row r="578" s="34" customFormat="1" customHeight="1"/>
-    <row r="579" s="34" customFormat="1" customHeight="1"/>
-    <row r="580" s="34" customFormat="1" customHeight="1"/>
-    <row r="581" s="34" customFormat="1" customHeight="1"/>
-    <row r="582" s="34" customFormat="1" customHeight="1"/>
-    <row r="583" s="34" customFormat="1" customHeight="1"/>
-    <row r="584" s="34" customFormat="1" customHeight="1"/>
-    <row r="585" s="34" customFormat="1" customHeight="1"/>
-    <row r="586" s="34" customFormat="1" customHeight="1"/>
-    <row r="587" s="34" customFormat="1" customHeight="1"/>
-    <row r="588" s="34" customFormat="1" customHeight="1"/>
-    <row r="589" s="34" customFormat="1" customHeight="1"/>
-    <row r="590" s="34" customFormat="1" customHeight="1"/>
-    <row r="591" s="34" customFormat="1" customHeight="1"/>
-    <row r="592" s="34" customFormat="1" customHeight="1"/>
-    <row r="593" s="34" customFormat="1" customHeight="1"/>
-    <row r="594" s="34" customFormat="1" customHeight="1"/>
-    <row r="595" s="34" customFormat="1" customHeight="1"/>
-    <row r="596" s="34" customFormat="1" customHeight="1"/>
-    <row r="597" s="34" customFormat="1" customHeight="1"/>
-    <row r="598" s="34" customFormat="1" customHeight="1"/>
-    <row r="599" s="34" customFormat="1" customHeight="1"/>
-    <row r="600" s="34" customFormat="1" customHeight="1"/>
-    <row r="601" s="34" customFormat="1" customHeight="1"/>
-    <row r="602" s="34" customFormat="1" customHeight="1"/>
-    <row r="603" s="34" customFormat="1" customHeight="1"/>
-    <row r="604" s="34" customFormat="1" customHeight="1"/>
-    <row r="605" s="34" customFormat="1" customHeight="1"/>
-    <row r="606" s="34" customFormat="1" customHeight="1"/>
-    <row r="607" s="34" customFormat="1" customHeight="1"/>
-    <row r="608" s="34" customFormat="1" customHeight="1"/>
-    <row r="609" s="34" customFormat="1" customHeight="1"/>
-    <row r="610" s="34" customFormat="1" customHeight="1"/>
-    <row r="611" s="34" customFormat="1" customHeight="1"/>
-    <row r="612" s="34" customFormat="1" customHeight="1"/>
-    <row r="613" s="34" customFormat="1" customHeight="1"/>
-    <row r="614" s="34" customFormat="1" customHeight="1"/>
-    <row r="615" s="34" customFormat="1" customHeight="1"/>
-    <row r="616" s="34" customFormat="1" customHeight="1"/>
-    <row r="617" s="34" customFormat="1" customHeight="1"/>
-    <row r="618" s="34" customFormat="1" customHeight="1"/>
-    <row r="619" s="34" customFormat="1" customHeight="1"/>
-    <row r="620" s="34" customFormat="1" customHeight="1"/>
-    <row r="621" s="34" customFormat="1" customHeight="1"/>
-    <row r="622" s="34" customFormat="1" customHeight="1"/>
-    <row r="623" s="34" customFormat="1" customHeight="1"/>
-    <row r="624" s="34" customFormat="1" customHeight="1"/>
-    <row r="625" s="34" customFormat="1" customHeight="1"/>
-    <row r="626" s="34" customFormat="1" customHeight="1"/>
-    <row r="627" s="34" customFormat="1" customHeight="1"/>
-    <row r="628" s="34" customFormat="1" customHeight="1"/>
-    <row r="629" s="34" customFormat="1" customHeight="1"/>
-    <row r="630" s="34" customFormat="1" customHeight="1"/>
-    <row r="631" s="34" customFormat="1" customHeight="1"/>
-    <row r="632" s="34" customFormat="1" customHeight="1"/>
-    <row r="633" s="34" customFormat="1" customHeight="1"/>
-    <row r="634" s="34" customFormat="1" customHeight="1"/>
-    <row r="635" s="34" customFormat="1" customHeight="1"/>
-    <row r="636" s="34" customFormat="1" customHeight="1"/>
-    <row r="637" s="34" customFormat="1" customHeight="1"/>
-    <row r="638" s="34" customFormat="1" customHeight="1"/>
-    <row r="639" s="34" customFormat="1" customHeight="1"/>
-    <row r="640" s="34" customFormat="1" customHeight="1"/>
-    <row r="641" s="34" customFormat="1" customHeight="1"/>
-    <row r="642" s="34" customFormat="1" customHeight="1"/>
-    <row r="643" s="34" customFormat="1" customHeight="1"/>
-    <row r="644" s="34" customFormat="1" customHeight="1"/>
-    <row r="645" s="34" customFormat="1" customHeight="1"/>
-    <row r="646" s="34" customFormat="1" customHeight="1"/>
-    <row r="647" s="34" customFormat="1" customHeight="1"/>
-    <row r="648" s="34" customFormat="1" customHeight="1"/>
-    <row r="649" s="34" customFormat="1" customHeight="1"/>
-    <row r="650" s="34" customFormat="1" customHeight="1"/>
-    <row r="651" s="34" customFormat="1" customHeight="1"/>
-    <row r="652" s="34" customFormat="1" customHeight="1"/>
-    <row r="653" s="34" customFormat="1" customHeight="1"/>
-    <row r="654" s="34" customFormat="1" customHeight="1"/>
-    <row r="655" s="34" customFormat="1" customHeight="1"/>
-    <row r="656" s="34" customFormat="1" customHeight="1"/>
-    <row r="657" s="34" customFormat="1" customHeight="1"/>
-    <row r="658" s="34" customFormat="1" customHeight="1"/>
-    <row r="659" s="34" customFormat="1" customHeight="1"/>
-    <row r="660" s="34" customFormat="1" customHeight="1"/>
-    <row r="661" s="34" customFormat="1" customHeight="1"/>
-    <row r="662" s="34" customFormat="1" customHeight="1"/>
-    <row r="663" s="34" customFormat="1" customHeight="1"/>
-    <row r="664" s="34" customFormat="1" customHeight="1"/>
-    <row r="665" s="34" customFormat="1" customHeight="1"/>
-    <row r="666" s="34" customFormat="1" customHeight="1"/>
-    <row r="667" s="34" customFormat="1" customHeight="1"/>
-    <row r="668" s="34" customFormat="1" customHeight="1"/>
-    <row r="669" s="34" customFormat="1" customHeight="1"/>
-    <row r="670" s="34" customFormat="1" customHeight="1"/>
-    <row r="671" s="34" customFormat="1" customHeight="1"/>
-    <row r="672" s="34" customFormat="1" customHeight="1"/>
-    <row r="673" s="34" customFormat="1" customHeight="1"/>
-    <row r="674" s="34" customFormat="1" customHeight="1"/>
-    <row r="675" s="34" customFormat="1" customHeight="1"/>
-    <row r="676" s="34" customFormat="1" customHeight="1"/>
-    <row r="677" s="34" customFormat="1" customHeight="1"/>
-    <row r="678" s="34" customFormat="1" customHeight="1"/>
-    <row r="679" s="34" customFormat="1" customHeight="1"/>
-    <row r="680" s="34" customFormat="1" customHeight="1"/>
-    <row r="681" s="34" customFormat="1" customHeight="1"/>
-    <row r="682" s="34" customFormat="1" customHeight="1"/>
-    <row r="683" s="34" customFormat="1" customHeight="1"/>
-    <row r="684" s="34" customFormat="1" customHeight="1"/>
-    <row r="685" s="34" customFormat="1" customHeight="1"/>
-    <row r="686" s="34" customFormat="1" customHeight="1"/>
-    <row r="687" s="34" customFormat="1" customHeight="1"/>
-    <row r="688" s="34" customFormat="1" customHeight="1"/>
-    <row r="689" s="34" customFormat="1" customHeight="1"/>
-    <row r="690" s="34" customFormat="1" customHeight="1"/>
-    <row r="691" s="34" customFormat="1" customHeight="1"/>
-    <row r="692" s="34" customFormat="1" customHeight="1"/>
-    <row r="693" s="34" customFormat="1" customHeight="1"/>
-    <row r="694" s="34" customFormat="1" customHeight="1"/>
-    <row r="695" s="34" customFormat="1" customHeight="1"/>
-    <row r="696" s="34" customFormat="1" customHeight="1"/>
-    <row r="697" s="34" customFormat="1" customHeight="1"/>
-    <row r="698" s="34" customFormat="1" customHeight="1"/>
-    <row r="699" s="34" customFormat="1" customHeight="1"/>
-    <row r="700" s="34" customFormat="1" customHeight="1"/>
-    <row r="701" s="34" customFormat="1" customHeight="1"/>
-    <row r="702" s="34" customFormat="1" customHeight="1"/>
-    <row r="703" s="34" customFormat="1" customHeight="1"/>
-    <row r="704" s="34" customFormat="1" customHeight="1"/>
-    <row r="705" s="34" customFormat="1" customHeight="1"/>
-    <row r="706" s="34" customFormat="1" customHeight="1"/>
-    <row r="707" s="34" customFormat="1" customHeight="1"/>
-    <row r="708" s="34" customFormat="1" customHeight="1"/>
-    <row r="709" s="34" customFormat="1" customHeight="1"/>
-    <row r="710" s="34" customFormat="1" customHeight="1"/>
-    <row r="711" s="34" customFormat="1" customHeight="1"/>
-    <row r="712" s="34" customFormat="1" customHeight="1"/>
-    <row r="713" s="34" customFormat="1" customHeight="1"/>
-    <row r="714" s="34" customFormat="1" customHeight="1"/>
-    <row r="715" s="34" customFormat="1" customHeight="1"/>
-    <row r="716" s="34" customFormat="1" customHeight="1"/>
-    <row r="717" s="34" customFormat="1" customHeight="1"/>
-    <row r="718" s="34" customFormat="1" customHeight="1"/>
-    <row r="719" s="34" customFormat="1" customHeight="1"/>
-    <row r="720" s="34" customFormat="1" customHeight="1"/>
-    <row r="721" s="34" customFormat="1" customHeight="1"/>
-    <row r="722" s="34" customFormat="1" customHeight="1"/>
-    <row r="723" s="34" customFormat="1" customHeight="1"/>
-    <row r="724" s="34" customFormat="1" customHeight="1"/>
-    <row r="725" s="34" customFormat="1" customHeight="1"/>
-    <row r="726" s="34" customFormat="1" customHeight="1"/>
-    <row r="727" s="34" customFormat="1" customHeight="1"/>
-    <row r="728" s="34" customFormat="1" customHeight="1"/>
-    <row r="729" s="34" customFormat="1" customHeight="1"/>
-    <row r="730" s="34" customFormat="1" customHeight="1"/>
-    <row r="731" s="34" customFormat="1" customHeight="1"/>
-    <row r="732" s="34" customFormat="1" customHeight="1"/>
-    <row r="733" s="34" customFormat="1" customHeight="1"/>
-    <row r="734" s="34" customFormat="1" customHeight="1"/>
-    <row r="735" s="34" customFormat="1" customHeight="1"/>
-    <row r="736" s="34" customFormat="1" customHeight="1"/>
-    <row r="737" s="34" customFormat="1" customHeight="1"/>
-    <row r="738" s="34" customFormat="1" customHeight="1"/>
-    <row r="739" s="34" customFormat="1" customHeight="1"/>
-    <row r="740" s="34" customFormat="1" customHeight="1"/>
-    <row r="741" s="34" customFormat="1" customHeight="1"/>
-    <row r="742" s="34" customFormat="1" customHeight="1"/>
-    <row r="743" s="34" customFormat="1" customHeight="1"/>
-    <row r="744" s="34" customFormat="1" customHeight="1"/>
-    <row r="745" s="34" customFormat="1" customHeight="1"/>
-    <row r="746" s="34" customFormat="1" customHeight="1"/>
-    <row r="747" s="34" customFormat="1" customHeight="1"/>
-    <row r="748" s="34" customFormat="1" customHeight="1"/>
-    <row r="749" s="34" customFormat="1" customHeight="1"/>
-    <row r="750" s="34" customFormat="1" customHeight="1"/>
-    <row r="751" s="34" customFormat="1" customHeight="1"/>
-    <row r="752" s="34" customFormat="1" customHeight="1"/>
-    <row r="753" s="34" customFormat="1" customHeight="1"/>
-    <row r="754" s="34" customFormat="1" customHeight="1"/>
-    <row r="755" s="34" customFormat="1" customHeight="1"/>
-    <row r="756" s="34" customFormat="1" customHeight="1"/>
-    <row r="757" s="34" customFormat="1" customHeight="1"/>
-    <row r="758" s="34" customFormat="1" customHeight="1"/>
-    <row r="759" s="34" customFormat="1" customHeight="1"/>
-    <row r="760" s="34" customFormat="1" customHeight="1"/>
-    <row r="761" s="34" customFormat="1" customHeight="1"/>
-    <row r="762" s="34" customFormat="1" customHeight="1"/>
-    <row r="763" s="34" customFormat="1" customHeight="1"/>
-    <row r="764" s="34" customFormat="1" customHeight="1"/>
-    <row r="765" s="34" customFormat="1" customHeight="1"/>
-    <row r="766" s="34" customFormat="1" customHeight="1"/>
-    <row r="767" s="34" customFormat="1" customHeight="1"/>
-    <row r="768" s="34" customFormat="1" customHeight="1"/>
-    <row r="769" s="34" customFormat="1" customHeight="1"/>
-    <row r="770" s="34" customFormat="1" customHeight="1"/>
-    <row r="771" s="34" customFormat="1" customHeight="1"/>
-    <row r="772" s="34" customFormat="1" customHeight="1"/>
-    <row r="773" s="34" customFormat="1" customHeight="1"/>
-    <row r="774" s="34" customFormat="1" customHeight="1"/>
-    <row r="775" s="34" customFormat="1" customHeight="1"/>
-    <row r="776" s="34" customFormat="1" customHeight="1"/>
-    <row r="777" s="34" customFormat="1" customHeight="1"/>
-    <row r="778" s="34" customFormat="1" customHeight="1"/>
-    <row r="779" s="34" customFormat="1" customHeight="1"/>
-    <row r="780" s="34" customFormat="1" customHeight="1"/>
-    <row r="781" s="34" customFormat="1" customHeight="1"/>
-    <row r="782" s="34" customFormat="1" customHeight="1"/>
-    <row r="783" s="34" customFormat="1" customHeight="1"/>
-    <row r="784" s="34" customFormat="1" customHeight="1"/>
-    <row r="785" s="34" customFormat="1" customHeight="1"/>
-    <row r="786" s="34" customFormat="1" customHeight="1"/>
-    <row r="787" s="34" customFormat="1" customHeight="1"/>
-    <row r="788" s="34" customFormat="1" customHeight="1"/>
-    <row r="789" s="34" customFormat="1" customHeight="1"/>
-    <row r="790" s="34" customFormat="1" customHeight="1"/>
-    <row r="791" s="34" customFormat="1" customHeight="1"/>
-    <row r="792" s="34" customFormat="1" customHeight="1"/>
-    <row r="793" s="34" customFormat="1" customHeight="1"/>
-    <row r="794" s="34" customFormat="1" customHeight="1"/>
-    <row r="795" s="34" customFormat="1" customHeight="1"/>
-    <row r="796" s="34" customFormat="1" customHeight="1"/>
-    <row r="797" s="34" customFormat="1" customHeight="1"/>
-    <row r="798" s="34" customFormat="1" customHeight="1"/>
-    <row r="799" s="34" customFormat="1" customHeight="1"/>
-    <row r="800" s="34" customFormat="1" customHeight="1"/>
-    <row r="801" s="34" customFormat="1" customHeight="1"/>
-    <row r="802" s="34" customFormat="1" customHeight="1"/>
-    <row r="803" s="34" customFormat="1" customHeight="1"/>
-    <row r="804" s="34" customFormat="1" customHeight="1"/>
-    <row r="805" s="34" customFormat="1" customHeight="1"/>
-    <row r="806" s="34" customFormat="1" customHeight="1"/>
-    <row r="807" s="34" customFormat="1" customHeight="1"/>
-    <row r="808" s="34" customFormat="1" customHeight="1"/>
-    <row r="809" s="34" customFormat="1" customHeight="1"/>
-    <row r="810" s="34" customFormat="1" customHeight="1"/>
-    <row r="811" s="34" customFormat="1" customHeight="1"/>
-    <row r="812" s="34" customFormat="1" customHeight="1"/>
-    <row r="813" s="34" customFormat="1" customHeight="1"/>
-    <row r="814" s="34" customFormat="1" customHeight="1"/>
-    <row r="815" s="34" customFormat="1" customHeight="1"/>
-    <row r="816" s="34" customFormat="1" customHeight="1"/>
-    <row r="817" s="34" customFormat="1" customHeight="1"/>
-    <row r="818" s="34" customFormat="1" customHeight="1"/>
-    <row r="819" s="34" customFormat="1" customHeight="1"/>
-    <row r="820" s="34" customFormat="1" customHeight="1"/>
-    <row r="821" s="34" customFormat="1" customHeight="1"/>
-    <row r="822" s="34" customFormat="1" customHeight="1"/>
-    <row r="823" s="34" customFormat="1" customHeight="1"/>
-    <row r="824" s="34" customFormat="1" customHeight="1"/>
-    <row r="825" s="34" customFormat="1" customHeight="1"/>
-    <row r="826" s="34" customFormat="1" customHeight="1"/>
-    <row r="827" s="34" customFormat="1" customHeight="1"/>
-    <row r="828" s="34" customFormat="1" customHeight="1"/>
-    <row r="829" s="34" customFormat="1" customHeight="1"/>
-    <row r="830" s="34" customFormat="1" customHeight="1"/>
-    <row r="831" s="34" customFormat="1" customHeight="1"/>
-    <row r="832" s="34" customFormat="1" customHeight="1"/>
-    <row r="833" s="34" customFormat="1" customHeight="1"/>
-    <row r="834" s="34" customFormat="1" customHeight="1"/>
-    <row r="835" s="34" customFormat="1" customHeight="1"/>
-    <row r="836" s="34" customFormat="1" customHeight="1"/>
-    <row r="837" s="34" customFormat="1" customHeight="1"/>
+    <row r="172" s="14" customFormat="1" customHeight="1"/>
+    <row r="173" s="14" customFormat="1" customHeight="1"/>
+    <row r="174" s="14" customFormat="1" customHeight="1"/>
+    <row r="175" s="14" customFormat="1" customHeight="1"/>
+    <row r="176" s="14" customFormat="1" customHeight="1"/>
+    <row r="177" s="14" customFormat="1" customHeight="1"/>
+    <row r="178" s="14" customFormat="1" customHeight="1"/>
+    <row r="179" s="14" customFormat="1" customHeight="1"/>
+    <row r="180" s="14" customFormat="1" customHeight="1"/>
+    <row r="181" s="14" customFormat="1" customHeight="1"/>
+    <row r="182" s="14" customFormat="1" customHeight="1"/>
+    <row r="183" s="14" customFormat="1" customHeight="1"/>
+    <row r="184" s="14" customFormat="1" customHeight="1"/>
+    <row r="185" s="14" customFormat="1" customHeight="1"/>
+    <row r="186" s="14" customFormat="1" customHeight="1"/>
+    <row r="187" s="14" customFormat="1" customHeight="1"/>
+    <row r="188" s="14" customFormat="1" customHeight="1"/>
+    <row r="189" s="14" customFormat="1" customHeight="1"/>
+    <row r="190" s="14" customFormat="1" customHeight="1"/>
+    <row r="191" s="14" customFormat="1" customHeight="1"/>
+    <row r="192" s="14" customFormat="1" customHeight="1"/>
+    <row r="193" s="14" customFormat="1" customHeight="1"/>
+    <row r="194" s="14" customFormat="1" customHeight="1"/>
+    <row r="195" s="14" customFormat="1" customHeight="1"/>
+    <row r="196" s="14" customFormat="1" customHeight="1"/>
+    <row r="197" s="14" customFormat="1" customHeight="1"/>
+    <row r="198" s="14" customFormat="1" customHeight="1"/>
+    <row r="199" s="14" customFormat="1" customHeight="1"/>
+    <row r="200" s="14" customFormat="1" customHeight="1"/>
+    <row r="201" s="14" customFormat="1" customHeight="1"/>
+    <row r="202" s="14" customFormat="1" customHeight="1"/>
+    <row r="203" s="14" customFormat="1" customHeight="1"/>
+    <row r="204" s="14" customFormat="1" customHeight="1"/>
+    <row r="205" s="14" customFormat="1" customHeight="1"/>
+    <row r="206" s="14" customFormat="1" customHeight="1"/>
+    <row r="207" s="14" customFormat="1" customHeight="1"/>
+    <row r="208" s="14" customFormat="1" customHeight="1"/>
+    <row r="209" s="14" customFormat="1" customHeight="1"/>
+    <row r="210" s="14" customFormat="1" customHeight="1"/>
+    <row r="211" s="14" customFormat="1" customHeight="1"/>
+    <row r="212" s="14" customFormat="1" customHeight="1"/>
+    <row r="213" s="14" customFormat="1" customHeight="1"/>
+    <row r="214" s="14" customFormat="1" customHeight="1"/>
+    <row r="215" s="14" customFormat="1" customHeight="1"/>
+    <row r="216" s="14" customFormat="1" customHeight="1"/>
+    <row r="217" s="14" customFormat="1" customHeight="1"/>
+    <row r="218" s="14" customFormat="1" customHeight="1"/>
+    <row r="219" s="14" customFormat="1" customHeight="1"/>
+    <row r="220" s="14" customFormat="1" customHeight="1"/>
+    <row r="221" s="14" customFormat="1" customHeight="1"/>
+    <row r="222" s="14" customFormat="1" customHeight="1"/>
+    <row r="223" s="14" customFormat="1" customHeight="1"/>
+    <row r="224" s="14" customFormat="1" customHeight="1"/>
+    <row r="225" s="14" customFormat="1" customHeight="1"/>
+    <row r="226" s="14" customFormat="1" customHeight="1"/>
+    <row r="227" s="14" customFormat="1" customHeight="1"/>
+    <row r="228" s="14" customFormat="1" customHeight="1"/>
+    <row r="229" s="14" customFormat="1" customHeight="1"/>
+    <row r="230" s="14" customFormat="1" customHeight="1"/>
+    <row r="231" s="14" customFormat="1" customHeight="1"/>
+    <row r="232" s="14" customFormat="1" customHeight="1"/>
+    <row r="233" s="14" customFormat="1" customHeight="1"/>
+    <row r="234" s="14" customFormat="1" customHeight="1"/>
+    <row r="235" s="14" customFormat="1" customHeight="1"/>
+    <row r="236" s="14" customFormat="1" customHeight="1"/>
+    <row r="237" s="14" customFormat="1" customHeight="1"/>
+    <row r="238" s="14" customFormat="1" customHeight="1"/>
+    <row r="239" s="14" customFormat="1" customHeight="1"/>
+    <row r="240" s="14" customFormat="1" customHeight="1"/>
+    <row r="241" s="14" customFormat="1" customHeight="1"/>
+    <row r="242" s="14" customFormat="1" customHeight="1"/>
+    <row r="243" s="14" customFormat="1" customHeight="1"/>
+    <row r="244" s="14" customFormat="1" customHeight="1"/>
+    <row r="245" s="14" customFormat="1" customHeight="1"/>
+    <row r="246" s="14" customFormat="1" customHeight="1"/>
+    <row r="247" s="14" customFormat="1" customHeight="1"/>
+    <row r="248" s="14" customFormat="1" customHeight="1"/>
+    <row r="249" s="14" customFormat="1" customHeight="1"/>
+    <row r="250" s="14" customFormat="1" customHeight="1"/>
+    <row r="251" s="14" customFormat="1" customHeight="1"/>
+    <row r="252" s="14" customFormat="1" customHeight="1"/>
+    <row r="253" s="14" customFormat="1" customHeight="1"/>
+    <row r="254" s="14" customFormat="1" customHeight="1"/>
+    <row r="255" s="14" customFormat="1" customHeight="1"/>
+    <row r="256" s="14" customFormat="1" customHeight="1"/>
+    <row r="257" s="14" customFormat="1" customHeight="1"/>
+    <row r="258" s="14" customFormat="1" customHeight="1"/>
+    <row r="259" s="14" customFormat="1" customHeight="1"/>
+    <row r="260" s="14" customFormat="1" customHeight="1"/>
+    <row r="261" s="14" customFormat="1" customHeight="1"/>
+    <row r="262" s="14" customFormat="1" customHeight="1"/>
+    <row r="263" s="14" customFormat="1" customHeight="1"/>
+    <row r="264" s="14" customFormat="1" customHeight="1"/>
+    <row r="265" s="14" customFormat="1" customHeight="1"/>
+    <row r="266" s="14" customFormat="1" customHeight="1"/>
+    <row r="267" s="14" customFormat="1" customHeight="1"/>
+    <row r="268" s="14" customFormat="1" customHeight="1"/>
+    <row r="269" s="14" customFormat="1" customHeight="1"/>
+    <row r="270" s="14" customFormat="1" customHeight="1"/>
+    <row r="271" s="14" customFormat="1" customHeight="1"/>
+    <row r="272" s="14" customFormat="1" customHeight="1"/>
+    <row r="273" s="14" customFormat="1" customHeight="1"/>
+    <row r="274" s="14" customFormat="1" customHeight="1"/>
+    <row r="275" s="14" customFormat="1" customHeight="1"/>
+    <row r="276" s="14" customFormat="1" customHeight="1"/>
+    <row r="277" s="14" customFormat="1" customHeight="1"/>
+    <row r="278" s="14" customFormat="1" customHeight="1"/>
+    <row r="279" s="14" customFormat="1" customHeight="1"/>
+    <row r="280" s="14" customFormat="1" customHeight="1"/>
+    <row r="281" s="14" customFormat="1" customHeight="1"/>
+    <row r="282" s="14" customFormat="1" customHeight="1"/>
+    <row r="283" s="14" customFormat="1" customHeight="1"/>
+    <row r="284" s="14" customFormat="1" customHeight="1"/>
+    <row r="285" s="14" customFormat="1" customHeight="1"/>
+    <row r="286" s="14" customFormat="1" customHeight="1"/>
+    <row r="287" s="14" customFormat="1" customHeight="1"/>
+    <row r="288" s="14" customFormat="1" customHeight="1"/>
+    <row r="289" s="14" customFormat="1" customHeight="1"/>
+    <row r="290" s="14" customFormat="1" customHeight="1"/>
+    <row r="291" s="14" customFormat="1" customHeight="1"/>
+    <row r="292" s="14" customFormat="1" customHeight="1"/>
+    <row r="293" s="14" customFormat="1" customHeight="1"/>
+    <row r="294" s="14" customFormat="1" customHeight="1"/>
+    <row r="295" s="14" customFormat="1" customHeight="1"/>
+    <row r="296" s="14" customFormat="1" customHeight="1"/>
+    <row r="297" s="14" customFormat="1" customHeight="1"/>
+    <row r="298" s="14" customFormat="1" customHeight="1"/>
+    <row r="299" s="14" customFormat="1" customHeight="1"/>
+    <row r="300" s="14" customFormat="1" customHeight="1"/>
+    <row r="301" s="14" customFormat="1" customHeight="1"/>
+    <row r="302" s="14" customFormat="1" customHeight="1"/>
+    <row r="303" s="14" customFormat="1" customHeight="1"/>
+    <row r="304" s="14" customFormat="1" customHeight="1"/>
+    <row r="305" s="14" customFormat="1" customHeight="1"/>
+    <row r="306" s="14" customFormat="1" customHeight="1"/>
+    <row r="307" s="14" customFormat="1" customHeight="1"/>
+    <row r="308" s="14" customFormat="1" customHeight="1"/>
+    <row r="309" s="14" customFormat="1" customHeight="1"/>
+    <row r="310" s="14" customFormat="1" customHeight="1"/>
+    <row r="311" s="14" customFormat="1" customHeight="1"/>
+    <row r="312" s="14" customFormat="1" customHeight="1"/>
+    <row r="313" s="14" customFormat="1" customHeight="1"/>
+    <row r="314" s="14" customFormat="1" customHeight="1"/>
+    <row r="315" s="14" customFormat="1" customHeight="1"/>
+    <row r="316" s="14" customFormat="1" customHeight="1"/>
+    <row r="317" s="14" customFormat="1" customHeight="1"/>
+    <row r="318" s="14" customFormat="1" customHeight="1"/>
+    <row r="319" s="14" customFormat="1" customHeight="1"/>
+    <row r="320" s="14" customFormat="1" customHeight="1"/>
+    <row r="321" s="14" customFormat="1" customHeight="1"/>
+    <row r="322" s="14" customFormat="1" customHeight="1"/>
+    <row r="323" s="14" customFormat="1" customHeight="1"/>
+    <row r="324" s="14" customFormat="1" customHeight="1"/>
+    <row r="325" s="14" customFormat="1" customHeight="1"/>
+    <row r="326" s="14" customFormat="1" customHeight="1"/>
+    <row r="327" s="14" customFormat="1" customHeight="1"/>
+    <row r="328" s="14" customFormat="1" customHeight="1"/>
+    <row r="329" s="14" customFormat="1" customHeight="1"/>
+    <row r="330" s="14" customFormat="1" customHeight="1"/>
+    <row r="331" s="14" customFormat="1" customHeight="1"/>
+    <row r="332" s="14" customFormat="1" customHeight="1"/>
+    <row r="333" s="14" customFormat="1" customHeight="1"/>
+    <row r="334" s="14" customFormat="1" customHeight="1"/>
+    <row r="335" s="14" customFormat="1" customHeight="1"/>
+    <row r="336" s="14" customFormat="1" customHeight="1"/>
+    <row r="337" s="14" customFormat="1" customHeight="1"/>
+    <row r="338" s="14" customFormat="1" customHeight="1"/>
+    <row r="339" s="14" customFormat="1" customHeight="1"/>
+    <row r="340" s="14" customFormat="1" customHeight="1"/>
+    <row r="341" s="14" customFormat="1" customHeight="1"/>
+    <row r="342" s="14" customFormat="1" customHeight="1"/>
+    <row r="343" s="14" customFormat="1" customHeight="1"/>
+    <row r="344" s="14" customFormat="1" customHeight="1"/>
+    <row r="345" s="14" customFormat="1" customHeight="1"/>
+    <row r="346" s="14" customFormat="1" customHeight="1"/>
+    <row r="347" s="14" customFormat="1" customHeight="1"/>
+    <row r="348" s="14" customFormat="1" customHeight="1"/>
+    <row r="349" s="14" customFormat="1" customHeight="1"/>
+    <row r="350" s="14" customFormat="1" customHeight="1"/>
+    <row r="351" s="14" customFormat="1" customHeight="1"/>
+    <row r="352" s="14" customFormat="1" customHeight="1"/>
+    <row r="353" s="14" customFormat="1" customHeight="1"/>
+    <row r="354" s="14" customFormat="1" customHeight="1"/>
+    <row r="355" s="14" customFormat="1" customHeight="1"/>
+    <row r="356" s="14" customFormat="1" customHeight="1"/>
+    <row r="357" s="14" customFormat="1" customHeight="1"/>
+    <row r="358" s="14" customFormat="1" customHeight="1"/>
+    <row r="359" s="14" customFormat="1" customHeight="1"/>
+    <row r="360" s="14" customFormat="1" customHeight="1"/>
+    <row r="361" s="14" customFormat="1" customHeight="1"/>
+    <row r="362" s="14" customFormat="1" customHeight="1"/>
+    <row r="363" s="14" customFormat="1" customHeight="1"/>
+    <row r="364" s="14" customFormat="1" customHeight="1"/>
+    <row r="365" s="14" customFormat="1" customHeight="1"/>
+    <row r="366" s="14" customFormat="1" customHeight="1"/>
+    <row r="367" s="14" customFormat="1" customHeight="1"/>
+    <row r="368" s="14" customFormat="1" customHeight="1"/>
+    <row r="369" s="14" customFormat="1" customHeight="1"/>
+    <row r="370" s="14" customFormat="1" customHeight="1"/>
+    <row r="371" s="14" customFormat="1" customHeight="1"/>
+    <row r="372" s="14" customFormat="1" customHeight="1"/>
+    <row r="373" s="14" customFormat="1" customHeight="1"/>
+    <row r="374" s="14" customFormat="1" customHeight="1"/>
+    <row r="375" s="14" customFormat="1" customHeight="1"/>
+    <row r="376" s="14" customFormat="1" customHeight="1"/>
+    <row r="377" s="14" customFormat="1" customHeight="1"/>
+    <row r="378" s="14" customFormat="1" customHeight="1"/>
+    <row r="379" s="14" customFormat="1" customHeight="1"/>
+    <row r="380" s="14" customFormat="1" customHeight="1"/>
+    <row r="381" s="14" customFormat="1" customHeight="1"/>
+    <row r="382" s="14" customFormat="1" customHeight="1"/>
+    <row r="383" s="14" customFormat="1" customHeight="1"/>
+    <row r="384" s="14" customFormat="1" customHeight="1"/>
+    <row r="385" s="14" customFormat="1" customHeight="1"/>
+    <row r="386" s="14" customFormat="1" customHeight="1"/>
+    <row r="387" s="14" customFormat="1" customHeight="1"/>
+    <row r="388" s="14" customFormat="1" customHeight="1"/>
+    <row r="389" s="14" customFormat="1" customHeight="1"/>
+    <row r="390" s="14" customFormat="1" customHeight="1"/>
+    <row r="391" s="14" customFormat="1" customHeight="1"/>
+    <row r="392" s="14" customFormat="1" customHeight="1"/>
+    <row r="393" s="14" customFormat="1" customHeight="1"/>
+    <row r="394" s="14" customFormat="1" customHeight="1"/>
+    <row r="395" s="14" customFormat="1" customHeight="1"/>
+    <row r="396" s="14" customFormat="1" customHeight="1"/>
+    <row r="397" s="14" customFormat="1" customHeight="1"/>
+    <row r="398" s="14" customFormat="1" customHeight="1"/>
+    <row r="399" s="14" customFormat="1" customHeight="1"/>
+    <row r="400" s="14" customFormat="1" customHeight="1"/>
+    <row r="401" s="14" customFormat="1" customHeight="1"/>
+    <row r="402" s="14" customFormat="1" customHeight="1"/>
+    <row r="403" s="14" customFormat="1" customHeight="1"/>
+    <row r="404" s="14" customFormat="1" customHeight="1"/>
+    <row r="405" s="14" customFormat="1" customHeight="1"/>
+    <row r="406" s="14" customFormat="1" customHeight="1"/>
+    <row r="407" s="14" customFormat="1" customHeight="1"/>
+    <row r="408" s="14" customFormat="1" customHeight="1"/>
+    <row r="409" s="14" customFormat="1" customHeight="1"/>
+    <row r="410" s="14" customFormat="1" customHeight="1"/>
+    <row r="411" s="14" customFormat="1" customHeight="1"/>
+    <row r="412" s="14" customFormat="1" customHeight="1"/>
+    <row r="413" s="14" customFormat="1" customHeight="1"/>
+    <row r="414" s="14" customFormat="1" customHeight="1"/>
+    <row r="415" s="14" customFormat="1" customHeight="1"/>
+    <row r="416" s="14" customFormat="1" customHeight="1"/>
+    <row r="417" s="14" customFormat="1" customHeight="1"/>
+    <row r="418" s="14" customFormat="1" customHeight="1"/>
+    <row r="419" s="14" customFormat="1" customHeight="1"/>
+    <row r="420" s="14" customFormat="1" customHeight="1"/>
+    <row r="421" s="14" customFormat="1" customHeight="1"/>
+    <row r="422" s="14" customFormat="1" customHeight="1"/>
+    <row r="423" s="14" customFormat="1" customHeight="1"/>
+    <row r="424" s="14" customFormat="1" customHeight="1"/>
+    <row r="425" s="14" customFormat="1" customHeight="1"/>
+    <row r="426" s="14" customFormat="1" customHeight="1"/>
+    <row r="427" s="14" customFormat="1" customHeight="1"/>
+    <row r="428" s="14" customFormat="1" customHeight="1"/>
+    <row r="429" s="14" customFormat="1" customHeight="1"/>
+    <row r="430" s="14" customFormat="1" customHeight="1"/>
+    <row r="431" s="14" customFormat="1" customHeight="1"/>
+    <row r="432" s="14" customFormat="1" customHeight="1"/>
+    <row r="433" s="14" customFormat="1" customHeight="1"/>
+    <row r="434" s="14" customFormat="1" customHeight="1"/>
+    <row r="435" s="14" customFormat="1" customHeight="1"/>
+    <row r="436" s="14" customFormat="1" customHeight="1"/>
+    <row r="437" s="14" customFormat="1" customHeight="1"/>
+    <row r="438" s="14" customFormat="1" customHeight="1"/>
+    <row r="439" s="14" customFormat="1" customHeight="1"/>
+    <row r="440" s="14" customFormat="1" customHeight="1"/>
+    <row r="441" s="14" customFormat="1" customHeight="1"/>
+    <row r="442" s="14" customFormat="1" customHeight="1"/>
+    <row r="443" s="14" customFormat="1" customHeight="1"/>
+    <row r="444" s="14" customFormat="1" customHeight="1"/>
+    <row r="445" s="14" customFormat="1" customHeight="1"/>
+    <row r="446" s="14" customFormat="1" customHeight="1"/>
+    <row r="447" s="14" customFormat="1" customHeight="1"/>
+    <row r="448" s="14" customFormat="1" customHeight="1"/>
+    <row r="449" s="14" customFormat="1" customHeight="1"/>
+    <row r="450" s="14" customFormat="1" customHeight="1"/>
+    <row r="451" s="14" customFormat="1" customHeight="1"/>
+    <row r="452" s="14" customFormat="1" customHeight="1"/>
+    <row r="453" s="14" customFormat="1" customHeight="1"/>
+    <row r="454" s="14" customFormat="1" customHeight="1"/>
+    <row r="455" s="14" customFormat="1" customHeight="1"/>
+    <row r="456" s="14" customFormat="1" customHeight="1"/>
+    <row r="457" s="14" customFormat="1" customHeight="1"/>
+    <row r="458" s="14" customFormat="1" customHeight="1"/>
+    <row r="459" s="14" customFormat="1" customHeight="1"/>
+    <row r="460" s="14" customFormat="1" customHeight="1"/>
+    <row r="461" s="14" customFormat="1" customHeight="1"/>
+    <row r="462" s="14" customFormat="1" customHeight="1"/>
+    <row r="463" s="14" customFormat="1" customHeight="1"/>
+    <row r="464" s="14" customFormat="1" customHeight="1"/>
+    <row r="465" s="14" customFormat="1" customHeight="1"/>
+    <row r="466" s="14" customFormat="1" customHeight="1"/>
+    <row r="467" s="14" customFormat="1" customHeight="1"/>
+    <row r="468" s="14" customFormat="1" customHeight="1"/>
+    <row r="469" s="14" customFormat="1" customHeight="1"/>
+    <row r="470" s="14" customFormat="1" customHeight="1"/>
+    <row r="471" s="14" customFormat="1" customHeight="1"/>
+    <row r="472" s="14" customFormat="1" customHeight="1"/>
+    <row r="473" s="14" customFormat="1" customHeight="1"/>
+    <row r="474" s="14" customFormat="1" customHeight="1"/>
+    <row r="475" s="14" customFormat="1" customHeight="1"/>
+    <row r="476" s="14" customFormat="1" customHeight="1"/>
+    <row r="477" s="14" customFormat="1" customHeight="1"/>
+    <row r="478" s="14" customFormat="1" customHeight="1"/>
+    <row r="479" s="14" customFormat="1" customHeight="1"/>
+    <row r="480" s="14" customFormat="1" customHeight="1"/>
+    <row r="481" s="14" customFormat="1" customHeight="1"/>
+    <row r="482" s="14" customFormat="1" customHeight="1"/>
+    <row r="483" s="14" customFormat="1" customHeight="1"/>
+    <row r="484" s="14" customFormat="1" customHeight="1"/>
+    <row r="485" s="14" customFormat="1" customHeight="1"/>
+    <row r="486" s="14" customFormat="1" customHeight="1"/>
+    <row r="487" s="14" customFormat="1" customHeight="1"/>
+    <row r="488" s="14" customFormat="1" customHeight="1"/>
+    <row r="489" s="14" customFormat="1" customHeight="1"/>
+    <row r="490" s="14" customFormat="1" customHeight="1"/>
+    <row r="491" s="14" customFormat="1" customHeight="1"/>
+    <row r="492" s="14" customFormat="1" customHeight="1"/>
+    <row r="493" s="14" customFormat="1" customHeight="1"/>
+    <row r="494" s="14" customFormat="1" customHeight="1"/>
+    <row r="495" s="14" customFormat="1" customHeight="1"/>
+    <row r="496" s="14" customFormat="1" customHeight="1"/>
+    <row r="497" s="14" customFormat="1" customHeight="1"/>
+    <row r="498" s="14" customFormat="1" customHeight="1"/>
+    <row r="499" s="14" customFormat="1" customHeight="1"/>
+    <row r="500" s="14" customFormat="1" customHeight="1"/>
+    <row r="501" s="14" customFormat="1" customHeight="1"/>
+    <row r="502" s="14" customFormat="1" customHeight="1"/>
+    <row r="503" s="14" customFormat="1" customHeight="1"/>
+    <row r="504" s="14" customFormat="1" customHeight="1"/>
+    <row r="505" s="14" customFormat="1" customHeight="1"/>
+    <row r="506" s="14" customFormat="1" customHeight="1"/>
+    <row r="507" s="14" customFormat="1" customHeight="1"/>
+    <row r="508" s="14" customFormat="1" customHeight="1"/>
+    <row r="509" s="14" customFormat="1" customHeight="1"/>
+    <row r="510" s="14" customFormat="1" customHeight="1"/>
+    <row r="511" s="14" customFormat="1" customHeight="1"/>
+    <row r="512" s="14" customFormat="1" customHeight="1"/>
+    <row r="513" s="14" customFormat="1" customHeight="1"/>
+    <row r="514" s="14" customFormat="1" customHeight="1"/>
+    <row r="515" s="14" customFormat="1" customHeight="1"/>
+    <row r="516" s="14" customFormat="1" customHeight="1"/>
+    <row r="517" s="14" customFormat="1" customHeight="1"/>
+    <row r="518" s="14" customFormat="1" customHeight="1"/>
+    <row r="519" s="14" customFormat="1" customHeight="1"/>
+    <row r="520" s="14" customFormat="1" customHeight="1"/>
+    <row r="521" s="14" customFormat="1" customHeight="1"/>
+    <row r="522" s="14" customFormat="1" customHeight="1"/>
+    <row r="523" s="14" customFormat="1" customHeight="1"/>
+    <row r="524" s="14" customFormat="1" customHeight="1"/>
+    <row r="525" s="14" customFormat="1" customHeight="1"/>
+    <row r="526" s="14" customFormat="1" customHeight="1"/>
+    <row r="527" s="14" customFormat="1" customHeight="1"/>
+    <row r="528" s="14" customFormat="1" customHeight="1"/>
+    <row r="529" s="14" customFormat="1" customHeight="1"/>
+    <row r="530" s="14" customFormat="1" customHeight="1"/>
+    <row r="531" s="14" customFormat="1" customHeight="1"/>
+    <row r="532" s="14" customFormat="1" customHeight="1"/>
+    <row r="533" s="14" customFormat="1" customHeight="1"/>
+    <row r="534" s="14" customFormat="1" customHeight="1"/>
+    <row r="535" s="14" customFormat="1" customHeight="1"/>
+    <row r="536" s="14" customFormat="1" customHeight="1"/>
+    <row r="537" s="14" customFormat="1" customHeight="1"/>
+    <row r="538" s="14" customFormat="1" customHeight="1"/>
+    <row r="539" s="14" customFormat="1" customHeight="1"/>
+    <row r="540" s="14" customFormat="1" customHeight="1"/>
+    <row r="541" s="14" customFormat="1" customHeight="1"/>
+    <row r="542" s="14" customFormat="1" customHeight="1"/>
+    <row r="543" s="14" customFormat="1" customHeight="1"/>
+    <row r="544" s="14" customFormat="1" customHeight="1"/>
+    <row r="545" s="14" customFormat="1" customHeight="1"/>
+    <row r="546" s="14" customFormat="1" customHeight="1"/>
+    <row r="547" s="14" customFormat="1" customHeight="1"/>
+    <row r="548" s="14" customFormat="1" customHeight="1"/>
+    <row r="549" s="14" customFormat="1" customHeight="1"/>
+    <row r="550" s="14" customFormat="1" customHeight="1"/>
+    <row r="551" s="14" customFormat="1" customHeight="1"/>
+    <row r="552" s="14" customFormat="1" customHeight="1"/>
+    <row r="553" s="14" customFormat="1" customHeight="1"/>
+    <row r="554" s="14" customFormat="1" customHeight="1"/>
+    <row r="555" s="14" customFormat="1" customHeight="1"/>
+    <row r="556" s="14" customFormat="1" customHeight="1"/>
+    <row r="557" s="14" customFormat="1" customHeight="1"/>
+    <row r="558" s="14" customFormat="1" customHeight="1"/>
+    <row r="559" s="14" customFormat="1" customHeight="1"/>
+    <row r="560" s="14" customFormat="1" customHeight="1"/>
+    <row r="561" s="14" customFormat="1" customHeight="1"/>
+    <row r="562" s="14" customFormat="1" customHeight="1"/>
+    <row r="563" s="14" customFormat="1" customHeight="1"/>
+    <row r="564" s="14" customFormat="1" customHeight="1"/>
+    <row r="565" s="14" customFormat="1" customHeight="1"/>
+    <row r="566" s="14" customFormat="1" customHeight="1"/>
+    <row r="567" s="14" customFormat="1" customHeight="1"/>
+    <row r="568" s="14" customFormat="1" customHeight="1"/>
+    <row r="569" s="14" customFormat="1" customHeight="1"/>
+    <row r="570" s="14" customFormat="1" customHeight="1"/>
+    <row r="571" s="14" customFormat="1" customHeight="1"/>
+    <row r="572" s="14" customFormat="1" customHeight="1"/>
+    <row r="573" s="14" customFormat="1" customHeight="1"/>
+    <row r="574" s="14" customFormat="1" customHeight="1"/>
+    <row r="575" s="14" customFormat="1" customHeight="1"/>
+    <row r="576" s="14" customFormat="1" customHeight="1"/>
+    <row r="577" s="14" customFormat="1" customHeight="1"/>
+    <row r="578" s="14" customFormat="1" customHeight="1"/>
+    <row r="579" s="14" customFormat="1" customHeight="1"/>
+    <row r="580" s="14" customFormat="1" customHeight="1"/>
+    <row r="581" s="14" customFormat="1" customHeight="1"/>
+    <row r="582" s="14" customFormat="1" customHeight="1"/>
+    <row r="583" s="14" customFormat="1" customHeight="1"/>
+    <row r="584" s="14" customFormat="1" customHeight="1"/>
+    <row r="585" s="14" customFormat="1" customHeight="1"/>
+    <row r="586" s="14" customFormat="1" customHeight="1"/>
+    <row r="587" s="14" customFormat="1" customHeight="1"/>
+    <row r="588" s="14" customFormat="1" customHeight="1"/>
+    <row r="589" s="14" customFormat="1" customHeight="1"/>
+    <row r="590" s="14" customFormat="1" customHeight="1"/>
+    <row r="591" s="14" customFormat="1" customHeight="1"/>
+    <row r="592" s="14" customFormat="1" customHeight="1"/>
+    <row r="593" s="14" customFormat="1" customHeight="1"/>
+    <row r="594" s="14" customFormat="1" customHeight="1"/>
+    <row r="595" s="14" customFormat="1" customHeight="1"/>
+    <row r="596" s="14" customFormat="1" customHeight="1"/>
+    <row r="597" s="14" customFormat="1" customHeight="1"/>
+    <row r="598" s="14" customFormat="1" customHeight="1"/>
+    <row r="599" s="14" customFormat="1" customHeight="1"/>
+    <row r="600" s="14" customFormat="1" customHeight="1"/>
+    <row r="601" s="14" customFormat="1" customHeight="1"/>
+    <row r="602" s="14" customFormat="1" customHeight="1"/>
+    <row r="603" s="14" customFormat="1" customHeight="1"/>
+    <row r="604" s="14" customFormat="1" customHeight="1"/>
+    <row r="605" s="14" customFormat="1" customHeight="1"/>
+    <row r="606" s="14" customFormat="1" customHeight="1"/>
+    <row r="607" s="14" customFormat="1" customHeight="1"/>
+    <row r="608" s="14" customFormat="1" customHeight="1"/>
+    <row r="609" s="14" customFormat="1" customHeight="1"/>
+    <row r="610" s="14" customFormat="1" customHeight="1"/>
+    <row r="611" s="14" customFormat="1" customHeight="1"/>
+    <row r="612" s="14" customFormat="1" customHeight="1"/>
+    <row r="613" s="14" customFormat="1" customHeight="1"/>
+    <row r="614" s="14" customFormat="1" customHeight="1"/>
+    <row r="615" s="14" customFormat="1" customHeight="1"/>
+    <row r="616" s="14" customFormat="1" customHeight="1"/>
+    <row r="617" s="14" customFormat="1" customHeight="1"/>
+    <row r="618" s="14" customFormat="1" customHeight="1"/>
+    <row r="619" s="14" customFormat="1" customHeight="1"/>
+    <row r="620" s="14" customFormat="1" customHeight="1"/>
+    <row r="621" s="14" customFormat="1" customHeight="1"/>
+    <row r="622" s="14" customFormat="1" customHeight="1"/>
+    <row r="623" s="14" customFormat="1" customHeight="1"/>
+    <row r="624" s="14" customFormat="1" customHeight="1"/>
+    <row r="625" s="14" customFormat="1" customHeight="1"/>
+    <row r="626" s="14" customFormat="1" customHeight="1"/>
+    <row r="627" s="14" customFormat="1" customHeight="1"/>
+    <row r="628" s="14" customFormat="1" customHeight="1"/>
+    <row r="629" s="14" customFormat="1" customHeight="1"/>
+    <row r="630" s="14" customFormat="1" customHeight="1"/>
+    <row r="631" s="14" customFormat="1" customHeight="1"/>
+    <row r="632" s="14" customFormat="1" customHeight="1"/>
+    <row r="633" s="14" customFormat="1" customHeight="1"/>
+    <row r="634" s="14" customFormat="1" customHeight="1"/>
+    <row r="635" s="14" customFormat="1" customHeight="1"/>
+    <row r="636" s="14" customFormat="1" customHeight="1"/>
+    <row r="637" s="14" customFormat="1" customHeight="1"/>
+    <row r="638" s="14" customFormat="1" customHeight="1"/>
+    <row r="639" s="14" customFormat="1" customHeight="1"/>
+    <row r="640" s="14" customFormat="1" customHeight="1"/>
+    <row r="641" s="14" customFormat="1" customHeight="1"/>
+    <row r="642" s="14" customFormat="1" customHeight="1"/>
+    <row r="643" s="14" customFormat="1" customHeight="1"/>
+    <row r="644" s="14" customFormat="1" customHeight="1"/>
+    <row r="645" s="14" customFormat="1" customHeight="1"/>
+    <row r="646" s="14" customFormat="1" customHeight="1"/>
+    <row r="647" s="14" customFormat="1" customHeight="1"/>
+    <row r="648" s="14" customFormat="1" customHeight="1"/>
+    <row r="649" s="14" customFormat="1" customHeight="1"/>
+    <row r="650" s="14" customFormat="1" customHeight="1"/>
+    <row r="651" s="14" customFormat="1" customHeight="1"/>
+    <row r="652" s="14" customFormat="1" customHeight="1"/>
+    <row r="653" s="14" customFormat="1" customHeight="1"/>
+    <row r="654" s="14" customFormat="1" customHeight="1"/>
+    <row r="655" s="14" customFormat="1" customHeight="1"/>
+    <row r="656" s="14" customFormat="1" customHeight="1"/>
+    <row r="657" s="14" customFormat="1" customHeight="1"/>
+    <row r="658" s="14" customFormat="1" customHeight="1"/>
+    <row r="659" s="14" customFormat="1" customHeight="1"/>
+    <row r="660" s="14" customFormat="1" customHeight="1"/>
+    <row r="661" s="14" customFormat="1" customHeight="1"/>
+    <row r="662" s="14" customFormat="1" customHeight="1"/>
+    <row r="663" s="14" customFormat="1" customHeight="1"/>
+    <row r="664" s="14" customFormat="1" customHeight="1"/>
+    <row r="665" s="14" customFormat="1" customHeight="1"/>
+    <row r="666" s="14" customFormat="1" customHeight="1"/>
+    <row r="667" s="14" customFormat="1" customHeight="1"/>
+    <row r="668" s="14" customFormat="1" customHeight="1"/>
+    <row r="669" s="14" customFormat="1" customHeight="1"/>
+    <row r="670" s="14" customFormat="1" customHeight="1"/>
+    <row r="671" s="14" customFormat="1" customHeight="1"/>
+    <row r="672" s="14" customFormat="1" customHeight="1"/>
+    <row r="673" s="14" customFormat="1" customHeight="1"/>
+    <row r="674" s="14" customFormat="1" customHeight="1"/>
+    <row r="675" s="14" customFormat="1" customHeight="1"/>
+    <row r="676" s="14" customFormat="1" customHeight="1"/>
+    <row r="677" s="14" customFormat="1" customHeight="1"/>
+    <row r="678" s="14" customFormat="1" customHeight="1"/>
+    <row r="679" s="14" customFormat="1" customHeight="1"/>
+    <row r="680" s="14" customFormat="1" customHeight="1"/>
+    <row r="681" s="14" customFormat="1" customHeight="1"/>
+    <row r="682" s="14" customFormat="1" customHeight="1"/>
+    <row r="683" s="14" customFormat="1" customHeight="1"/>
+    <row r="684" s="14" customFormat="1" customHeight="1"/>
+    <row r="685" s="14" customFormat="1" customHeight="1"/>
+    <row r="686" s="14" customFormat="1" customHeight="1"/>
+    <row r="687" s="14" customFormat="1" customHeight="1"/>
+    <row r="688" s="14" customFormat="1" customHeight="1"/>
+    <row r="689" s="14" customFormat="1" customHeight="1"/>
+    <row r="690" s="14" customFormat="1" customHeight="1"/>
+    <row r="691" s="14" customFormat="1" customHeight="1"/>
+    <row r="692" s="14" customFormat="1" customHeight="1"/>
+    <row r="693" s="14" customFormat="1" customHeight="1"/>
+    <row r="694" s="14" customFormat="1" customHeight="1"/>
+    <row r="695" s="14" customFormat="1" customHeight="1"/>
+    <row r="696" s="14" customFormat="1" customHeight="1"/>
+    <row r="697" s="14" customFormat="1" customHeight="1"/>
+    <row r="698" s="14" customFormat="1" customHeight="1"/>
+    <row r="699" s="14" customFormat="1" customHeight="1"/>
+    <row r="700" s="14" customFormat="1" customHeight="1"/>
+    <row r="701" s="14" customFormat="1" customHeight="1"/>
+    <row r="702" s="14" customFormat="1" customHeight="1"/>
+    <row r="703" s="14" customFormat="1" customHeight="1"/>
+    <row r="704" s="14" customFormat="1" customHeight="1"/>
+    <row r="705" s="14" customFormat="1" customHeight="1"/>
+    <row r="706" s="14" customFormat="1" customHeight="1"/>
+    <row r="707" s="14" customFormat="1" customHeight="1"/>
+    <row r="708" s="14" customFormat="1" customHeight="1"/>
+    <row r="709" s="14" customFormat="1" customHeight="1"/>
+    <row r="710" s="14" customFormat="1" customHeight="1"/>
+    <row r="711" s="14" customFormat="1" customHeight="1"/>
+    <row r="712" s="14" customFormat="1" customHeight="1"/>
+    <row r="713" s="14" customFormat="1" customHeight="1"/>
+    <row r="714" s="14" customFormat="1" customHeight="1"/>
+    <row r="715" s="14" customFormat="1" customHeight="1"/>
+    <row r="716" s="14" customFormat="1" customHeight="1"/>
+    <row r="717" s="14" customFormat="1" customHeight="1"/>
+    <row r="718" s="14" customFormat="1" customHeight="1"/>
+    <row r="719" s="14" customFormat="1" customHeight="1"/>
+    <row r="720" s="14" customFormat="1" customHeight="1"/>
+    <row r="721" s="14" customFormat="1" customHeight="1"/>
+    <row r="722" s="14" customFormat="1" customHeight="1"/>
+    <row r="723" s="14" customFormat="1" customHeight="1"/>
+    <row r="724" s="14" customFormat="1" customHeight="1"/>
+    <row r="725" s="14" customFormat="1" customHeight="1"/>
+    <row r="726" s="14" customFormat="1" customHeight="1"/>
+    <row r="727" s="14" customFormat="1" customHeight="1"/>
+    <row r="728" s="14" customFormat="1" customHeight="1"/>
+    <row r="729" s="14" customFormat="1" customHeight="1"/>
+    <row r="730" s="14" customFormat="1" customHeight="1"/>
+    <row r="731" s="14" customFormat="1" customHeight="1"/>
+    <row r="732" s="14" customFormat="1" customHeight="1"/>
+    <row r="733" s="14" customFormat="1" customHeight="1"/>
+    <row r="734" s="14" customFormat="1" customHeight="1"/>
+    <row r="735" s="14" customFormat="1" customHeight="1"/>
+    <row r="736" s="14" customFormat="1" customHeight="1"/>
+    <row r="737" s="14" customFormat="1" customHeight="1"/>
+    <row r="738" s="14" customFormat="1" customHeight="1"/>
+    <row r="739" s="14" customFormat="1" customHeight="1"/>
+    <row r="740" s="14" customFormat="1" customHeight="1"/>
+    <row r="741" s="14" customFormat="1" customHeight="1"/>
+    <row r="742" s="14" customFormat="1" customHeight="1"/>
+    <row r="743" s="14" customFormat="1" customHeight="1"/>
+    <row r="744" s="14" customFormat="1" customHeight="1"/>
+    <row r="745" s="14" customFormat="1" customHeight="1"/>
+    <row r="746" s="14" customFormat="1" customHeight="1"/>
+    <row r="747" s="14" customFormat="1" customHeight="1"/>
+    <row r="748" s="14" customFormat="1" customHeight="1"/>
+    <row r="749" s="14" customFormat="1" customHeight="1"/>
+    <row r="750" s="14" customFormat="1" customHeight="1"/>
+    <row r="751" s="14" customFormat="1" customHeight="1"/>
+    <row r="752" s="14" customFormat="1" customHeight="1"/>
+    <row r="753" s="14" customFormat="1" customHeight="1"/>
+    <row r="754" s="14" customFormat="1" customHeight="1"/>
+    <row r="755" s="14" customFormat="1" customHeight="1"/>
+    <row r="756" s="14" customFormat="1" customHeight="1"/>
+    <row r="757" s="14" customFormat="1" customHeight="1"/>
+    <row r="758" s="14" customFormat="1" customHeight="1"/>
+    <row r="759" s="14" customFormat="1" customHeight="1"/>
+    <row r="760" s="14" customFormat="1" customHeight="1"/>
+    <row r="761" s="14" customFormat="1" customHeight="1"/>
+    <row r="762" s="14" customFormat="1" customHeight="1"/>
+    <row r="763" s="14" customFormat="1" customHeight="1"/>
+    <row r="764" s="14" customFormat="1" customHeight="1"/>
+    <row r="765" s="14" customFormat="1" customHeight="1"/>
+    <row r="766" s="14" customFormat="1" customHeight="1"/>
+    <row r="767" s="14" customFormat="1" customHeight="1"/>
+    <row r="768" s="14" customFormat="1" customHeight="1"/>
+    <row r="769" s="14" customFormat="1" customHeight="1"/>
+    <row r="770" s="14" customFormat="1" customHeight="1"/>
+    <row r="771" s="14" customFormat="1" customHeight="1"/>
+    <row r="772" s="14" customFormat="1" customHeight="1"/>
+    <row r="773" s="14" customFormat="1" customHeight="1"/>
+    <row r="774" s="14" customFormat="1" customHeight="1"/>
+    <row r="775" s="14" customFormat="1" customHeight="1"/>
+    <row r="776" s="14" customFormat="1" customHeight="1"/>
+    <row r="777" s="14" customFormat="1" customHeight="1"/>
+    <row r="778" s="14" customFormat="1" customHeight="1"/>
+    <row r="779" s="14" customFormat="1" customHeight="1"/>
+    <row r="780" s="14" customFormat="1" customHeight="1"/>
+    <row r="781" s="14" customFormat="1" customHeight="1"/>
+    <row r="782" s="14" customFormat="1" customHeight="1"/>
+    <row r="783" s="14" customFormat="1" customHeight="1"/>
+    <row r="784" s="14" customFormat="1" customHeight="1"/>
+    <row r="785" s="14" customFormat="1" customHeight="1"/>
+    <row r="786" s="14" customFormat="1" customHeight="1"/>
+    <row r="787" s="14" customFormat="1" customHeight="1"/>
+    <row r="788" s="14" customFormat="1" customHeight="1"/>
+    <row r="789" s="14" customFormat="1" customHeight="1"/>
+    <row r="790" s="14" customFormat="1" customHeight="1"/>
+    <row r="791" s="14" customFormat="1" customHeight="1"/>
+    <row r="792" s="14" customFormat="1" customHeight="1"/>
+    <row r="793" s="14" customFormat="1" customHeight="1"/>
+    <row r="794" s="14" customFormat="1" customHeight="1"/>
+    <row r="795" s="14" customFormat="1" customHeight="1"/>
+    <row r="796" s="14" customFormat="1" customHeight="1"/>
+    <row r="797" s="14" customFormat="1" customHeight="1"/>
+    <row r="798" s="14" customFormat="1" customHeight="1"/>
+    <row r="799" s="14" customFormat="1" customHeight="1"/>
+    <row r="800" s="14" customFormat="1" customHeight="1"/>
+    <row r="801" s="14" customFormat="1" customHeight="1"/>
+    <row r="802" s="14" customFormat="1" customHeight="1"/>
+    <row r="803" s="14" customFormat="1" customHeight="1"/>
+    <row r="804" s="14" customFormat="1" customHeight="1"/>
+    <row r="805" s="14" customFormat="1" customHeight="1"/>
+    <row r="806" s="14" customFormat="1" customHeight="1"/>
+    <row r="807" s="14" customFormat="1" customHeight="1"/>
+    <row r="808" s="14" customFormat="1" customHeight="1"/>
+    <row r="809" s="14" customFormat="1" customHeight="1"/>
+    <row r="810" s="14" customFormat="1" customHeight="1"/>
+    <row r="811" s="14" customFormat="1" customHeight="1"/>
+    <row r="812" s="14" customFormat="1" customHeight="1"/>
+    <row r="813" s="14" customFormat="1" customHeight="1"/>
+    <row r="814" s="14" customFormat="1" customHeight="1"/>
+    <row r="815" s="14" customFormat="1" customHeight="1"/>
+    <row r="816" s="14" customFormat="1" customHeight="1"/>
+    <row r="817" s="14" customFormat="1" customHeight="1"/>
+    <row r="818" s="14" customFormat="1" customHeight="1"/>
+    <row r="819" s="14" customFormat="1" customHeight="1"/>
+    <row r="820" s="14" customFormat="1" customHeight="1"/>
+    <row r="821" s="14" customFormat="1" customHeight="1"/>
+    <row r="822" s="14" customFormat="1" customHeight="1"/>
+    <row r="823" s="14" customFormat="1" customHeight="1"/>
+    <row r="824" s="14" customFormat="1" customHeight="1"/>
+    <row r="825" s="14" customFormat="1" customHeight="1"/>
+    <row r="826" s="14" customFormat="1" customHeight="1"/>
+    <row r="827" s="14" customFormat="1" customHeight="1"/>
+    <row r="828" s="14" customFormat="1" customHeight="1"/>
+    <row r="829" s="14" customFormat="1" customHeight="1"/>
+    <row r="830" s="14" customFormat="1" customHeight="1"/>
+    <row r="831" s="14" customFormat="1" customHeight="1"/>
+    <row r="832" s="14" customFormat="1" customHeight="1"/>
+    <row r="833" s="14" customFormat="1" customHeight="1"/>
+    <row r="834" s="14" customFormat="1" customHeight="1"/>
+    <row r="835" s="14" customFormat="1" customHeight="1"/>
+    <row r="836" s="14" customFormat="1" customHeight="1"/>
+    <row r="837" s="14" customFormat="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="190">
     <mergeCell ref="C1:D1"/>
@@ -17845,9 +17956,9 @@
   <dimension ref="A1:F812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C361" sqref="C361:D361"/>
+      <selection pane="bottomLeft" activeCell="C381" sqref="C381:D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -20950,7 +21061,7 @@
     </row>
     <row r="277" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A277" s="23"/>
-      <c r="B277" s="26" t="s">
+      <c r="B277" s="18" t="s">
         <v>1554</v>
       </c>
       <c r="C277" s="19" t="s">
@@ -20962,7 +21073,7 @@
     </row>
     <row r="278" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A278" s="23"/>
-      <c r="B278" s="27"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="7" t="s">
         <v>1556</v>
       </c>
@@ -20972,7 +21083,7 @@
     </row>
     <row r="279" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A279" s="23"/>
-      <c r="B279" s="27"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7" t="s">
         <v>1557</v>
       </c>
@@ -20982,7 +21093,7 @@
     </row>
     <row r="280" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A280" s="23"/>
-      <c r="B280" s="28"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="19" t="s">
         <v>1558</v>
       </c>
@@ -21016,7 +21127,7 @@
     </row>
     <row r="283" s="13" customFormat="1" ht="56" customHeight="1" spans="1:6">
       <c r="A283" s="23"/>
-      <c r="B283" s="26" t="s">
+      <c r="B283" s="18" t="s">
         <v>1561</v>
       </c>
       <c r="C283" s="19" t="s">
@@ -21028,7 +21139,7 @@
     </row>
     <row r="284" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A284" s="23"/>
-      <c r="B284" s="28"/>
+      <c r="B284" s="21"/>
       <c r="C284" s="19" t="s">
         <v>1563</v>
       </c>
@@ -21038,7 +21149,7 @@
     </row>
     <row r="285" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A285" s="23"/>
-      <c r="B285" s="26" t="s">
+      <c r="B285" s="18" t="s">
         <v>1564</v>
       </c>
       <c r="C285" s="19" t="s">
@@ -21050,8 +21161,8 @@
     </row>
     <row r="286" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A286" s="23"/>
-      <c r="B286" s="27"/>
-      <c r="C286" s="26" t="s">
+      <c r="B286" s="22"/>
+      <c r="C286" s="18" t="s">
         <v>1566</v>
       </c>
       <c r="D286" s="23" t="s">
@@ -21062,8 +21173,8 @@
     </row>
     <row r="287" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A287" s="23"/>
-      <c r="B287" s="27"/>
-      <c r="C287" s="27"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
       <c r="D287" s="23" t="s">
         <v>1568</v>
       </c>
@@ -21072,8 +21183,8 @@
     </row>
     <row r="288" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A288" s="23"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="28"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
       <c r="D288" s="23" t="s">
         <v>1569</v>
       </c>
@@ -21082,7 +21193,7 @@
     </row>
     <row r="289" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A289" s="23"/>
-      <c r="B289" s="26" t="s">
+      <c r="B289" s="18" t="s">
         <v>1570</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -21096,7 +21207,7 @@
     </row>
     <row r="290" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A290" s="23"/>
-      <c r="B290" s="27"/>
+      <c r="B290" s="22"/>
       <c r="C290" s="24" t="s">
         <v>1573</v>
       </c>
@@ -21108,7 +21219,7 @@
     </row>
     <row r="291" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A291" s="23"/>
-      <c r="B291" s="27"/>
+      <c r="B291" s="22"/>
       <c r="C291" s="24" t="s">
         <v>1575</v>
       </c>
@@ -21120,7 +21231,7 @@
     </row>
     <row r="292" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A292" s="23"/>
-      <c r="B292" s="28"/>
+      <c r="B292" s="21"/>
       <c r="C292" s="24" t="s">
         <v>1577</v>
       </c>
@@ -21132,7 +21243,7 @@
     </row>
     <row r="293" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A293" s="23"/>
-      <c r="B293" s="26" t="s">
+      <c r="B293" s="18" t="s">
         <v>1579</v>
       </c>
       <c r="C293" s="19" t="s">
@@ -21144,7 +21255,7 @@
     </row>
     <row r="294" s="13" customFormat="1" ht="71" customHeight="1" spans="1:6">
       <c r="A294" s="23"/>
-      <c r="B294" s="27"/>
+      <c r="B294" s="22"/>
       <c r="C294" s="24" t="s">
         <v>1581</v>
       </c>
@@ -21156,7 +21267,7 @@
     </row>
     <row r="295" s="13" customFormat="1" ht="59" customHeight="1" spans="1:6">
       <c r="A295" s="23"/>
-      <c r="B295" s="27"/>
+      <c r="B295" s="22"/>
       <c r="C295" s="24" t="s">
         <v>1583</v>
       </c>
@@ -21168,7 +21279,7 @@
     </row>
     <row r="296" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A296" s="23"/>
-      <c r="B296" s="28"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="24" t="s">
         <v>1585</v>
       </c>
@@ -21180,10 +21291,10 @@
     </row>
     <row r="297" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A297" s="23"/>
-      <c r="B297" s="26" t="s">
+      <c r="B297" s="18" t="s">
         <v>1587</v>
       </c>
-      <c r="C297" s="26" t="s">
+      <c r="C297" s="18" t="s">
         <v>1588</v>
       </c>
       <c r="D297" s="23" t="s">
@@ -21194,8 +21305,8 @@
     </row>
     <row r="298" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A298" s="23"/>
-      <c r="B298" s="27"/>
-      <c r="C298" s="28"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="21"/>
       <c r="D298" s="23" t="s">
         <v>1590</v>
       </c>
@@ -21204,7 +21315,7 @@
     </row>
     <row r="299" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A299" s="23"/>
-      <c r="B299" s="28"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="19" t="s">
         <v>1591</v>
       </c>
@@ -21214,7 +21325,7 @@
     </row>
     <row r="300" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A300" s="23"/>
-      <c r="B300" s="26" t="s">
+      <c r="B300" s="18" t="s">
         <v>1592</v>
       </c>
       <c r="C300" s="19" t="s">
@@ -21226,8 +21337,8 @@
     </row>
     <row r="301" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A301" s="23"/>
-      <c r="B301" s="27"/>
-      <c r="C301" s="26" t="s">
+      <c r="B301" s="22"/>
+      <c r="C301" s="18" t="s">
         <v>1594</v>
       </c>
       <c r="D301" s="23" t="s">
@@ -21238,8 +21349,8 @@
     </row>
     <row r="302" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A302" s="23"/>
-      <c r="B302" s="27"/>
-      <c r="C302" s="27"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
       <c r="D302" s="23" t="s">
         <v>1596</v>
       </c>
@@ -21248,8 +21359,8 @@
     </row>
     <row r="303" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A303" s="23"/>
-      <c r="B303" s="28"/>
-      <c r="C303" s="28"/>
+      <c r="B303" s="21"/>
+      <c r="C303" s="21"/>
       <c r="D303" s="23" t="s">
         <v>1597</v>
       </c>
@@ -21258,7 +21369,7 @@
     </row>
     <row r="304" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A304" s="23"/>
-      <c r="B304" s="26" t="s">
+      <c r="B304" s="18" t="s">
         <v>1598</v>
       </c>
       <c r="C304" s="19" t="s">
@@ -21270,7 +21381,7 @@
     </row>
     <row r="305" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A305" s="23"/>
-      <c r="B305" s="27"/>
+      <c r="B305" s="22"/>
       <c r="C305" s="19" t="s">
         <v>1600</v>
       </c>
@@ -21280,7 +21391,7 @@
     </row>
     <row r="306" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A306" s="23"/>
-      <c r="B306" s="27"/>
+      <c r="B306" s="22"/>
       <c r="C306" s="19" t="s">
         <v>1601</v>
       </c>
@@ -21290,7 +21401,7 @@
     </row>
     <row r="307" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A307" s="23"/>
-      <c r="B307" s="27"/>
+      <c r="B307" s="22"/>
       <c r="C307" s="19" t="s">
         <v>1602</v>
       </c>
@@ -21300,7 +21411,7 @@
     </row>
     <row r="308" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A308" s="23"/>
-      <c r="B308" s="27"/>
+      <c r="B308" s="22"/>
       <c r="C308" s="19" t="s">
         <v>1603</v>
       </c>
@@ -21310,7 +21421,7 @@
     </row>
     <row r="309" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A309" s="23"/>
-      <c r="B309" s="27"/>
+      <c r="B309" s="22"/>
       <c r="C309" s="19" t="s">
         <v>1604</v>
       </c>
@@ -21320,7 +21431,7 @@
     </row>
     <row r="310" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A310" s="23"/>
-      <c r="B310" s="28"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="19" t="s">
         <v>1605</v>
       </c>
@@ -21342,7 +21453,7 @@
     </row>
     <row r="312" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A312" s="23"/>
-      <c r="B312" s="26" t="s">
+      <c r="B312" s="18" t="s">
         <v>1608</v>
       </c>
       <c r="C312" s="7" t="s">
@@ -21354,7 +21465,7 @@
     </row>
     <row r="313" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A313" s="23"/>
-      <c r="B313" s="28"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="7" t="s">
         <v>1610</v>
       </c>
@@ -21374,7 +21485,7 @@
     </row>
     <row r="315" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A315" s="23"/>
-      <c r="B315" s="26" t="s">
+      <c r="B315" s="18" t="s">
         <v>1612</v>
       </c>
       <c r="C315" s="19" t="s">
@@ -21386,7 +21497,7 @@
     </row>
     <row r="316" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A316" s="23"/>
-      <c r="B316" s="27"/>
+      <c r="B316" s="22"/>
       <c r="C316" s="19" t="s">
         <v>1614</v>
       </c>
@@ -21396,7 +21507,7 @@
     </row>
     <row r="317" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A317" s="23"/>
-      <c r="B317" s="27"/>
+      <c r="B317" s="22"/>
       <c r="C317" s="19" t="s">
         <v>1615</v>
       </c>
@@ -21406,7 +21517,7 @@
     </row>
     <row r="318" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A318" s="23"/>
-      <c r="B318" s="27"/>
+      <c r="B318" s="22"/>
       <c r="C318" s="7" t="s">
         <v>1616</v>
       </c>
@@ -21416,7 +21527,7 @@
     </row>
     <row r="319" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A319" s="23"/>
-      <c r="B319" s="27"/>
+      <c r="B319" s="22"/>
       <c r="C319" s="19" t="s">
         <v>1617</v>
       </c>
@@ -21426,7 +21537,7 @@
     </row>
     <row r="320" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A320" s="23"/>
-      <c r="B320" s="28"/>
+      <c r="B320" s="21"/>
       <c r="C320" s="19" t="s">
         <v>1618</v>
       </c>
@@ -21436,13 +21547,13 @@
     </row>
     <row r="321" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A321" s="23"/>
-      <c r="B321" s="26" t="s">
+      <c r="B321" s="18" t="s">
         <v>1619</v>
       </c>
-      <c r="C321" s="29" t="s">
+      <c r="C321" s="26" t="s">
         <v>1620</v>
       </c>
-      <c r="D321" s="29" t="s">
+      <c r="D321" s="26" t="s">
         <v>1621</v>
       </c>
       <c r="E321" s="23"/>
@@ -21450,7 +21561,7 @@
     </row>
     <row r="322" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A322" s="23"/>
-      <c r="B322" s="27"/>
+      <c r="B322" s="22"/>
       <c r="C322" s="24" t="s">
         <v>1622</v>
       </c>
@@ -21462,7 +21573,7 @@
     </row>
     <row r="323" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A323" s="23"/>
-      <c r="B323" s="27"/>
+      <c r="B323" s="22"/>
       <c r="C323" s="23" t="s">
         <v>1624</v>
       </c>
@@ -21474,7 +21585,7 @@
     </row>
     <row r="324" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A324" s="23"/>
-      <c r="B324" s="27"/>
+      <c r="B324" s="22"/>
       <c r="C324" s="23" t="s">
         <v>1626</v>
       </c>
@@ -21486,7 +21597,7 @@
     </row>
     <row r="325" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A325" s="23"/>
-      <c r="B325" s="27"/>
+      <c r="B325" s="22"/>
       <c r="C325" s="24" t="s">
         <v>1628</v>
       </c>
@@ -21498,7 +21609,7 @@
     </row>
     <row r="326" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A326" s="23"/>
-      <c r="B326" s="27"/>
+      <c r="B326" s="22"/>
       <c r="C326" s="24" t="s">
         <v>1630</v>
       </c>
@@ -21510,11 +21621,11 @@
     </row>
     <row r="327" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A327" s="23"/>
-      <c r="B327" s="28"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D327" s="30" t="s">
+      <c r="D327" s="27" t="s">
         <v>1632</v>
       </c>
       <c r="E327" s="23"/>
@@ -21522,7 +21633,7 @@
     </row>
     <row r="328" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A328" s="23"/>
-      <c r="B328" s="26" t="s">
+      <c r="B328" s="18" t="s">
         <v>1633</v>
       </c>
       <c r="C328" s="19" t="s">
@@ -21534,7 +21645,7 @@
     </row>
     <row r="329" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A329" s="23"/>
-      <c r="B329" s="27"/>
+      <c r="B329" s="22"/>
       <c r="C329" s="19" t="s">
         <v>1635</v>
       </c>
@@ -21544,7 +21655,7 @@
     </row>
     <row r="330" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A330" s="23"/>
-      <c r="B330" s="27"/>
+      <c r="B330" s="22"/>
       <c r="C330" s="19" t="s">
         <v>1636</v>
       </c>
@@ -21554,7 +21665,7 @@
     </row>
     <row r="331" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A331" s="23"/>
-      <c r="B331" s="28"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="19" t="s">
         <v>1637</v>
       </c>
@@ -21564,7 +21675,7 @@
     </row>
     <row r="332" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A332" s="23"/>
-      <c r="B332" s="26" t="s">
+      <c r="B332" s="18" t="s">
         <v>1638</v>
       </c>
       <c r="C332" s="19" t="s">
@@ -21576,7 +21687,7 @@
     </row>
     <row r="333" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A333" s="23"/>
-      <c r="B333" s="27"/>
+      <c r="B333" s="22"/>
       <c r="C333" s="19" t="s">
         <v>1640</v>
       </c>
@@ -21586,7 +21697,7 @@
     </row>
     <row r="334" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A334" s="23"/>
-      <c r="B334" s="27"/>
+      <c r="B334" s="22"/>
       <c r="C334" s="19" t="s">
         <v>1641</v>
       </c>
@@ -21596,7 +21707,7 @@
     </row>
     <row r="335" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A335" s="23"/>
-      <c r="B335" s="28"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="19" t="s">
         <v>1642</v>
       </c>
@@ -21606,7 +21717,7 @@
     </row>
     <row r="336" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A336" s="23"/>
-      <c r="B336" s="26" t="s">
+      <c r="B336" s="18" t="s">
         <v>1638</v>
       </c>
       <c r="C336" s="19" t="s">
@@ -21618,11 +21729,11 @@
     </row>
     <row r="337" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A337" s="23"/>
-      <c r="B337" s="28"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="19" t="s">
         <v>1644</v>
       </c>
-      <c r="D337" s="31"/>
+      <c r="D337" s="28"/>
       <c r="E337" s="23"/>
       <c r="F337" s="23"/>
     </row>
@@ -21640,93 +21751,93 @@
     </row>
     <row r="339" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A339" s="23"/>
-      <c r="B339" s="26" t="s">
+      <c r="B339" s="18" t="s">
         <v>1647</v>
       </c>
-      <c r="C339" s="32" t="s">
+      <c r="C339" s="19" t="s">
         <v>1648</v>
       </c>
-      <c r="D339" s="33"/>
+      <c r="D339" s="20"/>
       <c r="E339" s="23"/>
       <c r="F339" s="23"/>
     </row>
     <row r="340" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A340" s="23"/>
-      <c r="B340" s="27"/>
-      <c r="C340" s="32" t="s">
+      <c r="B340" s="22"/>
+      <c r="C340" s="19" t="s">
         <v>1649</v>
       </c>
-      <c r="D340" s="33"/>
+      <c r="D340" s="20"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23"/>
     </row>
     <row r="341" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A341" s="23"/>
-      <c r="B341" s="27"/>
-      <c r="C341" s="32" t="s">
+      <c r="B341" s="22"/>
+      <c r="C341" s="19" t="s">
         <v>1650</v>
       </c>
-      <c r="D341" s="33"/>
+      <c r="D341" s="20"/>
       <c r="E341" s="23"/>
       <c r="F341" s="23"/>
     </row>
     <row r="342" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A342" s="23"/>
-      <c r="B342" s="27"/>
-      <c r="C342" s="32" t="s">
+      <c r="B342" s="22"/>
+      <c r="C342" s="19" t="s">
         <v>1651</v>
       </c>
-      <c r="D342" s="33"/>
+      <c r="D342" s="20"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23"/>
     </row>
     <row r="343" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A343" s="23"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="32" t="s">
+      <c r="B343" s="21"/>
+      <c r="C343" s="19" t="s">
         <v>1652</v>
       </c>
-      <c r="D343" s="33"/>
+      <c r="D343" s="20"/>
       <c r="E343" s="23"/>
       <c r="F343" s="23"/>
     </row>
     <row r="344" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A344" s="23"/>
-      <c r="B344" s="26" t="s">
+      <c r="B344" s="18" t="s">
         <v>1653</v>
       </c>
-      <c r="C344" s="32" t="s">
+      <c r="C344" s="19" t="s">
         <v>1654</v>
       </c>
-      <c r="D344" s="33"/>
+      <c r="D344" s="20"/>
       <c r="E344" s="23"/>
       <c r="F344" s="23"/>
     </row>
     <row r="345" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A345" s="23"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="32" t="s">
+      <c r="B345" s="21"/>
+      <c r="C345" s="19" t="s">
         <v>1655</v>
       </c>
-      <c r="D345" s="33"/>
+      <c r="D345" s="20"/>
       <c r="E345" s="23"/>
       <c r="F345" s="23"/>
     </row>
     <row r="346" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A346" s="23"/>
-      <c r="B346" s="26" t="s">
+      <c r="B346" s="18" t="s">
         <v>1656</v>
       </c>
-      <c r="C346" s="32" t="s">
+      <c r="C346" s="19" t="s">
         <v>1657</v>
       </c>
-      <c r="D346" s="33"/>
+      <c r="D346" s="20"/>
       <c r="E346" s="23"/>
       <c r="F346" s="23"/>
     </row>
     <row r="347" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A347" s="23"/>
-      <c r="B347" s="27"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="19" t="s">
         <v>1658</v>
       </c>
@@ -21736,7 +21847,7 @@
     </row>
     <row r="348" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A348" s="23"/>
-      <c r="B348" s="28"/>
+      <c r="B348" s="21"/>
       <c r="C348" s="19" t="s">
         <v>1659</v>
       </c>
@@ -21746,7 +21857,7 @@
     </row>
     <row r="349" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A349" s="23"/>
-      <c r="B349" s="26" t="s">
+      <c r="B349" s="18" t="s">
         <v>1660</v>
       </c>
       <c r="C349" s="19" t="s">
@@ -21758,7 +21869,7 @@
     </row>
     <row r="350" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A350" s="23"/>
-      <c r="B350" s="27"/>
+      <c r="B350" s="22"/>
       <c r="C350" s="19" t="s">
         <v>1662</v>
       </c>
@@ -21768,7 +21879,7 @@
     </row>
     <row r="351" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A351" s="23"/>
-      <c r="B351" s="28"/>
+      <c r="B351" s="21"/>
       <c r="C351" s="19" t="s">
         <v>1663</v>
       </c>
@@ -21778,7 +21889,7 @@
     </row>
     <row r="352" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A352" s="23"/>
-      <c r="B352" s="26" t="s">
+      <c r="B352" s="18" t="s">
         <v>1664</v>
       </c>
       <c r="C352" s="7" t="s">
@@ -21790,8 +21901,8 @@
     </row>
     <row r="353" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A353" s="23"/>
-      <c r="B353" s="27"/>
-      <c r="C353" s="26" t="s">
+      <c r="B353" s="22"/>
+      <c r="C353" s="18" t="s">
         <v>1666</v>
       </c>
       <c r="D353" s="24" t="s">
@@ -21802,8 +21913,8 @@
     </row>
     <row r="354" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A354" s="23"/>
-      <c r="B354" s="27"/>
-      <c r="C354" s="27"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
       <c r="D354" s="23" t="s">
         <v>1668</v>
       </c>
@@ -21812,8 +21923,8 @@
     </row>
     <row r="355" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A355" s="23"/>
-      <c r="B355" s="28"/>
-      <c r="C355" s="28"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
       <c r="D355" s="24" t="s">
         <v>1669</v>
       </c>
@@ -21822,7 +21933,7 @@
     </row>
     <row r="356" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A356" s="23"/>
-      <c r="B356" s="26" t="s">
+      <c r="B356" s="18" t="s">
         <v>1670</v>
       </c>
       <c r="C356" s="7" t="s">
@@ -21834,7 +21945,7 @@
     </row>
     <row r="357" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A357" s="23"/>
-      <c r="B357" s="27"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7" t="s">
         <v>1672</v>
       </c>
@@ -21844,7 +21955,7 @@
     </row>
     <row r="358" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A358" s="23"/>
-      <c r="B358" s="27"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="19" t="s">
         <v>1673</v>
       </c>
@@ -21854,7 +21965,7 @@
     </row>
     <row r="359" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A359" s="23"/>
-      <c r="B359" s="27"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="19" t="s">
         <v>1674</v>
       </c>
@@ -21864,7 +21975,7 @@
     </row>
     <row r="360" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A360" s="23"/>
-      <c r="B360" s="28"/>
+      <c r="B360" s="21"/>
       <c r="C360" s="19" t="s">
         <v>1675</v>
       </c>
@@ -21874,7 +21985,7 @@
     </row>
     <row r="361" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A361" s="23"/>
-      <c r="B361" s="26" t="s">
+      <c r="B361" s="18" t="s">
         <v>1676</v>
       </c>
       <c r="C361" s="7" t="s">
@@ -21886,7 +21997,7 @@
     </row>
     <row r="362" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A362" s="23"/>
-      <c r="B362" s="28"/>
+      <c r="B362" s="21"/>
       <c r="C362" s="19" t="s">
         <v>1678</v>
       </c>
@@ -21896,130 +22007,170 @@
     </row>
     <row r="363" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A363" s="23"/>
-      <c r="B363" s="23" t="s">
+      <c r="B363" s="29" t="s">
         <v>1679</v>
       </c>
-      <c r="C363" s="19"/>
+      <c r="C363" s="19" t="s">
+        <v>1680</v>
+      </c>
       <c r="D363" s="20"/>
       <c r="E363" s="23"/>
       <c r="F363" s="23"/>
     </row>
     <row r="364" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A364" s="23"/>
-      <c r="B364" s="23"/>
-      <c r="C364" s="19"/>
+      <c r="B364" s="30"/>
+      <c r="C364" s="19" t="s">
+        <v>1681</v>
+      </c>
       <c r="D364" s="20"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23"/>
     </row>
     <row r="365" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A365" s="23"/>
-      <c r="B365" s="23"/>
-      <c r="C365" s="19"/>
-      <c r="D365" s="20"/>
+      <c r="B365" s="30"/>
+      <c r="C365" s="29" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D365" s="23" t="s">
+        <v>1683</v>
+      </c>
       <c r="E365" s="23"/>
       <c r="F365" s="23"/>
     </row>
     <row r="366" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A366" s="23"/>
-      <c r="B366" s="23"/>
-      <c r="C366" s="19"/>
-      <c r="D366" s="20"/>
+      <c r="B366" s="30"/>
+      <c r="C366" s="30"/>
+      <c r="D366" s="23" t="s">
+        <v>1684</v>
+      </c>
       <c r="E366" s="23"/>
       <c r="F366" s="23"/>
     </row>
     <row r="367" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A367" s="23"/>
-      <c r="B367" s="23"/>
-      <c r="C367" s="19"/>
-      <c r="D367" s="20"/>
+      <c r="B367" s="30"/>
+      <c r="C367" s="30"/>
+      <c r="D367" s="23" t="s">
+        <v>1685</v>
+      </c>
       <c r="E367" s="23"/>
       <c r="F367" s="23"/>
     </row>
     <row r="368" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A368" s="23"/>
-      <c r="B368" s="23"/>
-      <c r="C368" s="19"/>
-      <c r="D368" s="20"/>
+      <c r="B368" s="30"/>
+      <c r="C368" s="31"/>
+      <c r="D368" s="23" t="s">
+        <v>1686</v>
+      </c>
       <c r="E368" s="23"/>
       <c r="F368" s="23"/>
     </row>
     <row r="369" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A369" s="23"/>
-      <c r="B369" s="23"/>
-      <c r="C369" s="19"/>
+      <c r="B369" s="31"/>
+      <c r="C369" s="19" t="s">
+        <v>1687</v>
+      </c>
       <c r="D369" s="20"/>
       <c r="E369" s="23"/>
       <c r="F369" s="23"/>
     </row>
     <row r="370" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A370" s="23"/>
-      <c r="B370" s="23"/>
-      <c r="C370" s="19"/>
+      <c r="B370" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C370" s="19" t="s">
+        <v>1689</v>
+      </c>
       <c r="D370" s="20"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23"/>
     </row>
     <row r="371" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A371" s="23"/>
-      <c r="B371" s="23"/>
-      <c r="C371" s="19"/>
-      <c r="D371" s="20"/>
+      <c r="B371" s="30"/>
+      <c r="C371" s="29" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D371" s="24" t="s">
+        <v>1691</v>
+      </c>
       <c r="E371" s="23"/>
       <c r="F371" s="23"/>
     </row>
     <row r="372" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A372" s="23"/>
-      <c r="B372" s="23"/>
-      <c r="C372" s="19"/>
-      <c r="D372" s="20"/>
+      <c r="B372" s="30"/>
+      <c r="C372" s="31"/>
+      <c r="D372" s="24" t="s">
+        <v>1692</v>
+      </c>
       <c r="E372" s="23"/>
       <c r="F372" s="23"/>
     </row>
     <row r="373" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A373" s="23"/>
-      <c r="B373" s="23"/>
-      <c r="C373" s="19"/>
+      <c r="B373" s="30"/>
+      <c r="C373" s="7" t="s">
+        <v>1693</v>
+      </c>
       <c r="D373" s="20"/>
       <c r="E373" s="23"/>
       <c r="F373" s="23"/>
     </row>
     <row r="374" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A374" s="23"/>
-      <c r="B374" s="23"/>
-      <c r="C374" s="19"/>
+      <c r="B374" s="30"/>
+      <c r="C374" s="19" t="s">
+        <v>1694</v>
+      </c>
       <c r="D374" s="20"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23"/>
     </row>
     <row r="375" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A375" s="23"/>
-      <c r="B375" s="23"/>
-      <c r="C375" s="19"/>
+      <c r="B375" s="30"/>
+      <c r="C375" s="19" t="s">
+        <v>1695</v>
+      </c>
       <c r="D375" s="20"/>
       <c r="E375" s="23"/>
       <c r="F375" s="23"/>
     </row>
     <row r="376" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A376" s="23"/>
-      <c r="B376" s="23"/>
-      <c r="C376" s="19"/>
+      <c r="B376" s="30"/>
+      <c r="C376" s="19" t="s">
+        <v>1696</v>
+      </c>
       <c r="D376" s="20"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23"/>
     </row>
     <row r="377" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A377" s="23"/>
-      <c r="B377" s="23"/>
-      <c r="C377" s="19"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="19" t="s">
+        <v>1697</v>
+      </c>
       <c r="D377" s="20"/>
       <c r="E377" s="23"/>
       <c r="F377" s="23"/>
     </row>
     <row r="378" s="13" customFormat="1" customHeight="1" spans="1:6">
       <c r="A378" s="23"/>
-      <c r="B378" s="23"/>
-      <c r="C378" s="19"/>
+      <c r="B378" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C378" s="19" t="s">
+        <v>1699</v>
+      </c>
       <c r="D378" s="20"/>
       <c r="E378" s="23"/>
       <c r="F378" s="23"/>
@@ -23516,7 +23667,7 @@
     <row r="811" s="14" customFormat="1" customHeight="1"/>
     <row r="812" s="14" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="550">
+  <mergeCells count="548">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -23792,14 +23943,8 @@
     <mergeCell ref="C362:D362"/>
     <mergeCell ref="C363:D363"/>
     <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="C368:D368"/>
     <mergeCell ref="C369:D369"/>
     <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
     <mergeCell ref="C373:D373"/>
     <mergeCell ref="C374:D374"/>
     <mergeCell ref="C375:D375"/>
@@ -24060,6 +24205,8 @@
     <mergeCell ref="B352:B355"/>
     <mergeCell ref="B356:B360"/>
     <mergeCell ref="B361:B362"/>
+    <mergeCell ref="B363:B369"/>
+    <mergeCell ref="B370:B377"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C172:C178"/>
@@ -24067,6 +24214,8 @@
     <mergeCell ref="C297:C298"/>
     <mergeCell ref="C301:C303"/>
     <mergeCell ref="C353:C355"/>
+    <mergeCell ref="C365:C368"/>
+    <mergeCell ref="C371:C372"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989">
   <si>
     <t>章节</t>
   </si>
@@ -16449,6 +16449,196 @@
   </si>
   <si>
     <t>能力成熟度模型</t>
+  </si>
+  <si>
+    <r>
+      <t>CMM是有美国国防部和卡内基梅隆大学软件工程研究所（SEI）联合开发的。它源于1980年代需要衡量和改进新兴的软件开发领域，因为处理能力的提高和成本的降低导致了计算机系统的广泛采用。由于当时计算机科学还是一个新兴领域，开发项目的评估、控制和管理往往很差，因此SEI将一套成功项目通用的最佳实践正式化。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该模型的最初目的是评估政府承包商按时和按预算交付项目的能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但其他开发和业务流程开始采用成熟度模型思维方式。</t>
+    </r>
+  </si>
+  <si>
+    <t>认识到CMM正在适应新的商业流程，SEI设计了能力成熟度模型集成（CMMI）。它最初的设计是开发（CMMI-DEV），服务（CMMI-SVC）以及产品和服务获取（CMMI-ACQ）方面的专门应用，该框架的最新版本2.0于2018年发布。</t>
+  </si>
+  <si>
+    <t>CMMI模型</t>
+  </si>
+  <si>
+    <t>初始级</t>
+  </si>
+  <si>
+    <t>流程是不可预测的，主要是被动的。这是一个典型的大体上只执行临时性过程的组织机构。</t>
+  </si>
+  <si>
+    <t>管理级</t>
+  </si>
+  <si>
+    <t>流程被描述或记录为项目的特征，而且往往是被动的。某些项目可能管理良好且可重复，但这种成功并没有在整个组织中得到利用。</t>
+  </si>
+  <si>
+    <t>已定义级</t>
+  </si>
+  <si>
+    <t>流程对组织来说是有特点的，是主动的。处于第三级的组织在不同的项目/工作中都有记录的流程，并采取积极措施确保项目的成功，如项目风险的管理。</t>
+  </si>
+  <si>
+    <t>量化管理</t>
+  </si>
+  <si>
+    <t>通过测量来测量和控制过程。这是一个手机和响应指标的组织。</t>
+  </si>
+  <si>
+    <t>优化级</t>
+  </si>
+  <si>
+    <t>组织专注于流程改进。处于第五级的组织有文件记录的流程，利用所学到的经验主动控制，并有强大的监督功能来收集指标和管理活动。</t>
+  </si>
+  <si>
+    <t>软件保证成熟度模型</t>
+  </si>
+  <si>
+    <t>软件保证成熟度模型（SAMM）由开放网络应用安全项目（OWASP）维护，SAMM是一个实施软件安全计划的规范框架，冲抵是将安全活动整合到现有的SDLC中。它提供了一个行动计划，用于评估当前状态，确定目标状态，并在整个SDLC中实施必要的改进，包括对流程、人员、知识和工具的更新。</t>
+  </si>
+  <si>
+    <t>治理</t>
+  </si>
+  <si>
+    <t>战略和衡量标准、政策与合规、教育和指导</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>威胁评估、安全要求、安全架构</t>
+  </si>
+  <si>
+    <t>安全建设、安全部署、缺陷管理</t>
+  </si>
+  <si>
+    <t>核实</t>
+  </si>
+  <si>
+    <t>架构评估、需求驱动测试、安全测试</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>事故管理、环境管理、运营管理</t>
+  </si>
+  <si>
+    <t>在每组实践中，都有活动流，它们通常代表不同的职责。如，在安全测试 A 中，需要可以由 QA 功能管理的自动化测试工具，而在流 B 中，需要对高风险组件进行手动安全测试。此测试是一项专门的功能，需要应用程序安全或渗透测试经验。每个安全实践也以三个成熟度级别表示。</t>
+  </si>
+  <si>
+    <t>执行安全测试（手动和基于工具的）以发现安全缺陷。</t>
+  </si>
+  <si>
+    <t>执行自动化并辅以常规的人工安全渗透测试，是开发过程中的安全测试更加完整和高效。</t>
+  </si>
+  <si>
+    <t>在开发和部署过程中嵌入安全测试。</t>
+  </si>
+  <si>
+    <t>成熟度模型总结</t>
+  </si>
+  <si>
+    <t>成熟度模型对于确定一个组织的实践所达到的能力和有效性水平是非常有用的，同时也为改进工作指明了方向。它们对于诸如软件开发和安全等复杂活动非常有用，在这些活动中需要一致的、可重复的实践，并且可以衡量增量改进，以证明与管理、操作或安全开销有关的成本。</t>
+  </si>
+  <si>
+    <t>操作和维护</t>
+  </si>
+  <si>
+    <t>操作和维护，通常被称为Q&amp;M，是指系统在实际使用中，在所谓的生产环境中运行的阶段，也就是说，它们被终端用户积极使用。测试、验证和确认活动标志着开发的结束，而向操作和维护的过渡通常被称为推广或部署。所有操作和安全任务确实支持系统安全的目标，特别是可用性的目标。</t>
+  </si>
+  <si>
+    <t>连续性</t>
+  </si>
+  <si>
+    <t>系统在面对不利条件时的恢复能力，以及在中断发生时的恢复能力，是至关重要的。业务连续性、灾难恢复和网络弹性的活动都发生在运行和维护阶段，如生成系统备份。</t>
+  </si>
+  <si>
+    <t>监测和事件响应</t>
+  </si>
+  <si>
+    <t>实时生产系统是大多数安全事件发生的地方，所以组织的监测能力的很大一部分将集中在这个环境。当事件被发现时，调查和恢复的过程通常集中在补救问题和恢复生产正常。服务台响应和数字取证等流程对于确保安全事件得到正确调查至关重要。</t>
+  </si>
+  <si>
+    <t>漏洞和补丁管理</t>
+  </si>
+  <si>
+    <t>扫描系统中的缺陷并进行补救是一项重要的、持续的安全任务。一些缺陷可能会导致SDLC的迭代，特别是对于定制软件，尽管第三方软件的常规补丁部署是这项工作的主要内容。</t>
+  </si>
+  <si>
+    <t>虽然控制对开发和测试环境的访问是很重要的，但大多数系统的用户通常比开发人员多得多，而且敏感数据通常不会在测试或开发中使用。授权、审查和撤销访问的过程将主要集中在操作系统上。</t>
+  </si>
+  <si>
+    <t>变更和配置管理</t>
+  </si>
+  <si>
+    <t>本章单独讨论管理源代码更改的问题。运行中的系统可能被置于配置管理之下，有明确的请求、审查和实施变更的过程，以保持安全基线。</t>
+  </si>
+  <si>
+    <t>对许多系统进行安全管理的一个关键方面是将它们保持在一个已知的、安全的状态，这就是配置管理的功能。然而，但是，变更是必要的，因此可以请求、审查、实施和测试变更的过程也是必要的，这是变更管理的目标。这些结构化流程使系统能够灵活地适应不断变化的需求或环境，同时还充分解决安全问题，以防止对系统安全状态产生不利影响的变化。</t>
+  </si>
+  <si>
+    <t>变更管理通常不属于安全部门的职责或范围，但安全从业人员确实需要积极参与到这个过程中。必须审查变更对安全的潜在影响，必须记录测试计划以确保安全不受不利影响，并且在变更失败的情况下可能会触发安全流程。例如，一个失败的变更的可能会调用业务连续性流程，直到变更被逆转。</t>
+  </si>
+  <si>
+    <t>变更管理流程可以在多个不同级别上实施，具有相应的严格程度和流程集。在组织层面，操作系统（OS）更换等变化需要大量预算和资源规划。在源代码级别，开发人员可以遵循安全编码表尊，如在代码被签入存储库之前评论代码和执行同行评审，存储库充当组织源代码的配置和变更管理系统。代码保持在已知良好状态，批准的更改方法（如拉取请求和提交）必须遵循规则，以确保源代码的完整性不会因未经批准的开发人员更改而丢失。在某些时候，代码也可能达到完成状态，在此之后不允许更改，在一个称为冻结的过程中。这对于执行测试、验证和验证练习非常有用，因为正在发生更改的测试代码可能会导致误报或无意义的发现。</t>
+  </si>
+  <si>
+    <t>变更管理阶段和安全实践</t>
+  </si>
+  <si>
+    <t>请求</t>
+  </si>
+  <si>
+    <t>许多变更过程涉及提交票据或其他正式的变更请求；票据系统的优势在于能够捕获所有与变更有关的细节都在一个地方。该请求必须掌握变更的全部细节，以及预期的资源要求和影响。</t>
+  </si>
+  <si>
+    <t>评估和批准</t>
+  </si>
+  <si>
+    <t>一旦记录下来，变更就由CMB审查，以确定变更的所有预期要求和影响。这要遵循一套记录的标准，其中应包括审查任何安全影响，如引入新的风险或对现有安全控制的不利影响。了解这些影响并确保有足够的资源来解决这些问题，在CMB批准变更之前是至关重要的。</t>
+  </si>
+  <si>
+    <t>变更开发</t>
+  </si>
+  <si>
+    <t>一旦一个变更被批准，负责的各方必须制定一个计划来实际执行该变更，例如安排时间来执行所需的IT任务，收集必要的资源，购买或开发变更的系统组件。这些行动必须遵循和批准的变更请求。</t>
+  </si>
+  <si>
+    <t>在制定了计划之后，就可以实施变更了。与开发阶段一样，所有被批准的变更程序都必须被遵守。如果变更不成功，则需要回退或回滚程序，建立这样的计划和程序通常是对变更批准的一个要求。</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>必须对新改变的系统进行测试，以确保这些改变是按预期进行的，现有的功能没有被破坏，而且安全控制仍然按期运行。根据组织和变化的规模，这种测试可能包括高度正式的活动，如认证和鉴定。</t>
+  </si>
+  <si>
+    <t>事后总结</t>
+  </si>
+  <si>
+    <t>通常需要进行一些变更后的活动。必须完成对所执行的记录，因为变更后系统是新的已知状态，它将由配置管理来维护。新实施的功能可能需要对用户进行培训，任何经验教训都应该被记录下来，以便持续改进流程。这个阶段也可以成为事后报告、经验教训或回顾性报告，但识别改进机会的目标是相同的。</t>
+  </si>
+  <si>
+    <t>紧急变更管理</t>
   </si>
 </sst>
 </file>
@@ -17901,7 +18091,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27710765" y="123892310"/>
+          <a:off x="27710765" y="125441710"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17943,7 +18133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27710765" y="123892310"/>
+          <a:off x="27710765" y="125441710"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -51518,9 +51708,9 @@
   <dimension ref="A1:F1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51:D51"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -52099,275 +52289,403 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="51" s="2" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>3931</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>3932</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="6" t="s">
+        <v>3933</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="8" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>3936</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="5" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>3938</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="5" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>3940</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="5" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>3942</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="5" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>3944</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="8" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>3946</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>3948</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="5" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>3950</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>3951</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="5" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>3953</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="5" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>3955</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="6" t="s">
+        <v>3956</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>3957</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>3958</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>3959</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="5" t="s">
+        <v>3960</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>3961</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="8" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>3963</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>3965</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>3967</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3969</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>3970</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>3972</v>
+      </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="75" s="2" customFormat="1" ht="55" customHeight="1" spans="1:6">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="8" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>3973</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="6" t="s">
+        <v>3974</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="77" s="2" customFormat="1" ht="86" customHeight="1" spans="1:6">
       <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="6" t="s">
+        <v>3975</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="78" s="2" customFormat="1" ht="41" customHeight="1" spans="1:6">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
+      <c r="B78" s="8" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>3977</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>3978</v>
+      </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="79" s="2" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3980</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9" t="s">
+        <v>3981</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3982</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>3983</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>3985</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="83" s="2" customFormat="1" ht="65" customHeight="1" spans="1:6">
       <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3987</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>3988</v>
+      </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
       <c r="E84" s="5"/>
@@ -56430,7 +56748,7 @@
     <row r="1024" s="2" customFormat="1" customHeight="1"/>
     <row r="1025" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="519">
+  <mergeCells count="501">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C8:D8"/>
@@ -56465,37 +56783,13 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
@@ -56950,6 +57244,12 @@
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B83"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128">
   <si>
     <t>章节</t>
   </si>
@@ -17252,6 +17252,174 @@
   </si>
   <si>
     <t>Repos以授权的形式提供访问控制。有些比其他的更细化，允许开发人员被授予特定项目、代码模块或分支的单独读写权限，而其他的仅仅是限制回文库只能由授权用户访问。保护机密性的附加功能也可能包括一些限制，如防止将数据复制本地计算机或便携式媒体设备上，以控制源代码的传播。</t>
+  </si>
+  <si>
+    <t>大多数代码库都实施了某种形式的配置管理和软件版本控制。开放源码的合作项目可能会配置版本库，允许任何授权用户进行修改，而严格控制的项目可能胡要求开发人员获得特别授权。在一个特定的软件元素上工作。一些资源库与项目管理或票据系统集成，允许动态访问控制；如，一个开发人员被分类一个更新特定模块的任务，这使得他们获得了对该模块代码的临时写入权限。允许回滚到上一个版本的版本控制系统也可以作为一种对策，以应对不受欢迎的变化。</t>
+  </si>
+  <si>
+    <t>版本库的集中性可能是一个单点故障。有一个单一的系统托管所有的数据，也使得备份和恢复系统更加容易，因为该系统的强大的备份计划保证了所欲需要的数据在需要时是可用的。</t>
+  </si>
+  <si>
+    <t>不可否认性</t>
+  </si>
+  <si>
+    <t>存储库中实施的访问控制机制 - 如唯一用户ID、审计跟踪和版本历史 - 可以用来识别用户并对它们对源代码的修改负责。</t>
+  </si>
+  <si>
+    <t>如果能证明没有发生损坏或不必要的更改，那么数据就是真实的，源代码库可以使用版本控制来回溯不需要的改变，并使用备份来支持完整性。</t>
+  </si>
+  <si>
+    <t>保护存储库</t>
+  </si>
+  <si>
+    <t>软件存储库本市也是需要保护的宝贵资产。repo 本身需要像所有其他有价值的资产一样对待，并进行风险评估和响应的安全缓解措施。</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>部署想数据丢失防护（DLP）和入侵检测这样的工具，以监测存储库系统和主机上的数据和活动。</t>
+  </si>
+  <si>
+    <t>通信和网络</t>
+  </si>
+  <si>
+    <t>必须与适当的安全措施来控制和监测对存储库的访问。由于远程访问的性质和分布式系统的增加趋势，通过实施HTTPS和传输层安全（TLS）等协议，或通过VPN或代理服务等安全访问解决方案来保证远程网络访问的安全尤为重要。</t>
+  </si>
+  <si>
+    <t>必须考虑最小必要和最小特权原则，还应该实施访问控制程序，如请求批准和例行审查。</t>
+  </si>
+  <si>
+    <t>备份和可用性</t>
+  </si>
+  <si>
+    <r>
+      <t>由于软件是大多数现代业务流程的基础，因此部署它所需的源代码和库源（如IaC定义或构建指令）是保持可用性的根本重要资产。云托管的软件存储库提供高可用性和弹性配置，但要求更严格的组织可能被迫托管和维护自己的存储库。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在所有情况下，配置应通过确保软件代码在需要时刻访问来支持组织的可用性目标。</t>
+    </r>
+  </si>
+  <si>
+    <t>应用安全测试-SAST</t>
+  </si>
+  <si>
+    <t>静态应用程序安全测试（SAST）</t>
+  </si>
+  <si>
+    <t>SAST评估源代码和其他非运行应用程序元素，如编译后的二进制文件。它可以轻松地集成到IDE和开发人员工作流程中，在开发人员签入代码时执行自动化测试，并以开发人员易于理解的格式立即向开发人员提供反馈。测试在开发或测试环境中执行的，这意味着不会对实时生产环境产生影响。</t>
+  </si>
+  <si>
+    <t>SAST 缺点</t>
+  </si>
+  <si>
+    <t>SAST 工具通常只能理解一种编程语言，因此如果使用多种语言，则需要不同的工具。由于它们的IDE集成，非开发人员可能难以访问它们，这意味着不是开发人员的安全从业者被排除在外。由于它们不测试正在运行应用程序，因此无法检测由代码和底层系统元素（如操作系统漏洞）之间的接口引起的复杂漏洞。</t>
+  </si>
+  <si>
+    <t>应用安全测试-DAST</t>
+  </si>
+  <si>
+    <t>动态应用安全测试（DAST）</t>
+  </si>
+  <si>
+    <t>动态描述了测试工具如何执行应用程序以寻找缺陷。它们通常可以针对任何具有接口或API的应用程序运行，而不考虑底层语言，并且没有与IDE紧急结合，这意味着非开发人员更容易访问。这些包括与IDE或CI/CD管道工具的集成；如，当新代码被推送到测试环境时，自动DAST扫描被启动，任何发现都被自动推送到开发人员的票据或任务分配中。</t>
+  </si>
+  <si>
+    <t>DAST的缺点</t>
+  </si>
+  <si>
+    <t>由于它们可能存在于开发者的工具集之外，因此可能存在于将信息传递给正确的开发者有关的组织挑战。一些DAST工具被设计对生产环境的持续监控，作为一种检测措施；这可能会导致性能问题，更重要的是，允许有缺陷的软件进入生产环境，在那里它可以被利用，直到被发现。</t>
+  </si>
+  <si>
+    <t>应用安全测试-IAST</t>
+  </si>
+  <si>
+    <t>互动应用安全测试（IAST）</t>
+  </si>
+  <si>
+    <t>结合了SAST、DAST和渗透测试的元素，通常使用复杂的算法和机器学习来分析源代码并关联动态测试期间发现的漏洞。它主要是在CI/CD实践星期后出现的，因此大多数工具都提供了与开发者工具和安全平台的集成，以确保对测试工作和结果有更好的可见性。</t>
+  </si>
+  <si>
+    <t>IAST的缺点</t>
+  </si>
+  <si>
+    <t>IAST结合了像SAST一样的源代码分析，它也是依赖于语言的，意味着一些语言可能不被支持，而且如果在一个production环境中运行，IAST的动态元素可能会导致性能问题。</t>
+  </si>
+  <si>
+    <t>应用安全测试-RASP</t>
+  </si>
+  <si>
+    <t>运行时应用程序自我保护（RASP）</t>
+  </si>
+  <si>
+    <t>RASP 在应用程序运行时与应用程序一起执行；RASP也不是一种测试工具，但通常被纳入整体应用程序安全性以补充SAST和DAST。RASP安全工具与应用程序集成并分析程序的执行以发现异常或意外行为，然后采取纠正措施。这可能包括阻止特定请求或功能以关闭主动攻击，以及实施预防措施，如虚拟机修补应用以防止将来使用相同的攻击向量。</t>
+  </si>
+  <si>
+    <t>RASP的缺点</t>
+  </si>
+  <si>
+    <t>假阳性的RASP点击可能导致DOS，就像IPS关闭意外但合法的流量一样。与IAST类似，作为一项相对较新的技术，RASP将受到兼容性和配置即管理工具的技能差距的影响。</t>
+  </si>
+  <si>
+    <t>8.3 评估软件安全的有效性</t>
+  </si>
+  <si>
+    <t>评估软件安全的有效性</t>
+  </si>
+  <si>
+    <t>必须对软件安全进行测量，以衡量其有效性。记录和审计软件环境的变化，不仅仅是生产环境，这包括开发环境，提供了验证关键信息系统的软件完整性所需的关键数据。风险分析和环节，同时作为所有信息的安全领域的通用做法，软件安全需要特定的实践，以确保充分处理软件的独特风险。这些风险包括对应用程序和信息系统的风险，以及对软件开发工具和源代码本身的风险，这两者都是宝贵的资产。</t>
+  </si>
+  <si>
+    <t>审计和记录更改情况</t>
+  </si>
+  <si>
+    <r>
+      <t>审计是对某一事物的官方或系统检查，如账户、文件和实践。在软件环境中，审计的重点是软件安全控制的实施和有效性，它们通常依赖于官方的比较标准，如ISO、NIST或OWASP安全框架。像变更管理和QA这样的审计通常依赖于在正常流程执行过程中捕获的数据，这就是日志数据变得重要的地方。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志本身可能要接受审计，以确定违反组织要求的行为实例，如用户视图访问未经授权的资源。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日志只是对事件的记录。在软件系统中，所有的系统事件都会产生日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，比如用户登录到一个应用程序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日志应该捕捉足够的细节，以明确识别事件的关键信息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这包括事件是什么，谁/什么人发起的行动，何时发生（通常称为时间戳），以及其他关于事件的元数据，如关键程度。一些事件如果违反了安全控制或导致系统的退化，将被归类为事故。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -18165,16 +18333,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18692,7 +18860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28302585" y="139716510"/>
+          <a:off x="28302585" y="141532610"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18734,7 +18902,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28302585" y="139716510"/>
+          <a:off x="28302585" y="141532610"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -38852,7 +39020,7 @@
       <c r="C275" s="15" t="s">
         <v>2441</v>
       </c>
-      <c r="D275" s="16"/>
+      <c r="D275" s="18"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
     </row>
@@ -50404,7 +50572,7 @@
       <c r="C261" s="15" t="s">
         <v>3695</v>
       </c>
-      <c r="D261" s="16"/>
+      <c r="D261" s="18"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
     </row>
@@ -51490,7 +51658,7 @@
       <c r="C357" s="15" t="s">
         <v>3839</v>
       </c>
-      <c r="D357" s="16"/>
+      <c r="D357" s="18"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
     </row>
@@ -51510,7 +51678,7 @@
       <c r="C359" s="15" t="s">
         <v>3841</v>
       </c>
-      <c r="D359" s="16"/>
+      <c r="D359" s="18"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
     </row>
@@ -52308,10 +52476,10 @@
   <sheetPr/>
   <dimension ref="A1:F1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <selection pane="bottomLeft" activeCell="C168" sqref="C168:D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -53357,7 +53525,7 @@
       <c r="F90" s="6"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="16" t="s">
         <v>3997</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -53371,7 +53539,7 @@
       <c r="F91" s="6"/>
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A92" s="6"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="5" t="s">
         <v>4000</v>
       </c>
@@ -53383,7 +53551,7 @@
       <c r="F92" s="6"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="84" customHeight="1" spans="1:6">
-      <c r="A93" s="6"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="9"/>
       <c r="C93" s="7" t="s">
         <v>4002</v>
@@ -53393,7 +53561,7 @@
       <c r="F93" s="6"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="91" customHeight="1" spans="1:6">
-      <c r="A94" s="6"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="9"/>
       <c r="C94" s="7" t="s">
         <v>4003</v>
@@ -53403,7 +53571,7 @@
       <c r="F94" s="6"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="57" customHeight="1" spans="1:6">
-      <c r="A95" s="6"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="9"/>
       <c r="C95" s="7" t="s">
         <v>4004</v>
@@ -53413,7 +53581,7 @@
       <c r="F95" s="6"/>
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A96" s="6"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="9"/>
       <c r="C96" s="7" t="s">
         <v>4005</v>
@@ -53423,7 +53591,7 @@
       <c r="F96" s="6"/>
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A97" s="6"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="11"/>
       <c r="C97" s="7" t="s">
         <v>4006</v>
@@ -53433,7 +53601,7 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="62" customHeight="1" spans="1:6">
-      <c r="A98" s="6"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="5" t="s">
         <v>4007</v>
       </c>
@@ -53445,7 +53613,7 @@
       <c r="F98" s="6"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="73" customHeight="1" spans="1:6">
-      <c r="A99" s="6"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="9"/>
       <c r="C99" s="7" t="s">
         <v>4009</v>
@@ -53455,17 +53623,17 @@
       <c r="F99" s="6"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A100" s="6"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="11"/>
       <c r="C100" s="15" t="s">
         <v>4010</v>
       </c>
-      <c r="D100" s="16"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="57" customHeight="1" spans="1:6">
-      <c r="A101" s="6"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="5" t="s">
         <v>4011</v>
       </c>
@@ -53477,7 +53645,7 @@
       <c r="F101" s="6"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="80" customHeight="1" spans="1:6">
-      <c r="A102" s="6"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="9"/>
       <c r="C102" s="7" t="s">
         <v>4013</v>
@@ -53487,7 +53655,7 @@
       <c r="F102" s="6"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A103" s="6"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="11"/>
       <c r="C103" s="15" t="s">
         <v>4014</v>
@@ -53497,7 +53665,7 @@
       <c r="F103" s="6"/>
     </row>
     <row r="104" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A104" s="6"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="5" t="s">
         <v>4015</v>
       </c>
@@ -53511,7 +53679,7 @@
       <c r="F104" s="6"/>
     </row>
     <row r="105" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A105" s="6"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="9"/>
       <c r="C105" s="10" t="s">
         <v>4017</v>
@@ -53523,7 +53691,7 @@
       <c r="F105" s="6"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="69" customHeight="1" spans="1:6">
-      <c r="A106" s="6"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="9"/>
       <c r="C106" s="10" t="s">
         <v>4019</v>
@@ -53535,7 +53703,7 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="58" customHeight="1" spans="1:6">
-      <c r="A107" s="6"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10" t="s">
         <v>4021</v>
@@ -53547,7 +53715,7 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A108" s="6"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="5" t="s">
         <v>4023</v>
       </c>
@@ -53561,7 +53729,7 @@
       <c r="F108" s="6"/>
     </row>
     <row r="109" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A109" s="6"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
         <v>4026</v>
@@ -53573,7 +53741,7 @@
       <c r="F109" s="6"/>
     </row>
     <row r="110" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A110" s="6"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
         <v>4028</v>
@@ -53585,7 +53753,7 @@
       <c r="F110" s="6"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="80" customHeight="1" spans="1:6">
-      <c r="A111" s="6"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10" t="s">
         <v>4030</v>
@@ -53597,7 +53765,7 @@
       <c r="F111" s="6"/>
     </row>
     <row r="112" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A112" s="6"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="5" t="s">
         <v>4032</v>
       </c>
@@ -53609,7 +53777,7 @@
       <c r="F112" s="6"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="57" customHeight="1" spans="1:6">
-      <c r="A113" s="6"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="9"/>
       <c r="C113" s="7" t="s">
         <v>4034</v>
@@ -53619,7 +53787,7 @@
       <c r="F113" s="6"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="64" customHeight="1" spans="1:6">
-      <c r="A114" s="6"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="9"/>
       <c r="C114" s="7" t="s">
         <v>4035</v>
@@ -53629,7 +53797,7 @@
       <c r="F114" s="6"/>
     </row>
     <row r="115" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A115" s="6"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="11"/>
       <c r="C115" s="7" t="s">
         <v>4036</v>
@@ -53639,7 +53807,7 @@
       <c r="F115" s="6"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="69" customHeight="1" spans="1:6">
-      <c r="A116" s="6"/>
+      <c r="A116" s="17"/>
       <c r="B116" s="5" t="s">
         <v>4037</v>
       </c>
@@ -53653,7 +53821,7 @@
       <c r="F116" s="6"/>
     </row>
     <row r="117" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A117" s="6"/>
+      <c r="A117" s="17"/>
       <c r="B117" s="9"/>
       <c r="C117" s="6" t="s">
         <v>4040</v>
@@ -53665,7 +53833,7 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A118" s="6"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="9"/>
       <c r="C118" s="6" t="s">
         <v>4042</v>
@@ -53677,7 +53845,7 @@
       <c r="F118" s="6"/>
     </row>
     <row r="119" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A119" s="6"/>
+      <c r="A119" s="17"/>
       <c r="B119" s="9"/>
       <c r="C119" s="6" t="s">
         <v>4044</v>
@@ -53689,7 +53857,7 @@
       <c r="F119" s="6"/>
     </row>
     <row r="120" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A120" s="6"/>
+      <c r="A120" s="17"/>
       <c r="B120" s="9"/>
       <c r="C120" s="15" t="s">
         <v>4046</v>
@@ -53699,7 +53867,7 @@
       <c r="F120" s="6"/>
     </row>
     <row r="121" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A121" s="6"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="11"/>
       <c r="C121" s="7" t="s">
         <v>4047</v>
@@ -53709,7 +53877,7 @@
       <c r="F121" s="6"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="68" customHeight="1" spans="1:6">
-      <c r="A122" s="6"/>
+      <c r="A122" s="17"/>
       <c r="B122" s="5" t="s">
         <v>4048</v>
       </c>
@@ -53721,7 +53889,7 @@
       <c r="F122" s="6"/>
     </row>
     <row r="123" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A123" s="6"/>
+      <c r="A123" s="17"/>
       <c r="B123" s="11"/>
       <c r="C123" s="7" t="s">
         <v>4050</v>
@@ -53731,7 +53899,7 @@
       <c r="F123" s="6"/>
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A124" s="6"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="5" t="s">
         <v>4051</v>
       </c>
@@ -53743,7 +53911,7 @@
       <c r="F124" s="6"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A125" s="6"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="9"/>
       <c r="C125" s="7" t="s">
         <v>4053</v>
@@ -53753,7 +53921,7 @@
       <c r="F125" s="6"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A126" s="6"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="11"/>
       <c r="C126" s="7" t="s">
         <v>4054</v>
@@ -53763,7 +53931,7 @@
       <c r="F126" s="6"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="73" customHeight="1" spans="1:6">
-      <c r="A127" s="6"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="5" t="s">
         <v>4055</v>
       </c>
@@ -53775,7 +53943,7 @@
       <c r="F127" s="6"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A128" s="6"/>
+      <c r="A128" s="17"/>
       <c r="B128" s="11"/>
       <c r="C128" s="7" t="s">
         <v>4057</v>
@@ -53785,7 +53953,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="64" customHeight="1" spans="1:6">
-      <c r="A129" s="6"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="5" t="s">
         <v>4058</v>
       </c>
@@ -53797,7 +53965,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A130" s="6"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="11"/>
       <c r="C130" s="7" t="s">
         <v>4060</v>
@@ -53807,7 +53975,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A131" s="6"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="6" t="s">
         <v>4061</v>
       </c>
@@ -53819,7 +53987,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A132" s="6"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="5" t="s">
         <v>4063</v>
       </c>
@@ -53831,7 +53999,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="69" customHeight="1" spans="1:6">
-      <c r="A133" s="6"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="9"/>
       <c r="C133" s="7" t="s">
         <v>4065</v>
@@ -53841,7 +54009,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="82" customHeight="1" spans="1:6">
-      <c r="A134" s="6"/>
+      <c r="A134" s="17"/>
       <c r="B134" s="11"/>
       <c r="C134" s="7" t="s">
         <v>4066</v>
@@ -53851,7 +54019,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="68" customHeight="1" spans="1:6">
-      <c r="A135" s="6"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="6" t="s">
         <v>4067</v>
       </c>
@@ -53863,7 +54031,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="109" customHeight="1" spans="1:6">
-      <c r="A136" s="6"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="6" t="s">
         <v>4069</v>
       </c>
@@ -53875,8 +54043,8 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="72" customHeight="1" spans="1:6">
-      <c r="A137" s="6"/>
-      <c r="B137" s="17" t="s">
+      <c r="A137" s="17"/>
+      <c r="B137" s="16" t="s">
         <v>3437</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -53887,8 +54055,8 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="64" customHeight="1" spans="1:6">
-      <c r="A138" s="6"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="17"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="7" t="s">
         <v>4072</v>
       </c>
@@ -53897,8 +54065,8 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A139" s="6"/>
-      <c r="B139" s="17" t="s">
+      <c r="A139" s="17"/>
+      <c r="B139" s="16" t="s">
         <v>3591</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -53909,8 +54077,8 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="72" customHeight="1" spans="1:6">
-      <c r="A140" s="6"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="7" t="s">
         <v>4074</v>
       </c>
@@ -53919,8 +54087,8 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A141" s="6"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="7" t="s">
         <v>4075</v>
       </c>
@@ -53929,8 +54097,8 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A142" s="6"/>
-      <c r="B142" s="18"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="7" t="s">
         <v>4076</v>
       </c>
@@ -53939,8 +54107,8 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A143" s="6"/>
-      <c r="B143" s="17" t="s">
+      <c r="A143" s="17"/>
+      <c r="B143" s="16" t="s">
         <v>4077</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -53951,8 +54119,8 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A144" s="6"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="7" t="s">
         <v>4079</v>
       </c>
@@ -53961,8 +54129,8 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="75" customHeight="1" spans="1:6">
-      <c r="A145" s="6"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="7" t="s">
         <v>4080</v>
       </c>
@@ -53971,8 +54139,8 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A146" s="6"/>
-      <c r="B146" s="18"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="7" t="s">
         <v>4081</v>
       </c>
@@ -53981,7 +54149,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A147" s="6"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="6" t="s">
         <v>4082</v>
       </c>
@@ -53993,8 +54161,8 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="17"/>
+      <c r="B148" s="16" t="s">
         <v>4084</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -54005,8 +54173,8 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="50" customHeight="1" spans="1:6">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="10" t="s">
         <v>4086</v>
       </c>
@@ -54016,154 +54184,240 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
+    <row r="150" s="2" customFormat="1" ht="86" customHeight="1" spans="1:6">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>4088</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
     </row>
     <row r="151" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>4089</v>
+      </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
     </row>
     <row r="152" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="10" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>4091</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
     </row>
     <row r="153" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="10" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>4092</v>
+      </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
     </row>
     <row r="154" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="7"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="16" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>4094</v>
+      </c>
       <c r="D154" s="8"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
     </row>
     <row r="155" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="8"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="10" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>4096</v>
+      </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
     </row>
     <row r="156" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="8"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="10" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>4098</v>
+      </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
     </row>
     <row r="157" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="8"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="10" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>4099</v>
+      </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="8"/>
+    <row r="158" s="2" customFormat="1" ht="56" customHeight="1" spans="1:6">
+      <c r="A158" s="17"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="10" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>4101</v>
+      </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
     </row>
     <row r="159" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="8"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="16" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>4104</v>
+      </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
     </row>
     <row r="160" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="10" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>4106</v>
+      </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
+    <row r="161" s="2" customFormat="1" ht="57" customHeight="1" spans="1:6">
+      <c r="A161" s="17"/>
+      <c r="B161" s="16" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>4109</v>
+      </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
     </row>
     <row r="162" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="8"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="10" t="s">
+        <v>4110</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>4111</v>
+      </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
     </row>
     <row r="163" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="16" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>4114</v>
+      </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
     </row>
     <row r="164" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="8"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="10" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>4116</v>
+      </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="8"/>
+    <row r="165" s="2" customFormat="1" ht="55" customHeight="1" spans="1:6">
+      <c r="A165" s="17"/>
+      <c r="B165" s="16" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>4119</v>
+      </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
     </row>
     <row r="166" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="8"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="10" t="s">
+        <v>4120</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>4121</v>
+      </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="7"/>
+    <row r="167" s="2" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="A167" s="6" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>4124</v>
+      </c>
       <c r="D167" s="8"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="168" s="2" customFormat="1" ht="64" customHeight="1" spans="1:6">
       <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="6" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>4126</v>
+      </c>
       <c r="D168" s="8"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -54171,7 +54425,9 @@
     <row r="169" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
+      <c r="C169" s="15" t="s">
+        <v>4127</v>
+      </c>
       <c r="D169" s="8"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -54179,16 +54435,16 @@
     <row r="170" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
     </row>
     <row r="171" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="8"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
     </row>
@@ -57553,7 +57809,7 @@
     <row r="1024" s="2" customFormat="1" customHeight="1"/>
     <row r="1025" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="495">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C8:D8"/>
@@ -57649,23 +57905,9 @@
     <mergeCell ref="C147:D147"/>
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
     <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
     <mergeCell ref="C172:D172"/>
     <mergeCell ref="C173:D173"/>
     <mergeCell ref="C174:D174"/>
@@ -58025,6 +58267,7 @@
     <mergeCell ref="C528:D528"/>
     <mergeCell ref="C529:D529"/>
     <mergeCell ref="A2:A90"/>
+    <mergeCell ref="A91:A166"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B25"/>
@@ -58056,6 +58299,12 @@
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="B139:B142"/>
     <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233">
   <si>
     <t>章节</t>
   </si>
@@ -17755,6 +17755,122 @@
       </rPr>
       <t>。在这两种情况下，不知情的用户在下载和部署软件时，除了合法的软件外，还得到了不需要的恶意软件。始终确保你审查对开放源码软件所做的修改，以确保他们是预期的和正确的文件，并且只从合法的、官方的软件库下载开放源码软件。</t>
     </r>
+  </si>
+  <si>
+    <t>第三方软件</t>
+  </si>
+  <si>
+    <t>第三方软件是由你的组织直接控制之外的公司根据合同开发的，所开发的软件通常供你的组织度独家使用。</t>
+  </si>
+  <si>
+    <r>
+      <t>如同所有收购的软件一样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放弃对软体开发过程的控制也存在固有的风险，需要有专门的缓解策略来执行合同、服务级别协议（SLA）和额外的验收测试，以确保交付的软件符合组织的要求。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用第三方开发软件是一个应该在慎重考虑成本和收益后作出的决定。专业的第三方开发公司所能提供的质量或交付速度，可以证明所需的高质量开发和项目管理监督成本是合理的。</t>
+    </r>
+  </si>
+  <si>
+    <t>源代码本身的可用性是第三方软件安全需要考虑的另一个重要方面。如果开发机构倒闭了，签约机构可能会发现自己没有关键系统的支持；代码托管是一种合同安排，通常用来防止这种情况的发生。开发机构将源代码的副本存放在一个可信的第三方，即托管机构。签约组织可以在有限的情况下获得代码，如开发商倒闭或违反合同，这使得系统的支持和开发得以继续。</t>
+  </si>
+  <si>
+    <t>托管服务</t>
+  </si>
+  <si>
+    <t>云服务是通过计量消费来收费的，这通常是一种按使用量付费的模式。选择正确的服务将取决于一个组织的需求和技术能力。</t>
+  </si>
+  <si>
+    <t>新兴的云服务必须考虑到软件的安全性，包括无服务器和微服务架构，这些架构结合了管理软件、基础设施和平台的元素，可以更快地部署代码。架构云服务的选择会影响消费者的软件安全评估能力和责任。</t>
+  </si>
+  <si>
+    <t>评估分担的责任</t>
+  </si>
+  <si>
+    <t>共同责任模式在处理各种安全任务方面，定义了云服务提供商（CSP）和云消费者之间的分界线。</t>
+  </si>
+  <si>
+    <t>在所有服务模型中，消费者有责任验证CSP对特定用途的适用性，如处理高度敏感的数据。执行软件评估时可用的控制级别将告知特定CSP或云部署模型的选择；</t>
+  </si>
+  <si>
+    <t>在IaaS中，消费者将拥有最大的灵活性来部署软件，因此也最有能力进行软件评估。IaaS提供了信息系统功能的构件，因此评估软件安全评估将包括COTS、OSS和第三方软件，以适合消费者在IaaS环境中部署的软件类型。</t>
+  </si>
+  <si>
+    <t>在PaaS中，一些选项已经脱离了消费者的控制，因此需要一些补偿过程，如审查审计报告和软件保证的SLA。</t>
+  </si>
+  <si>
+    <t>SaaS为消费者提供了最少的直接评估软件安全的选择，然而，鉴于SaaS供应商的共享性质，通常有关于CSP的软件开发、测试和托管安全实践的审计报告和强有力的控制文件。</t>
+  </si>
+  <si>
+    <t>审计和保证</t>
+  </si>
+  <si>
+    <r>
+      <t>与所有第三方和供应链安全问题一样，保证是托管软件的一个关键概念。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常会有一个受信任的第三方参与，以审计的形式进行公证的审查。这可以防止CSP受到消费者的不断审查，同时为消费者提供一个关于安全控制的设计、实施和有效性的可信信息来源。</t>
+    </r>
+  </si>
+  <si>
+    <t>有多个与云计算相关的安全和合规框架，服务组织控制（SOC）、云安全联盟安全信任保证和风险（CSA STAR）和ISO 27000系列（包括ISO27001、27017、27018和27034）等框架都提供了一些与云服务和应用相关的保证。CSP也可以报告对其他框架（如CMMI或BSIMM）的成熟度或遵守的情况，以此向消费者保证CSP的软件开发和托管实践是健全的，不会出现不可接受的风险。</t>
+  </si>
+  <si>
+    <t>8.5 定义并应用安全编码准则和标准</t>
+  </si>
+  <si>
+    <t>定义并应用安全编码准则和标准</t>
+  </si>
+  <si>
+    <t>政策提供了关于目标和期望的高层侧战略指导，而标准和指南则为具体的任务和活动提供指导。标准通常是强制性的，而指南是旨在为如何实现特定目标或任务提供指导的建议。</t>
+  </si>
+  <si>
+    <t>应该为软件开发人员提供指导方针和标准，使他们能够编写代码，以实现组织的战略目标，特别是要求保障系统和数据的保密性、完整性和可用性。</t>
+  </si>
+  <si>
+    <t>源代码层面的安全弱点和漏洞</t>
+  </si>
+  <si>
+    <t>弱点和漏洞密切相关，但这两个术语之间存在细微差别。漏洞的存在是由于存在软件弱点，例如系统源代码中错误和缺陷，这可能是由于在架构、开发和实施系统时候做出的错误或不正确的设计选择造成的。在没有切实可行的方法来利用它们的系统中可能存在弱点，在这种情况下，它们不是漏洞；弱点也会影响系统的非安全方面，例如导致搜索性能缓慢的糟糕的数据库设计。作为CISSP，认识到这一区别很重要，因为组织中的其他团队可能会解决非安全弱点，而漏洞与CISSP负责的安全风险直接相关。</t>
+  </si>
+  <si>
+    <t>相比之下，漏洞是可以利用软件系统中的弱点的方式。非安全性弱点显示是不可利用的，一些不安全的源代码级弱点可以通过整个系统的其他部分来弥补，例如防止缓冲区溢出情况的OS内存管理器，否则由编写不良的源代码所允许。这是软件安全测试中面临的挑战之一：如果源代码弱点不可利用，则修复弱点的成本效益分析可能无法支持修复它所需的努力和资源。肯定地断言弱点不可利用可能很困难，因此使用了有争议的主观衡量标准。</t>
+  </si>
+  <si>
+    <t>漏洞通常是由其存在的软件来追踪的，更具体的是由受影响的版本来追踪，使组织能够确定一个漏洞是否影响他们的系统。弱点和漏洞被编入目录，并使用通用系统进行评分，以帮助识别、交流和测试它们。</t>
+  </si>
+  <si>
+    <t>这种跟踪和评分对于确定补丁等修复措施的优先次序和部署补偿性控制措施非常有用。</t>
+  </si>
+  <si>
+    <t>应用程序编程接口的安全</t>
+  </si>
+  <si>
+    <t>API提供了对系统功能的标准化访问，而不需要了解其内部工作原理。可以通过API访问的功能通常被称为通过API暴露，这意味着它们可以使用标准化的方法（和HTTP请求）被调用。表示状态传输或REST  API使用类似于Web应用程序的URL暴露功能，并接收使用常见的HTTP动词如GET和POST的命令，以检索或发送数据到API。与其为每个应用程序创建一个自定义的通信方案，使用REST API允许其他程序使用这些不偏理解的协议进行交互。</t>
+  </si>
+  <si>
+    <t>API是模块化软件开发的一种形式，现代应用架构经常依靠API在复杂系统的功能、模块或层级之间发送数据。还有其他形式的API，包括现代操作系统中用于访问通用系统功能的内部软件的API，如在用户界面上创建交式窗口，用户在系统组件之间交换信息的简单对象访问协议（SOAP）API，以及用于在分布式系统中跨节点执行功能的RCP API。大多数云服务器都建立在API基础上，云环境管理、数据处理等任务，以及数据存储桶和机器学习模型等服务通过URL（通常称为API端点）暴露给用户。</t>
+  </si>
+  <si>
+    <t>API的功能与网络应用程序基本相同，量程的安全要求往往相似。第一个也是最明显的步骤是了解一个特定的系统和它的API所面临的风险。它是一个可公开访问的API，允许读取或更新敏感信息的访问吗？这样的API显然会面临很高的保密性和完整性风险，应该实施适当的安全控制，以确保信息不会被未经授权的用户或程序通过API读取或改变。API是否只读地访问公共信息，如天气数据？在这种情况下，保密性和访问控制不可能是一个高优先级。</t>
   </si>
 </sst>
 </file>
@@ -19207,7 +19323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28302585" y="147146010"/>
+          <a:off x="28302585" y="149825710"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19249,7 +19365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28302585" y="147146010"/>
+          <a:off x="28302585" y="149825710"/>
           <a:ext cx="7767955" cy="2211705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -52823,10 +52939,10 @@
   <sheetPr/>
   <dimension ref="A1:F1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B211:B214"/>
+      <selection pane="bottomLeft" activeCell="C231" sqref="C231:D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -55172,7 +55288,7 @@
       <c r="F203" s="6"/>
     </row>
     <row r="204" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="16" t="s">
         <v>4184</v>
       </c>
       <c r="B204" s="16" t="s">
@@ -55186,7 +55302,7 @@
       <c r="F204" s="6"/>
     </row>
     <row r="205" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A205" s="6"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="19"/>
       <c r="C205" s="7" t="s">
         <v>4187</v>
@@ -55196,7 +55312,7 @@
       <c r="F205" s="6"/>
     </row>
     <row r="206" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A206" s="6"/>
+      <c r="A206" s="17"/>
       <c r="B206" s="16" t="s">
         <v>4188</v>
       </c>
@@ -55208,7 +55324,7 @@
       <c r="F206" s="6"/>
     </row>
     <row r="207" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A207" s="6"/>
+      <c r="A207" s="17"/>
       <c r="B207" s="17"/>
       <c r="C207" s="7" t="s">
         <v>4190</v>
@@ -55218,7 +55334,7 @@
       <c r="F207" s="6"/>
     </row>
     <row r="208" s="2" customFormat="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A208" s="6"/>
+      <c r="A208" s="17"/>
       <c r="B208" s="17"/>
       <c r="C208" s="10" t="s">
         <v>4191</v>
@@ -55230,7 +55346,7 @@
       <c r="F208" s="6"/>
     </row>
     <row r="209" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A209" s="6"/>
+      <c r="A209" s="17"/>
       <c r="B209" s="17"/>
       <c r="C209" s="10" t="s">
         <v>4193</v>
@@ -55242,7 +55358,7 @@
       <c r="F209" s="6"/>
     </row>
     <row r="210" s="2" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A210" s="6"/>
+      <c r="A210" s="17"/>
       <c r="B210" s="19"/>
       <c r="C210" s="10" t="s">
         <v>4195</v>
@@ -55254,7 +55370,7 @@
       <c r="F210" s="6"/>
     </row>
     <row r="211" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A211" s="6"/>
+      <c r="A211" s="17"/>
       <c r="B211" s="16" t="s">
         <v>4197</v>
       </c>
@@ -55266,7 +55382,7 @@
       <c r="F211" s="6"/>
     </row>
     <row r="212" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A212" s="6"/>
+      <c r="A212" s="17"/>
       <c r="B212" s="17"/>
       <c r="C212" s="7" t="s">
         <v>4199</v>
@@ -55276,7 +55392,7 @@
       <c r="F212" s="6"/>
     </row>
     <row r="213" s="2" customFormat="1" ht="90" customHeight="1" spans="1:6">
-      <c r="A213" s="6"/>
+      <c r="A213" s="17"/>
       <c r="B213" s="17"/>
       <c r="C213" s="22" t="s">
         <v>4200</v>
@@ -55288,7 +55404,7 @@
       <c r="F213" s="6"/>
     </row>
     <row r="214" s="2" customFormat="1" ht="80" customHeight="1" spans="1:6">
-      <c r="A214" s="6"/>
+      <c r="A214" s="17"/>
       <c r="B214" s="19"/>
       <c r="C214" s="22" t="s">
         <v>4202</v>
@@ -55300,169 +55416,227 @@
       <c r="F214" s="6"/>
     </row>
     <row r="215" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="7"/>
+      <c r="A215" s="17"/>
+      <c r="B215" s="16" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>4205</v>
+      </c>
       <c r="D215" s="8"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="7"/>
+    <row r="216" s="2" customFormat="1" ht="55" customHeight="1" spans="1:6">
+      <c r="A216" s="17"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="7" t="s">
+        <v>4206</v>
+      </c>
       <c r="D216" s="8"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="8"/>
+    <row r="217" s="2" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A217" s="17"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="15" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D217" s="18"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
     </row>
     <row r="218" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="7"/>
+      <c r="A218" s="17"/>
+      <c r="B218" s="16" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>4209</v>
+      </c>
       <c r="D218" s="8"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
     </row>
     <row r="219" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="7"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="7" t="s">
+        <v>4210</v>
+      </c>
       <c r="D219" s="8"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
     </row>
     <row r="220" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="7"/>
+      <c r="A220" s="17"/>
+      <c r="B220" s="16" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>4212</v>
+      </c>
       <c r="D220" s="8"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
     </row>
     <row r="221" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="7"/>
+      <c r="A221" s="17"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="7" t="s">
+        <v>4213</v>
+      </c>
       <c r="D221" s="8"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
     </row>
     <row r="222" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="7"/>
+      <c r="A222" s="17"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="7" t="s">
+        <v>4214</v>
+      </c>
       <c r="D222" s="8"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
     </row>
     <row r="223" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="7"/>
+      <c r="A223" s="17"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="7" t="s">
+        <v>4215</v>
+      </c>
       <c r="D223" s="8"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
     </row>
     <row r="224" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="8"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="15" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D224" s="18"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
     </row>
     <row r="225" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="7"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="16" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>4218</v>
+      </c>
       <c r="D225" s="8"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A226" s="6"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="7"/>
+    <row r="226" s="2" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="A226" s="19"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="7" t="s">
+        <v>4219</v>
+      </c>
       <c r="D226" s="8"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
     </row>
     <row r="227" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
+      <c r="A227" s="6" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>4222</v>
+      </c>
       <c r="D227" s="8"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
     </row>
     <row r="228" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A228" s="6"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="7" t="s">
+        <v>4223</v>
+      </c>
       <c r="D228" s="8"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="229" s="2" customFormat="1" ht="73" customHeight="1" spans="1:6">
       <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
+      <c r="B229" s="16" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>4225</v>
+      </c>
       <c r="D229" s="8"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="230" s="2" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A230" s="6"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="7" t="s">
+        <v>4226</v>
+      </c>
       <c r="D230" s="8"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
     </row>
     <row r="231" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="7" t="s">
+        <v>4227</v>
+      </c>
       <c r="D231" s="8"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
     </row>
     <row r="232" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A232" s="6"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="7"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="7" t="s">
+        <v>4228</v>
+      </c>
       <c r="D232" s="8"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="233" s="2" customFormat="1" ht="74" customHeight="1" spans="1:6">
       <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="16" t="s">
+        <v>4229</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>4230</v>
+      </c>
       <c r="D233" s="8"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="234" s="2" customFormat="1" ht="79" customHeight="1" spans="1:6">
       <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="7"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="7" t="s">
+        <v>4231</v>
+      </c>
       <c r="D234" s="8"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
     </row>
-    <row r="235" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="235" s="2" customFormat="1" ht="70" customHeight="1" spans="1:6">
       <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="7" t="s">
+        <v>4232</v>
+      </c>
       <c r="D235" s="8"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -58316,7 +58490,7 @@
     <row r="1024" s="2" customFormat="1" customHeight="1"/>
     <row r="1025" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="483">
+  <mergeCells count="491">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C8:D8"/>
@@ -58753,6 +58927,7 @@
     <mergeCell ref="A2:A90"/>
     <mergeCell ref="A91:A166"/>
     <mergeCell ref="A167:A203"/>
+    <mergeCell ref="A204:A226"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B25"/>
@@ -58800,6 +58975,13 @@
     <mergeCell ref="B204:B205"/>
     <mergeCell ref="B206:B210"/>
     <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B235"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16780" firstSheet="2" activeTab="4"/>
+    <workbookView windowHeight="23980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -5193,6 +5193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>保留要求适用于数据或记录、保存敏感数据的介质、处理敏感数据的系统以及有权访问敏感数据的人员。</t>
@@ -8371,6 +8372,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">S/MIME </t>
     </r>
     <r>
@@ -19334,10 +19340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -19454,14 +19460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -19477,8 +19475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19493,7 +19500,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -19502,14 +19509,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19519,6 +19526,14 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19538,31 +19553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19575,8 +19567,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -19584,7 +19590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19649,13 +19655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19667,7 +19667,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19685,67 +19799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19757,7 +19811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19769,67 +19835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19983,21 +19989,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -20032,16 +20023,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20080,147 +20071,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21221,10 +21227,10 @@
   <sheetPr/>
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C305" sqref="C305:D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
@@ -27821,7 +27827,7 @@
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57:D57"/>
@@ -30678,8 +30684,8 @@
   <sheetPr/>
   <dimension ref="A1:F810"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C430" sqref="C430:D430"/>
     </sheetView>
@@ -43670,8 +43676,8 @@
   <sheetPr/>
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:C102"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -46737,9 +46743,9 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150:B151"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -50039,10 +50045,10 @@
   <sheetPr/>
   <dimension ref="A1:F718"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C256" sqref="C256:D256"/>
+      <selection pane="bottomLeft" activeCell="C326" sqref="C326:D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23980" activeTab="1"/>
+    <workbookView windowHeight="23980"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -288,12 +288,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>防止未经授权的数据更改</t>
     </r>
     <r>
@@ -21227,10 +21221,10 @@
   <sheetPr/>
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C305" sqref="C305:D305"/>
+      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
@@ -27827,7 +27821,7 @@
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C57" sqref="C57:D57"/>
@@ -30685,9 +30679,9 @@
   <dimension ref="A1:F810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C430" sqref="C430:D430"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -38248,9 +38242,9 @@
   <dimension ref="A1:F880"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260:A327"/>
+      <selection pane="bottomLeft" activeCell="C284" sqref="C284:D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -43676,8 +43670,8 @@
   <sheetPr/>
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -46742,10 +46736,10 @@
   <sheetPr/>
   <dimension ref="A1:F721"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -50046,9 +50040,9 @@
   <dimension ref="A1:F718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C326" sqref="C326:D326"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -54936,9 +54930,9 @@
   <dimension ref="A1:F752"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233:B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23980"/>
+    <workbookView windowHeight="23980" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="领域7-安全运营" sheetId="7" r:id="rId7"/>
     <sheet name="领域8-软件开发安全" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -288,6 +288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>防止未经授权的数据更改</t>
     </r>
     <r>
@@ -19334,8 +19340,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -19446,14 +19452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -19469,17 +19467,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19501,33 +19505,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19539,23 +19521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19576,7 +19543,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -19584,7 +19551,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19649,7 +19655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19661,7 +19667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19673,7 +19691,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19685,13 +19781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19703,97 +19793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19805,13 +19811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19829,7 +19829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20017,16 +20023,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20048,6 +20054,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -20056,132 +20086,108 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -20190,43 +20196,43 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21221,8 +21227,8 @@
   <sheetPr/>
   <dimension ref="A1:G533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
@@ -27822,9 +27828,9 @@
   <dimension ref="A1:F837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57:D57"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -30679,7 +30685,7 @@
   <dimension ref="A1:F810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C141" sqref="C141:D141"/>
     </sheetView>
@@ -38242,9 +38248,9 @@
   <dimension ref="A1:F880"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C284" sqref="C284:D284"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -43670,8 +43676,8 @@
   <sheetPr/>
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -54929,10 +54935,10 @@
   <sheetPr/>
   <dimension ref="A1:F752"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233:B235"/>
+      <selection pane="bottomLeft" activeCell="C234" sqref="C234:D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23980" activeTab="7"/>
+    <workbookView windowHeight="16700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4506" uniqueCount="4388">
   <si>
     <t>章节</t>
   </si>
@@ -11134,7 +11134,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
       <t>是最早和最简单的防火墙设计。包过滤防火墙也称为筛选路由器，是最快的设计。</t>
@@ -19340,12 +19340,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19452,8 +19452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19468,14 +19469,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -19483,7 +19514,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19497,14 +19566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -19513,23 +19574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19543,56 +19589,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19633,6 +19633,17 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -19655,25 +19666,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19685,19 +19750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19709,7 +19762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19727,7 +19780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19745,31 +19816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19781,43 +19828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19829,13 +19840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20013,54 +20024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -20086,153 +20049,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -20372,10 +20383,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21223,7 +21234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G533"/>
   <sheetViews>
@@ -25273,7 +25284,7 @@
     <row r="359" ht="38" customHeight="1" spans="1:6">
       <c r="A359" s="36"/>
       <c r="B359" s="37"/>
-      <c r="C359" s="45" t="s">
+      <c r="C359" s="46" t="s">
         <v>571</v>
       </c>
       <c r="D359" s="13"/>
@@ -25401,7 +25412,7 @@
       <c r="B371" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="C371" s="45" t="s">
+      <c r="C371" s="46" t="s">
         <v>587</v>
       </c>
       <c r="D371" s="13"/>
@@ -27823,7 +27834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
@@ -28266,7 +28277,7 @@
       <c r="B37" s="59" t="s">
         <v>933</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="46" t="s">
         <v>934</v>
       </c>
       <c r="D37" s="56"/>
@@ -30680,7 +30691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F810"/>
   <sheetViews>
@@ -30725,7 +30736,7 @@
       <c r="B2" s="36" t="s">
         <v>1164</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>1165</v>
       </c>
       <c r="D2" s="13"/>
@@ -31169,7 +31180,7 @@
       <c r="B42" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>1226</v>
       </c>
       <c r="D42" s="8"/>
@@ -32437,7 +32448,7 @@
     <row r="156" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A156" s="9"/>
       <c r="B156" s="11"/>
-      <c r="C156" s="45" t="s">
+      <c r="C156" s="46" t="s">
         <v>1404</v>
       </c>
       <c r="D156" s="8"/>
@@ -33229,7 +33240,7 @@
       <c r="B227" s="6" t="s">
         <v>1514</v>
       </c>
-      <c r="C227" s="46" t="s">
+      <c r="C227" s="45" t="s">
         <v>1515</v>
       </c>
       <c r="D227" s="8"/>
@@ -38243,14 +38254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F880"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16:B26"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283:D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -41330,7 +41341,7 @@
       <c r="B274" s="18" t="s">
         <v>2506</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="45" t="s">
         <v>2507</v>
       </c>
       <c r="D274" s="8"/>
@@ -43672,7 +43683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F696"/>
   <sheetViews>
@@ -46738,7 +46749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F721"/>
   <sheetViews>
@@ -50041,7 +50052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F718"/>
   <sheetViews>
@@ -54931,11 +54942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C234" sqref="C234:D234"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16700" activeTab="3"/>
+    <workbookView windowHeight="16700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -4526,7 +4526,7 @@
     <t>政府数据分类</t>
   </si>
   <si>
-    <t xml:space="preserve">juemi </t>
+    <t>绝密</t>
   </si>
   <si>
     <t>“敏感信息”是指任何未公开或分类的信息。</t>
@@ -19340,10 +19340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -19452,9 +19452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19462,7 +19461,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19475,46 +19482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19530,7 +19500,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19544,7 +19552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19552,23 +19560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19582,17 +19574,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19666,7 +19666,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19678,7 +19726,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19690,31 +19804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19726,25 +19822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19756,97 +19846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20000,30 +20000,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -20035,26 +20011,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20074,6 +20030,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -20089,11 +20083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20102,148 +20102,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27838,10 +27838,10 @@
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161:D161"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -27991,7 +27991,7 @@
       <c r="B12" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>891</v>
       </c>
       <c r="D12" s="13"/>
@@ -38258,8 +38258,8 @@
   <sheetPr/>
   <dimension ref="A1:F880"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C283" sqref="C283:D283"/>
     </sheetView>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16700" activeTab="1"/>
+    <workbookView windowHeight="24020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -19340,9 +19340,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -19452,6 +19452,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -19460,18 +19468,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19482,11 +19482,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19503,22 +19526,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19552,6 +19559,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -19560,37 +19590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19666,25 +19666,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19702,13 +19726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19720,7 +19756,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19732,73 +19786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19816,7 +19804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19828,25 +19834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20000,6 +20000,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -20015,6 +20039,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -20026,24 +20074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20067,147 +20097,117 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20216,34 +20216,34 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21239,7 +21239,7 @@
   <dimension ref="A1:G533"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
@@ -27838,8 +27838,8 @@
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -30696,7 +30696,7 @@
   <dimension ref="A1:F810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C141" sqref="C141:D141"/>
     </sheetView>
@@ -38258,10 +38258,10 @@
   <sheetPr/>
   <dimension ref="A1:F880"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283:D283"/>
+      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -46754,7 +46754,7 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C89" sqref="C89:D89"/>
     </sheetView>
@@ -50057,9 +50057,9 @@
   <dimension ref="A1:F718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108:D108"/>
+      <selection pane="bottomLeft" activeCell="B315" sqref="B315:B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>

--- a/笔记/CISSP/CISSP知识点.xlsx
+++ b/笔记/CISSP/CISSP知识点.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24020" activeTab="3"/>
+    <workbookView windowHeight="16820" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="领域1-安全与风险管理" sheetId="1" r:id="rId1"/>
@@ -19452,9 +19452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19467,49 +19467,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19529,53 +19498,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19590,7 +19514,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19666,19 +19666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19690,25 +19690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19720,37 +19726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19768,7 +19744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19780,25 +19786,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19810,37 +19828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20000,16 +20000,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -20018,8 +20018,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20043,7 +20052,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20062,188 +20097,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21239,9 +21239,9 @@
   <dimension ref="A1:G533"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191:A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="6"/>
@@ -27838,10 +27838,10 @@
   <sheetPr/>
   <dimension ref="A1:F837"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -30698,7 +30698,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141:D141"/>
+      <selection pane="bottomLeft" activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -38258,7 +38258,7 @@
   <sheetPr/>
   <dimension ref="A1:F880"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
@@ -43687,8 +43687,8 @@
   <sheetPr/>
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B108"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -46754,9 +46754,9 @@
   <dimension ref="A1:F721"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89:D89"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -50056,10 +50056,10 @@
   <sheetPr/>
   <dimension ref="A1:F718"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B315" sqref="B315:B317"/>
+      <selection pane="bottomLeft" activeCell="A353" sqref="A353:A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.2734375" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
